--- a/optaplanner-training-lab902-solution/data/workerrostering/import/roster-34spots-14days.xlsx
+++ b/optaplanner-training-lab902-solution/data/workerrostering/import/roster-34spots-14days.xlsx
@@ -1408,16 +1408,16 @@
     <t>isReserve</t>
   </si>
   <si>
+    <t>Malay,mSearch</t>
+  </si>
+  <si>
     <t>Malay,fSearch</t>
   </si>
   <si>
-    <t>Malay,mSearch</t>
+    <t>Tamil,mSearch</t>
   </si>
   <si>
     <t>Tamil,fSearch</t>
-  </si>
-  <si>
-    <t>Tamil,mSearch</t>
   </si>
   <si>
     <t>Mandarin,mSearch</t>
@@ -41343,7 +41343,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="C5" t="b">
         <v>0</v>
@@ -41365,7 +41365,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="C7" t="b">
         <v>0</v>
@@ -41387,7 +41387,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="C9" t="b">
         <v>0</v>
@@ -41420,7 +41420,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="C12" t="b">
         <v>0</v>
@@ -41431,7 +41431,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="C13" t="b">
         <v>0</v>
@@ -41442,7 +41442,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="C14" t="b">
         <v>0</v>
@@ -41453,7 +41453,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="C15" t="b">
         <v>0</v>
@@ -41464,7 +41464,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="C16" t="b">
         <v>0</v>
@@ -41475,7 +41475,7 @@
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="C17" t="b">
         <v>0</v>
@@ -41486,7 +41486,7 @@
         <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="C18" t="b">
         <v>0</v>
@@ -41497,7 +41497,7 @@
         <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="C19" t="b">
         <v>0</v>
@@ -41508,7 +41508,7 @@
         <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="C20" t="b">
         <v>0</v>
@@ -41519,7 +41519,7 @@
         <v>19</v>
       </c>
       <c r="B21" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="C21" t="b">
         <v>0</v>
@@ -41563,7 +41563,7 @@
         <v>23</v>
       </c>
       <c r="B25" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="C25" t="b">
         <v>0</v>
@@ -41585,7 +41585,7 @@
         <v>25</v>
       </c>
       <c r="B27" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="C27" t="b">
         <v>0</v>
@@ -41607,7 +41607,7 @@
         <v>27</v>
       </c>
       <c r="B29" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="C29" t="b">
         <v>0</v>
@@ -41651,7 +41651,7 @@
         <v>31</v>
       </c>
       <c r="B33" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="C33" t="b">
         <v>0</v>
@@ -41662,7 +41662,7 @@
         <v>32</v>
       </c>
       <c r="B34" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="C34" t="b">
         <v>0</v>
@@ -41695,7 +41695,7 @@
         <v>35</v>
       </c>
       <c r="B37" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="C37" t="b">
         <v>0</v>
@@ -41717,7 +41717,7 @@
         <v>37</v>
       </c>
       <c r="B39" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="C39" t="b">
         <v>0</v>
@@ -41739,7 +41739,7 @@
         <v>39</v>
       </c>
       <c r="B41" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="C41" t="b">
         <v>0</v>
@@ -41794,7 +41794,7 @@
         <v>44</v>
       </c>
       <c r="B46" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="C46" t="b">
         <v>0</v>
@@ -41805,7 +41805,7 @@
         <v>45</v>
       </c>
       <c r="B47" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="C47" t="b">
         <v>0</v>
@@ -41849,7 +41849,7 @@
         <v>49</v>
       </c>
       <c r="B51" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="C51" t="b">
         <v>0</v>
@@ -41860,7 +41860,7 @@
         <v>50</v>
       </c>
       <c r="B52" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="C52" t="b">
         <v>0</v>
@@ -41937,7 +41937,7 @@
         <v>57</v>
       </c>
       <c r="B59" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="C59" t="b">
         <v>0</v>
@@ -41948,7 +41948,7 @@
         <v>58</v>
       </c>
       <c r="B60" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="C60" t="b">
         <v>0</v>
@@ -41981,7 +41981,7 @@
         <v>61</v>
       </c>
       <c r="B63" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="C63" t="b">
         <v>0</v>
@@ -42014,7 +42014,7 @@
         <v>64</v>
       </c>
       <c r="B66" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="C66" t="b">
         <v>0</v>
@@ -42036,7 +42036,7 @@
         <v>66</v>
       </c>
       <c r="B68" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="C68" t="b">
         <v>0</v>
@@ -42047,7 +42047,7 @@
         <v>67</v>
       </c>
       <c r="B69" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="C69" t="b">
         <v>0</v>
@@ -42080,7 +42080,7 @@
         <v>70</v>
       </c>
       <c r="B72" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="C72" t="b">
         <v>0</v>
@@ -42102,7 +42102,7 @@
         <v>72</v>
       </c>
       <c r="B74" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="C74" t="b">
         <v>0</v>
@@ -42146,7 +42146,7 @@
         <v>76</v>
       </c>
       <c r="B78" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="C78" t="b">
         <v>0</v>
@@ -42168,7 +42168,7 @@
         <v>78</v>
       </c>
       <c r="B80" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="C80" t="b">
         <v>0</v>
@@ -42179,7 +42179,7 @@
         <v>79</v>
       </c>
       <c r="B81" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="C81" t="b">
         <v>0</v>
@@ -42190,7 +42190,7 @@
         <v>80</v>
       </c>
       <c r="B82" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="C82" t="b">
         <v>0</v>
@@ -42201,7 +42201,7 @@
         <v>81</v>
       </c>
       <c r="B83" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="C83" t="b">
         <v>0</v>
@@ -42311,7 +42311,7 @@
         <v>91</v>
       </c>
       <c r="B93" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="C93" t="b">
         <v>0</v>
@@ -42344,7 +42344,7 @@
         <v>94</v>
       </c>
       <c r="B96" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="C96" t="b">
         <v>0</v>
@@ -42366,7 +42366,7 @@
         <v>96</v>
       </c>
       <c r="B98" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="C98" t="b">
         <v>0</v>
@@ -42388,7 +42388,7 @@
         <v>98</v>
       </c>
       <c r="B100" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="C100" t="b">
         <v>0</v>
@@ -42432,7 +42432,7 @@
         <v>102</v>
       </c>
       <c r="B104" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="C104" t="b">
         <v>0</v>
@@ -42443,7 +42443,7 @@
         <v>103</v>
       </c>
       <c r="B105" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="C105" t="b">
         <v>0</v>
@@ -42476,7 +42476,7 @@
         <v>106</v>
       </c>
       <c r="B108" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="C108" t="b">
         <v>0</v>
@@ -42509,7 +42509,7 @@
         <v>109</v>
       </c>
       <c r="B111" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="C111" t="b">
         <v>0</v>
@@ -42542,7 +42542,7 @@
         <v>112</v>
       </c>
       <c r="B114" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="C114" t="b">
         <v>0</v>
@@ -42575,7 +42575,7 @@
         <v>115</v>
       </c>
       <c r="B117" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="C117" t="b">
         <v>0</v>
@@ -42586,7 +42586,7 @@
         <v>116</v>
       </c>
       <c r="B118" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="C118" t="b">
         <v>0</v>
@@ -42630,7 +42630,7 @@
         <v>120</v>
       </c>
       <c r="B122" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="C122" t="b">
         <v>0</v>
@@ -42652,7 +42652,7 @@
         <v>122</v>
       </c>
       <c r="B124" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="C124" t="b">
         <v>0</v>
@@ -42663,7 +42663,7 @@
         <v>123</v>
       </c>
       <c r="B125" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="C125" t="b">
         <v>0</v>
@@ -42707,7 +42707,7 @@
         <v>127</v>
       </c>
       <c r="B129" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="C129" t="b">
         <v>0</v>
@@ -42718,7 +42718,7 @@
         <v>128</v>
       </c>
       <c r="B130" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="C130" t="b">
         <v>0</v>
@@ -42751,7 +42751,7 @@
         <v>131</v>
       </c>
       <c r="B133" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="C133" t="b">
         <v>0</v>
@@ -42773,7 +42773,7 @@
         <v>133</v>
       </c>
       <c r="B135" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="C135" t="b">
         <v>0</v>
@@ -42795,7 +42795,7 @@
         <v>135</v>
       </c>
       <c r="B137" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="C137" t="b">
         <v>0</v>
@@ -42817,7 +42817,7 @@
         <v>137</v>
       </c>
       <c r="B139" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="C139" t="b">
         <v>1</v>
@@ -42828,7 +42828,7 @@
         <v>138</v>
       </c>
       <c r="B140" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="C140" t="b">
         <v>1</v>
@@ -42839,7 +42839,7 @@
         <v>139</v>
       </c>
       <c r="B141" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="C141" t="b">
         <v>1</v>
@@ -42872,7 +42872,7 @@
         <v>142</v>
       </c>
       <c r="B144" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="C144" t="b">
         <v>1</v>
@@ -42883,7 +42883,7 @@
         <v>143</v>
       </c>
       <c r="B145" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="C145" t="b">
         <v>1</v>
@@ -42894,7 +42894,7 @@
         <v>144</v>
       </c>
       <c r="B146" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="C146" t="b">
         <v>1</v>
@@ -42905,7 +42905,7 @@
         <v>145</v>
       </c>
       <c r="B147" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="C147" t="b">
         <v>1</v>
@@ -42916,7 +42916,7 @@
         <v>146</v>
       </c>
       <c r="B148" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="C148" t="b">
         <v>1</v>
@@ -42938,7 +42938,7 @@
         <v>148</v>
       </c>
       <c r="B150" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="C150" t="b">
         <v>1</v>
@@ -42949,7 +42949,7 @@
         <v>149</v>
       </c>
       <c r="B151" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="C151" t="b">
         <v>1</v>
@@ -42971,7 +42971,7 @@
         <v>151</v>
       </c>
       <c r="B153" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="C153" t="b">
         <v>1</v>
@@ -42982,7 +42982,7 @@
         <v>152</v>
       </c>
       <c r="B154" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="C154" t="b">
         <v>1</v>
@@ -43004,7 +43004,7 @@
         <v>154</v>
       </c>
       <c r="B156" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="C156" t="b">
         <v>1</v>
@@ -43026,7 +43026,7 @@
         <v>156</v>
       </c>
       <c r="B158" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="C158" t="b">
         <v>1</v>
@@ -43037,7 +43037,7 @@
         <v>157</v>
       </c>
       <c r="B159" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="C159" t="b">
         <v>1</v>
@@ -43048,7 +43048,7 @@
         <v>158</v>
       </c>
       <c r="B160" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="C160" t="b">
         <v>1</v>
@@ -43059,7 +43059,7 @@
         <v>159</v>
       </c>
       <c r="B161" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="C161" t="b">
         <v>1</v>
@@ -43081,7 +43081,7 @@
         <v>161</v>
       </c>
       <c r="B163" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="C163" t="b">
         <v>1</v>
@@ -43103,7 +43103,7 @@
         <v>163</v>
       </c>
       <c r="B165" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="C165" t="b">
         <v>1</v>
@@ -43114,7 +43114,7 @@
         <v>164</v>
       </c>
       <c r="B166" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="C166" t="b">
         <v>1</v>
@@ -43158,7 +43158,7 @@
         <v>168</v>
       </c>
       <c r="B170" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="C170" t="b">
         <v>1</v>
@@ -43169,7 +43169,7 @@
         <v>169</v>
       </c>
       <c r="B171" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="C171" t="b">
         <v>1</v>
@@ -43191,7 +43191,7 @@
         <v>171</v>
       </c>
       <c r="B173" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="C173" t="b">
         <v>1</v>
@@ -43213,7 +43213,7 @@
         <v>173</v>
       </c>
       <c r="B175" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="C175" t="b">
         <v>1</v>
@@ -43235,7 +43235,7 @@
         <v>175</v>
       </c>
       <c r="B177" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="C177" t="b">
         <v>1</v>
@@ -43246,7 +43246,7 @@
         <v>176</v>
       </c>
       <c r="B178" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="C178" t="b">
         <v>1</v>
@@ -43257,7 +43257,7 @@
         <v>177</v>
       </c>
       <c r="B179" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="C179" t="b">
         <v>1</v>
@@ -43268,7 +43268,7 @@
         <v>178</v>
       </c>
       <c r="B180" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="C180" t="b">
         <v>1</v>
@@ -43290,7 +43290,7 @@
         <v>180</v>
       </c>
       <c r="B182" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="C182" t="b">
         <v>1</v>
@@ -43356,7 +43356,7 @@
         <v>186</v>
       </c>
       <c r="B188" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="C188" t="b">
         <v>1</v>
@@ -43367,7 +43367,7 @@
         <v>187</v>
       </c>
       <c r="B189" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="C189" t="b">
         <v>1</v>
@@ -43389,7 +43389,7 @@
         <v>189</v>
       </c>
       <c r="B191" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="C191" t="b">
         <v>1</v>
@@ -43411,7 +43411,7 @@
         <v>191</v>
       </c>
       <c r="B193" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="C193" t="b">
         <v>1</v>
@@ -43422,7 +43422,7 @@
         <v>192</v>
       </c>
       <c r="B194" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="C194" t="b">
         <v>1</v>
@@ -43433,7 +43433,7 @@
         <v>193</v>
       </c>
       <c r="B195" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="C195" t="b">
         <v>1</v>
@@ -43455,7 +43455,7 @@
         <v>195</v>
       </c>
       <c r="B197" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="C197" t="b">
         <v>1</v>
@@ -43477,7 +43477,7 @@
         <v>197</v>
       </c>
       <c r="B199" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="C199" t="b">
         <v>1</v>
@@ -43488,7 +43488,7 @@
         <v>198</v>
       </c>
       <c r="B200" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="C200" t="b">
         <v>1</v>
@@ -43510,7 +43510,7 @@
         <v>200</v>
       </c>
       <c r="B202" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="C202" t="b">
         <v>1</v>
@@ -43532,7 +43532,7 @@
         <v>202</v>
       </c>
       <c r="B204" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="C204" t="b">
         <v>1</v>
@@ -43565,7 +43565,7 @@
         <v>205</v>
       </c>
       <c r="B207" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="C207" t="b">
         <v>1</v>
@@ -43598,7 +43598,7 @@
         <v>208</v>
       </c>
       <c r="B210" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="C210" t="b">
         <v>1</v>
@@ -43697,7 +43697,7 @@
         <v>217</v>
       </c>
       <c r="B219" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="C219" t="b">
         <v>1</v>
@@ -43719,7 +43719,7 @@
         <v>219</v>
       </c>
       <c r="B221" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="C221" t="b">
         <v>1</v>
@@ -43741,7 +43741,7 @@
         <v>221</v>
       </c>
       <c r="B223" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="C223" t="b">
         <v>1</v>
@@ -43785,7 +43785,7 @@
         <v>225</v>
       </c>
       <c r="B227" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="C227" t="b">
         <v>1</v>
@@ -43807,7 +43807,7 @@
         <v>227</v>
       </c>
       <c r="B229" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="C229" t="b">
         <v>1</v>
@@ -43818,7 +43818,7 @@
         <v>228</v>
       </c>
       <c r="B230" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="C230" t="b">
         <v>1</v>
@@ -43884,7 +43884,7 @@
         <v>234</v>
       </c>
       <c r="B236" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="C236" t="b">
         <v>1</v>
@@ -43895,7 +43895,7 @@
         <v>235</v>
       </c>
       <c r="B237" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="C237" t="b">
         <v>1</v>
@@ -43906,7 +43906,7 @@
         <v>236</v>
       </c>
       <c r="B238" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="C238" t="b">
         <v>1</v>
@@ -43917,7 +43917,7 @@
         <v>237</v>
       </c>
       <c r="B239" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="C239" t="b">
         <v>1</v>
@@ -43928,7 +43928,7 @@
         <v>238</v>
       </c>
       <c r="B240" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="C240" t="b">
         <v>1</v>
@@ -43939,7 +43939,7 @@
         <v>239</v>
       </c>
       <c r="B241" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="C241" t="b">
         <v>1</v>
@@ -43950,7 +43950,7 @@
         <v>240</v>
       </c>
       <c r="B242" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="C242" t="b">
         <v>1</v>
@@ -44060,7 +44060,7 @@
         <v>250</v>
       </c>
       <c r="B252" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="C252" t="b">
         <v>1</v>
@@ -44082,7 +44082,7 @@
         <v>252</v>
       </c>
       <c r="B254" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="C254" t="b">
         <v>1</v>
@@ -44093,7 +44093,7 @@
         <v>253</v>
       </c>
       <c r="B255" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="C255" t="b">
         <v>1</v>
@@ -44137,7 +44137,7 @@
         <v>257</v>
       </c>
       <c r="B259" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="C259" t="b">
         <v>1</v>
@@ -44225,7 +44225,7 @@
         <v>265</v>
       </c>
       <c r="B267" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="C267" t="b">
         <v>1</v>
@@ -44236,7 +44236,7 @@
         <v>266</v>
       </c>
       <c r="B268" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="C268" t="b">
         <v>1</v>
@@ -44247,7 +44247,7 @@
         <v>267</v>
       </c>
       <c r="B269" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="C269" t="b">
         <v>1</v>
@@ -44258,7 +44258,7 @@
         <v>268</v>
       </c>
       <c r="B270" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="C270" t="b">
         <v>1</v>
@@ -44280,7 +44280,7 @@
         <v>270</v>
       </c>
       <c r="B272" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="C272" t="b">
         <v>1</v>
@@ -44302,7 +44302,7 @@
         <v>272</v>
       </c>
       <c r="B274" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="C274" t="b">
         <v>1</v>
@@ -44313,7 +44313,7 @@
         <v>273</v>
       </c>
       <c r="B275" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="C275" t="b">
         <v>1</v>
@@ -44335,7 +44335,7 @@
         <v>275</v>
       </c>
       <c r="B277" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="C277" t="b">
         <v>1</v>
@@ -44357,7 +44357,7 @@
         <v>277</v>
       </c>
       <c r="B279" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="C279" t="b">
         <v>1</v>
@@ -44379,7 +44379,7 @@
         <v>279</v>
       </c>
       <c r="B281" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="C281" t="b">
         <v>1</v>
@@ -44401,7 +44401,7 @@
         <v>281</v>
       </c>
       <c r="B283" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="C283" t="b">
         <v>1</v>
@@ -44412,7 +44412,7 @@
         <v>282</v>
       </c>
       <c r="B284" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="C284" t="b">
         <v>1</v>
@@ -44456,7 +44456,7 @@
         <v>286</v>
       </c>
       <c r="B288" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="C288" t="b">
         <v>1</v>
@@ -44467,7 +44467,7 @@
         <v>287</v>
       </c>
       <c r="B289" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="C289" t="b">
         <v>1</v>
@@ -44478,7 +44478,7 @@
         <v>288</v>
       </c>
       <c r="B290" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="C290" t="b">
         <v>1</v>
@@ -44500,7 +44500,7 @@
         <v>290</v>
       </c>
       <c r="B292" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="C292" t="b">
         <v>1</v>
@@ -44522,7 +44522,7 @@
         <v>292</v>
       </c>
       <c r="B294" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="C294" t="b">
         <v>1</v>
@@ -44544,7 +44544,7 @@
         <v>294</v>
       </c>
       <c r="B296" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="C296" t="b">
         <v>1</v>
@@ -44577,7 +44577,7 @@
         <v>297</v>
       </c>
       <c r="B299" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="C299" t="b">
         <v>1</v>
@@ -44610,7 +44610,7 @@
         <v>300</v>
       </c>
       <c r="B302" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="C302" t="b">
         <v>1</v>
@@ -44632,7 +44632,7 @@
         <v>302</v>
       </c>
       <c r="B304" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="C304" t="b">
         <v>1</v>
@@ -44665,7 +44665,7 @@
         <v>305</v>
       </c>
       <c r="B307" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="C307" t="b">
         <v>1</v>
@@ -44676,7 +44676,7 @@
         <v>306</v>
       </c>
       <c r="B308" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="C308" t="b">
         <v>1</v>
@@ -44687,7 +44687,7 @@
         <v>307</v>
       </c>
       <c r="B309" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="C309" t="b">
         <v>1</v>
@@ -44709,7 +44709,7 @@
         <v>309</v>
       </c>
       <c r="B311" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="C311" t="b">
         <v>1</v>
@@ -44720,7 +44720,7 @@
         <v>310</v>
       </c>
       <c r="B312" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="C312" t="b">
         <v>1</v>
@@ -44731,7 +44731,7 @@
         <v>311</v>
       </c>
       <c r="B313" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="C313" t="b">
         <v>1</v>
@@ -44742,7 +44742,7 @@
         <v>312</v>
       </c>
       <c r="B314" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="C314" t="b">
         <v>1</v>
@@ -44764,7 +44764,7 @@
         <v>314</v>
       </c>
       <c r="B316" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="C316" t="b">
         <v>1</v>
@@ -44775,7 +44775,7 @@
         <v>315</v>
       </c>
       <c r="B317" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="C317" t="b">
         <v>1</v>
@@ -44808,7 +44808,7 @@
         <v>318</v>
       </c>
       <c r="B320" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="C320" t="b">
         <v>1</v>
@@ -44907,7 +44907,7 @@
         <v>327</v>
       </c>
       <c r="B329" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="C329" t="b">
         <v>1</v>
@@ -44918,7 +44918,7 @@
         <v>328</v>
       </c>
       <c r="B330" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="C330" t="b">
         <v>1</v>
@@ -44973,7 +44973,7 @@
         <v>333</v>
       </c>
       <c r="B335" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="C335" t="b">
         <v>1</v>
@@ -45006,7 +45006,7 @@
         <v>336</v>
       </c>
       <c r="B338" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="C338" t="b">
         <v>1</v>
@@ -45028,7 +45028,7 @@
         <v>338</v>
       </c>
       <c r="B340" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="C340" t="b">
         <v>1</v>
@@ -45050,7 +45050,7 @@
         <v>340</v>
       </c>
       <c r="B342" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="C342" t="b">
         <v>1</v>
@@ -45061,7 +45061,7 @@
         <v>341</v>
       </c>
       <c r="B343" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="C343" t="b">
         <v>1</v>
@@ -45127,7 +45127,7 @@
         <v>347</v>
       </c>
       <c r="B349" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="C349" t="b">
         <v>1</v>
@@ -45171,7 +45171,7 @@
         <v>351</v>
       </c>
       <c r="B353" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="C353" t="b">
         <v>1</v>
@@ -45204,7 +45204,7 @@
         <v>354</v>
       </c>
       <c r="B356" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="C356" t="b">
         <v>1</v>
@@ -45226,7 +45226,7 @@
         <v>356</v>
       </c>
       <c r="B358" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="C358" t="b">
         <v>1</v>
@@ -45259,7 +45259,7 @@
         <v>359</v>
       </c>
       <c r="B361" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="C361" t="b">
         <v>1</v>
@@ -45292,7 +45292,7 @@
         <v>362</v>
       </c>
       <c r="B364" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="C364" t="b">
         <v>1</v>
@@ -45303,7 +45303,7 @@
         <v>363</v>
       </c>
       <c r="B365" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="C365" t="b">
         <v>1</v>
@@ -45314,7 +45314,7 @@
         <v>364</v>
       </c>
       <c r="B366" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="C366" t="b">
         <v>1</v>
@@ -45325,7 +45325,7 @@
         <v>365</v>
       </c>
       <c r="B367" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="C367" t="b">
         <v>1</v>
@@ -45336,7 +45336,7 @@
         <v>366</v>
       </c>
       <c r="B368" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="C368" t="b">
         <v>1</v>
@@ -45358,7 +45358,7 @@
         <v>368</v>
       </c>
       <c r="B370" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="C370" t="b">
         <v>1</v>
@@ -45380,7 +45380,7 @@
         <v>370</v>
       </c>
       <c r="B372" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="C372" t="b">
         <v>1</v>
@@ -45391,7 +45391,7 @@
         <v>371</v>
       </c>
       <c r="B373" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="C373" t="b">
         <v>1</v>
@@ -45402,7 +45402,7 @@
         <v>372</v>
       </c>
       <c r="B374" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="C374" t="b">
         <v>1</v>
@@ -45413,7 +45413,7 @@
         <v>373</v>
       </c>
       <c r="B375" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="C375" t="b">
         <v>1</v>
@@ -45446,7 +45446,7 @@
         <v>376</v>
       </c>
       <c r="B378" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="C378" t="b">
         <v>1</v>
@@ -45512,7 +45512,7 @@
         <v>382</v>
       </c>
       <c r="B384" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="C384" t="b">
         <v>1</v>
@@ -45556,7 +45556,7 @@
         <v>386</v>
       </c>
       <c r="B388" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="C388" t="b">
         <v>1</v>
@@ -45567,7 +45567,7 @@
         <v>387</v>
       </c>
       <c r="B389" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="C389" t="b">
         <v>1</v>
@@ -45600,7 +45600,7 @@
         <v>390</v>
       </c>
       <c r="B392" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="C392" t="b">
         <v>1</v>
@@ -45611,7 +45611,7 @@
         <v>391</v>
       </c>
       <c r="B393" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="C393" t="b">
         <v>1</v>
@@ -45622,7 +45622,7 @@
         <v>392</v>
       </c>
       <c r="B394" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="C394" t="b">
         <v>1</v>
@@ -45666,7 +45666,7 @@
         <v>396</v>
       </c>
       <c r="B398" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="C398" t="b">
         <v>1</v>
@@ -45677,7 +45677,7 @@
         <v>397</v>
       </c>
       <c r="B399" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="C399" t="b">
         <v>1</v>
@@ -45688,7 +45688,7 @@
         <v>398</v>
       </c>
       <c r="B400" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="C400" t="b">
         <v>1</v>
@@ -45743,7 +45743,7 @@
         <v>403</v>
       </c>
       <c r="B405" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="C405" t="b">
         <v>1</v>
@@ -45787,7 +45787,7 @@
         <v>407</v>
       </c>
       <c r="B409" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="C409" t="b">
         <v>1</v>

--- a/optaplanner-training-lab902-solution/data/workerrostering/import/roster-34spots-14days.xlsx
+++ b/optaplanner-training-lab902-solution/data/workerrostering/import/roster-34spots-14days.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13887" uniqueCount="509">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14296" uniqueCount="512">
   <si>
     <t>Name</t>
   </si>
@@ -1408,16 +1408,25 @@
     <t>isReserve</t>
   </si>
   <si>
+    <t>shiftType</t>
+  </si>
+  <si>
+    <t>Malay,mSearch</t>
+  </si>
+  <si>
+    <t>Night</t>
+  </si>
+  <si>
     <t>Malay,fSearch</t>
   </si>
   <si>
-    <t>Malay,mSearch</t>
+    <t>Morning</t>
+  </si>
+  <si>
+    <t>Tamil,mSearch</t>
   </si>
   <si>
     <t>Tamil,fSearch</t>
-  </si>
-  <si>
-    <t>Tamil,mSearch</t>
   </si>
   <si>
     <t>Mandarin,mSearch</t>
@@ -41315,16 +41324,22 @@
       <c r="C2" t="s" s="1">
         <v>462</v>
       </c>
+      <c r="D2" t="s" s="1">
+        <v>463</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="C3" t="b">
         <v>0</v>
+      </c>
+      <c r="D3" t="s">
+        <v>465</v>
       </c>
     </row>
     <row r="4">
@@ -41332,10 +41347,13 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>464</v>
+        <v>466</v>
       </c>
       <c r="C4" t="b">
         <v>0</v>
+      </c>
+      <c r="D4" t="s">
+        <v>467</v>
       </c>
     </row>
     <row r="5">
@@ -41348,16 +41366,22 @@
       <c r="C5" t="b">
         <v>0</v>
       </c>
+      <c r="D5" t="s">
+        <v>465</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="C6" t="b">
         <v>0</v>
+      </c>
+      <c r="D6" t="s">
+        <v>467</v>
       </c>
     </row>
     <row r="7">
@@ -41365,10 +41389,13 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="C7" t="b">
         <v>0</v>
+      </c>
+      <c r="D7" t="s">
+        <v>467</v>
       </c>
     </row>
     <row r="8">
@@ -41376,10 +41403,13 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="C8" t="b">
         <v>0</v>
+      </c>
+      <c r="D8" t="s">
+        <v>465</v>
       </c>
     </row>
     <row r="9">
@@ -41387,10 +41417,13 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>464</v>
+        <v>466</v>
       </c>
       <c r="C9" t="b">
         <v>0</v>
+      </c>
+      <c r="D9" t="s">
+        <v>465</v>
       </c>
     </row>
     <row r="10">
@@ -41403,16 +41436,22 @@
       <c r="C10" t="b">
         <v>0</v>
       </c>
+      <c r="D10" t="s">
+        <v>467</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>464</v>
+        <v>466</v>
       </c>
       <c r="C11" t="b">
         <v>0</v>
+      </c>
+      <c r="D11" t="s">
+        <v>467</v>
       </c>
     </row>
     <row r="12">
@@ -41425,16 +41464,22 @@
       <c r="C12" t="b">
         <v>0</v>
       </c>
+      <c r="D12" t="s">
+        <v>467</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>464</v>
+        <v>466</v>
       </c>
       <c r="C13" t="b">
         <v>0</v>
+      </c>
+      <c r="D13" t="s">
+        <v>465</v>
       </c>
     </row>
     <row r="14">
@@ -41447,16 +41492,22 @@
       <c r="C14" t="b">
         <v>0</v>
       </c>
+      <c r="D14" t="s">
+        <v>465</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="C15" t="b">
         <v>0</v>
+      </c>
+      <c r="D15" t="s">
+        <v>467</v>
       </c>
     </row>
     <row r="16">
@@ -41464,10 +41515,13 @@
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>464</v>
+        <v>466</v>
       </c>
       <c r="C16" t="b">
         <v>0</v>
+      </c>
+      <c r="D16" t="s">
+        <v>467</v>
       </c>
     </row>
     <row r="17">
@@ -41475,10 +41529,13 @@
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>464</v>
+        <v>466</v>
       </c>
       <c r="C17" t="b">
         <v>0</v>
+      </c>
+      <c r="D17" t="s">
+        <v>467</v>
       </c>
     </row>
     <row r="18">
@@ -41491,6 +41548,9 @@
       <c r="C18" t="b">
         <v>0</v>
       </c>
+      <c r="D18" t="s">
+        <v>465</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
@@ -41502,6 +41562,9 @@
       <c r="C19" t="b">
         <v>0</v>
       </c>
+      <c r="D19" t="s">
+        <v>467</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
@@ -41513,6 +41576,9 @@
       <c r="C20" t="b">
         <v>0</v>
       </c>
+      <c r="D20" t="s">
+        <v>467</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
@@ -41524,16 +41590,22 @@
       <c r="C21" t="b">
         <v>0</v>
       </c>
+      <c r="D21" t="s">
+        <v>465</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
         <v>20</v>
       </c>
       <c r="B22" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="C22" t="b">
         <v>0</v>
+      </c>
+      <c r="D22" t="s">
+        <v>465</v>
       </c>
     </row>
     <row r="23">
@@ -41541,10 +41613,13 @@
         <v>21</v>
       </c>
       <c r="B23" t="s">
-        <v>465</v>
+        <v>468</v>
       </c>
       <c r="C23" t="b">
         <v>0</v>
+      </c>
+      <c r="D23" t="s">
+        <v>465</v>
       </c>
     </row>
     <row r="24">
@@ -41552,10 +41627,13 @@
         <v>22</v>
       </c>
       <c r="B24" t="s">
-        <v>466</v>
+        <v>469</v>
       </c>
       <c r="C24" t="b">
         <v>0</v>
+      </c>
+      <c r="D24" t="s">
+        <v>467</v>
       </c>
     </row>
     <row r="25">
@@ -41563,10 +41641,13 @@
         <v>23</v>
       </c>
       <c r="B25" t="s">
-        <v>466</v>
+        <v>469</v>
       </c>
       <c r="C25" t="b">
         <v>0</v>
+      </c>
+      <c r="D25" t="s">
+        <v>467</v>
       </c>
     </row>
     <row r="26">
@@ -41574,10 +41655,13 @@
         <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>466</v>
+        <v>468</v>
       </c>
       <c r="C26" t="b">
         <v>0</v>
+      </c>
+      <c r="D26" t="s">
+        <v>465</v>
       </c>
     </row>
     <row r="27">
@@ -41585,10 +41669,13 @@
         <v>25</v>
       </c>
       <c r="B27" t="s">
-        <v>466</v>
+        <v>468</v>
       </c>
       <c r="C27" t="b">
         <v>0</v>
+      </c>
+      <c r="D27" t="s">
+        <v>467</v>
       </c>
     </row>
     <row r="28">
@@ -41596,10 +41683,13 @@
         <v>26</v>
       </c>
       <c r="B28" t="s">
-        <v>466</v>
+        <v>468</v>
       </c>
       <c r="C28" t="b">
         <v>0</v>
+      </c>
+      <c r="D28" t="s">
+        <v>467</v>
       </c>
     </row>
     <row r="29">
@@ -41607,10 +41697,13 @@
         <v>27</v>
       </c>
       <c r="B29" t="s">
-        <v>465</v>
+        <v>468</v>
       </c>
       <c r="C29" t="b">
         <v>0</v>
+      </c>
+      <c r="D29" t="s">
+        <v>465</v>
       </c>
     </row>
     <row r="30">
@@ -41618,10 +41711,13 @@
         <v>28</v>
       </c>
       <c r="B30" t="s">
-        <v>466</v>
+        <v>468</v>
       </c>
       <c r="C30" t="b">
         <v>0</v>
+      </c>
+      <c r="D30" t="s">
+        <v>465</v>
       </c>
     </row>
     <row r="31">
@@ -41629,10 +41725,13 @@
         <v>29</v>
       </c>
       <c r="B31" t="s">
-        <v>465</v>
+        <v>468</v>
       </c>
       <c r="C31" t="b">
         <v>0</v>
+      </c>
+      <c r="D31" t="s">
+        <v>467</v>
       </c>
     </row>
     <row r="32">
@@ -41640,10 +41739,13 @@
         <v>30</v>
       </c>
       <c r="B32" t="s">
-        <v>466</v>
+        <v>468</v>
       </c>
       <c r="C32" t="b">
         <v>0</v>
+      </c>
+      <c r="D32" t="s">
+        <v>465</v>
       </c>
     </row>
     <row r="33">
@@ -41651,10 +41753,13 @@
         <v>31</v>
       </c>
       <c r="B33" t="s">
-        <v>466</v>
+        <v>469</v>
       </c>
       <c r="C33" t="b">
         <v>0</v>
+      </c>
+      <c r="D33" t="s">
+        <v>467</v>
       </c>
     </row>
     <row r="34">
@@ -41662,10 +41767,13 @@
         <v>32</v>
       </c>
       <c r="B34" t="s">
-        <v>466</v>
+        <v>468</v>
       </c>
       <c r="C34" t="b">
         <v>0</v>
+      </c>
+      <c r="D34" t="s">
+        <v>465</v>
       </c>
     </row>
     <row r="35">
@@ -41673,10 +41781,13 @@
         <v>33</v>
       </c>
       <c r="B35" t="s">
-        <v>467</v>
+        <v>470</v>
       </c>
       <c r="C35" t="b">
         <v>0</v>
+      </c>
+      <c r="D35" t="s">
+        <v>467</v>
       </c>
     </row>
     <row r="36">
@@ -41684,10 +41795,13 @@
         <v>34</v>
       </c>
       <c r="B36" t="s">
-        <v>467</v>
+        <v>470</v>
       </c>
       <c r="C36" t="b">
         <v>0</v>
+      </c>
+      <c r="D36" t="s">
+        <v>465</v>
       </c>
     </row>
     <row r="37">
@@ -41695,10 +41809,13 @@
         <v>35</v>
       </c>
       <c r="B37" t="s">
-        <v>468</v>
+        <v>471</v>
       </c>
       <c r="C37" t="b">
         <v>0</v>
+      </c>
+      <c r="D37" t="s">
+        <v>467</v>
       </c>
     </row>
     <row r="38">
@@ -41706,10 +41823,13 @@
         <v>36</v>
       </c>
       <c r="B38" t="s">
-        <v>467</v>
+        <v>470</v>
       </c>
       <c r="C38" t="b">
         <v>0</v>
+      </c>
+      <c r="D38" t="s">
+        <v>465</v>
       </c>
     </row>
     <row r="39">
@@ -41717,10 +41837,13 @@
         <v>37</v>
       </c>
       <c r="B39" t="s">
-        <v>467</v>
+        <v>470</v>
       </c>
       <c r="C39" t="b">
         <v>0</v>
+      </c>
+      <c r="D39" t="s">
+        <v>467</v>
       </c>
     </row>
     <row r="40">
@@ -41728,10 +41851,13 @@
         <v>38</v>
       </c>
       <c r="B40" t="s">
-        <v>467</v>
+        <v>470</v>
       </c>
       <c r="C40" t="b">
         <v>0</v>
+      </c>
+      <c r="D40" t="s">
+        <v>467</v>
       </c>
     </row>
     <row r="41">
@@ -41739,10 +41865,13 @@
         <v>39</v>
       </c>
       <c r="B41" t="s">
-        <v>467</v>
+        <v>471</v>
       </c>
       <c r="C41" t="b">
         <v>0</v>
+      </c>
+      <c r="D41" t="s">
+        <v>467</v>
       </c>
     </row>
     <row r="42">
@@ -41750,10 +41879,13 @@
         <v>40</v>
       </c>
       <c r="B42" t="s">
-        <v>468</v>
+        <v>471</v>
       </c>
       <c r="C42" t="b">
         <v>0</v>
+      </c>
+      <c r="D42" t="s">
+        <v>467</v>
       </c>
     </row>
     <row r="43">
@@ -41761,10 +41893,13 @@
         <v>41</v>
       </c>
       <c r="B43" t="s">
-        <v>467</v>
+        <v>471</v>
       </c>
       <c r="C43" t="b">
         <v>0</v>
+      </c>
+      <c r="D43" t="s">
+        <v>467</v>
       </c>
     </row>
     <row r="44">
@@ -41772,10 +41907,13 @@
         <v>42</v>
       </c>
       <c r="B44" t="s">
-        <v>467</v>
+        <v>470</v>
       </c>
       <c r="C44" t="b">
         <v>0</v>
+      </c>
+      <c r="D44" t="s">
+        <v>465</v>
       </c>
     </row>
     <row r="45">
@@ -41783,10 +41921,13 @@
         <v>43</v>
       </c>
       <c r="B45" t="s">
-        <v>467</v>
+        <v>470</v>
       </c>
       <c r="C45" t="b">
         <v>0</v>
+      </c>
+      <c r="D45" t="s">
+        <v>465</v>
       </c>
     </row>
     <row r="46">
@@ -41794,10 +41935,13 @@
         <v>44</v>
       </c>
       <c r="B46" t="s">
-        <v>468</v>
+        <v>470</v>
       </c>
       <c r="C46" t="b">
         <v>0</v>
+      </c>
+      <c r="D46" t="s">
+        <v>465</v>
       </c>
     </row>
     <row r="47">
@@ -41805,10 +41949,13 @@
         <v>45</v>
       </c>
       <c r="B47" t="s">
-        <v>467</v>
+        <v>471</v>
       </c>
       <c r="C47" t="b">
         <v>0</v>
+      </c>
+      <c r="D47" t="s">
+        <v>465</v>
       </c>
     </row>
     <row r="48">
@@ -41816,10 +41963,13 @@
         <v>46</v>
       </c>
       <c r="B48" t="s">
-        <v>467</v>
+        <v>471</v>
       </c>
       <c r="C48" t="b">
         <v>0</v>
+      </c>
+      <c r="D48" t="s">
+        <v>465</v>
       </c>
     </row>
     <row r="49">
@@ -41827,10 +41977,13 @@
         <v>47</v>
       </c>
       <c r="B49" t="s">
-        <v>467</v>
+        <v>470</v>
       </c>
       <c r="C49" t="b">
         <v>0</v>
+      </c>
+      <c r="D49" t="s">
+        <v>465</v>
       </c>
     </row>
     <row r="50">
@@ -41838,10 +41991,13 @@
         <v>48</v>
       </c>
       <c r="B50" t="s">
-        <v>467</v>
+        <v>471</v>
       </c>
       <c r="C50" t="b">
         <v>0</v>
+      </c>
+      <c r="D50" t="s">
+        <v>465</v>
       </c>
     </row>
     <row r="51">
@@ -41849,10 +42005,13 @@
         <v>49</v>
       </c>
       <c r="B51" t="s">
-        <v>468</v>
+        <v>470</v>
       </c>
       <c r="C51" t="b">
         <v>0</v>
+      </c>
+      <c r="D51" t="s">
+        <v>465</v>
       </c>
     </row>
     <row r="52">
@@ -41860,10 +42019,13 @@
         <v>50</v>
       </c>
       <c r="B52" t="s">
-        <v>467</v>
+        <v>471</v>
       </c>
       <c r="C52" t="b">
         <v>0</v>
+      </c>
+      <c r="D52" t="s">
+        <v>465</v>
       </c>
     </row>
     <row r="53">
@@ -41871,10 +42033,13 @@
         <v>51</v>
       </c>
       <c r="B53" t="s">
-        <v>468</v>
+        <v>470</v>
       </c>
       <c r="C53" t="b">
         <v>0</v>
+      </c>
+      <c r="D53" t="s">
+        <v>465</v>
       </c>
     </row>
     <row r="54">
@@ -41882,10 +42047,13 @@
         <v>52</v>
       </c>
       <c r="B54" t="s">
-        <v>467</v>
+        <v>471</v>
       </c>
       <c r="C54" t="b">
         <v>0</v>
+      </c>
+      <c r="D54" t="s">
+        <v>467</v>
       </c>
     </row>
     <row r="55">
@@ -41893,10 +42061,13 @@
         <v>53</v>
       </c>
       <c r="B55" t="s">
-        <v>467</v>
+        <v>470</v>
       </c>
       <c r="C55" t="b">
         <v>0</v>
+      </c>
+      <c r="D55" t="s">
+        <v>467</v>
       </c>
     </row>
     <row r="56">
@@ -41904,10 +42075,13 @@
         <v>54</v>
       </c>
       <c r="B56" t="s">
-        <v>468</v>
+        <v>470</v>
       </c>
       <c r="C56" t="b">
         <v>0</v>
+      </c>
+      <c r="D56" t="s">
+        <v>465</v>
       </c>
     </row>
     <row r="57">
@@ -41915,10 +42089,13 @@
         <v>55</v>
       </c>
       <c r="B57" t="s">
-        <v>467</v>
+        <v>470</v>
       </c>
       <c r="C57" t="b">
         <v>0</v>
+      </c>
+      <c r="D57" t="s">
+        <v>467</v>
       </c>
     </row>
     <row r="58">
@@ -41926,10 +42103,13 @@
         <v>56</v>
       </c>
       <c r="B58" t="s">
-        <v>467</v>
+        <v>470</v>
       </c>
       <c r="C58" t="b">
         <v>0</v>
+      </c>
+      <c r="D58" t="s">
+        <v>465</v>
       </c>
     </row>
     <row r="59">
@@ -41937,10 +42117,13 @@
         <v>57</v>
       </c>
       <c r="B59" t="s">
-        <v>467</v>
+        <v>470</v>
       </c>
       <c r="C59" t="b">
         <v>0</v>
+      </c>
+      <c r="D59" t="s">
+        <v>467</v>
       </c>
     </row>
     <row r="60">
@@ -41948,10 +42131,13 @@
         <v>58</v>
       </c>
       <c r="B60" t="s">
-        <v>467</v>
+        <v>470</v>
       </c>
       <c r="C60" t="b">
         <v>0</v>
+      </c>
+      <c r="D60" t="s">
+        <v>465</v>
       </c>
     </row>
     <row r="61">
@@ -41959,10 +42145,13 @@
         <v>59</v>
       </c>
       <c r="B61" t="s">
-        <v>467</v>
+        <v>470</v>
       </c>
       <c r="C61" t="b">
         <v>0</v>
+      </c>
+      <c r="D61" t="s">
+        <v>467</v>
       </c>
     </row>
     <row r="62">
@@ -41970,10 +42159,13 @@
         <v>60</v>
       </c>
       <c r="B62" t="s">
-        <v>467</v>
+        <v>471</v>
       </c>
       <c r="C62" t="b">
         <v>0</v>
+      </c>
+      <c r="D62" t="s">
+        <v>465</v>
       </c>
     </row>
     <row r="63">
@@ -41981,10 +42173,13 @@
         <v>61</v>
       </c>
       <c r="B63" t="s">
-        <v>467</v>
+        <v>471</v>
       </c>
       <c r="C63" t="b">
         <v>0</v>
+      </c>
+      <c r="D63" t="s">
+        <v>467</v>
       </c>
     </row>
     <row r="64">
@@ -41992,10 +42187,13 @@
         <v>62</v>
       </c>
       <c r="B64" t="s">
-        <v>467</v>
+        <v>470</v>
       </c>
       <c r="C64" t="b">
         <v>0</v>
+      </c>
+      <c r="D64" t="s">
+        <v>465</v>
       </c>
     </row>
     <row r="65">
@@ -42003,10 +42201,13 @@
         <v>63</v>
       </c>
       <c r="B65" t="s">
-        <v>467</v>
+        <v>470</v>
       </c>
       <c r="C65" t="b">
         <v>0</v>
+      </c>
+      <c r="D65" t="s">
+        <v>467</v>
       </c>
     </row>
     <row r="66">
@@ -42014,10 +42215,13 @@
         <v>64</v>
       </c>
       <c r="B66" t="s">
-        <v>467</v>
+        <v>470</v>
       </c>
       <c r="C66" t="b">
         <v>0</v>
+      </c>
+      <c r="D66" t="s">
+        <v>465</v>
       </c>
     </row>
     <row r="67">
@@ -42025,10 +42229,13 @@
         <v>65</v>
       </c>
       <c r="B67" t="s">
-        <v>467</v>
+        <v>470</v>
       </c>
       <c r="C67" t="b">
         <v>0</v>
+      </c>
+      <c r="D67" t="s">
+        <v>467</v>
       </c>
     </row>
     <row r="68">
@@ -42036,10 +42243,13 @@
         <v>66</v>
       </c>
       <c r="B68" t="s">
-        <v>468</v>
+        <v>470</v>
       </c>
       <c r="C68" t="b">
         <v>0</v>
+      </c>
+      <c r="D68" t="s">
+        <v>467</v>
       </c>
     </row>
     <row r="69">
@@ -42047,10 +42257,13 @@
         <v>67</v>
       </c>
       <c r="B69" t="s">
-        <v>468</v>
+        <v>471</v>
       </c>
       <c r="C69" t="b">
         <v>0</v>
+      </c>
+      <c r="D69" t="s">
+        <v>465</v>
       </c>
     </row>
     <row r="70">
@@ -42058,10 +42271,13 @@
         <v>68</v>
       </c>
       <c r="B70" t="s">
-        <v>467</v>
+        <v>471</v>
       </c>
       <c r="C70" t="b">
         <v>0</v>
+      </c>
+      <c r="D70" t="s">
+        <v>465</v>
       </c>
     </row>
     <row r="71">
@@ -42069,10 +42285,13 @@
         <v>69</v>
       </c>
       <c r="B71" t="s">
-        <v>467</v>
+        <v>471</v>
       </c>
       <c r="C71" t="b">
         <v>0</v>
+      </c>
+      <c r="D71" t="s">
+        <v>467</v>
       </c>
     </row>
     <row r="72">
@@ -42080,10 +42299,13 @@
         <v>70</v>
       </c>
       <c r="B72" t="s">
-        <v>467</v>
+        <v>470</v>
       </c>
       <c r="C72" t="b">
         <v>0</v>
+      </c>
+      <c r="D72" t="s">
+        <v>465</v>
       </c>
     </row>
     <row r="73">
@@ -42091,10 +42313,13 @@
         <v>71</v>
       </c>
       <c r="B73" t="s">
-        <v>467</v>
+        <v>471</v>
       </c>
       <c r="C73" t="b">
         <v>0</v>
+      </c>
+      <c r="D73" t="s">
+        <v>467</v>
       </c>
     </row>
     <row r="74">
@@ -42102,10 +42327,13 @@
         <v>72</v>
       </c>
       <c r="B74" t="s">
-        <v>468</v>
+        <v>470</v>
       </c>
       <c r="C74" t="b">
         <v>0</v>
+      </c>
+      <c r="D74" t="s">
+        <v>465</v>
       </c>
     </row>
     <row r="75">
@@ -42113,10 +42341,13 @@
         <v>73</v>
       </c>
       <c r="B75" t="s">
-        <v>467</v>
+        <v>471</v>
       </c>
       <c r="C75" t="b">
         <v>0</v>
+      </c>
+      <c r="D75" t="s">
+        <v>465</v>
       </c>
     </row>
     <row r="76">
@@ -42124,10 +42355,13 @@
         <v>74</v>
       </c>
       <c r="B76" t="s">
-        <v>467</v>
+        <v>470</v>
       </c>
       <c r="C76" t="b">
         <v>0</v>
+      </c>
+      <c r="D76" t="s">
+        <v>465</v>
       </c>
     </row>
     <row r="77">
@@ -42135,10 +42369,13 @@
         <v>75</v>
       </c>
       <c r="B77" t="s">
-        <v>467</v>
+        <v>471</v>
       </c>
       <c r="C77" t="b">
         <v>0</v>
+      </c>
+      <c r="D77" t="s">
+        <v>467</v>
       </c>
     </row>
     <row r="78">
@@ -42146,10 +42383,13 @@
         <v>76</v>
       </c>
       <c r="B78" t="s">
-        <v>467</v>
+        <v>470</v>
       </c>
       <c r="C78" t="b">
         <v>0</v>
+      </c>
+      <c r="D78" t="s">
+        <v>465</v>
       </c>
     </row>
     <row r="79">
@@ -42157,10 +42397,13 @@
         <v>77</v>
       </c>
       <c r="B79" t="s">
-        <v>468</v>
+        <v>470</v>
       </c>
       <c r="C79" t="b">
         <v>0</v>
+      </c>
+      <c r="D79" t="s">
+        <v>465</v>
       </c>
     </row>
     <row r="80">
@@ -42168,10 +42411,13 @@
         <v>78</v>
       </c>
       <c r="B80" t="s">
-        <v>468</v>
+        <v>471</v>
       </c>
       <c r="C80" t="b">
         <v>0</v>
+      </c>
+      <c r="D80" t="s">
+        <v>465</v>
       </c>
     </row>
     <row r="81">
@@ -42179,10 +42425,13 @@
         <v>79</v>
       </c>
       <c r="B81" t="s">
-        <v>468</v>
+        <v>471</v>
       </c>
       <c r="C81" t="b">
         <v>0</v>
+      </c>
+      <c r="D81" t="s">
+        <v>467</v>
       </c>
     </row>
     <row r="82">
@@ -42190,10 +42439,13 @@
         <v>80</v>
       </c>
       <c r="B82" t="s">
-        <v>468</v>
+        <v>470</v>
       </c>
       <c r="C82" t="b">
         <v>0</v>
+      </c>
+      <c r="D82" t="s">
+        <v>467</v>
       </c>
     </row>
     <row r="83">
@@ -42201,10 +42453,13 @@
         <v>81</v>
       </c>
       <c r="B83" t="s">
-        <v>468</v>
+        <v>471</v>
       </c>
       <c r="C83" t="b">
         <v>0</v>
+      </c>
+      <c r="D83" t="s">
+        <v>465</v>
       </c>
     </row>
     <row r="84">
@@ -42212,10 +42467,13 @@
         <v>82</v>
       </c>
       <c r="B84" t="s">
-        <v>468</v>
+        <v>471</v>
       </c>
       <c r="C84" t="b">
         <v>0</v>
+      </c>
+      <c r="D84" t="s">
+        <v>467</v>
       </c>
     </row>
     <row r="85">
@@ -42223,10 +42481,13 @@
         <v>83</v>
       </c>
       <c r="B85" t="s">
-        <v>467</v>
+        <v>470</v>
       </c>
       <c r="C85" t="b">
         <v>0</v>
+      </c>
+      <c r="D85" t="s">
+        <v>467</v>
       </c>
     </row>
     <row r="86">
@@ -42234,10 +42495,13 @@
         <v>84</v>
       </c>
       <c r="B86" t="s">
-        <v>467</v>
+        <v>470</v>
       </c>
       <c r="C86" t="b">
         <v>0</v>
+      </c>
+      <c r="D86" t="s">
+        <v>465</v>
       </c>
     </row>
     <row r="87">
@@ -42245,10 +42509,13 @@
         <v>85</v>
       </c>
       <c r="B87" t="s">
-        <v>467</v>
+        <v>470</v>
       </c>
       <c r="C87" t="b">
         <v>0</v>
+      </c>
+      <c r="D87" t="s">
+        <v>467</v>
       </c>
     </row>
     <row r="88">
@@ -42256,10 +42523,13 @@
         <v>86</v>
       </c>
       <c r="B88" t="s">
-        <v>467</v>
+        <v>471</v>
       </c>
       <c r="C88" t="b">
         <v>0</v>
+      </c>
+      <c r="D88" t="s">
+        <v>465</v>
       </c>
     </row>
     <row r="89">
@@ -42267,10 +42537,13 @@
         <v>87</v>
       </c>
       <c r="B89" t="s">
-        <v>467</v>
+        <v>470</v>
       </c>
       <c r="C89" t="b">
         <v>0</v>
+      </c>
+      <c r="D89" t="s">
+        <v>467</v>
       </c>
     </row>
     <row r="90">
@@ -42278,10 +42551,13 @@
         <v>88</v>
       </c>
       <c r="B90" t="s">
-        <v>467</v>
+        <v>471</v>
       </c>
       <c r="C90" t="b">
         <v>0</v>
+      </c>
+      <c r="D90" t="s">
+        <v>465</v>
       </c>
     </row>
     <row r="91">
@@ -42289,10 +42565,13 @@
         <v>89</v>
       </c>
       <c r="B91" t="s">
-        <v>467</v>
+        <v>471</v>
       </c>
       <c r="C91" t="b">
         <v>0</v>
+      </c>
+      <c r="D91" t="s">
+        <v>467</v>
       </c>
     </row>
     <row r="92">
@@ -42300,10 +42579,13 @@
         <v>90</v>
       </c>
       <c r="B92" t="s">
-        <v>467</v>
+        <v>470</v>
       </c>
       <c r="C92" t="b">
         <v>0</v>
+      </c>
+      <c r="D92" t="s">
+        <v>465</v>
       </c>
     </row>
     <row r="93">
@@ -42311,10 +42593,13 @@
         <v>91</v>
       </c>
       <c r="B93" t="s">
-        <v>468</v>
+        <v>471</v>
       </c>
       <c r="C93" t="b">
         <v>0</v>
+      </c>
+      <c r="D93" t="s">
+        <v>467</v>
       </c>
     </row>
     <row r="94">
@@ -42322,10 +42607,13 @@
         <v>92</v>
       </c>
       <c r="B94" t="s">
-        <v>468</v>
+        <v>470</v>
       </c>
       <c r="C94" t="b">
         <v>0</v>
+      </c>
+      <c r="D94" t="s">
+        <v>465</v>
       </c>
     </row>
     <row r="95">
@@ -42333,10 +42621,13 @@
         <v>93</v>
       </c>
       <c r="B95" t="s">
-        <v>467</v>
+        <v>470</v>
       </c>
       <c r="C95" t="b">
         <v>0</v>
+      </c>
+      <c r="D95" t="s">
+        <v>465</v>
       </c>
     </row>
     <row r="96">
@@ -42344,10 +42635,13 @@
         <v>94</v>
       </c>
       <c r="B96" t="s">
-        <v>468</v>
+        <v>471</v>
       </c>
       <c r="C96" t="b">
         <v>0</v>
+      </c>
+      <c r="D96" t="s">
+        <v>467</v>
       </c>
     </row>
     <row r="97">
@@ -42355,10 +42649,13 @@
         <v>95</v>
       </c>
       <c r="B97" t="s">
-        <v>467</v>
+        <v>470</v>
       </c>
       <c r="C97" t="b">
         <v>0</v>
+      </c>
+      <c r="D97" t="s">
+        <v>467</v>
       </c>
     </row>
     <row r="98">
@@ -42366,10 +42663,13 @@
         <v>96</v>
       </c>
       <c r="B98" t="s">
-        <v>467</v>
+        <v>471</v>
       </c>
       <c r="C98" t="b">
         <v>0</v>
+      </c>
+      <c r="D98" t="s">
+        <v>467</v>
       </c>
     </row>
     <row r="99">
@@ -42377,10 +42677,13 @@
         <v>97</v>
       </c>
       <c r="B99" t="s">
-        <v>467</v>
+        <v>470</v>
       </c>
       <c r="C99" t="b">
         <v>0</v>
+      </c>
+      <c r="D99" t="s">
+        <v>467</v>
       </c>
     </row>
     <row r="100">
@@ -42388,10 +42691,13 @@
         <v>98</v>
       </c>
       <c r="B100" t="s">
-        <v>468</v>
+        <v>471</v>
       </c>
       <c r="C100" t="b">
         <v>0</v>
+      </c>
+      <c r="D100" t="s">
+        <v>467</v>
       </c>
     </row>
     <row r="101">
@@ -42399,10 +42705,13 @@
         <v>99</v>
       </c>
       <c r="B101" t="s">
-        <v>467</v>
+        <v>470</v>
       </c>
       <c r="C101" t="b">
         <v>0</v>
+      </c>
+      <c r="D101" t="s">
+        <v>465</v>
       </c>
     </row>
     <row r="102">
@@ -42410,10 +42719,13 @@
         <v>100</v>
       </c>
       <c r="B102" t="s">
-        <v>467</v>
+        <v>470</v>
       </c>
       <c r="C102" t="b">
         <v>0</v>
+      </c>
+      <c r="D102" t="s">
+        <v>465</v>
       </c>
     </row>
     <row r="103">
@@ -42421,10 +42733,13 @@
         <v>101</v>
       </c>
       <c r="B103" t="s">
-        <v>467</v>
+        <v>470</v>
       </c>
       <c r="C103" t="b">
         <v>0</v>
+      </c>
+      <c r="D103" t="s">
+        <v>467</v>
       </c>
     </row>
     <row r="104">
@@ -42432,10 +42747,13 @@
         <v>102</v>
       </c>
       <c r="B104" t="s">
-        <v>467</v>
+        <v>470</v>
       </c>
       <c r="C104" t="b">
         <v>0</v>
+      </c>
+      <c r="D104" t="s">
+        <v>465</v>
       </c>
     </row>
     <row r="105">
@@ -42443,10 +42761,13 @@
         <v>103</v>
       </c>
       <c r="B105" t="s">
-        <v>467</v>
+        <v>470</v>
       </c>
       <c r="C105" t="b">
         <v>0</v>
+      </c>
+      <c r="D105" t="s">
+        <v>467</v>
       </c>
     </row>
     <row r="106">
@@ -42454,10 +42775,13 @@
         <v>104</v>
       </c>
       <c r="B106" t="s">
-        <v>468</v>
+        <v>471</v>
       </c>
       <c r="C106" t="b">
         <v>0</v>
+      </c>
+      <c r="D106" t="s">
+        <v>465</v>
       </c>
     </row>
     <row r="107">
@@ -42465,10 +42789,13 @@
         <v>105</v>
       </c>
       <c r="B107" t="s">
-        <v>468</v>
+        <v>471</v>
       </c>
       <c r="C107" t="b">
         <v>0</v>
+      </c>
+      <c r="D107" t="s">
+        <v>467</v>
       </c>
     </row>
     <row r="108">
@@ -42476,10 +42803,13 @@
         <v>106</v>
       </c>
       <c r="B108" t="s">
-        <v>467</v>
+        <v>470</v>
       </c>
       <c r="C108" t="b">
         <v>0</v>
+      </c>
+      <c r="D108" t="s">
+        <v>465</v>
       </c>
     </row>
     <row r="109">
@@ -42487,10 +42817,13 @@
         <v>107</v>
       </c>
       <c r="B109" t="s">
-        <v>467</v>
+        <v>470</v>
       </c>
       <c r="C109" t="b">
         <v>0</v>
+      </c>
+      <c r="D109" t="s">
+        <v>465</v>
       </c>
     </row>
     <row r="110">
@@ -42498,10 +42831,13 @@
         <v>108</v>
       </c>
       <c r="B110" t="s">
-        <v>467</v>
+        <v>470</v>
       </c>
       <c r="C110" t="b">
         <v>0</v>
+      </c>
+      <c r="D110" t="s">
+        <v>465</v>
       </c>
     </row>
     <row r="111">
@@ -42509,10 +42845,13 @@
         <v>109</v>
       </c>
       <c r="B111" t="s">
-        <v>468</v>
+        <v>471</v>
       </c>
       <c r="C111" t="b">
         <v>0</v>
+      </c>
+      <c r="D111" t="s">
+        <v>467</v>
       </c>
     </row>
     <row r="112">
@@ -42520,10 +42859,13 @@
         <v>110</v>
       </c>
       <c r="B112" t="s">
-        <v>467</v>
+        <v>470</v>
       </c>
       <c r="C112" t="b">
         <v>0</v>
+      </c>
+      <c r="D112" t="s">
+        <v>467</v>
       </c>
     </row>
     <row r="113">
@@ -42531,10 +42873,13 @@
         <v>111</v>
       </c>
       <c r="B113" t="s">
-        <v>467</v>
+        <v>470</v>
       </c>
       <c r="C113" t="b">
         <v>0</v>
+      </c>
+      <c r="D113" t="s">
+        <v>465</v>
       </c>
     </row>
     <row r="114">
@@ -42542,10 +42887,13 @@
         <v>112</v>
       </c>
       <c r="B114" t="s">
-        <v>467</v>
+        <v>471</v>
       </c>
       <c r="C114" t="b">
         <v>0</v>
+      </c>
+      <c r="D114" t="s">
+        <v>465</v>
       </c>
     </row>
     <row r="115">
@@ -42553,10 +42901,13 @@
         <v>113</v>
       </c>
       <c r="B115" t="s">
-        <v>467</v>
+        <v>471</v>
       </c>
       <c r="C115" t="b">
         <v>0</v>
+      </c>
+      <c r="D115" t="s">
+        <v>467</v>
       </c>
     </row>
     <row r="116">
@@ -42564,10 +42915,13 @@
         <v>114</v>
       </c>
       <c r="B116" t="s">
-        <v>467</v>
+        <v>470</v>
       </c>
       <c r="C116" t="b">
         <v>0</v>
+      </c>
+      <c r="D116" t="s">
+        <v>467</v>
       </c>
     </row>
     <row r="117">
@@ -42575,10 +42929,13 @@
         <v>115</v>
       </c>
       <c r="B117" t="s">
-        <v>468</v>
+        <v>470</v>
       </c>
       <c r="C117" t="b">
         <v>0</v>
+      </c>
+      <c r="D117" t="s">
+        <v>465</v>
       </c>
     </row>
     <row r="118">
@@ -42586,10 +42943,13 @@
         <v>116</v>
       </c>
       <c r="B118" t="s">
-        <v>468</v>
+        <v>470</v>
       </c>
       <c r="C118" t="b">
         <v>0</v>
+      </c>
+      <c r="D118" t="s">
+        <v>465</v>
       </c>
     </row>
     <row r="119">
@@ -42597,10 +42957,13 @@
         <v>117</v>
       </c>
       <c r="B119" t="s">
-        <v>467</v>
+        <v>470</v>
       </c>
       <c r="C119" t="b">
         <v>0</v>
+      </c>
+      <c r="D119" t="s">
+        <v>465</v>
       </c>
     </row>
     <row r="120">
@@ -42608,10 +42971,13 @@
         <v>118</v>
       </c>
       <c r="B120" t="s">
-        <v>467</v>
+        <v>471</v>
       </c>
       <c r="C120" t="b">
         <v>0</v>
+      </c>
+      <c r="D120" t="s">
+        <v>467</v>
       </c>
     </row>
     <row r="121">
@@ -42619,10 +42985,13 @@
         <v>119</v>
       </c>
       <c r="B121" t="s">
-        <v>467</v>
+        <v>471</v>
       </c>
       <c r="C121" t="b">
         <v>0</v>
+      </c>
+      <c r="D121" t="s">
+        <v>465</v>
       </c>
     </row>
     <row r="122">
@@ -42630,10 +42999,13 @@
         <v>120</v>
       </c>
       <c r="B122" t="s">
-        <v>468</v>
+        <v>471</v>
       </c>
       <c r="C122" t="b">
         <v>0</v>
+      </c>
+      <c r="D122" t="s">
+        <v>465</v>
       </c>
     </row>
     <row r="123">
@@ -42641,10 +43013,13 @@
         <v>121</v>
       </c>
       <c r="B123" t="s">
-        <v>467</v>
+        <v>470</v>
       </c>
       <c r="C123" t="b">
         <v>0</v>
+      </c>
+      <c r="D123" t="s">
+        <v>467</v>
       </c>
     </row>
     <row r="124">
@@ -42652,10 +43027,13 @@
         <v>122</v>
       </c>
       <c r="B124" t="s">
-        <v>468</v>
+        <v>470</v>
       </c>
       <c r="C124" t="b">
         <v>0</v>
+      </c>
+      <c r="D124" t="s">
+        <v>465</v>
       </c>
     </row>
     <row r="125">
@@ -42663,10 +43041,13 @@
         <v>123</v>
       </c>
       <c r="B125" t="s">
-        <v>467</v>
+        <v>470</v>
       </c>
       <c r="C125" t="b">
         <v>0</v>
+      </c>
+      <c r="D125" t="s">
+        <v>467</v>
       </c>
     </row>
     <row r="126">
@@ -42674,10 +43055,13 @@
         <v>124</v>
       </c>
       <c r="B126" t="s">
-        <v>468</v>
+        <v>470</v>
       </c>
       <c r="C126" t="b">
         <v>0</v>
+      </c>
+      <c r="D126" t="s">
+        <v>465</v>
       </c>
     </row>
     <row r="127">
@@ -42685,10 +43069,13 @@
         <v>125</v>
       </c>
       <c r="B127" t="s">
-        <v>468</v>
+        <v>471</v>
       </c>
       <c r="C127" t="b">
         <v>0</v>
+      </c>
+      <c r="D127" t="s">
+        <v>467</v>
       </c>
     </row>
     <row r="128">
@@ -42696,10 +43083,13 @@
         <v>126</v>
       </c>
       <c r="B128" t="s">
-        <v>467</v>
+        <v>471</v>
       </c>
       <c r="C128" t="b">
         <v>0</v>
+      </c>
+      <c r="D128" t="s">
+        <v>467</v>
       </c>
     </row>
     <row r="129">
@@ -42707,10 +43097,13 @@
         <v>127</v>
       </c>
       <c r="B129" t="s">
-        <v>468</v>
+        <v>470</v>
       </c>
       <c r="C129" t="b">
         <v>0</v>
+      </c>
+      <c r="D129" t="s">
+        <v>467</v>
       </c>
     </row>
     <row r="130">
@@ -42718,10 +43111,13 @@
         <v>128</v>
       </c>
       <c r="B130" t="s">
-        <v>467</v>
+        <v>470</v>
       </c>
       <c r="C130" t="b">
         <v>0</v>
+      </c>
+      <c r="D130" t="s">
+        <v>465</v>
       </c>
     </row>
     <row r="131">
@@ -42729,10 +43125,13 @@
         <v>129</v>
       </c>
       <c r="B131" t="s">
-        <v>467</v>
+        <v>471</v>
       </c>
       <c r="C131" t="b">
         <v>0</v>
+      </c>
+      <c r="D131" t="s">
+        <v>467</v>
       </c>
     </row>
     <row r="132">
@@ -42740,10 +43139,13 @@
         <v>130</v>
       </c>
       <c r="B132" t="s">
-        <v>467</v>
+        <v>471</v>
       </c>
       <c r="C132" t="b">
         <v>0</v>
+      </c>
+      <c r="D132" t="s">
+        <v>467</v>
       </c>
     </row>
     <row r="133">
@@ -42751,10 +43153,13 @@
         <v>131</v>
       </c>
       <c r="B133" t="s">
-        <v>468</v>
+        <v>471</v>
       </c>
       <c r="C133" t="b">
         <v>0</v>
+      </c>
+      <c r="D133" t="s">
+        <v>465</v>
       </c>
     </row>
     <row r="134">
@@ -42762,10 +43167,13 @@
         <v>132</v>
       </c>
       <c r="B134" t="s">
-        <v>467</v>
+        <v>470</v>
       </c>
       <c r="C134" t="b">
         <v>0</v>
+      </c>
+      <c r="D134" t="s">
+        <v>467</v>
       </c>
     </row>
     <row r="135">
@@ -42773,10 +43181,13 @@
         <v>133</v>
       </c>
       <c r="B135" t="s">
-        <v>468</v>
+        <v>470</v>
       </c>
       <c r="C135" t="b">
         <v>0</v>
+      </c>
+      <c r="D135" t="s">
+        <v>467</v>
       </c>
     </row>
     <row r="136">
@@ -42784,10 +43195,13 @@
         <v>134</v>
       </c>
       <c r="B136" t="s">
-        <v>467</v>
+        <v>470</v>
       </c>
       <c r="C136" t="b">
         <v>0</v>
+      </c>
+      <c r="D136" t="s">
+        <v>465</v>
       </c>
     </row>
     <row r="137">
@@ -42795,10 +43209,13 @@
         <v>135</v>
       </c>
       <c r="B137" t="s">
-        <v>468</v>
+        <v>471</v>
       </c>
       <c r="C137" t="b">
         <v>0</v>
+      </c>
+      <c r="D137" t="s">
+        <v>465</v>
       </c>
     </row>
     <row r="138">
@@ -42806,10 +43223,13 @@
         <v>136</v>
       </c>
       <c r="B138" t="s">
-        <v>467</v>
+        <v>470</v>
       </c>
       <c r="C138" t="b">
         <v>0</v>
+      </c>
+      <c r="D138" t="s">
+        <v>465</v>
       </c>
     </row>
     <row r="139">
@@ -42817,10 +43237,13 @@
         <v>137</v>
       </c>
       <c r="B139" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="C139" t="b">
         <v>1</v>
+      </c>
+      <c r="D139" t="s">
+        <v>465</v>
       </c>
     </row>
     <row r="140">
@@ -42833,6 +43256,9 @@
       <c r="C140" t="b">
         <v>1</v>
       </c>
+      <c r="D140" t="s">
+        <v>465</v>
+      </c>
     </row>
     <row r="141">
       <c r="A141" t="s">
@@ -42844,16 +43270,22 @@
       <c r="C141" t="b">
         <v>1</v>
       </c>
+      <c r="D141" t="s">
+        <v>467</v>
+      </c>
     </row>
     <row r="142">
       <c r="A142" t="s">
         <v>140</v>
       </c>
       <c r="B142" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="C142" t="b">
         <v>1</v>
+      </c>
+      <c r="D142" t="s">
+        <v>467</v>
       </c>
     </row>
     <row r="143">
@@ -42861,10 +43293,13 @@
         <v>141</v>
       </c>
       <c r="B143" t="s">
-        <v>463</v>
+        <v>466</v>
       </c>
       <c r="C143" t="b">
         <v>1</v>
+      </c>
+      <c r="D143" t="s">
+        <v>467</v>
       </c>
     </row>
     <row r="144">
@@ -42872,10 +43307,13 @@
         <v>142</v>
       </c>
       <c r="B144" t="s">
-        <v>464</v>
+        <v>466</v>
       </c>
       <c r="C144" t="b">
         <v>1</v>
+      </c>
+      <c r="D144" t="s">
+        <v>467</v>
       </c>
     </row>
     <row r="145">
@@ -42888,6 +43326,9 @@
       <c r="C145" t="b">
         <v>1</v>
       </c>
+      <c r="D145" t="s">
+        <v>467</v>
+      </c>
     </row>
     <row r="146">
       <c r="A146" t="s">
@@ -42899,16 +43340,22 @@
       <c r="C146" t="b">
         <v>1</v>
       </c>
+      <c r="D146" t="s">
+        <v>467</v>
+      </c>
     </row>
     <row r="147">
       <c r="A147" t="s">
         <v>145</v>
       </c>
       <c r="B147" t="s">
-        <v>464</v>
+        <v>466</v>
       </c>
       <c r="C147" t="b">
         <v>1</v>
+      </c>
+      <c r="D147" t="s">
+        <v>467</v>
       </c>
     </row>
     <row r="148">
@@ -42921,16 +43368,22 @@
       <c r="C148" t="b">
         <v>1</v>
       </c>
+      <c r="D148" t="s">
+        <v>465</v>
+      </c>
     </row>
     <row r="149">
       <c r="A149" t="s">
         <v>147</v>
       </c>
       <c r="B149" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="C149" t="b">
         <v>1</v>
+      </c>
+      <c r="D149" t="s">
+        <v>465</v>
       </c>
     </row>
     <row r="150">
@@ -42938,10 +43391,13 @@
         <v>148</v>
       </c>
       <c r="B150" t="s">
-        <v>464</v>
+        <v>466</v>
       </c>
       <c r="C150" t="b">
         <v>1</v>
+      </c>
+      <c r="D150" t="s">
+        <v>465</v>
       </c>
     </row>
     <row r="151">
@@ -42954,16 +43410,22 @@
       <c r="C151" t="b">
         <v>1</v>
       </c>
+      <c r="D151" t="s">
+        <v>465</v>
+      </c>
     </row>
     <row r="152">
       <c r="A152" t="s">
         <v>150</v>
       </c>
       <c r="B152" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="C152" t="b">
         <v>1</v>
+      </c>
+      <c r="D152" t="s">
+        <v>465</v>
       </c>
     </row>
     <row r="153">
@@ -42976,16 +43438,22 @@
       <c r="C153" t="b">
         <v>1</v>
       </c>
+      <c r="D153" t="s">
+        <v>467</v>
+      </c>
     </row>
     <row r="154">
       <c r="A154" t="s">
         <v>152</v>
       </c>
       <c r="B154" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="C154" t="b">
         <v>1</v>
+      </c>
+      <c r="D154" t="s">
+        <v>467</v>
       </c>
     </row>
     <row r="155">
@@ -42998,6 +43466,9 @@
       <c r="C155" t="b">
         <v>1</v>
       </c>
+      <c r="D155" t="s">
+        <v>467</v>
+      </c>
     </row>
     <row r="156">
       <c r="A156" t="s">
@@ -43009,6 +43480,9 @@
       <c r="C156" t="b">
         <v>1</v>
       </c>
+      <c r="D156" t="s">
+        <v>467</v>
+      </c>
     </row>
     <row r="157">
       <c r="A157" t="s">
@@ -43020,16 +43494,22 @@
       <c r="C157" t="b">
         <v>1</v>
       </c>
+      <c r="D157" t="s">
+        <v>465</v>
+      </c>
     </row>
     <row r="158">
       <c r="A158" t="s">
         <v>156</v>
       </c>
       <c r="B158" t="s">
-        <v>464</v>
+        <v>466</v>
       </c>
       <c r="C158" t="b">
         <v>1</v>
+      </c>
+      <c r="D158" t="s">
+        <v>467</v>
       </c>
     </row>
     <row r="159">
@@ -43042,16 +43522,22 @@
       <c r="C159" t="b">
         <v>1</v>
       </c>
+      <c r="D159" t="s">
+        <v>465</v>
+      </c>
     </row>
     <row r="160">
       <c r="A160" t="s">
         <v>158</v>
       </c>
       <c r="B160" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="C160" t="b">
         <v>1</v>
+      </c>
+      <c r="D160" t="s">
+        <v>467</v>
       </c>
     </row>
     <row r="161">
@@ -43064,16 +43550,22 @@
       <c r="C161" t="b">
         <v>1</v>
       </c>
+      <c r="D161" t="s">
+        <v>465</v>
+      </c>
     </row>
     <row r="162">
       <c r="A162" t="s">
         <v>160</v>
       </c>
       <c r="B162" t="s">
-        <v>463</v>
+        <v>466</v>
       </c>
       <c r="C162" t="b">
         <v>1</v>
+      </c>
+      <c r="D162" t="s">
+        <v>467</v>
       </c>
     </row>
     <row r="163">
@@ -43086,16 +43578,22 @@
       <c r="C163" t="b">
         <v>1</v>
       </c>
+      <c r="D163" t="s">
+        <v>465</v>
+      </c>
     </row>
     <row r="164">
       <c r="A164" t="s">
         <v>162</v>
       </c>
       <c r="B164" t="s">
-        <v>464</v>
+        <v>466</v>
       </c>
       <c r="C164" t="b">
         <v>1</v>
+      </c>
+      <c r="D164" t="s">
+        <v>467</v>
       </c>
     </row>
     <row r="165">
@@ -43108,6 +43606,9 @@
       <c r="C165" t="b">
         <v>1</v>
       </c>
+      <c r="D165" t="s">
+        <v>467</v>
+      </c>
     </row>
     <row r="166">
       <c r="A166" t="s">
@@ -43119,6 +43620,9 @@
       <c r="C166" t="b">
         <v>1</v>
       </c>
+      <c r="D166" t="s">
+        <v>467</v>
+      </c>
     </row>
     <row r="167">
       <c r="A167" t="s">
@@ -43130,16 +43634,22 @@
       <c r="C167" t="b">
         <v>1</v>
       </c>
+      <c r="D167" t="s">
+        <v>467</v>
+      </c>
     </row>
     <row r="168">
       <c r="A168" t="s">
         <v>166</v>
       </c>
       <c r="B168" t="s">
-        <v>464</v>
+        <v>466</v>
       </c>
       <c r="C168" t="b">
         <v>1</v>
+      </c>
+      <c r="D168" t="s">
+        <v>467</v>
       </c>
     </row>
     <row r="169">
@@ -43152,6 +43662,9 @@
       <c r="C169" t="b">
         <v>1</v>
       </c>
+      <c r="D169" t="s">
+        <v>465</v>
+      </c>
     </row>
     <row r="170">
       <c r="A170" t="s">
@@ -43163,16 +43676,22 @@
       <c r="C170" t="b">
         <v>1</v>
       </c>
+      <c r="D170" t="s">
+        <v>467</v>
+      </c>
     </row>
     <row r="171">
       <c r="A171" t="s">
         <v>169</v>
       </c>
       <c r="B171" t="s">
-        <v>464</v>
+        <v>466</v>
       </c>
       <c r="C171" t="b">
         <v>1</v>
+      </c>
+      <c r="D171" t="s">
+        <v>467</v>
       </c>
     </row>
     <row r="172">
@@ -43180,10 +43699,13 @@
         <v>170</v>
       </c>
       <c r="B172" t="s">
-        <v>463</v>
+        <v>466</v>
       </c>
       <c r="C172" t="b">
         <v>1</v>
+      </c>
+      <c r="D172" t="s">
+        <v>467</v>
       </c>
     </row>
     <row r="173">
@@ -43191,10 +43713,13 @@
         <v>171</v>
       </c>
       <c r="B173" t="s">
-        <v>464</v>
+        <v>466</v>
       </c>
       <c r="C173" t="b">
         <v>1</v>
+      </c>
+      <c r="D173" t="s">
+        <v>467</v>
       </c>
     </row>
     <row r="174">
@@ -43202,10 +43727,13 @@
         <v>172</v>
       </c>
       <c r="B174" t="s">
-        <v>464</v>
+        <v>466</v>
       </c>
       <c r="C174" t="b">
         <v>1</v>
+      </c>
+      <c r="D174" t="s">
+        <v>465</v>
       </c>
     </row>
     <row r="175">
@@ -43218,6 +43746,9 @@
       <c r="C175" t="b">
         <v>1</v>
       </c>
+      <c r="D175" t="s">
+        <v>467</v>
+      </c>
     </row>
     <row r="176">
       <c r="A176" t="s">
@@ -43229,16 +43760,22 @@
       <c r="C176" t="b">
         <v>1</v>
       </c>
+      <c r="D176" t="s">
+        <v>465</v>
+      </c>
     </row>
     <row r="177">
       <c r="A177" t="s">
         <v>175</v>
       </c>
       <c r="B177" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="C177" t="b">
         <v>1</v>
+      </c>
+      <c r="D177" t="s">
+        <v>467</v>
       </c>
     </row>
     <row r="178">
@@ -43251,16 +43788,22 @@
       <c r="C178" t="b">
         <v>1</v>
       </c>
+      <c r="D178" t="s">
+        <v>465</v>
+      </c>
     </row>
     <row r="179">
       <c r="A179" t="s">
         <v>177</v>
       </c>
       <c r="B179" t="s">
-        <v>466</v>
+        <v>469</v>
       </c>
       <c r="C179" t="b">
         <v>1</v>
+      </c>
+      <c r="D179" t="s">
+        <v>467</v>
       </c>
     </row>
     <row r="180">
@@ -43268,10 +43811,13 @@
         <v>178</v>
       </c>
       <c r="B180" t="s">
-        <v>466</v>
+        <v>468</v>
       </c>
       <c r="C180" t="b">
         <v>1</v>
+      </c>
+      <c r="D180" t="s">
+        <v>467</v>
       </c>
     </row>
     <row r="181">
@@ -43279,10 +43825,13 @@
         <v>179</v>
       </c>
       <c r="B181" t="s">
-        <v>466</v>
+        <v>468</v>
       </c>
       <c r="C181" t="b">
         <v>1</v>
+      </c>
+      <c r="D181" t="s">
+        <v>467</v>
       </c>
     </row>
     <row r="182">
@@ -43290,10 +43839,13 @@
         <v>180</v>
       </c>
       <c r="B182" t="s">
-        <v>466</v>
+        <v>468</v>
       </c>
       <c r="C182" t="b">
         <v>1</v>
+      </c>
+      <c r="D182" t="s">
+        <v>465</v>
       </c>
     </row>
     <row r="183">
@@ -43301,10 +43853,13 @@
         <v>181</v>
       </c>
       <c r="B183" t="s">
-        <v>466</v>
+        <v>468</v>
       </c>
       <c r="C183" t="b">
         <v>1</v>
+      </c>
+      <c r="D183" t="s">
+        <v>467</v>
       </c>
     </row>
     <row r="184">
@@ -43312,10 +43867,13 @@
         <v>182</v>
       </c>
       <c r="B184" t="s">
-        <v>466</v>
+        <v>469</v>
       </c>
       <c r="C184" t="b">
         <v>1</v>
+      </c>
+      <c r="D184" t="s">
+        <v>467</v>
       </c>
     </row>
     <row r="185">
@@ -43323,10 +43881,13 @@
         <v>183</v>
       </c>
       <c r="B185" t="s">
-        <v>465</v>
+        <v>468</v>
       </c>
       <c r="C185" t="b">
         <v>1</v>
+      </c>
+      <c r="D185" t="s">
+        <v>465</v>
       </c>
     </row>
     <row r="186">
@@ -43334,10 +43895,13 @@
         <v>184</v>
       </c>
       <c r="B186" t="s">
-        <v>466</v>
+        <v>468</v>
       </c>
       <c r="C186" t="b">
         <v>1</v>
+      </c>
+      <c r="D186" t="s">
+        <v>467</v>
       </c>
     </row>
     <row r="187">
@@ -43345,10 +43909,13 @@
         <v>185</v>
       </c>
       <c r="B187" t="s">
-        <v>465</v>
+        <v>468</v>
       </c>
       <c r="C187" t="b">
         <v>1</v>
+      </c>
+      <c r="D187" t="s">
+        <v>467</v>
       </c>
     </row>
     <row r="188">
@@ -43356,10 +43923,13 @@
         <v>186</v>
       </c>
       <c r="B188" t="s">
-        <v>466</v>
+        <v>469</v>
       </c>
       <c r="C188" t="b">
         <v>1</v>
+      </c>
+      <c r="D188" t="s">
+        <v>467</v>
       </c>
     </row>
     <row r="189">
@@ -43367,10 +43937,13 @@
         <v>187</v>
       </c>
       <c r="B189" t="s">
-        <v>466</v>
+        <v>469</v>
       </c>
       <c r="C189" t="b">
         <v>1</v>
+      </c>
+      <c r="D189" t="s">
+        <v>465</v>
       </c>
     </row>
     <row r="190">
@@ -43378,10 +43951,13 @@
         <v>188</v>
       </c>
       <c r="B190" t="s">
-        <v>465</v>
+        <v>468</v>
       </c>
       <c r="C190" t="b">
         <v>1</v>
+      </c>
+      <c r="D190" t="s">
+        <v>467</v>
       </c>
     </row>
     <row r="191">
@@ -43389,10 +43965,13 @@
         <v>189</v>
       </c>
       <c r="B191" t="s">
-        <v>466</v>
+        <v>469</v>
       </c>
       <c r="C191" t="b">
         <v>1</v>
+      </c>
+      <c r="D191" t="s">
+        <v>465</v>
       </c>
     </row>
     <row r="192">
@@ -43400,10 +43979,13 @@
         <v>190</v>
       </c>
       <c r="B192" t="s">
-        <v>466</v>
+        <v>469</v>
       </c>
       <c r="C192" t="b">
         <v>1</v>
+      </c>
+      <c r="D192" t="s">
+        <v>467</v>
       </c>
     </row>
     <row r="193">
@@ -43411,10 +43993,13 @@
         <v>191</v>
       </c>
       <c r="B193" t="s">
-        <v>466</v>
+        <v>468</v>
       </c>
       <c r="C193" t="b">
         <v>1</v>
+      </c>
+      <c r="D193" t="s">
+        <v>465</v>
       </c>
     </row>
     <row r="194">
@@ -43422,10 +44007,13 @@
         <v>192</v>
       </c>
       <c r="B194" t="s">
-        <v>466</v>
+        <v>468</v>
       </c>
       <c r="C194" t="b">
         <v>1</v>
+      </c>
+      <c r="D194" t="s">
+        <v>465</v>
       </c>
     </row>
     <row r="195">
@@ -43433,10 +44021,13 @@
         <v>193</v>
       </c>
       <c r="B195" t="s">
-        <v>466</v>
+        <v>468</v>
       </c>
       <c r="C195" t="b">
         <v>1</v>
+      </c>
+      <c r="D195" t="s">
+        <v>465</v>
       </c>
     </row>
     <row r="196">
@@ -43444,10 +44035,13 @@
         <v>194</v>
       </c>
       <c r="B196" t="s">
-        <v>466</v>
+        <v>468</v>
       </c>
       <c r="C196" t="b">
         <v>1</v>
+      </c>
+      <c r="D196" t="s">
+        <v>465</v>
       </c>
     </row>
     <row r="197">
@@ -43455,10 +44049,13 @@
         <v>195</v>
       </c>
       <c r="B197" t="s">
-        <v>466</v>
+        <v>468</v>
       </c>
       <c r="C197" t="b">
         <v>1</v>
+      </c>
+      <c r="D197" t="s">
+        <v>465</v>
       </c>
     </row>
     <row r="198">
@@ -43466,10 +44063,13 @@
         <v>196</v>
       </c>
       <c r="B198" t="s">
-        <v>465</v>
+        <v>468</v>
       </c>
       <c r="C198" t="b">
         <v>1</v>
+      </c>
+      <c r="D198" t="s">
+        <v>465</v>
       </c>
     </row>
     <row r="199">
@@ -43477,10 +44077,13 @@
         <v>197</v>
       </c>
       <c r="B199" t="s">
-        <v>466</v>
+        <v>468</v>
       </c>
       <c r="C199" t="b">
         <v>1</v>
+      </c>
+      <c r="D199" t="s">
+        <v>467</v>
       </c>
     </row>
     <row r="200">
@@ -43488,10 +44091,13 @@
         <v>198</v>
       </c>
       <c r="B200" t="s">
-        <v>465</v>
+        <v>468</v>
       </c>
       <c r="C200" t="b">
         <v>1</v>
+      </c>
+      <c r="D200" t="s">
+        <v>467</v>
       </c>
     </row>
     <row r="201">
@@ -43499,10 +44105,13 @@
         <v>199</v>
       </c>
       <c r="B201" t="s">
-        <v>466</v>
+        <v>468</v>
       </c>
       <c r="C201" t="b">
         <v>1</v>
+      </c>
+      <c r="D201" t="s">
+        <v>465</v>
       </c>
     </row>
     <row r="202">
@@ -43510,10 +44119,13 @@
         <v>200</v>
       </c>
       <c r="B202" t="s">
-        <v>465</v>
+        <v>468</v>
       </c>
       <c r="C202" t="b">
         <v>1</v>
+      </c>
+      <c r="D202" t="s">
+        <v>467</v>
       </c>
     </row>
     <row r="203">
@@ -43521,10 +44133,13 @@
         <v>201</v>
       </c>
       <c r="B203" t="s">
-        <v>468</v>
+        <v>470</v>
       </c>
       <c r="C203" t="b">
         <v>1</v>
+      </c>
+      <c r="D203" t="s">
+        <v>465</v>
       </c>
     </row>
     <row r="204">
@@ -43532,10 +44147,13 @@
         <v>202</v>
       </c>
       <c r="B204" t="s">
-        <v>468</v>
+        <v>471</v>
       </c>
       <c r="C204" t="b">
         <v>1</v>
+      </c>
+      <c r="D204" t="s">
+        <v>465</v>
       </c>
     </row>
     <row r="205">
@@ -43543,10 +44161,13 @@
         <v>203</v>
       </c>
       <c r="B205" t="s">
-        <v>467</v>
+        <v>470</v>
       </c>
       <c r="C205" t="b">
         <v>1</v>
+      </c>
+      <c r="D205" t="s">
+        <v>465</v>
       </c>
     </row>
     <row r="206">
@@ -43554,10 +44175,13 @@
         <v>204</v>
       </c>
       <c r="B206" t="s">
-        <v>468</v>
+        <v>470</v>
       </c>
       <c r="C206" t="b">
         <v>1</v>
+      </c>
+      <c r="D206" t="s">
+        <v>465</v>
       </c>
     </row>
     <row r="207">
@@ -43565,10 +44189,13 @@
         <v>205</v>
       </c>
       <c r="B207" t="s">
-        <v>467</v>
+        <v>471</v>
       </c>
       <c r="C207" t="b">
         <v>1</v>
+      </c>
+      <c r="D207" t="s">
+        <v>465</v>
       </c>
     </row>
     <row r="208">
@@ -43576,10 +44203,13 @@
         <v>206</v>
       </c>
       <c r="B208" t="s">
-        <v>467</v>
+        <v>471</v>
       </c>
       <c r="C208" t="b">
         <v>1</v>
+      </c>
+      <c r="D208" t="s">
+        <v>465</v>
       </c>
     </row>
     <row r="209">
@@ -43587,10 +44217,13 @@
         <v>207</v>
       </c>
       <c r="B209" t="s">
-        <v>467</v>
+        <v>470</v>
       </c>
       <c r="C209" t="b">
         <v>1</v>
+      </c>
+      <c r="D209" t="s">
+        <v>467</v>
       </c>
     </row>
     <row r="210">
@@ -43598,10 +44231,13 @@
         <v>208</v>
       </c>
       <c r="B210" t="s">
-        <v>468</v>
+        <v>471</v>
       </c>
       <c r="C210" t="b">
         <v>1</v>
+      </c>
+      <c r="D210" t="s">
+        <v>467</v>
       </c>
     </row>
     <row r="211">
@@ -43609,10 +44245,13 @@
         <v>209</v>
       </c>
       <c r="B211" t="s">
-        <v>467</v>
+        <v>470</v>
       </c>
       <c r="C211" t="b">
         <v>1</v>
+      </c>
+      <c r="D211" t="s">
+        <v>465</v>
       </c>
     </row>
     <row r="212">
@@ -43620,10 +44259,13 @@
         <v>210</v>
       </c>
       <c r="B212" t="s">
-        <v>468</v>
+        <v>470</v>
       </c>
       <c r="C212" t="b">
         <v>1</v>
+      </c>
+      <c r="D212" t="s">
+        <v>465</v>
       </c>
     </row>
     <row r="213">
@@ -43631,10 +44273,13 @@
         <v>211</v>
       </c>
       <c r="B213" t="s">
-        <v>468</v>
+        <v>470</v>
       </c>
       <c r="C213" t="b">
         <v>1</v>
+      </c>
+      <c r="D213" t="s">
+        <v>467</v>
       </c>
     </row>
     <row r="214">
@@ -43642,10 +44287,13 @@
         <v>212</v>
       </c>
       <c r="B214" t="s">
-        <v>467</v>
+        <v>471</v>
       </c>
       <c r="C214" t="b">
         <v>1</v>
+      </c>
+      <c r="D214" t="s">
+        <v>465</v>
       </c>
     </row>
     <row r="215">
@@ -43653,10 +44301,13 @@
         <v>213</v>
       </c>
       <c r="B215" t="s">
-        <v>467</v>
+        <v>470</v>
       </c>
       <c r="C215" t="b">
         <v>1</v>
+      </c>
+      <c r="D215" t="s">
+        <v>465</v>
       </c>
     </row>
     <row r="216">
@@ -43664,10 +44315,13 @@
         <v>214</v>
       </c>
       <c r="B216" t="s">
-        <v>467</v>
+        <v>470</v>
       </c>
       <c r="C216" t="b">
         <v>1</v>
+      </c>
+      <c r="D216" t="s">
+        <v>465</v>
       </c>
     </row>
     <row r="217">
@@ -43675,10 +44329,13 @@
         <v>215</v>
       </c>
       <c r="B217" t="s">
-        <v>467</v>
+        <v>471</v>
       </c>
       <c r="C217" t="b">
         <v>1</v>
+      </c>
+      <c r="D217" t="s">
+        <v>467</v>
       </c>
     </row>
     <row r="218">
@@ -43686,10 +44343,13 @@
         <v>216</v>
       </c>
       <c r="B218" t="s">
-        <v>467</v>
+        <v>470</v>
       </c>
       <c r="C218" t="b">
         <v>1</v>
+      </c>
+      <c r="D218" t="s">
+        <v>465</v>
       </c>
     </row>
     <row r="219">
@@ -43697,10 +44357,13 @@
         <v>217</v>
       </c>
       <c r="B219" t="s">
-        <v>467</v>
+        <v>470</v>
       </c>
       <c r="C219" t="b">
         <v>1</v>
+      </c>
+      <c r="D219" t="s">
+        <v>467</v>
       </c>
     </row>
     <row r="220">
@@ -43708,10 +44371,13 @@
         <v>218</v>
       </c>
       <c r="B220" t="s">
-        <v>467</v>
+        <v>470</v>
       </c>
       <c r="C220" t="b">
         <v>1</v>
+      </c>
+      <c r="D220" t="s">
+        <v>467</v>
       </c>
     </row>
     <row r="221">
@@ -43719,10 +44385,13 @@
         <v>219</v>
       </c>
       <c r="B221" t="s">
-        <v>468</v>
+        <v>470</v>
       </c>
       <c r="C221" t="b">
         <v>1</v>
+      </c>
+      <c r="D221" t="s">
+        <v>465</v>
       </c>
     </row>
     <row r="222">
@@ -43730,10 +44399,13 @@
         <v>220</v>
       </c>
       <c r="B222" t="s">
-        <v>467</v>
+        <v>471</v>
       </c>
       <c r="C222" t="b">
         <v>1</v>
+      </c>
+      <c r="D222" t="s">
+        <v>465</v>
       </c>
     </row>
     <row r="223">
@@ -43741,10 +44413,13 @@
         <v>221</v>
       </c>
       <c r="B223" t="s">
-        <v>468</v>
+        <v>471</v>
       </c>
       <c r="C223" t="b">
         <v>1</v>
+      </c>
+      <c r="D223" t="s">
+        <v>465</v>
       </c>
     </row>
     <row r="224">
@@ -43752,10 +44427,13 @@
         <v>222</v>
       </c>
       <c r="B224" t="s">
-        <v>467</v>
+        <v>470</v>
       </c>
       <c r="C224" t="b">
         <v>1</v>
+      </c>
+      <c r="D224" t="s">
+        <v>467</v>
       </c>
     </row>
     <row r="225">
@@ -43763,10 +44441,13 @@
         <v>223</v>
       </c>
       <c r="B225" t="s">
-        <v>467</v>
+        <v>470</v>
       </c>
       <c r="C225" t="b">
         <v>1</v>
+      </c>
+      <c r="D225" t="s">
+        <v>465</v>
       </c>
     </row>
     <row r="226">
@@ -43774,10 +44455,13 @@
         <v>224</v>
       </c>
       <c r="B226" t="s">
-        <v>467</v>
+        <v>470</v>
       </c>
       <c r="C226" t="b">
         <v>1</v>
+      </c>
+      <c r="D226" t="s">
+        <v>465</v>
       </c>
     </row>
     <row r="227">
@@ -43785,10 +44469,13 @@
         <v>225</v>
       </c>
       <c r="B227" t="s">
-        <v>468</v>
+        <v>470</v>
       </c>
       <c r="C227" t="b">
         <v>1</v>
+      </c>
+      <c r="D227" t="s">
+        <v>465</v>
       </c>
     </row>
     <row r="228">
@@ -43796,10 +44483,13 @@
         <v>226</v>
       </c>
       <c r="B228" t="s">
-        <v>467</v>
+        <v>470</v>
       </c>
       <c r="C228" t="b">
         <v>1</v>
+      </c>
+      <c r="D228" t="s">
+        <v>467</v>
       </c>
     </row>
     <row r="229">
@@ -43807,10 +44497,13 @@
         <v>227</v>
       </c>
       <c r="B229" t="s">
-        <v>467</v>
+        <v>470</v>
       </c>
       <c r="C229" t="b">
         <v>1</v>
+      </c>
+      <c r="D229" t="s">
+        <v>465</v>
       </c>
     </row>
     <row r="230">
@@ -43818,10 +44511,13 @@
         <v>228</v>
       </c>
       <c r="B230" t="s">
-        <v>467</v>
+        <v>470</v>
       </c>
       <c r="C230" t="b">
         <v>1</v>
+      </c>
+      <c r="D230" t="s">
+        <v>467</v>
       </c>
     </row>
     <row r="231">
@@ -43829,10 +44525,13 @@
         <v>229</v>
       </c>
       <c r="B231" t="s">
-        <v>467</v>
+        <v>470</v>
       </c>
       <c r="C231" t="b">
         <v>1</v>
+      </c>
+      <c r="D231" t="s">
+        <v>465</v>
       </c>
     </row>
     <row r="232">
@@ -43840,10 +44539,13 @@
         <v>230</v>
       </c>
       <c r="B232" t="s">
-        <v>467</v>
+        <v>470</v>
       </c>
       <c r="C232" t="b">
         <v>1</v>
+      </c>
+      <c r="D232" t="s">
+        <v>467</v>
       </c>
     </row>
     <row r="233">
@@ -43851,10 +44553,13 @@
         <v>231</v>
       </c>
       <c r="B233" t="s">
-        <v>467</v>
+        <v>470</v>
       </c>
       <c r="C233" t="b">
         <v>1</v>
+      </c>
+      <c r="D233" t="s">
+        <v>465</v>
       </c>
     </row>
     <row r="234">
@@ -43862,10 +44567,13 @@
         <v>232</v>
       </c>
       <c r="B234" t="s">
-        <v>468</v>
+        <v>471</v>
       </c>
       <c r="C234" t="b">
         <v>1</v>
+      </c>
+      <c r="D234" t="s">
+        <v>467</v>
       </c>
     </row>
     <row r="235">
@@ -43873,10 +44581,13 @@
         <v>233</v>
       </c>
       <c r="B235" t="s">
-        <v>468</v>
+        <v>470</v>
       </c>
       <c r="C235" t="b">
         <v>1</v>
+      </c>
+      <c r="D235" t="s">
+        <v>467</v>
       </c>
     </row>
     <row r="236">
@@ -43884,10 +44595,13 @@
         <v>234</v>
       </c>
       <c r="B236" t="s">
-        <v>468</v>
+        <v>470</v>
       </c>
       <c r="C236" t="b">
         <v>1</v>
+      </c>
+      <c r="D236" t="s">
+        <v>465</v>
       </c>
     </row>
     <row r="237">
@@ -43895,10 +44609,13 @@
         <v>235</v>
       </c>
       <c r="B237" t="s">
-        <v>468</v>
+        <v>470</v>
       </c>
       <c r="C237" t="b">
         <v>1</v>
+      </c>
+      <c r="D237" t="s">
+        <v>467</v>
       </c>
     </row>
     <row r="238">
@@ -43906,10 +44623,13 @@
         <v>236</v>
       </c>
       <c r="B238" t="s">
-        <v>467</v>
+        <v>470</v>
       </c>
       <c r="C238" t="b">
         <v>1</v>
+      </c>
+      <c r="D238" t="s">
+        <v>467</v>
       </c>
     </row>
     <row r="239">
@@ -43917,10 +44637,13 @@
         <v>237</v>
       </c>
       <c r="B239" t="s">
-        <v>467</v>
+        <v>470</v>
       </c>
       <c r="C239" t="b">
         <v>1</v>
+      </c>
+      <c r="D239" t="s">
+        <v>465</v>
       </c>
     </row>
     <row r="240">
@@ -43928,10 +44651,13 @@
         <v>238</v>
       </c>
       <c r="B240" t="s">
-        <v>468</v>
+        <v>470</v>
       </c>
       <c r="C240" t="b">
         <v>1</v>
+      </c>
+      <c r="D240" t="s">
+        <v>467</v>
       </c>
     </row>
     <row r="241">
@@ -43939,10 +44665,13 @@
         <v>239</v>
       </c>
       <c r="B241" t="s">
-        <v>468</v>
+        <v>470</v>
       </c>
       <c r="C241" t="b">
         <v>1</v>
+      </c>
+      <c r="D241" t="s">
+        <v>467</v>
       </c>
     </row>
     <row r="242">
@@ -43950,10 +44679,13 @@
         <v>240</v>
       </c>
       <c r="B242" t="s">
-        <v>468</v>
+        <v>470</v>
       </c>
       <c r="C242" t="b">
         <v>1</v>
+      </c>
+      <c r="D242" t="s">
+        <v>465</v>
       </c>
     </row>
     <row r="243">
@@ -43961,10 +44693,13 @@
         <v>241</v>
       </c>
       <c r="B243" t="s">
-        <v>467</v>
+        <v>471</v>
       </c>
       <c r="C243" t="b">
         <v>1</v>
+      </c>
+      <c r="D243" t="s">
+        <v>465</v>
       </c>
     </row>
     <row r="244">
@@ -43972,10 +44707,13 @@
         <v>242</v>
       </c>
       <c r="B244" t="s">
-        <v>467</v>
+        <v>470</v>
       </c>
       <c r="C244" t="b">
         <v>1</v>
+      </c>
+      <c r="D244" t="s">
+        <v>465</v>
       </c>
     </row>
     <row r="245">
@@ -43983,10 +44721,13 @@
         <v>243</v>
       </c>
       <c r="B245" t="s">
-        <v>467</v>
+        <v>470</v>
       </c>
       <c r="C245" t="b">
         <v>1</v>
+      </c>
+      <c r="D245" t="s">
+        <v>467</v>
       </c>
     </row>
     <row r="246">
@@ -43994,10 +44735,13 @@
         <v>244</v>
       </c>
       <c r="B246" t="s">
-        <v>467</v>
+        <v>470</v>
       </c>
       <c r="C246" t="b">
         <v>1</v>
+      </c>
+      <c r="D246" t="s">
+        <v>465</v>
       </c>
     </row>
     <row r="247">
@@ -44005,10 +44749,13 @@
         <v>245</v>
       </c>
       <c r="B247" t="s">
-        <v>467</v>
+        <v>470</v>
       </c>
       <c r="C247" t="b">
         <v>1</v>
+      </c>
+      <c r="D247" t="s">
+        <v>465</v>
       </c>
     </row>
     <row r="248">
@@ -44016,10 +44763,13 @@
         <v>246</v>
       </c>
       <c r="B248" t="s">
-        <v>467</v>
+        <v>471</v>
       </c>
       <c r="C248" t="b">
         <v>1</v>
+      </c>
+      <c r="D248" t="s">
+        <v>467</v>
       </c>
     </row>
     <row r="249">
@@ -44027,10 +44777,13 @@
         <v>247</v>
       </c>
       <c r="B249" t="s">
-        <v>467</v>
+        <v>471</v>
       </c>
       <c r="C249" t="b">
         <v>1</v>
+      </c>
+      <c r="D249" t="s">
+        <v>467</v>
       </c>
     </row>
     <row r="250">
@@ -44038,10 +44791,13 @@
         <v>248</v>
       </c>
       <c r="B250" t="s">
-        <v>467</v>
+        <v>470</v>
       </c>
       <c r="C250" t="b">
         <v>1</v>
+      </c>
+      <c r="D250" t="s">
+        <v>465</v>
       </c>
     </row>
     <row r="251">
@@ -44049,10 +44805,13 @@
         <v>249</v>
       </c>
       <c r="B251" t="s">
-        <v>467</v>
+        <v>471</v>
       </c>
       <c r="C251" t="b">
         <v>1</v>
+      </c>
+      <c r="D251" t="s">
+        <v>465</v>
       </c>
     </row>
     <row r="252">
@@ -44060,10 +44819,13 @@
         <v>250</v>
       </c>
       <c r="B252" t="s">
-        <v>467</v>
+        <v>471</v>
       </c>
       <c r="C252" t="b">
         <v>1</v>
+      </c>
+      <c r="D252" t="s">
+        <v>465</v>
       </c>
     </row>
     <row r="253">
@@ -44071,10 +44833,13 @@
         <v>251</v>
       </c>
       <c r="B253" t="s">
-        <v>467</v>
+        <v>470</v>
       </c>
       <c r="C253" t="b">
         <v>1</v>
+      </c>
+      <c r="D253" t="s">
+        <v>467</v>
       </c>
     </row>
     <row r="254">
@@ -44082,10 +44847,13 @@
         <v>252</v>
       </c>
       <c r="B254" t="s">
-        <v>467</v>
+        <v>470</v>
       </c>
       <c r="C254" t="b">
         <v>1</v>
+      </c>
+      <c r="D254" t="s">
+        <v>467</v>
       </c>
     </row>
     <row r="255">
@@ -44093,10 +44861,13 @@
         <v>253</v>
       </c>
       <c r="B255" t="s">
-        <v>467</v>
+        <v>470</v>
       </c>
       <c r="C255" t="b">
         <v>1</v>
+      </c>
+      <c r="D255" t="s">
+        <v>467</v>
       </c>
     </row>
     <row r="256">
@@ -44104,10 +44875,13 @@
         <v>254</v>
       </c>
       <c r="B256" t="s">
-        <v>467</v>
+        <v>471</v>
       </c>
       <c r="C256" t="b">
         <v>1</v>
+      </c>
+      <c r="D256" t="s">
+        <v>467</v>
       </c>
     </row>
     <row r="257">
@@ -44115,10 +44889,13 @@
         <v>255</v>
       </c>
       <c r="B257" t="s">
-        <v>467</v>
+        <v>470</v>
       </c>
       <c r="C257" t="b">
         <v>1</v>
+      </c>
+      <c r="D257" t="s">
+        <v>467</v>
       </c>
     </row>
     <row r="258">
@@ -44126,10 +44903,13 @@
         <v>256</v>
       </c>
       <c r="B258" t="s">
-        <v>467</v>
+        <v>471</v>
       </c>
       <c r="C258" t="b">
         <v>1</v>
+      </c>
+      <c r="D258" t="s">
+        <v>465</v>
       </c>
     </row>
     <row r="259">
@@ -44137,10 +44917,13 @@
         <v>257</v>
       </c>
       <c r="B259" t="s">
-        <v>468</v>
+        <v>470</v>
       </c>
       <c r="C259" t="b">
         <v>1</v>
+      </c>
+      <c r="D259" t="s">
+        <v>467</v>
       </c>
     </row>
     <row r="260">
@@ -44148,10 +44931,13 @@
         <v>258</v>
       </c>
       <c r="B260" t="s">
-        <v>468</v>
+        <v>471</v>
       </c>
       <c r="C260" t="b">
         <v>1</v>
+      </c>
+      <c r="D260" t="s">
+        <v>465</v>
       </c>
     </row>
     <row r="261">
@@ -44159,10 +44945,13 @@
         <v>259</v>
       </c>
       <c r="B261" t="s">
-        <v>467</v>
+        <v>470</v>
       </c>
       <c r="C261" t="b">
         <v>1</v>
+      </c>
+      <c r="D261" t="s">
+        <v>467</v>
       </c>
     </row>
     <row r="262">
@@ -44170,10 +44959,13 @@
         <v>260</v>
       </c>
       <c r="B262" t="s">
-        <v>467</v>
+        <v>471</v>
       </c>
       <c r="C262" t="b">
         <v>1</v>
+      </c>
+      <c r="D262" t="s">
+        <v>465</v>
       </c>
     </row>
     <row r="263">
@@ -44181,10 +44973,13 @@
         <v>261</v>
       </c>
       <c r="B263" t="s">
-        <v>467</v>
+        <v>470</v>
       </c>
       <c r="C263" t="b">
         <v>1</v>
+      </c>
+      <c r="D263" t="s">
+        <v>465</v>
       </c>
     </row>
     <row r="264">
@@ -44192,10 +44987,13 @@
         <v>262</v>
       </c>
       <c r="B264" t="s">
-        <v>467</v>
+        <v>470</v>
       </c>
       <c r="C264" t="b">
         <v>1</v>
+      </c>
+      <c r="D264" t="s">
+        <v>467</v>
       </c>
     </row>
     <row r="265">
@@ -44203,10 +45001,13 @@
         <v>263</v>
       </c>
       <c r="B265" t="s">
-        <v>467</v>
+        <v>471</v>
       </c>
       <c r="C265" t="b">
         <v>1</v>
+      </c>
+      <c r="D265" t="s">
+        <v>467</v>
       </c>
     </row>
     <row r="266">
@@ -44214,10 +45015,13 @@
         <v>264</v>
       </c>
       <c r="B266" t="s">
-        <v>467</v>
+        <v>470</v>
       </c>
       <c r="C266" t="b">
         <v>1</v>
+      </c>
+      <c r="D266" t="s">
+        <v>465</v>
       </c>
     </row>
     <row r="267">
@@ -44225,10 +45029,13 @@
         <v>265</v>
       </c>
       <c r="B267" t="s">
-        <v>468</v>
+        <v>470</v>
       </c>
       <c r="C267" t="b">
         <v>1</v>
+      </c>
+      <c r="D267" t="s">
+        <v>467</v>
       </c>
     </row>
     <row r="268">
@@ -44236,10 +45043,13 @@
         <v>266</v>
       </c>
       <c r="B268" t="s">
-        <v>467</v>
+        <v>471</v>
       </c>
       <c r="C268" t="b">
         <v>1</v>
+      </c>
+      <c r="D268" t="s">
+        <v>465</v>
       </c>
     </row>
     <row r="269">
@@ -44247,10 +45057,13 @@
         <v>267</v>
       </c>
       <c r="B269" t="s">
-        <v>467</v>
+        <v>470</v>
       </c>
       <c r="C269" t="b">
         <v>1</v>
+      </c>
+      <c r="D269" t="s">
+        <v>465</v>
       </c>
     </row>
     <row r="270">
@@ -44258,10 +45071,13 @@
         <v>268</v>
       </c>
       <c r="B270" t="s">
-        <v>467</v>
+        <v>470</v>
       </c>
       <c r="C270" t="b">
         <v>1</v>
+      </c>
+      <c r="D270" t="s">
+        <v>467</v>
       </c>
     </row>
     <row r="271">
@@ -44269,10 +45085,13 @@
         <v>269</v>
       </c>
       <c r="B271" t="s">
-        <v>467</v>
+        <v>470</v>
       </c>
       <c r="C271" t="b">
         <v>1</v>
+      </c>
+      <c r="D271" t="s">
+        <v>467</v>
       </c>
     </row>
     <row r="272">
@@ -44280,10 +45099,13 @@
         <v>270</v>
       </c>
       <c r="B272" t="s">
-        <v>468</v>
+        <v>470</v>
       </c>
       <c r="C272" t="b">
         <v>1</v>
+      </c>
+      <c r="D272" t="s">
+        <v>465</v>
       </c>
     </row>
     <row r="273">
@@ -44291,10 +45113,13 @@
         <v>271</v>
       </c>
       <c r="B273" t="s">
-        <v>467</v>
+        <v>470</v>
       </c>
       <c r="C273" t="b">
         <v>1</v>
+      </c>
+      <c r="D273" t="s">
+        <v>465</v>
       </c>
     </row>
     <row r="274">
@@ -44302,10 +45127,13 @@
         <v>272</v>
       </c>
       <c r="B274" t="s">
-        <v>467</v>
+        <v>470</v>
       </c>
       <c r="C274" t="b">
         <v>1</v>
+      </c>
+      <c r="D274" t="s">
+        <v>465</v>
       </c>
     </row>
     <row r="275">
@@ -44313,10 +45141,13 @@
         <v>273</v>
       </c>
       <c r="B275" t="s">
-        <v>468</v>
+        <v>471</v>
       </c>
       <c r="C275" t="b">
         <v>1</v>
+      </c>
+      <c r="D275" t="s">
+        <v>465</v>
       </c>
     </row>
     <row r="276">
@@ -44324,10 +45155,13 @@
         <v>274</v>
       </c>
       <c r="B276" t="s">
-        <v>468</v>
+        <v>470</v>
       </c>
       <c r="C276" t="b">
         <v>1</v>
+      </c>
+      <c r="D276" t="s">
+        <v>467</v>
       </c>
     </row>
     <row r="277">
@@ -44335,10 +45169,13 @@
         <v>275</v>
       </c>
       <c r="B277" t="s">
-        <v>467</v>
+        <v>470</v>
       </c>
       <c r="C277" t="b">
         <v>1</v>
+      </c>
+      <c r="D277" t="s">
+        <v>465</v>
       </c>
     </row>
     <row r="278">
@@ -44346,10 +45183,13 @@
         <v>276</v>
       </c>
       <c r="B278" t="s">
-        <v>467</v>
+        <v>470</v>
       </c>
       <c r="C278" t="b">
         <v>1</v>
+      </c>
+      <c r="D278" t="s">
+        <v>467</v>
       </c>
     </row>
     <row r="279">
@@ -44357,10 +45197,13 @@
         <v>277</v>
       </c>
       <c r="B279" t="s">
-        <v>468</v>
+        <v>471</v>
       </c>
       <c r="C279" t="b">
         <v>1</v>
+      </c>
+      <c r="D279" t="s">
+        <v>467</v>
       </c>
     </row>
     <row r="280">
@@ -44368,10 +45211,13 @@
         <v>278</v>
       </c>
       <c r="B280" t="s">
-        <v>467</v>
+        <v>470</v>
       </c>
       <c r="C280" t="b">
         <v>1</v>
+      </c>
+      <c r="D280" t="s">
+        <v>467</v>
       </c>
     </row>
     <row r="281">
@@ -44379,10 +45225,13 @@
         <v>279</v>
       </c>
       <c r="B281" t="s">
-        <v>468</v>
+        <v>471</v>
       </c>
       <c r="C281" t="b">
         <v>1</v>
+      </c>
+      <c r="D281" t="s">
+        <v>465</v>
       </c>
     </row>
     <row r="282">
@@ -44390,10 +45239,13 @@
         <v>280</v>
       </c>
       <c r="B282" t="s">
-        <v>468</v>
+        <v>470</v>
       </c>
       <c r="C282" t="b">
         <v>1</v>
+      </c>
+      <c r="D282" t="s">
+        <v>465</v>
       </c>
     </row>
     <row r="283">
@@ -44401,10 +45253,13 @@
         <v>281</v>
       </c>
       <c r="B283" t="s">
-        <v>467</v>
+        <v>470</v>
       </c>
       <c r="C283" t="b">
         <v>1</v>
+      </c>
+      <c r="D283" t="s">
+        <v>465</v>
       </c>
     </row>
     <row r="284">
@@ -44412,10 +45267,13 @@
         <v>282</v>
       </c>
       <c r="B284" t="s">
-        <v>468</v>
+        <v>470</v>
       </c>
       <c r="C284" t="b">
         <v>1</v>
+      </c>
+      <c r="D284" t="s">
+        <v>467</v>
       </c>
     </row>
     <row r="285">
@@ -44423,10 +45281,13 @@
         <v>283</v>
       </c>
       <c r="B285" t="s">
-        <v>468</v>
+        <v>470</v>
       </c>
       <c r="C285" t="b">
         <v>1</v>
+      </c>
+      <c r="D285" t="s">
+        <v>465</v>
       </c>
     </row>
     <row r="286">
@@ -44434,10 +45295,13 @@
         <v>284</v>
       </c>
       <c r="B286" t="s">
-        <v>468</v>
+        <v>470</v>
       </c>
       <c r="C286" t="b">
         <v>1</v>
+      </c>
+      <c r="D286" t="s">
+        <v>465</v>
       </c>
     </row>
     <row r="287">
@@ -44445,10 +45309,13 @@
         <v>285</v>
       </c>
       <c r="B287" t="s">
-        <v>468</v>
+        <v>471</v>
       </c>
       <c r="C287" t="b">
         <v>1</v>
+      </c>
+      <c r="D287" t="s">
+        <v>465</v>
       </c>
     </row>
     <row r="288">
@@ -44456,10 +45323,13 @@
         <v>286</v>
       </c>
       <c r="B288" t="s">
-        <v>467</v>
+        <v>470</v>
       </c>
       <c r="C288" t="b">
         <v>1</v>
+      </c>
+      <c r="D288" t="s">
+        <v>467</v>
       </c>
     </row>
     <row r="289">
@@ -44467,10 +45337,13 @@
         <v>287</v>
       </c>
       <c r="B289" t="s">
-        <v>467</v>
+        <v>471</v>
       </c>
       <c r="C289" t="b">
         <v>1</v>
+      </c>
+      <c r="D289" t="s">
+        <v>465</v>
       </c>
     </row>
     <row r="290">
@@ -44478,10 +45351,13 @@
         <v>288</v>
       </c>
       <c r="B290" t="s">
-        <v>467</v>
+        <v>471</v>
       </c>
       <c r="C290" t="b">
         <v>1</v>
+      </c>
+      <c r="D290" t="s">
+        <v>465</v>
       </c>
     </row>
     <row r="291">
@@ -44489,10 +45365,13 @@
         <v>289</v>
       </c>
       <c r="B291" t="s">
-        <v>467</v>
+        <v>471</v>
       </c>
       <c r="C291" t="b">
         <v>1</v>
+      </c>
+      <c r="D291" t="s">
+        <v>465</v>
       </c>
     </row>
     <row r="292">
@@ -44500,10 +45379,13 @@
         <v>290</v>
       </c>
       <c r="B292" t="s">
-        <v>468</v>
+        <v>471</v>
       </c>
       <c r="C292" t="b">
         <v>1</v>
+      </c>
+      <c r="D292" t="s">
+        <v>465</v>
       </c>
     </row>
     <row r="293">
@@ -44511,10 +45393,13 @@
         <v>291</v>
       </c>
       <c r="B293" t="s">
-        <v>468</v>
+        <v>470</v>
       </c>
       <c r="C293" t="b">
         <v>1</v>
+      </c>
+      <c r="D293" t="s">
+        <v>465</v>
       </c>
     </row>
     <row r="294">
@@ -44522,10 +45407,13 @@
         <v>292</v>
       </c>
       <c r="B294" t="s">
-        <v>467</v>
+        <v>470</v>
       </c>
       <c r="C294" t="b">
         <v>1</v>
+      </c>
+      <c r="D294" t="s">
+        <v>465</v>
       </c>
     </row>
     <row r="295">
@@ -44533,10 +45421,13 @@
         <v>293</v>
       </c>
       <c r="B295" t="s">
-        <v>467</v>
+        <v>470</v>
       </c>
       <c r="C295" t="b">
         <v>1</v>
+      </c>
+      <c r="D295" t="s">
+        <v>465</v>
       </c>
     </row>
     <row r="296">
@@ -44544,10 +45435,13 @@
         <v>294</v>
       </c>
       <c r="B296" t="s">
-        <v>467</v>
+        <v>470</v>
       </c>
       <c r="C296" t="b">
         <v>1</v>
+      </c>
+      <c r="D296" t="s">
+        <v>467</v>
       </c>
     </row>
     <row r="297">
@@ -44555,10 +45449,13 @@
         <v>295</v>
       </c>
       <c r="B297" t="s">
-        <v>467</v>
+        <v>470</v>
       </c>
       <c r="C297" t="b">
         <v>1</v>
+      </c>
+      <c r="D297" t="s">
+        <v>465</v>
       </c>
     </row>
     <row r="298">
@@ -44566,10 +45463,13 @@
         <v>296</v>
       </c>
       <c r="B298" t="s">
-        <v>467</v>
+        <v>471</v>
       </c>
       <c r="C298" t="b">
         <v>1</v>
+      </c>
+      <c r="D298" t="s">
+        <v>465</v>
       </c>
     </row>
     <row r="299">
@@ -44577,10 +45477,13 @@
         <v>297</v>
       </c>
       <c r="B299" t="s">
-        <v>468</v>
+        <v>470</v>
       </c>
       <c r="C299" t="b">
         <v>1</v>
+      </c>
+      <c r="D299" t="s">
+        <v>465</v>
       </c>
     </row>
     <row r="300">
@@ -44588,10 +45491,13 @@
         <v>298</v>
       </c>
       <c r="B300" t="s">
-        <v>468</v>
+        <v>470</v>
       </c>
       <c r="C300" t="b">
         <v>1</v>
+      </c>
+      <c r="D300" t="s">
+        <v>467</v>
       </c>
     </row>
     <row r="301">
@@ -44599,10 +45505,13 @@
         <v>299</v>
       </c>
       <c r="B301" t="s">
-        <v>467</v>
+        <v>471</v>
       </c>
       <c r="C301" t="b">
         <v>1</v>
+      </c>
+      <c r="D301" t="s">
+        <v>465</v>
       </c>
     </row>
     <row r="302">
@@ -44610,10 +45519,13 @@
         <v>300</v>
       </c>
       <c r="B302" t="s">
-        <v>467</v>
+        <v>470</v>
       </c>
       <c r="C302" t="b">
         <v>1</v>
+      </c>
+      <c r="D302" t="s">
+        <v>467</v>
       </c>
     </row>
     <row r="303">
@@ -44621,10 +45533,13 @@
         <v>301</v>
       </c>
       <c r="B303" t="s">
-        <v>467</v>
+        <v>470</v>
       </c>
       <c r="C303" t="b">
         <v>1</v>
+      </c>
+      <c r="D303" t="s">
+        <v>465</v>
       </c>
     </row>
     <row r="304">
@@ -44632,10 +45547,13 @@
         <v>302</v>
       </c>
       <c r="B304" t="s">
-        <v>468</v>
+        <v>471</v>
       </c>
       <c r="C304" t="b">
         <v>1</v>
+      </c>
+      <c r="D304" t="s">
+        <v>465</v>
       </c>
     </row>
     <row r="305">
@@ -44643,10 +45561,13 @@
         <v>303</v>
       </c>
       <c r="B305" t="s">
-        <v>468</v>
+        <v>470</v>
       </c>
       <c r="C305" t="b">
         <v>1</v>
+      </c>
+      <c r="D305" t="s">
+        <v>465</v>
       </c>
     </row>
     <row r="306">
@@ -44654,10 +45575,13 @@
         <v>304</v>
       </c>
       <c r="B306" t="s">
-        <v>467</v>
+        <v>471</v>
       </c>
       <c r="C306" t="b">
         <v>1</v>
+      </c>
+      <c r="D306" t="s">
+        <v>465</v>
       </c>
     </row>
     <row r="307">
@@ -44665,10 +45589,13 @@
         <v>305</v>
       </c>
       <c r="B307" t="s">
-        <v>468</v>
+        <v>470</v>
       </c>
       <c r="C307" t="b">
         <v>1</v>
+      </c>
+      <c r="D307" t="s">
+        <v>465</v>
       </c>
     </row>
     <row r="308">
@@ -44676,10 +45603,13 @@
         <v>306</v>
       </c>
       <c r="B308" t="s">
-        <v>468</v>
+        <v>470</v>
       </c>
       <c r="C308" t="b">
         <v>1</v>
+      </c>
+      <c r="D308" t="s">
+        <v>465</v>
       </c>
     </row>
     <row r="309">
@@ -44687,10 +45617,13 @@
         <v>307</v>
       </c>
       <c r="B309" t="s">
-        <v>467</v>
+        <v>470</v>
       </c>
       <c r="C309" t="b">
         <v>1</v>
+      </c>
+      <c r="D309" t="s">
+        <v>467</v>
       </c>
     </row>
     <row r="310">
@@ -44698,10 +45631,13 @@
         <v>308</v>
       </c>
       <c r="B310" t="s">
-        <v>467</v>
+        <v>470</v>
       </c>
       <c r="C310" t="b">
         <v>1</v>
+      </c>
+      <c r="D310" t="s">
+        <v>465</v>
       </c>
     </row>
     <row r="311">
@@ -44709,10 +45645,13 @@
         <v>309</v>
       </c>
       <c r="B311" t="s">
-        <v>467</v>
+        <v>471</v>
       </c>
       <c r="C311" t="b">
         <v>1</v>
+      </c>
+      <c r="D311" t="s">
+        <v>465</v>
       </c>
     </row>
     <row r="312">
@@ -44720,10 +45659,13 @@
         <v>310</v>
       </c>
       <c r="B312" t="s">
-        <v>467</v>
+        <v>470</v>
       </c>
       <c r="C312" t="b">
         <v>1</v>
+      </c>
+      <c r="D312" t="s">
+        <v>465</v>
       </c>
     </row>
     <row r="313">
@@ -44731,10 +45673,13 @@
         <v>311</v>
       </c>
       <c r="B313" t="s">
-        <v>467</v>
+        <v>470</v>
       </c>
       <c r="C313" t="b">
         <v>1</v>
+      </c>
+      <c r="D313" t="s">
+        <v>467</v>
       </c>
     </row>
     <row r="314">
@@ -44742,10 +45687,13 @@
         <v>312</v>
       </c>
       <c r="B314" t="s">
-        <v>467</v>
+        <v>471</v>
       </c>
       <c r="C314" t="b">
         <v>1</v>
+      </c>
+      <c r="D314" t="s">
+        <v>465</v>
       </c>
     </row>
     <row r="315">
@@ -44753,10 +45701,13 @@
         <v>313</v>
       </c>
       <c r="B315" t="s">
-        <v>467</v>
+        <v>470</v>
       </c>
       <c r="C315" t="b">
         <v>1</v>
+      </c>
+      <c r="D315" t="s">
+        <v>467</v>
       </c>
     </row>
     <row r="316">
@@ -44764,10 +45715,13 @@
         <v>314</v>
       </c>
       <c r="B316" t="s">
-        <v>468</v>
+        <v>470</v>
       </c>
       <c r="C316" t="b">
         <v>1</v>
+      </c>
+      <c r="D316" t="s">
+        <v>467</v>
       </c>
     </row>
     <row r="317">
@@ -44775,10 +45729,13 @@
         <v>315</v>
       </c>
       <c r="B317" t="s">
-        <v>467</v>
+        <v>471</v>
       </c>
       <c r="C317" t="b">
         <v>1</v>
+      </c>
+      <c r="D317" t="s">
+        <v>465</v>
       </c>
     </row>
     <row r="318">
@@ -44786,10 +45743,13 @@
         <v>316</v>
       </c>
       <c r="B318" t="s">
-        <v>467</v>
+        <v>470</v>
       </c>
       <c r="C318" t="b">
         <v>1</v>
+      </c>
+      <c r="D318" t="s">
+        <v>465</v>
       </c>
     </row>
     <row r="319">
@@ -44797,10 +45757,13 @@
         <v>317</v>
       </c>
       <c r="B319" t="s">
-        <v>467</v>
+        <v>471</v>
       </c>
       <c r="C319" t="b">
         <v>1</v>
+      </c>
+      <c r="D319" t="s">
+        <v>467</v>
       </c>
     </row>
     <row r="320">
@@ -44808,10 +45771,13 @@
         <v>318</v>
       </c>
       <c r="B320" t="s">
-        <v>467</v>
+        <v>471</v>
       </c>
       <c r="C320" t="b">
         <v>1</v>
+      </c>
+      <c r="D320" t="s">
+        <v>465</v>
       </c>
     </row>
     <row r="321">
@@ -44819,10 +45785,13 @@
         <v>319</v>
       </c>
       <c r="B321" t="s">
-        <v>467</v>
+        <v>470</v>
       </c>
       <c r="C321" t="b">
         <v>1</v>
+      </c>
+      <c r="D321" t="s">
+        <v>467</v>
       </c>
     </row>
     <row r="322">
@@ -44830,10 +45799,13 @@
         <v>320</v>
       </c>
       <c r="B322" t="s">
-        <v>468</v>
+        <v>470</v>
       </c>
       <c r="C322" t="b">
         <v>1</v>
+      </c>
+      <c r="D322" t="s">
+        <v>467</v>
       </c>
     </row>
     <row r="323">
@@ -44841,10 +45813,13 @@
         <v>321</v>
       </c>
       <c r="B323" t="s">
-        <v>467</v>
+        <v>470</v>
       </c>
       <c r="C323" t="b">
         <v>1</v>
+      </c>
+      <c r="D323" t="s">
+        <v>467</v>
       </c>
     </row>
     <row r="324">
@@ -44852,10 +45827,13 @@
         <v>322</v>
       </c>
       <c r="B324" t="s">
-        <v>467</v>
+        <v>470</v>
       </c>
       <c r="C324" t="b">
         <v>1</v>
+      </c>
+      <c r="D324" t="s">
+        <v>467</v>
       </c>
     </row>
     <row r="325">
@@ -44863,10 +45841,13 @@
         <v>323</v>
       </c>
       <c r="B325" t="s">
-        <v>468</v>
+        <v>470</v>
       </c>
       <c r="C325" t="b">
         <v>1</v>
+      </c>
+      <c r="D325" t="s">
+        <v>465</v>
       </c>
     </row>
     <row r="326">
@@ -44874,10 +45855,13 @@
         <v>324</v>
       </c>
       <c r="B326" t="s">
-        <v>467</v>
+        <v>470</v>
       </c>
       <c r="C326" t="b">
         <v>1</v>
+      </c>
+      <c r="D326" t="s">
+        <v>467</v>
       </c>
     </row>
     <row r="327">
@@ -44885,10 +45869,13 @@
         <v>325</v>
       </c>
       <c r="B327" t="s">
-        <v>467</v>
+        <v>471</v>
       </c>
       <c r="C327" t="b">
         <v>1</v>
+      </c>
+      <c r="D327" t="s">
+        <v>465</v>
       </c>
     </row>
     <row r="328">
@@ -44896,10 +45883,13 @@
         <v>326</v>
       </c>
       <c r="B328" t="s">
-        <v>467</v>
+        <v>470</v>
       </c>
       <c r="C328" t="b">
         <v>1</v>
+      </c>
+      <c r="D328" t="s">
+        <v>467</v>
       </c>
     </row>
     <row r="329">
@@ -44907,10 +45897,13 @@
         <v>327</v>
       </c>
       <c r="B329" t="s">
-        <v>468</v>
+        <v>470</v>
       </c>
       <c r="C329" t="b">
         <v>1</v>
+      </c>
+      <c r="D329" t="s">
+        <v>465</v>
       </c>
     </row>
     <row r="330">
@@ -44918,10 +45911,13 @@
         <v>328</v>
       </c>
       <c r="B330" t="s">
-        <v>468</v>
+        <v>470</v>
       </c>
       <c r="C330" t="b">
         <v>1</v>
+      </c>
+      <c r="D330" t="s">
+        <v>465</v>
       </c>
     </row>
     <row r="331">
@@ -44929,10 +45925,13 @@
         <v>329</v>
       </c>
       <c r="B331" t="s">
-        <v>467</v>
+        <v>470</v>
       </c>
       <c r="C331" t="b">
         <v>1</v>
+      </c>
+      <c r="D331" t="s">
+        <v>465</v>
       </c>
     </row>
     <row r="332">
@@ -44940,10 +45939,13 @@
         <v>330</v>
       </c>
       <c r="B332" t="s">
-        <v>468</v>
+        <v>470</v>
       </c>
       <c r="C332" t="b">
         <v>1</v>
+      </c>
+      <c r="D332" t="s">
+        <v>467</v>
       </c>
     </row>
     <row r="333">
@@ -44951,10 +45953,13 @@
         <v>331</v>
       </c>
       <c r="B333" t="s">
-        <v>467</v>
+        <v>471</v>
       </c>
       <c r="C333" t="b">
         <v>1</v>
+      </c>
+      <c r="D333" t="s">
+        <v>465</v>
       </c>
     </row>
     <row r="334">
@@ -44962,10 +45967,13 @@
         <v>332</v>
       </c>
       <c r="B334" t="s">
-        <v>467</v>
+        <v>470</v>
       </c>
       <c r="C334" t="b">
         <v>1</v>
+      </c>
+      <c r="D334" t="s">
+        <v>467</v>
       </c>
     </row>
     <row r="335">
@@ -44973,10 +45981,13 @@
         <v>333</v>
       </c>
       <c r="B335" t="s">
-        <v>467</v>
+        <v>470</v>
       </c>
       <c r="C335" t="b">
         <v>1</v>
+      </c>
+      <c r="D335" t="s">
+        <v>467</v>
       </c>
     </row>
     <row r="336">
@@ -44984,10 +45995,13 @@
         <v>334</v>
       </c>
       <c r="B336" t="s">
-        <v>467</v>
+        <v>471</v>
       </c>
       <c r="C336" t="b">
         <v>1</v>
+      </c>
+      <c r="D336" t="s">
+        <v>467</v>
       </c>
     </row>
     <row r="337">
@@ -44995,10 +46009,13 @@
         <v>335</v>
       </c>
       <c r="B337" t="s">
-        <v>467</v>
+        <v>470</v>
       </c>
       <c r="C337" t="b">
         <v>1</v>
+      </c>
+      <c r="D337" t="s">
+        <v>467</v>
       </c>
     </row>
     <row r="338">
@@ -45006,10 +46023,13 @@
         <v>336</v>
       </c>
       <c r="B338" t="s">
-        <v>467</v>
+        <v>470</v>
       </c>
       <c r="C338" t="b">
         <v>1</v>
+      </c>
+      <c r="D338" t="s">
+        <v>465</v>
       </c>
     </row>
     <row r="339">
@@ -45017,10 +46037,13 @@
         <v>337</v>
       </c>
       <c r="B339" t="s">
-        <v>467</v>
+        <v>470</v>
       </c>
       <c r="C339" t="b">
         <v>1</v>
+      </c>
+      <c r="D339" t="s">
+        <v>467</v>
       </c>
     </row>
     <row r="340">
@@ -45028,10 +46051,13 @@
         <v>338</v>
       </c>
       <c r="B340" t="s">
-        <v>468</v>
+        <v>470</v>
       </c>
       <c r="C340" t="b">
         <v>1</v>
+      </c>
+      <c r="D340" t="s">
+        <v>467</v>
       </c>
     </row>
     <row r="341">
@@ -45039,10 +46065,13 @@
         <v>339</v>
       </c>
       <c r="B341" t="s">
-        <v>467</v>
+        <v>471</v>
       </c>
       <c r="C341" t="b">
         <v>1</v>
+      </c>
+      <c r="D341" t="s">
+        <v>467</v>
       </c>
     </row>
     <row r="342">
@@ -45050,10 +46079,13 @@
         <v>340</v>
       </c>
       <c r="B342" t="s">
-        <v>467</v>
+        <v>470</v>
       </c>
       <c r="C342" t="b">
         <v>1</v>
+      </c>
+      <c r="D342" t="s">
+        <v>467</v>
       </c>
     </row>
     <row r="343">
@@ -45061,10 +46093,13 @@
         <v>341</v>
       </c>
       <c r="B343" t="s">
-        <v>468</v>
+        <v>470</v>
       </c>
       <c r="C343" t="b">
         <v>1</v>
+      </c>
+      <c r="D343" t="s">
+        <v>467</v>
       </c>
     </row>
     <row r="344">
@@ -45072,10 +46107,13 @@
         <v>342</v>
       </c>
       <c r="B344" t="s">
-        <v>467</v>
+        <v>470</v>
       </c>
       <c r="C344" t="b">
         <v>1</v>
+      </c>
+      <c r="D344" t="s">
+        <v>465</v>
       </c>
     </row>
     <row r="345">
@@ -45083,10 +46121,13 @@
         <v>343</v>
       </c>
       <c r="B345" t="s">
-        <v>467</v>
+        <v>470</v>
       </c>
       <c r="C345" t="b">
         <v>1</v>
+      </c>
+      <c r="D345" t="s">
+        <v>465</v>
       </c>
     </row>
     <row r="346">
@@ -45094,10 +46135,13 @@
         <v>344</v>
       </c>
       <c r="B346" t="s">
-        <v>467</v>
+        <v>470</v>
       </c>
       <c r="C346" t="b">
         <v>1</v>
+      </c>
+      <c r="D346" t="s">
+        <v>465</v>
       </c>
     </row>
     <row r="347">
@@ -45105,10 +46149,13 @@
         <v>345</v>
       </c>
       <c r="B347" t="s">
-        <v>467</v>
+        <v>470</v>
       </c>
       <c r="C347" t="b">
         <v>1</v>
+      </c>
+      <c r="D347" t="s">
+        <v>467</v>
       </c>
     </row>
     <row r="348">
@@ -45116,10 +46163,13 @@
         <v>346</v>
       </c>
       <c r="B348" t="s">
-        <v>467</v>
+        <v>470</v>
       </c>
       <c r="C348" t="b">
         <v>1</v>
+      </c>
+      <c r="D348" t="s">
+        <v>465</v>
       </c>
     </row>
     <row r="349">
@@ -45127,10 +46177,13 @@
         <v>347</v>
       </c>
       <c r="B349" t="s">
-        <v>467</v>
+        <v>470</v>
       </c>
       <c r="C349" t="b">
         <v>1</v>
+      </c>
+      <c r="D349" t="s">
+        <v>467</v>
       </c>
     </row>
     <row r="350">
@@ -45138,10 +46191,13 @@
         <v>348</v>
       </c>
       <c r="B350" t="s">
-        <v>467</v>
+        <v>470</v>
       </c>
       <c r="C350" t="b">
         <v>1</v>
+      </c>
+      <c r="D350" t="s">
+        <v>465</v>
       </c>
     </row>
     <row r="351">
@@ -45149,10 +46205,13 @@
         <v>349</v>
       </c>
       <c r="B351" t="s">
-        <v>467</v>
+        <v>470</v>
       </c>
       <c r="C351" t="b">
         <v>1</v>
+      </c>
+      <c r="D351" t="s">
+        <v>465</v>
       </c>
     </row>
     <row r="352">
@@ -45160,10 +46219,13 @@
         <v>350</v>
       </c>
       <c r="B352" t="s">
-        <v>467</v>
+        <v>471</v>
       </c>
       <c r="C352" t="b">
         <v>1</v>
+      </c>
+      <c r="D352" t="s">
+        <v>467</v>
       </c>
     </row>
     <row r="353">
@@ -45171,10 +46233,13 @@
         <v>351</v>
       </c>
       <c r="B353" t="s">
-        <v>468</v>
+        <v>470</v>
       </c>
       <c r="C353" t="b">
         <v>1</v>
+      </c>
+      <c r="D353" t="s">
+        <v>465</v>
       </c>
     </row>
     <row r="354">
@@ -45182,10 +46247,13 @@
         <v>352</v>
       </c>
       <c r="B354" t="s">
-        <v>468</v>
+        <v>470</v>
       </c>
       <c r="C354" t="b">
         <v>1</v>
+      </c>
+      <c r="D354" t="s">
+        <v>465</v>
       </c>
     </row>
     <row r="355">
@@ -45193,10 +46261,13 @@
         <v>353</v>
       </c>
       <c r="B355" t="s">
-        <v>467</v>
+        <v>471</v>
       </c>
       <c r="C355" t="b">
         <v>1</v>
+      </c>
+      <c r="D355" t="s">
+        <v>467</v>
       </c>
     </row>
     <row r="356">
@@ -45204,10 +46275,13 @@
         <v>354</v>
       </c>
       <c r="B356" t="s">
-        <v>468</v>
+        <v>470</v>
       </c>
       <c r="C356" t="b">
         <v>1</v>
+      </c>
+      <c r="D356" t="s">
+        <v>465</v>
       </c>
     </row>
     <row r="357">
@@ -45215,10 +46289,13 @@
         <v>355</v>
       </c>
       <c r="B357" t="s">
-        <v>467</v>
+        <v>471</v>
       </c>
       <c r="C357" t="b">
         <v>1</v>
+      </c>
+      <c r="D357" t="s">
+        <v>467</v>
       </c>
     </row>
     <row r="358">
@@ -45226,10 +46303,13 @@
         <v>356</v>
       </c>
       <c r="B358" t="s">
-        <v>467</v>
+        <v>471</v>
       </c>
       <c r="C358" t="b">
         <v>1</v>
+      </c>
+      <c r="D358" t="s">
+        <v>467</v>
       </c>
     </row>
     <row r="359">
@@ -45237,10 +46317,13 @@
         <v>357</v>
       </c>
       <c r="B359" t="s">
-        <v>467</v>
+        <v>470</v>
       </c>
       <c r="C359" t="b">
         <v>1</v>
+      </c>
+      <c r="D359" t="s">
+        <v>467</v>
       </c>
     </row>
     <row r="360">
@@ -45248,10 +46331,13 @@
         <v>358</v>
       </c>
       <c r="B360" t="s">
-        <v>467</v>
+        <v>470</v>
       </c>
       <c r="C360" t="b">
         <v>1</v>
+      </c>
+      <c r="D360" t="s">
+        <v>465</v>
       </c>
     </row>
     <row r="361">
@@ -45259,10 +46345,13 @@
         <v>359</v>
       </c>
       <c r="B361" t="s">
-        <v>468</v>
+        <v>471</v>
       </c>
       <c r="C361" t="b">
         <v>1</v>
+      </c>
+      <c r="D361" t="s">
+        <v>465</v>
       </c>
     </row>
     <row r="362">
@@ -45270,10 +46359,13 @@
         <v>360</v>
       </c>
       <c r="B362" t="s">
-        <v>467</v>
+        <v>470</v>
       </c>
       <c r="C362" t="b">
         <v>1</v>
+      </c>
+      <c r="D362" t="s">
+        <v>467</v>
       </c>
     </row>
     <row r="363">
@@ -45281,10 +46373,13 @@
         <v>361</v>
       </c>
       <c r="B363" t="s">
-        <v>467</v>
+        <v>470</v>
       </c>
       <c r="C363" t="b">
         <v>1</v>
+      </c>
+      <c r="D363" t="s">
+        <v>465</v>
       </c>
     </row>
     <row r="364">
@@ -45292,10 +46387,13 @@
         <v>362</v>
       </c>
       <c r="B364" t="s">
-        <v>467</v>
+        <v>471</v>
       </c>
       <c r="C364" t="b">
         <v>1</v>
+      </c>
+      <c r="D364" t="s">
+        <v>467</v>
       </c>
     </row>
     <row r="365">
@@ -45303,10 +46401,13 @@
         <v>363</v>
       </c>
       <c r="B365" t="s">
-        <v>467</v>
+        <v>471</v>
       </c>
       <c r="C365" t="b">
         <v>1</v>
+      </c>
+      <c r="D365" t="s">
+        <v>465</v>
       </c>
     </row>
     <row r="366">
@@ -45314,10 +46415,13 @@
         <v>364</v>
       </c>
       <c r="B366" t="s">
-        <v>468</v>
+        <v>470</v>
       </c>
       <c r="C366" t="b">
         <v>1</v>
+      </c>
+      <c r="D366" t="s">
+        <v>465</v>
       </c>
     </row>
     <row r="367">
@@ -45325,10 +46429,13 @@
         <v>365</v>
       </c>
       <c r="B367" t="s">
-        <v>468</v>
+        <v>470</v>
       </c>
       <c r="C367" t="b">
         <v>1</v>
+      </c>
+      <c r="D367" t="s">
+        <v>465</v>
       </c>
     </row>
     <row r="368">
@@ -45336,10 +46443,13 @@
         <v>366</v>
       </c>
       <c r="B368" t="s">
-        <v>467</v>
+        <v>470</v>
       </c>
       <c r="C368" t="b">
         <v>1</v>
+      </c>
+      <c r="D368" t="s">
+        <v>465</v>
       </c>
     </row>
     <row r="369">
@@ -45347,10 +46457,13 @@
         <v>367</v>
       </c>
       <c r="B369" t="s">
-        <v>467</v>
+        <v>471</v>
       </c>
       <c r="C369" t="b">
         <v>1</v>
+      </c>
+      <c r="D369" t="s">
+        <v>467</v>
       </c>
     </row>
     <row r="370">
@@ -45358,10 +46471,13 @@
         <v>368</v>
       </c>
       <c r="B370" t="s">
-        <v>468</v>
+        <v>470</v>
       </c>
       <c r="C370" t="b">
         <v>1</v>
+      </c>
+      <c r="D370" t="s">
+        <v>467</v>
       </c>
     </row>
     <row r="371">
@@ -45369,10 +46485,13 @@
         <v>369</v>
       </c>
       <c r="B371" t="s">
-        <v>467</v>
+        <v>470</v>
       </c>
       <c r="C371" t="b">
         <v>1</v>
+      </c>
+      <c r="D371" t="s">
+        <v>467</v>
       </c>
     </row>
     <row r="372">
@@ -45380,10 +46499,13 @@
         <v>370</v>
       </c>
       <c r="B372" t="s">
-        <v>467</v>
+        <v>470</v>
       </c>
       <c r="C372" t="b">
         <v>1</v>
+      </c>
+      <c r="D372" t="s">
+        <v>467</v>
       </c>
     </row>
     <row r="373">
@@ -45391,10 +46513,13 @@
         <v>371</v>
       </c>
       <c r="B373" t="s">
-        <v>467</v>
+        <v>470</v>
       </c>
       <c r="C373" t="b">
         <v>1</v>
+      </c>
+      <c r="D373" t="s">
+        <v>467</v>
       </c>
     </row>
     <row r="374">
@@ -45402,10 +46527,13 @@
         <v>372</v>
       </c>
       <c r="B374" t="s">
-        <v>468</v>
+        <v>470</v>
       </c>
       <c r="C374" t="b">
         <v>1</v>
+      </c>
+      <c r="D374" t="s">
+        <v>465</v>
       </c>
     </row>
     <row r="375">
@@ -45413,10 +46541,13 @@
         <v>373</v>
       </c>
       <c r="B375" t="s">
-        <v>468</v>
+        <v>470</v>
       </c>
       <c r="C375" t="b">
         <v>1</v>
+      </c>
+      <c r="D375" t="s">
+        <v>465</v>
       </c>
     </row>
     <row r="376">
@@ -45424,10 +46555,13 @@
         <v>374</v>
       </c>
       <c r="B376" t="s">
-        <v>467</v>
+        <v>470</v>
       </c>
       <c r="C376" t="b">
         <v>1</v>
+      </c>
+      <c r="D376" t="s">
+        <v>465</v>
       </c>
     </row>
     <row r="377">
@@ -45435,10 +46569,13 @@
         <v>375</v>
       </c>
       <c r="B377" t="s">
-        <v>467</v>
+        <v>470</v>
       </c>
       <c r="C377" t="b">
         <v>1</v>
+      </c>
+      <c r="D377" t="s">
+        <v>467</v>
       </c>
     </row>
     <row r="378">
@@ -45446,10 +46583,13 @@
         <v>376</v>
       </c>
       <c r="B378" t="s">
-        <v>468</v>
+        <v>471</v>
       </c>
       <c r="C378" t="b">
         <v>1</v>
+      </c>
+      <c r="D378" t="s">
+        <v>465</v>
       </c>
     </row>
     <row r="379">
@@ -45457,10 +46597,13 @@
         <v>377</v>
       </c>
       <c r="B379" t="s">
-        <v>467</v>
+        <v>470</v>
       </c>
       <c r="C379" t="b">
         <v>1</v>
+      </c>
+      <c r="D379" t="s">
+        <v>465</v>
       </c>
     </row>
     <row r="380">
@@ -45468,10 +46611,13 @@
         <v>378</v>
       </c>
       <c r="B380" t="s">
-        <v>467</v>
+        <v>471</v>
       </c>
       <c r="C380" t="b">
         <v>1</v>
+      </c>
+      <c r="D380" t="s">
+        <v>467</v>
       </c>
     </row>
     <row r="381">
@@ -45479,10 +46625,13 @@
         <v>379</v>
       </c>
       <c r="B381" t="s">
-        <v>467</v>
+        <v>470</v>
       </c>
       <c r="C381" t="b">
         <v>1</v>
+      </c>
+      <c r="D381" t="s">
+        <v>467</v>
       </c>
     </row>
     <row r="382">
@@ -45490,10 +46639,13 @@
         <v>380</v>
       </c>
       <c r="B382" t="s">
-        <v>467</v>
+        <v>471</v>
       </c>
       <c r="C382" t="b">
         <v>1</v>
+      </c>
+      <c r="D382" t="s">
+        <v>465</v>
       </c>
     </row>
     <row r="383">
@@ -45501,10 +46653,13 @@
         <v>381</v>
       </c>
       <c r="B383" t="s">
-        <v>467</v>
+        <v>470</v>
       </c>
       <c r="C383" t="b">
         <v>1</v>
+      </c>
+      <c r="D383" t="s">
+        <v>465</v>
       </c>
     </row>
     <row r="384">
@@ -45512,10 +46667,13 @@
         <v>382</v>
       </c>
       <c r="B384" t="s">
-        <v>467</v>
+        <v>471</v>
       </c>
       <c r="C384" t="b">
         <v>1</v>
+      </c>
+      <c r="D384" t="s">
+        <v>467</v>
       </c>
     </row>
     <row r="385">
@@ -45523,10 +46681,13 @@
         <v>383</v>
       </c>
       <c r="B385" t="s">
-        <v>467</v>
+        <v>470</v>
       </c>
       <c r="C385" t="b">
         <v>1</v>
+      </c>
+      <c r="D385" t="s">
+        <v>465</v>
       </c>
     </row>
     <row r="386">
@@ -45534,10 +46695,13 @@
         <v>384</v>
       </c>
       <c r="B386" t="s">
-        <v>468</v>
+        <v>470</v>
       </c>
       <c r="C386" t="b">
         <v>1</v>
+      </c>
+      <c r="D386" t="s">
+        <v>465</v>
       </c>
     </row>
     <row r="387">
@@ -45545,10 +46709,13 @@
         <v>385</v>
       </c>
       <c r="B387" t="s">
-        <v>467</v>
+        <v>471</v>
       </c>
       <c r="C387" t="b">
         <v>1</v>
+      </c>
+      <c r="D387" t="s">
+        <v>467</v>
       </c>
     </row>
     <row r="388">
@@ -45556,10 +46723,13 @@
         <v>386</v>
       </c>
       <c r="B388" t="s">
-        <v>468</v>
+        <v>470</v>
       </c>
       <c r="C388" t="b">
         <v>1</v>
+      </c>
+      <c r="D388" t="s">
+        <v>467</v>
       </c>
     </row>
     <row r="389">
@@ -45567,10 +46737,13 @@
         <v>387</v>
       </c>
       <c r="B389" t="s">
-        <v>468</v>
+        <v>471</v>
       </c>
       <c r="C389" t="b">
         <v>1</v>
+      </c>
+      <c r="D389" t="s">
+        <v>465</v>
       </c>
     </row>
     <row r="390">
@@ -45578,10 +46751,13 @@
         <v>388</v>
       </c>
       <c r="B390" t="s">
-        <v>467</v>
+        <v>470</v>
       </c>
       <c r="C390" t="b">
         <v>1</v>
+      </c>
+      <c r="D390" t="s">
+        <v>465</v>
       </c>
     </row>
     <row r="391">
@@ -45589,10 +46765,13 @@
         <v>389</v>
       </c>
       <c r="B391" t="s">
-        <v>467</v>
+        <v>470</v>
       </c>
       <c r="C391" t="b">
         <v>1</v>
+      </c>
+      <c r="D391" t="s">
+        <v>465</v>
       </c>
     </row>
     <row r="392">
@@ -45600,10 +46779,13 @@
         <v>390</v>
       </c>
       <c r="B392" t="s">
-        <v>467</v>
+        <v>470</v>
       </c>
       <c r="C392" t="b">
         <v>1</v>
+      </c>
+      <c r="D392" t="s">
+        <v>465</v>
       </c>
     </row>
     <row r="393">
@@ -45611,10 +46793,13 @@
         <v>391</v>
       </c>
       <c r="B393" t="s">
-        <v>467</v>
+        <v>471</v>
       </c>
       <c r="C393" t="b">
         <v>1</v>
+      </c>
+      <c r="D393" t="s">
+        <v>467</v>
       </c>
     </row>
     <row r="394">
@@ -45622,10 +46807,13 @@
         <v>392</v>
       </c>
       <c r="B394" t="s">
-        <v>468</v>
+        <v>470</v>
       </c>
       <c r="C394" t="b">
         <v>1</v>
+      </c>
+      <c r="D394" t="s">
+        <v>467</v>
       </c>
     </row>
     <row r="395">
@@ -45633,10 +46821,13 @@
         <v>393</v>
       </c>
       <c r="B395" t="s">
-        <v>467</v>
+        <v>471</v>
       </c>
       <c r="C395" t="b">
         <v>1</v>
+      </c>
+      <c r="D395" t="s">
+        <v>467</v>
       </c>
     </row>
     <row r="396">
@@ -45644,10 +46835,13 @@
         <v>394</v>
       </c>
       <c r="B396" t="s">
-        <v>467</v>
+        <v>471</v>
       </c>
       <c r="C396" t="b">
         <v>1</v>
+      </c>
+      <c r="D396" t="s">
+        <v>465</v>
       </c>
     </row>
     <row r="397">
@@ -45655,10 +46849,13 @@
         <v>395</v>
       </c>
       <c r="B397" t="s">
-        <v>467</v>
+        <v>470</v>
       </c>
       <c r="C397" t="b">
         <v>1</v>
+      </c>
+      <c r="D397" t="s">
+        <v>467</v>
       </c>
     </row>
     <row r="398">
@@ -45666,10 +46863,13 @@
         <v>396</v>
       </c>
       <c r="B398" t="s">
-        <v>468</v>
+        <v>471</v>
       </c>
       <c r="C398" t="b">
         <v>1</v>
+      </c>
+      <c r="D398" t="s">
+        <v>467</v>
       </c>
     </row>
     <row r="399">
@@ -45677,10 +46877,13 @@
         <v>397</v>
       </c>
       <c r="B399" t="s">
-        <v>468</v>
+        <v>470</v>
       </c>
       <c r="C399" t="b">
         <v>1</v>
+      </c>
+      <c r="D399" t="s">
+        <v>465</v>
       </c>
     </row>
     <row r="400">
@@ -45688,10 +46891,13 @@
         <v>398</v>
       </c>
       <c r="B400" t="s">
-        <v>468</v>
+        <v>471</v>
       </c>
       <c r="C400" t="b">
         <v>1</v>
+      </c>
+      <c r="D400" t="s">
+        <v>467</v>
       </c>
     </row>
     <row r="401">
@@ -45699,10 +46905,13 @@
         <v>399</v>
       </c>
       <c r="B401" t="s">
-        <v>467</v>
+        <v>470</v>
       </c>
       <c r="C401" t="b">
         <v>1</v>
+      </c>
+      <c r="D401" t="s">
+        <v>465</v>
       </c>
     </row>
     <row r="402">
@@ -45710,10 +46919,13 @@
         <v>400</v>
       </c>
       <c r="B402" t="s">
-        <v>467</v>
+        <v>470</v>
       </c>
       <c r="C402" t="b">
         <v>1</v>
+      </c>
+      <c r="D402" t="s">
+        <v>467</v>
       </c>
     </row>
     <row r="403">
@@ -45721,10 +46933,13 @@
         <v>401</v>
       </c>
       <c r="B403" t="s">
-        <v>467</v>
+        <v>471</v>
       </c>
       <c r="C403" t="b">
         <v>1</v>
+      </c>
+      <c r="D403" t="s">
+        <v>465</v>
       </c>
     </row>
     <row r="404">
@@ -45732,10 +46947,13 @@
         <v>402</v>
       </c>
       <c r="B404" t="s">
-        <v>467</v>
+        <v>471</v>
       </c>
       <c r="C404" t="b">
         <v>1</v>
+      </c>
+      <c r="D404" t="s">
+        <v>467</v>
       </c>
     </row>
     <row r="405">
@@ -45743,10 +46961,13 @@
         <v>403</v>
       </c>
       <c r="B405" t="s">
-        <v>468</v>
+        <v>470</v>
       </c>
       <c r="C405" t="b">
         <v>1</v>
+      </c>
+      <c r="D405" t="s">
+        <v>467</v>
       </c>
     </row>
     <row r="406">
@@ -45754,10 +46975,13 @@
         <v>404</v>
       </c>
       <c r="B406" t="s">
-        <v>468</v>
+        <v>470</v>
       </c>
       <c r="C406" t="b">
         <v>1</v>
+      </c>
+      <c r="D406" t="s">
+        <v>465</v>
       </c>
     </row>
     <row r="407">
@@ -45765,10 +46989,13 @@
         <v>405</v>
       </c>
       <c r="B407" t="s">
-        <v>467</v>
+        <v>470</v>
       </c>
       <c r="C407" t="b">
         <v>1</v>
+      </c>
+      <c r="D407" t="s">
+        <v>465</v>
       </c>
     </row>
     <row r="408">
@@ -45776,10 +47003,13 @@
         <v>406</v>
       </c>
       <c r="B408" t="s">
-        <v>467</v>
+        <v>471</v>
       </c>
       <c r="C408" t="b">
         <v>1</v>
+      </c>
+      <c r="D408" t="s">
+        <v>465</v>
       </c>
     </row>
     <row r="409">
@@ -45787,10 +47017,13 @@
         <v>407</v>
       </c>
       <c r="B409" t="s">
-        <v>468</v>
+        <v>470</v>
       </c>
       <c r="C409" t="b">
         <v>1</v>
+      </c>
+      <c r="D409" t="s">
+        <v>465</v>
       </c>
     </row>
     <row r="410">
@@ -45798,10 +47031,13 @@
         <v>408</v>
       </c>
       <c r="B410" t="s">
-        <v>467</v>
+        <v>470</v>
       </c>
       <c r="C410" t="b">
         <v>1</v>
+      </c>
+      <c r="D410" t="s">
+        <v>467</v>
       </c>
     </row>
   </sheetData>
@@ -45823,321 +47059,321 @@
     <row r="1"/>
     <row r="2">
       <c r="A2" t="s" s="1">
-        <v>469</v>
+        <v>472</v>
       </c>
       <c r="B2" t="s" s="1">
-        <v>470</v>
+        <v>473</v>
       </c>
       <c r="C2" t="s" s="1">
-        <v>471</v>
+        <v>474</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>472</v>
+        <v>475</v>
       </c>
       <c r="B3" t="s">
-        <v>473</v>
+        <v>476</v>
       </c>
       <c r="C3" t="s">
-        <v>474</v>
+        <v>477</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>473</v>
+        <v>476</v>
       </c>
       <c r="B4" t="s">
-        <v>475</v>
+        <v>478</v>
       </c>
       <c r="C4" t="s">
-        <v>474</v>
+        <v>477</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>475</v>
+        <v>478</v>
       </c>
       <c r="B5" t="s">
-        <v>476</v>
+        <v>479</v>
       </c>
       <c r="C5" t="s">
-        <v>474</v>
+        <v>477</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>476</v>
+        <v>479</v>
       </c>
       <c r="B6" t="s">
+        <v>480</v>
+      </c>
+      <c r="C6" t="s">
         <v>477</v>
-      </c>
-      <c r="C6" t="s">
-        <v>474</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
+        <v>480</v>
+      </c>
+      <c r="B7" t="s">
+        <v>481</v>
+      </c>
+      <c r="C7" t="s">
         <v>477</v>
-      </c>
-      <c r="B7" t="s">
-        <v>478</v>
-      </c>
-      <c r="C7" t="s">
-        <v>474</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>478</v>
+        <v>481</v>
       </c>
       <c r="B8" t="s">
-        <v>479</v>
+        <v>482</v>
       </c>
       <c r="C8" t="s">
-        <v>474</v>
+        <v>477</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>479</v>
+        <v>482</v>
       </c>
       <c r="B9" t="s">
-        <v>480</v>
+        <v>483</v>
       </c>
       <c r="C9" t="s">
-        <v>474</v>
+        <v>477</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>480</v>
+        <v>483</v>
       </c>
       <c r="B10" t="s">
-        <v>481</v>
+        <v>484</v>
       </c>
       <c r="C10" t="s">
-        <v>474</v>
+        <v>477</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>481</v>
+        <v>484</v>
       </c>
       <c r="B11" t="s">
-        <v>482</v>
+        <v>485</v>
       </c>
       <c r="C11" t="s">
-        <v>474</v>
+        <v>477</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>482</v>
+        <v>485</v>
       </c>
       <c r="B12" t="s">
-        <v>483</v>
+        <v>486</v>
       </c>
       <c r="C12" t="s">
-        <v>474</v>
+        <v>477</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>483</v>
+        <v>486</v>
       </c>
       <c r="B13" t="s">
-        <v>484</v>
+        <v>487</v>
       </c>
       <c r="C13" t="s">
-        <v>474</v>
+        <v>477</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>484</v>
+        <v>487</v>
       </c>
       <c r="B14" t="s">
-        <v>485</v>
+        <v>488</v>
       </c>
       <c r="C14" t="s">
-        <v>474</v>
+        <v>477</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>485</v>
+        <v>488</v>
       </c>
       <c r="B15" t="s">
-        <v>486</v>
+        <v>489</v>
       </c>
       <c r="C15" t="s">
-        <v>474</v>
+        <v>477</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>486</v>
+        <v>489</v>
       </c>
       <c r="B16" t="s">
-        <v>487</v>
+        <v>490</v>
       </c>
       <c r="C16" t="s">
-        <v>474</v>
+        <v>477</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>487</v>
+        <v>490</v>
       </c>
       <c r="B17" t="s">
-        <v>488</v>
+        <v>491</v>
       </c>
       <c r="C17" t="s">
-        <v>474</v>
+        <v>477</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>488</v>
+        <v>491</v>
       </c>
       <c r="B18" t="s">
-        <v>489</v>
+        <v>492</v>
       </c>
       <c r="C18" t="s">
-        <v>474</v>
+        <v>477</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>489</v>
+        <v>492</v>
       </c>
       <c r="B19" t="s">
-        <v>490</v>
+        <v>493</v>
       </c>
       <c r="C19" t="s">
-        <v>474</v>
+        <v>477</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>490</v>
+        <v>493</v>
       </c>
       <c r="B20" t="s">
-        <v>491</v>
+        <v>494</v>
       </c>
       <c r="C20" t="s">
-        <v>474</v>
+        <v>477</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>491</v>
+        <v>494</v>
       </c>
       <c r="B21" t="s">
-        <v>492</v>
+        <v>495</v>
       </c>
       <c r="C21" t="s">
-        <v>474</v>
+        <v>477</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>492</v>
+        <v>495</v>
       </c>
       <c r="B22" t="s">
-        <v>493</v>
+        <v>496</v>
       </c>
       <c r="C22" t="s">
-        <v>474</v>
+        <v>477</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>493</v>
+        <v>496</v>
       </c>
       <c r="B23" t="s">
-        <v>494</v>
+        <v>497</v>
       </c>
       <c r="C23" t="s">
-        <v>474</v>
+        <v>477</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>494</v>
+        <v>497</v>
       </c>
       <c r="B24" t="s">
-        <v>495</v>
+        <v>498</v>
       </c>
       <c r="C24" t="s">
-        <v>474</v>
+        <v>477</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>495</v>
+        <v>498</v>
       </c>
       <c r="B25" t="s">
-        <v>496</v>
+        <v>499</v>
       </c>
       <c r="C25" t="s">
-        <v>474</v>
+        <v>477</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>496</v>
+        <v>499</v>
       </c>
       <c r="B26" t="s">
-        <v>497</v>
+        <v>500</v>
       </c>
       <c r="C26" t="s">
-        <v>474</v>
+        <v>477</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>497</v>
+        <v>500</v>
       </c>
       <c r="B27" t="s">
-        <v>498</v>
+        <v>501</v>
       </c>
       <c r="C27" t="s">
-        <v>474</v>
+        <v>477</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>498</v>
+        <v>501</v>
       </c>
       <c r="B28" t="s">
-        <v>499</v>
+        <v>502</v>
       </c>
       <c r="C28" t="s">
-        <v>474</v>
+        <v>477</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>499</v>
+        <v>502</v>
       </c>
       <c r="B29" t="s">
-        <v>500</v>
+        <v>503</v>
       </c>
       <c r="C29" t="s">
-        <v>474</v>
+        <v>477</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>500</v>
+        <v>503</v>
       </c>
       <c r="B30" t="s">
-        <v>501</v>
+        <v>504</v>
       </c>
       <c r="C30" t="s">
-        <v>474</v>
+        <v>477</v>
       </c>
     </row>
   </sheetData>
@@ -46162,7 +47398,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="s" s="1">
-        <v>502</v>
+        <v>505</v>
       </c>
     </row>
     <row r="3">
@@ -46170,7 +47406,7 @@
         <v>426</v>
       </c>
       <c r="B3" t="s">
-        <v>503</v>
+        <v>506</v>
       </c>
     </row>
     <row r="4">
@@ -46178,7 +47414,7 @@
         <v>427</v>
       </c>
       <c r="B4" t="s">
-        <v>504</v>
+        <v>507</v>
       </c>
     </row>
     <row r="5">
@@ -46186,7 +47422,7 @@
         <v>428</v>
       </c>
       <c r="B5" t="s">
-        <v>505</v>
+        <v>508</v>
       </c>
     </row>
     <row r="6">
@@ -46194,7 +47430,7 @@
         <v>429</v>
       </c>
       <c r="B6" t="s">
-        <v>506</v>
+        <v>509</v>
       </c>
     </row>
     <row r="7">
@@ -46202,7 +47438,7 @@
         <v>430</v>
       </c>
       <c r="B7" t="s">
-        <v>507</v>
+        <v>510</v>
       </c>
     </row>
     <row r="8">
@@ -46210,7 +47446,7 @@
         <v>431</v>
       </c>
       <c r="B8" t="s">
-        <v>507</v>
+        <v>510</v>
       </c>
     </row>
     <row r="9">
@@ -46218,7 +47454,7 @@
         <v>432</v>
       </c>
       <c r="B9" t="s">
-        <v>507</v>
+        <v>510</v>
       </c>
     </row>
     <row r="10">
@@ -46226,7 +47462,7 @@
         <v>433</v>
       </c>
       <c r="B10" t="s">
-        <v>507</v>
+        <v>510</v>
       </c>
     </row>
     <row r="11">
@@ -46234,7 +47470,7 @@
         <v>434</v>
       </c>
       <c r="B11" t="s">
-        <v>507</v>
+        <v>510</v>
       </c>
     </row>
     <row r="12">
@@ -46242,7 +47478,7 @@
         <v>435</v>
       </c>
       <c r="B12" t="s">
-        <v>507</v>
+        <v>510</v>
       </c>
     </row>
     <row r="13">
@@ -46250,7 +47486,7 @@
         <v>436</v>
       </c>
       <c r="B13" t="s">
-        <v>507</v>
+        <v>510</v>
       </c>
     </row>
     <row r="14">
@@ -46258,7 +47494,7 @@
         <v>437</v>
       </c>
       <c r="B14" t="s">
-        <v>507</v>
+        <v>510</v>
       </c>
     </row>
     <row r="15">
@@ -46266,7 +47502,7 @@
         <v>438</v>
       </c>
       <c r="B15" t="s">
-        <v>507</v>
+        <v>510</v>
       </c>
     </row>
     <row r="16">
@@ -46274,7 +47510,7 @@
         <v>439</v>
       </c>
       <c r="B16" t="s">
-        <v>507</v>
+        <v>510</v>
       </c>
     </row>
     <row r="17">
@@ -46282,7 +47518,7 @@
         <v>440</v>
       </c>
       <c r="B17" t="s">
-        <v>507</v>
+        <v>510</v>
       </c>
     </row>
     <row r="18">
@@ -46290,7 +47526,7 @@
         <v>441</v>
       </c>
       <c r="B18" t="s">
-        <v>507</v>
+        <v>510</v>
       </c>
     </row>
     <row r="19">
@@ -46298,7 +47534,7 @@
         <v>442</v>
       </c>
       <c r="B19" t="s">
-        <v>507</v>
+        <v>510</v>
       </c>
     </row>
     <row r="20">
@@ -46306,7 +47542,7 @@
         <v>443</v>
       </c>
       <c r="B20" t="s">
-        <v>507</v>
+        <v>510</v>
       </c>
     </row>
     <row r="21">
@@ -46314,7 +47550,7 @@
         <v>444</v>
       </c>
       <c r="B21" t="s">
-        <v>507</v>
+        <v>510</v>
       </c>
     </row>
     <row r="22">
@@ -46322,7 +47558,7 @@
         <v>445</v>
       </c>
       <c r="B22" t="s">
-        <v>507</v>
+        <v>510</v>
       </c>
     </row>
     <row r="23">
@@ -46330,7 +47566,7 @@
         <v>446</v>
       </c>
       <c r="B23" t="s">
-        <v>507</v>
+        <v>510</v>
       </c>
     </row>
     <row r="24">
@@ -46338,7 +47574,7 @@
         <v>447</v>
       </c>
       <c r="B24" t="s">
-        <v>507</v>
+        <v>510</v>
       </c>
     </row>
     <row r="25">
@@ -46346,7 +47582,7 @@
         <v>448</v>
       </c>
       <c r="B25" t="s">
-        <v>507</v>
+        <v>510</v>
       </c>
     </row>
     <row r="26">
@@ -46354,7 +47590,7 @@
         <v>449</v>
       </c>
       <c r="B26" t="s">
-        <v>507</v>
+        <v>510</v>
       </c>
     </row>
     <row r="27">
@@ -46362,7 +47598,7 @@
         <v>450</v>
       </c>
       <c r="B27" t="s">
-        <v>507</v>
+        <v>510</v>
       </c>
     </row>
     <row r="28">
@@ -46370,7 +47606,7 @@
         <v>451</v>
       </c>
       <c r="B28" t="s">
-        <v>507</v>
+        <v>510</v>
       </c>
     </row>
     <row r="29">
@@ -46378,7 +47614,7 @@
         <v>452</v>
       </c>
       <c r="B29" t="s">
-        <v>507</v>
+        <v>510</v>
       </c>
     </row>
     <row r="30">
@@ -46386,7 +47622,7 @@
         <v>453</v>
       </c>
       <c r="B30" t="s">
-        <v>507</v>
+        <v>510</v>
       </c>
     </row>
     <row r="31">
@@ -46394,7 +47630,7 @@
         <v>454</v>
       </c>
       <c r="B31" t="s">
-        <v>507</v>
+        <v>510</v>
       </c>
     </row>
     <row r="32">
@@ -46402,7 +47638,7 @@
         <v>455</v>
       </c>
       <c r="B32" t="s">
-        <v>507</v>
+        <v>510</v>
       </c>
     </row>
     <row r="33">
@@ -46410,7 +47646,7 @@
         <v>456</v>
       </c>
       <c r="B33" t="s">
-        <v>507</v>
+        <v>510</v>
       </c>
     </row>
     <row r="34">
@@ -46418,7 +47654,7 @@
         <v>457</v>
       </c>
       <c r="B34" t="s">
-        <v>507</v>
+        <v>510</v>
       </c>
     </row>
     <row r="35">
@@ -46426,7 +47662,7 @@
         <v>458</v>
       </c>
       <c r="B35" t="s">
-        <v>507</v>
+        <v>510</v>
       </c>
     </row>
     <row r="36">
@@ -46434,7 +47670,7 @@
         <v>459</v>
       </c>
       <c r="B36" t="s">
-        <v>507</v>
+        <v>510</v>
       </c>
     </row>
   </sheetData>
@@ -46461,32 +47697,32 @@
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>503</v>
+        <v>506</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>504</v>
+        <v>507</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>505</v>
+        <v>508</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>507</v>
+        <v>510</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>506</v>
+        <v>509</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>508</v>
+        <v>511</v>
       </c>
     </row>
   </sheetData>

--- a/optaplanner-training-lab902-solution/data/workerrostering/import/roster-34spots-14days.xlsx
+++ b/optaplanner-training-lab902-solution/data/workerrostering/import/roster-34spots-14days.xlsx
@@ -1396,28 +1396,28 @@
     <t>shiftType</t>
   </si>
   <si>
+    <t>Malay,fSearch</t>
+  </si>
+  <si>
+    <t>Morning</t>
+  </si>
+  <si>
     <t>Malay,mSearch</t>
   </si>
   <si>
-    <t>Morning</t>
-  </si>
-  <si>
     <t>Night</t>
   </si>
   <si>
-    <t>Malay,fSearch</t>
-  </si>
-  <si>
     <t>Tamil,mSearch</t>
   </si>
   <si>
     <t>Tamil,fSearch</t>
   </si>
   <si>
+    <t>Mandarin,fSearch</t>
+  </si>
+  <si>
     <t>Mandarin,mSearch</t>
-  </si>
-  <si>
-    <t>Mandarin,fSearch</t>
   </si>
   <si>
     <t>Start</t>
@@ -4639,7 +4639,7 @@
       <c r="P35" t="s">
         <v>420</v>
       </c>
-      <c r="Q35" s="4" t="s">
+      <c r="Q35" t="s">
         <v>420</v>
       </c>
       <c r="R35" t="s">
@@ -4689,7 +4689,7 @@
       <c r="C36" t="s">
         <v>420</v>
       </c>
-      <c r="D36" s="4" t="s">
+      <c r="D36" t="s">
         <v>420</v>
       </c>
       <c r="E36" t="s">
@@ -4698,7 +4698,7 @@
       <c r="F36" t="s">
         <v>420</v>
       </c>
-      <c r="G36" s="4" t="s">
+      <c r="G36" t="s">
         <v>420</v>
       </c>
       <c r="H36" t="s">
@@ -4710,7 +4710,7 @@
       <c r="J36" t="s">
         <v>420</v>
       </c>
-      <c r="K36" s="4" t="s">
+      <c r="K36" t="s">
         <v>420</v>
       </c>
       <c r="L36" t="s">
@@ -4737,7 +4737,7 @@
       <c r="S36" t="s">
         <v>420</v>
       </c>
-      <c r="T36" s="4" t="s">
+      <c r="T36" t="s">
         <v>420</v>
       </c>
       <c r="U36" t="s">
@@ -4778,7 +4778,7 @@
       <c r="C37" t="s">
         <v>420</v>
       </c>
-      <c r="D37" s="4" t="s">
+      <c r="D37" t="s">
         <v>420</v>
       </c>
       <c r="E37" t="s">
@@ -4799,7 +4799,7 @@
       <c r="J37" t="s">
         <v>420</v>
       </c>
-      <c r="K37" s="4" t="s">
+      <c r="K37" t="s">
         <v>420</v>
       </c>
       <c r="L37" t="s">
@@ -4817,7 +4817,7 @@
       <c r="P37" t="s">
         <v>420</v>
       </c>
-      <c r="Q37" s="4" t="s">
+      <c r="Q37" t="s">
         <v>420</v>
       </c>
       <c r="R37" t="s">
@@ -4829,7 +4829,7 @@
       <c r="T37" t="s">
         <v>420</v>
       </c>
-      <c r="U37" s="4" t="s">
+      <c r="U37" t="s">
         <v>420</v>
       </c>
       <c r="V37" t="s">
@@ -4870,10 +4870,10 @@
       <c r="D38" t="s">
         <v>420</v>
       </c>
-      <c r="E38" s="4" t="s">
-        <v>420</v>
-      </c>
-      <c r="F38" s="4" t="s">
+      <c r="E38" t="s">
+        <v>420</v>
+      </c>
+      <c r="F38" t="s">
         <v>420</v>
       </c>
       <c r="G38" t="s">
@@ -4921,7 +4921,7 @@
       <c r="U38" t="s">
         <v>420</v>
       </c>
-      <c r="V38" s="4" t="s">
+      <c r="V38" t="s">
         <v>420</v>
       </c>
       <c r="W38" t="s">
@@ -4980,7 +4980,7 @@
       <c r="K39" t="s">
         <v>420</v>
       </c>
-      <c r="L39" s="4" t="s">
+      <c r="L39" t="s">
         <v>420</v>
       </c>
       <c r="M39" t="s">
@@ -4992,7 +4992,7 @@
       <c r="O39" t="s">
         <v>420</v>
       </c>
-      <c r="P39" s="4" t="s">
+      <c r="P39" t="s">
         <v>420</v>
       </c>
       <c r="Q39" t="s">
@@ -5060,7 +5060,7 @@
       <c r="H40" t="s">
         <v>420</v>
       </c>
-      <c r="I40" s="4" t="s">
+      <c r="I40" t="s">
         <v>420</v>
       </c>
       <c r="J40" t="s">
@@ -5069,7 +5069,7 @@
       <c r="K40" t="s">
         <v>420</v>
       </c>
-      <c r="L40" s="4" t="s">
+      <c r="L40" t="s">
         <v>420</v>
       </c>
       <c r="M40" t="s">
@@ -5081,7 +5081,7 @@
       <c r="O40" t="s">
         <v>420</v>
       </c>
-      <c r="P40" s="4" t="s">
+      <c r="P40" t="s">
         <v>420</v>
       </c>
       <c r="Q40" t="s">
@@ -5102,7 +5102,7 @@
       <c r="V40" t="s">
         <v>420</v>
       </c>
-      <c r="W40" s="4" t="s">
+      <c r="W40" t="s">
         <v>420</v>
       </c>
       <c r="X40" t="s">
@@ -5134,7 +5134,7 @@
       <c r="C41" t="s">
         <v>420</v>
       </c>
-      <c r="D41" s="4" t="s">
+      <c r="D41" t="s">
         <v>420</v>
       </c>
       <c r="E41" t="s">
@@ -5170,13 +5170,13 @@
       <c r="O41" t="s">
         <v>420</v>
       </c>
-      <c r="P41" s="4" t="s">
+      <c r="P41" t="s">
         <v>420</v>
       </c>
       <c r="Q41" t="s">
         <v>420</v>
       </c>
-      <c r="R41" s="4" t="s">
+      <c r="R41" t="s">
         <v>420</v>
       </c>
       <c r="S41" t="s">
@@ -5229,7 +5229,7 @@
       <c r="E42" t="s">
         <v>420</v>
       </c>
-      <c r="F42" s="4" t="s">
+      <c r="F42" t="s">
         <v>420</v>
       </c>
       <c r="G42" t="s">
@@ -5265,7 +5265,7 @@
       <c r="Q42" t="s">
         <v>420</v>
       </c>
-      <c r="R42" s="4" t="s">
+      <c r="R42" t="s">
         <v>420</v>
       </c>
       <c r="S42" t="s">
@@ -5339,16 +5339,16 @@
       <c r="L43" t="s">
         <v>420</v>
       </c>
-      <c r="M43" s="4" t="s">
+      <c r="M43" t="s">
         <v>420</v>
       </c>
       <c r="N43" t="s">
         <v>420</v>
       </c>
-      <c r="O43" s="4" t="s">
-        <v>420</v>
-      </c>
-      <c r="P43" s="4" t="s">
+      <c r="O43" t="s">
+        <v>420</v>
+      </c>
+      <c r="P43" t="s">
         <v>420</v>
       </c>
       <c r="Q43" t="s">
@@ -5410,7 +5410,7 @@
       <c r="F44" t="s">
         <v>420</v>
       </c>
-      <c r="G44" s="4" t="s">
+      <c r="G44" t="s">
         <v>420</v>
       </c>
       <c r="H44" t="s">
@@ -5443,7 +5443,7 @@
       <c r="Q44" t="s">
         <v>420</v>
       </c>
-      <c r="R44" s="4" t="s">
+      <c r="R44" t="s">
         <v>420</v>
       </c>
       <c r="S44" t="s">
@@ -5461,7 +5461,7 @@
       <c r="W44" t="s">
         <v>420</v>
       </c>
-      <c r="X44" s="4" t="s">
+      <c r="X44" t="s">
         <v>420</v>
       </c>
       <c r="Y44" t="s">
@@ -5505,7 +5505,7 @@
       <c r="H45" t="s">
         <v>420</v>
       </c>
-      <c r="I45" s="4" t="s">
+      <c r="I45" t="s">
         <v>420</v>
       </c>
       <c r="J45" t="s">
@@ -5517,7 +5517,7 @@
       <c r="L45" t="s">
         <v>420</v>
       </c>
-      <c r="M45" s="4" t="s">
+      <c r="M45" t="s">
         <v>420</v>
       </c>
       <c r="N45" t="s">
@@ -5588,13 +5588,13 @@
       <c r="F46" t="s">
         <v>420</v>
       </c>
-      <c r="G46" s="4" t="s">
+      <c r="G46" t="s">
         <v>420</v>
       </c>
       <c r="H46" t="s">
         <v>420</v>
       </c>
-      <c r="I46" s="4" t="s">
+      <c r="I46" t="s">
         <v>420</v>
       </c>
       <c r="J46" t="s">
@@ -5630,7 +5630,7 @@
       <c r="T46" t="s">
         <v>420</v>
       </c>
-      <c r="U46" s="4" t="s">
+      <c r="U46" t="s">
         <v>420</v>
       </c>
       <c r="V46" t="s">
@@ -5642,7 +5642,7 @@
       <c r="X46" t="s">
         <v>420</v>
       </c>
-      <c r="Y46" s="4" t="s">
+      <c r="Y46" t="s">
         <v>420</v>
       </c>
       <c r="Z46" t="s">
@@ -5654,7 +5654,7 @@
       <c r="AB46" t="s">
         <v>420</v>
       </c>
-      <c r="AC46" s="4" t="s">
+      <c r="AC46" t="s">
         <v>420</v>
       </c>
     </row>
@@ -5674,7 +5674,7 @@
       <c r="E47" t="s">
         <v>420</v>
       </c>
-      <c r="F47" s="4" t="s">
+      <c r="F47" t="s">
         <v>420</v>
       </c>
       <c r="G47" t="s">
@@ -5704,10 +5704,10 @@
       <c r="O47" t="s">
         <v>420</v>
       </c>
-      <c r="P47" s="4" t="s">
-        <v>420</v>
-      </c>
-      <c r="Q47" s="4" t="s">
+      <c r="P47" t="s">
+        <v>420</v>
+      </c>
+      <c r="Q47" t="s">
         <v>420</v>
       </c>
       <c r="R47" t="s">
@@ -5740,7 +5740,7 @@
       <c r="AA47" t="s">
         <v>420</v>
       </c>
-      <c r="AB47" s="4" t="s">
+      <c r="AB47" t="s">
         <v>420</v>
       </c>
       <c r="AC47" t="s">
@@ -5754,7 +5754,7 @@
       <c r="B48" t="s">
         <v>420</v>
       </c>
-      <c r="C48" s="4" t="s">
+      <c r="C48" t="s">
         <v>420</v>
       </c>
       <c r="D48" t="s">
@@ -5852,16 +5852,16 @@
       <c r="E49" t="s">
         <v>420</v>
       </c>
-      <c r="F49" s="4" t="s">
-        <v>420</v>
-      </c>
-      <c r="G49" s="4" t="s">
+      <c r="F49" t="s">
+        <v>420</v>
+      </c>
+      <c r="G49" t="s">
         <v>420</v>
       </c>
       <c r="H49" t="s">
         <v>420</v>
       </c>
-      <c r="I49" s="4" t="s">
+      <c r="I49" t="s">
         <v>420</v>
       </c>
       <c r="J49" t="s">
@@ -5873,7 +5873,7 @@
       <c r="L49" t="s">
         <v>420</v>
       </c>
-      <c r="M49" s="4" t="s">
+      <c r="M49" t="s">
         <v>420</v>
       </c>
       <c r="N49" t="s">
@@ -5950,7 +5950,7 @@
       <c r="H50" t="s">
         <v>420</v>
       </c>
-      <c r="I50" s="4" t="s">
+      <c r="I50" t="s">
         <v>420</v>
       </c>
       <c r="J50" t="s">
@@ -6007,7 +6007,7 @@
       <c r="AA50" t="s">
         <v>420</v>
       </c>
-      <c r="AB50" s="4" t="s">
+      <c r="AB50" t="s">
         <v>420</v>
       </c>
       <c r="AC50" t="s">
@@ -6036,7 +6036,7 @@
       <c r="G51" t="s">
         <v>420</v>
       </c>
-      <c r="H51" s="4" t="s">
+      <c r="H51" t="s">
         <v>420</v>
       </c>
       <c r="I51" t="s">
@@ -6063,22 +6063,22 @@
       <c r="P51" t="s">
         <v>420</v>
       </c>
-      <c r="Q51" s="4" t="s">
+      <c r="Q51" t="s">
         <v>420</v>
       </c>
       <c r="R51" t="s">
         <v>420</v>
       </c>
-      <c r="S51" s="4" t="s">
+      <c r="S51" t="s">
         <v>420</v>
       </c>
       <c r="T51" t="s">
         <v>420</v>
       </c>
-      <c r="U51" s="4" t="s">
-        <v>420</v>
-      </c>
-      <c r="V51" s="4" t="s">
+      <c r="U51" t="s">
+        <v>420</v>
+      </c>
+      <c r="V51" t="s">
         <v>420</v>
       </c>
       <c r="W51" t="s">
@@ -6110,7 +6110,7 @@
       <c r="B52" t="s">
         <v>420</v>
       </c>
-      <c r="C52" s="4" t="s">
+      <c r="C52" t="s">
         <v>420</v>
       </c>
       <c r="D52" t="s">
@@ -6164,7 +6164,7 @@
       <c r="T52" t="s">
         <v>420</v>
       </c>
-      <c r="U52" s="4" t="s">
+      <c r="U52" t="s">
         <v>420</v>
       </c>
       <c r="V52" t="s">
@@ -6179,7 +6179,7 @@
       <c r="Y52" t="s">
         <v>420</v>
       </c>
-      <c r="Z52" s="4" t="s">
+      <c r="Z52" t="s">
         <v>420</v>
       </c>
       <c r="AA52" t="s">
@@ -6214,7 +6214,7 @@
       <c r="G53" t="s">
         <v>420</v>
       </c>
-      <c r="H53" s="4" t="s">
+      <c r="H53" t="s">
         <v>420</v>
       </c>
       <c r="I53" t="s">
@@ -6288,13 +6288,13 @@
       <c r="B54" t="s">
         <v>420</v>
       </c>
-      <c r="C54" s="4" t="s">
+      <c r="C54" t="s">
         <v>420</v>
       </c>
       <c r="D54" t="s">
         <v>420</v>
       </c>
-      <c r="E54" s="4" t="s">
+      <c r="E54" t="s">
         <v>420</v>
       </c>
       <c r="F54" t="s">
@@ -6303,7 +6303,7 @@
       <c r="G54" t="s">
         <v>420</v>
       </c>
-      <c r="H54" s="4" t="s">
+      <c r="H54" t="s">
         <v>420</v>
       </c>
       <c r="I54" t="s">
@@ -6351,7 +6351,7 @@
       <c r="W54" t="s">
         <v>420</v>
       </c>
-      <c r="X54" s="4" t="s">
+      <c r="X54" t="s">
         <v>420</v>
       </c>
       <c r="Y54" t="s">
@@ -6419,7 +6419,7 @@
       <c r="P55" t="s">
         <v>420</v>
       </c>
-      <c r="Q55" s="4" t="s">
+      <c r="Q55" t="s">
         <v>420</v>
       </c>
       <c r="R55" t="s">
@@ -6466,7 +6466,7 @@
       <c r="B56" t="s">
         <v>420</v>
       </c>
-      <c r="C56" s="4" t="s">
+      <c r="C56" t="s">
         <v>420</v>
       </c>
       <c r="D56" t="s">
@@ -6499,7 +6499,7 @@
       <c r="M56" t="s">
         <v>420</v>
       </c>
-      <c r="N56" s="4" t="s">
+      <c r="N56" t="s">
         <v>420</v>
       </c>
       <c r="O56" t="s">
@@ -6532,13 +6532,13 @@
       <c r="X56" t="s">
         <v>420</v>
       </c>
-      <c r="Y56" s="4" t="s">
+      <c r="Y56" t="s">
         <v>420</v>
       </c>
       <c r="Z56" t="s">
         <v>420</v>
       </c>
-      <c r="AA56" s="4" t="s">
+      <c r="AA56" t="s">
         <v>420</v>
       </c>
       <c r="AB56" t="s">
@@ -6561,10 +6561,10 @@
       <c r="D57" t="s">
         <v>420</v>
       </c>
-      <c r="E57" s="4" t="s">
-        <v>420</v>
-      </c>
-      <c r="F57" s="4" t="s">
+      <c r="E57" t="s">
+        <v>420</v>
+      </c>
+      <c r="F57" t="s">
         <v>420</v>
       </c>
       <c r="G57" t="s">
@@ -6606,7 +6606,7 @@
       <c r="S57" t="s">
         <v>420</v>
       </c>
-      <c r="T57" s="4" t="s">
+      <c r="T57" t="s">
         <v>420</v>
       </c>
       <c r="U57" t="s">
@@ -6633,7 +6633,7 @@
       <c r="AB57" t="s">
         <v>420</v>
       </c>
-      <c r="AC57" s="4" t="s">
+      <c r="AC57" t="s">
         <v>420</v>
       </c>
     </row>
@@ -6656,7 +6656,7 @@
       <c r="F58" t="s">
         <v>420</v>
       </c>
-      <c r="G58" s="4" t="s">
+      <c r="G58" t="s">
         <v>420</v>
       </c>
       <c r="H58" t="s">
@@ -6784,7 +6784,7 @@
       <c r="S59" t="s">
         <v>420</v>
       </c>
-      <c r="T59" s="4" t="s">
+      <c r="T59" t="s">
         <v>420</v>
       </c>
       <c r="U59" t="s">
@@ -6793,7 +6793,7 @@
       <c r="V59" t="s">
         <v>420</v>
       </c>
-      <c r="W59" s="4" t="s">
+      <c r="W59" t="s">
         <v>420</v>
       </c>
       <c r="X59" t="s">
@@ -6805,7 +6805,7 @@
       <c r="Z59" t="s">
         <v>420</v>
       </c>
-      <c r="AA59" s="4" t="s">
+      <c r="AA59" t="s">
         <v>420</v>
       </c>
       <c r="AB59" t="s">
@@ -6828,7 +6828,7 @@
       <c r="D60" t="s">
         <v>420</v>
       </c>
-      <c r="E60" s="4" t="s">
+      <c r="E60" t="s">
         <v>420</v>
       </c>
       <c r="F60" t="s">
@@ -6843,7 +6843,7 @@
       <c r="I60" t="s">
         <v>420</v>
       </c>
-      <c r="J60" s="4" t="s">
+      <c r="J60" t="s">
         <v>420</v>
       </c>
       <c r="K60" t="s">
@@ -6864,7 +6864,7 @@
       <c r="P60" t="s">
         <v>420</v>
       </c>
-      <c r="Q60" s="4" t="s">
+      <c r="Q60" t="s">
         <v>420</v>
       </c>
       <c r="R60" t="s">
@@ -6873,7 +6873,7 @@
       <c r="S60" t="s">
         <v>420</v>
       </c>
-      <c r="T60" s="4" t="s">
+      <c r="T60" t="s">
         <v>420</v>
       </c>
       <c r="U60" t="s">
@@ -6891,7 +6891,7 @@
       <c r="Y60" t="s">
         <v>420</v>
       </c>
-      <c r="Z60" s="4" t="s">
+      <c r="Z60" t="s">
         <v>420</v>
       </c>
       <c r="AA60" t="s">
@@ -6908,10 +6908,10 @@
       <c r="A61" t="s">
         <v>59</v>
       </c>
-      <c r="B61" s="4" t="s">
-        <v>420</v>
-      </c>
-      <c r="C61" s="4" t="s">
+      <c r="B61" t="s">
+        <v>420</v>
+      </c>
+      <c r="C61" t="s">
         <v>420</v>
       </c>
       <c r="D61" t="s">
@@ -6929,7 +6929,7 @@
       <c r="H61" t="s">
         <v>420</v>
       </c>
-      <c r="I61" s="4" t="s">
+      <c r="I61" t="s">
         <v>420</v>
       </c>
       <c r="J61" t="s">
@@ -7030,7 +7030,7 @@
       <c r="L62" t="s">
         <v>420</v>
       </c>
-      <c r="M62" s="4" t="s">
+      <c r="M62" t="s">
         <v>420</v>
       </c>
       <c r="N62" t="s">
@@ -7057,7 +7057,7 @@
       <c r="U62" t="s">
         <v>420</v>
       </c>
-      <c r="V62" s="4" t="s">
+      <c r="V62" t="s">
         <v>420</v>
       </c>
       <c r="W62" t="s">
@@ -7066,13 +7066,13 @@
       <c r="X62" t="s">
         <v>420</v>
       </c>
-      <c r="Y62" s="4" t="s">
+      <c r="Y62" t="s">
         <v>420</v>
       </c>
       <c r="Z62" t="s">
         <v>420</v>
       </c>
-      <c r="AA62" s="4" t="s">
+      <c r="AA62" t="s">
         <v>420</v>
       </c>
       <c r="AB62" t="s">
@@ -7089,7 +7089,7 @@
       <c r="B63" t="s">
         <v>420</v>
       </c>
-      <c r="C63" s="4" t="s">
+      <c r="C63" t="s">
         <v>420</v>
       </c>
       <c r="D63" t="s">
@@ -7110,10 +7110,10 @@
       <c r="I63" t="s">
         <v>420</v>
       </c>
-      <c r="J63" s="4" t="s">
-        <v>420</v>
-      </c>
-      <c r="K63" s="4" t="s">
+      <c r="J63" t="s">
+        <v>420</v>
+      </c>
+      <c r="K63" t="s">
         <v>420</v>
       </c>
       <c r="L63" t="s">
@@ -7146,7 +7146,7 @@
       <c r="U63" t="s">
         <v>420</v>
       </c>
-      <c r="V63" s="4" t="s">
+      <c r="V63" t="s">
         <v>420</v>
       </c>
       <c r="W63" t="s">
@@ -7155,7 +7155,7 @@
       <c r="X63" t="s">
         <v>420</v>
       </c>
-      <c r="Y63" s="4" t="s">
+      <c r="Y63" t="s">
         <v>420</v>
       </c>
       <c r="Z63" t="s">
@@ -7175,7 +7175,7 @@
       <c r="A64" t="s">
         <v>62</v>
       </c>
-      <c r="B64" s="4" t="s">
+      <c r="B64" t="s">
         <v>420</v>
       </c>
       <c r="C64" t="s">
@@ -7187,22 +7187,22 @@
       <c r="E64" t="s">
         <v>420</v>
       </c>
-      <c r="F64" s="4" t="s">
+      <c r="F64" t="s">
         <v>420</v>
       </c>
       <c r="G64" t="s">
         <v>420</v>
       </c>
-      <c r="H64" s="4" t="s">
-        <v>420</v>
-      </c>
-      <c r="I64" s="4" t="s">
+      <c r="H64" t="s">
+        <v>420</v>
+      </c>
+      <c r="I64" t="s">
         <v>420</v>
       </c>
       <c r="J64" t="s">
         <v>420</v>
       </c>
-      <c r="K64" s="4" t="s">
+      <c r="K64" t="s">
         <v>420</v>
       </c>
       <c r="L64" t="s">
@@ -7306,10 +7306,10 @@
       <c r="O65" t="s">
         <v>420</v>
       </c>
-      <c r="P65" s="4" t="s">
-        <v>420</v>
-      </c>
-      <c r="Q65" s="4" t="s">
+      <c r="P65" t="s">
+        <v>420</v>
+      </c>
+      <c r="Q65" t="s">
         <v>420</v>
       </c>
       <c r="R65" t="s">
@@ -7321,7 +7321,7 @@
       <c r="T65" t="s">
         <v>420</v>
       </c>
-      <c r="U65" s="4" t="s">
+      <c r="U65" t="s">
         <v>420</v>
       </c>
       <c r="V65" t="s">
@@ -7330,7 +7330,7 @@
       <c r="W65" t="s">
         <v>420</v>
       </c>
-      <c r="X65" s="4" t="s">
+      <c r="X65" t="s">
         <v>420</v>
       </c>
       <c r="Y65" t="s">
@@ -7345,7 +7345,7 @@
       <c r="AB65" t="s">
         <v>420</v>
       </c>
-      <c r="AC65" s="4" t="s">
+      <c r="AC65" t="s">
         <v>420</v>
       </c>
     </row>
@@ -7404,7 +7404,7 @@
       <c r="R66" t="s">
         <v>420</v>
       </c>
-      <c r="S66" s="4" t="s">
+      <c r="S66" t="s">
         <v>420</v>
       </c>
       <c r="T66" t="s">
@@ -7416,7 +7416,7 @@
       <c r="V66" t="s">
         <v>420</v>
       </c>
-      <c r="W66" s="4" t="s">
+      <c r="W66" t="s">
         <v>420</v>
       </c>
       <c r="X66" t="s">
@@ -7442,10 +7442,10 @@
       <c r="A67" t="s">
         <v>65</v>
       </c>
-      <c r="B67" s="4" t="s">
-        <v>420</v>
-      </c>
-      <c r="C67" s="4" t="s">
+      <c r="B67" t="s">
+        <v>420</v>
+      </c>
+      <c r="C67" t="s">
         <v>420</v>
       </c>
       <c r="D67" t="s">
@@ -7472,7 +7472,7 @@
       <c r="K67" t="s">
         <v>420</v>
       </c>
-      <c r="L67" s="4" t="s">
+      <c r="L67" t="s">
         <v>420</v>
       </c>
       <c r="M67" t="s">
@@ -7493,7 +7493,7 @@
       <c r="R67" t="s">
         <v>420</v>
       </c>
-      <c r="S67" s="4" t="s">
+      <c r="S67" t="s">
         <v>420</v>
       </c>
       <c r="T67" t="s">
@@ -7517,7 +7517,7 @@
       <c r="Z67" t="s">
         <v>420</v>
       </c>
-      <c r="AA67" s="4" t="s">
+      <c r="AA67" t="s">
         <v>420</v>
       </c>
       <c r="AB67" t="s">
@@ -7537,7 +7537,7 @@
       <c r="C68" t="s">
         <v>420</v>
       </c>
-      <c r="D68" s="4" t="s">
+      <c r="D68" t="s">
         <v>420</v>
       </c>
       <c r="E68" t="s">
@@ -7555,7 +7555,7 @@
       <c r="I68" t="s">
         <v>420</v>
       </c>
-      <c r="J68" s="4" t="s">
+      <c r="J68" t="s">
         <v>420</v>
       </c>
       <c r="K68" t="s">
@@ -7564,7 +7564,7 @@
       <c r="L68" t="s">
         <v>420</v>
       </c>
-      <c r="M68" s="4" t="s">
+      <c r="M68" t="s">
         <v>420</v>
       </c>
       <c r="N68" t="s">
@@ -7576,7 +7576,7 @@
       <c r="P68" t="s">
         <v>420</v>
       </c>
-      <c r="Q68" s="4" t="s">
+      <c r="Q68" t="s">
         <v>420</v>
       </c>
       <c r="R68" t="s">
@@ -7585,7 +7585,7 @@
       <c r="S68" t="s">
         <v>420</v>
       </c>
-      <c r="T68" s="4" t="s">
+      <c r="T68" t="s">
         <v>420</v>
       </c>
       <c r="U68" t="s">
@@ -7638,7 +7638,7 @@
       <c r="G69" t="s">
         <v>420</v>
       </c>
-      <c r="H69" s="4" t="s">
+      <c r="H69" t="s">
         <v>420</v>
       </c>
       <c r="I69" t="s">
@@ -7650,7 +7650,7 @@
       <c r="K69" t="s">
         <v>420</v>
       </c>
-      <c r="L69" s="4" t="s">
+      <c r="L69" t="s">
         <v>420</v>
       </c>
       <c r="M69" t="s">
@@ -7659,7 +7659,7 @@
       <c r="N69" t="s">
         <v>420</v>
       </c>
-      <c r="O69" s="4" t="s">
+      <c r="O69" t="s">
         <v>420</v>
       </c>
       <c r="P69" t="s">
@@ -7677,7 +7677,7 @@
       <c r="T69" t="s">
         <v>420</v>
       </c>
-      <c r="U69" s="4" t="s">
+      <c r="U69" t="s">
         <v>420</v>
       </c>
       <c r="V69" t="s">
@@ -7709,19 +7709,19 @@
       <c r="A70" t="s">
         <v>68</v>
       </c>
-      <c r="B70" s="4" t="s">
+      <c r="B70" t="s">
         <v>420</v>
       </c>
       <c r="C70" t="s">
         <v>420</v>
       </c>
-      <c r="D70" s="4" t="s">
+      <c r="D70" t="s">
         <v>420</v>
       </c>
       <c r="E70" t="s">
         <v>420</v>
       </c>
-      <c r="F70" s="4" t="s">
+      <c r="F70" t="s">
         <v>420</v>
       </c>
       <c r="G70" t="s">
@@ -7745,7 +7745,7 @@
       <c r="M70" t="s">
         <v>420</v>
       </c>
-      <c r="N70" s="4" t="s">
+      <c r="N70" t="s">
         <v>420</v>
       </c>
       <c r="O70" t="s">
@@ -7790,7 +7790,7 @@
       <c r="AB70" t="s">
         <v>420</v>
       </c>
-      <c r="AC70" s="4" t="s">
+      <c r="AC70" t="s">
         <v>420</v>
       </c>
     </row>
@@ -7801,7 +7801,7 @@
       <c r="B71" t="s">
         <v>420</v>
       </c>
-      <c r="C71" s="4" t="s">
+      <c r="C71" t="s">
         <v>420</v>
       </c>
       <c r="D71" t="s">
@@ -7834,7 +7834,7 @@
       <c r="M71" t="s">
         <v>420</v>
       </c>
-      <c r="N71" s="4" t="s">
+      <c r="N71" t="s">
         <v>420</v>
       </c>
       <c r="O71" t="s">
@@ -7849,7 +7849,7 @@
       <c r="R71" t="s">
         <v>420</v>
       </c>
-      <c r="S71" s="4" t="s">
+      <c r="S71" t="s">
         <v>420</v>
       </c>
       <c r="T71" t="s">
@@ -7887,13 +7887,13 @@
       <c r="A72" t="s">
         <v>70</v>
       </c>
-      <c r="B72" s="4" t="s">
+      <c r="B72" t="s">
         <v>420</v>
       </c>
       <c r="C72" t="s">
         <v>420</v>
       </c>
-      <c r="D72" s="4" t="s">
+      <c r="D72" t="s">
         <v>420</v>
       </c>
       <c r="E72" t="s">
@@ -7935,7 +7935,7 @@
       <c r="Q72" t="s">
         <v>420</v>
       </c>
-      <c r="R72" s="4" t="s">
+      <c r="R72" t="s">
         <v>420</v>
       </c>
       <c r="S72" t="s">
@@ -7953,7 +7953,7 @@
       <c r="W72" t="s">
         <v>420</v>
       </c>
-      <c r="X72" s="4" t="s">
+      <c r="X72" t="s">
         <v>420</v>
       </c>
       <c r="Y72" t="s">
@@ -7997,10 +7997,10 @@
       <c r="H73" t="s">
         <v>420</v>
       </c>
-      <c r="I73" s="4" t="s">
-        <v>420</v>
-      </c>
-      <c r="J73" s="4" t="s">
+      <c r="I73" t="s">
+        <v>420</v>
+      </c>
+      <c r="J73" t="s">
         <v>420</v>
       </c>
       <c r="K73" t="s">
@@ -8009,7 +8009,7 @@
       <c r="L73" t="s">
         <v>420</v>
       </c>
-      <c r="M73" s="4" t="s">
+      <c r="M73" t="s">
         <v>420</v>
       </c>
       <c r="N73" t="s">
@@ -8057,7 +8057,7 @@
       <c r="AB73" t="s">
         <v>420</v>
       </c>
-      <c r="AC73" s="4" t="s">
+      <c r="AC73" t="s">
         <v>420</v>
       </c>
     </row>
@@ -8143,10 +8143,10 @@
       <c r="AA74" t="s">
         <v>420</v>
       </c>
-      <c r="AB74" s="4" t="s">
-        <v>420</v>
-      </c>
-      <c r="AC74" s="4" t="s">
+      <c r="AB74" t="s">
+        <v>420</v>
+      </c>
+      <c r="AC74" t="s">
         <v>420</v>
       </c>
     </row>
@@ -8205,16 +8205,16 @@
       <c r="R75" t="s">
         <v>420</v>
       </c>
-      <c r="S75" s="4" t="s">
+      <c r="S75" t="s">
         <v>420</v>
       </c>
       <c r="T75" t="s">
         <v>420</v>
       </c>
-      <c r="U75" s="4" t="s">
-        <v>420</v>
-      </c>
-      <c r="V75" s="4" t="s">
+      <c r="U75" t="s">
+        <v>420</v>
+      </c>
+      <c r="V75" t="s">
         <v>420</v>
       </c>
       <c r="W75" t="s">
@@ -8226,7 +8226,7 @@
       <c r="Y75" t="s">
         <v>420</v>
       </c>
-      <c r="Z75" s="4" t="s">
+      <c r="Z75" t="s">
         <v>420</v>
       </c>
       <c r="AA75" t="s">
@@ -8243,7 +8243,7 @@
       <c r="A76" t="s">
         <v>74</v>
       </c>
-      <c r="B76" s="4" t="s">
+      <c r="B76" t="s">
         <v>420</v>
       </c>
       <c r="C76" t="s">
@@ -8252,13 +8252,13 @@
       <c r="D76" t="s">
         <v>420</v>
       </c>
-      <c r="E76" s="4" t="s">
+      <c r="E76" t="s">
         <v>420</v>
       </c>
       <c r="F76" t="s">
         <v>420</v>
       </c>
-      <c r="G76" s="4" t="s">
+      <c r="G76" t="s">
         <v>420</v>
       </c>
       <c r="H76" t="s">
@@ -8288,7 +8288,7 @@
       <c r="P76" t="s">
         <v>420</v>
       </c>
-      <c r="Q76" s="4" t="s">
+      <c r="Q76" t="s">
         <v>420</v>
       </c>
       <c r="R76" t="s">
@@ -8356,13 +8356,13 @@
       <c r="I77" t="s">
         <v>420</v>
       </c>
-      <c r="J77" s="4" t="s">
+      <c r="J77" t="s">
         <v>420</v>
       </c>
       <c r="K77" t="s">
         <v>420</v>
       </c>
-      <c r="L77" s="4" t="s">
+      <c r="L77" t="s">
         <v>420</v>
       </c>
       <c r="M77" t="s">
@@ -8389,7 +8389,7 @@
       <c r="T77" t="s">
         <v>420</v>
       </c>
-      <c r="U77" s="4" t="s">
+      <c r="U77" t="s">
         <v>420</v>
       </c>
       <c r="V77" t="s">
@@ -8427,7 +8427,7 @@
       <c r="C78" t="s">
         <v>420</v>
       </c>
-      <c r="D78" s="4" t="s">
+      <c r="D78" t="s">
         <v>420</v>
       </c>
       <c r="E78" t="s">
@@ -8469,7 +8469,7 @@
       <c r="Q78" t="s">
         <v>420</v>
       </c>
-      <c r="R78" s="4" t="s">
+      <c r="R78" t="s">
         <v>420</v>
       </c>
       <c r="S78" t="s">
@@ -8490,7 +8490,7 @@
       <c r="X78" t="s">
         <v>420</v>
       </c>
-      <c r="Y78" s="4" t="s">
+      <c r="Y78" t="s">
         <v>420</v>
       </c>
       <c r="Z78" t="s">
@@ -8519,7 +8519,7 @@
       <c r="D79" t="s">
         <v>420</v>
       </c>
-      <c r="E79" s="4" t="s">
+      <c r="E79" t="s">
         <v>420</v>
       </c>
       <c r="F79" t="s">
@@ -8588,7 +8588,7 @@
       <c r="AA79" t="s">
         <v>420</v>
       </c>
-      <c r="AB79" s="4" t="s">
+      <c r="AB79" t="s">
         <v>420</v>
       </c>
       <c r="AC79" t="s">
@@ -8611,7 +8611,7 @@
       <c r="E80" t="s">
         <v>420</v>
       </c>
-      <c r="F80" s="4" t="s">
+      <c r="F80" t="s">
         <v>420</v>
       </c>
       <c r="G80" t="s">
@@ -8727,13 +8727,13 @@
       <c r="N81" t="s">
         <v>420</v>
       </c>
-      <c r="O81" s="4" t="s">
+      <c r="O81" t="s">
         <v>420</v>
       </c>
       <c r="P81" t="s">
         <v>420</v>
       </c>
-      <c r="Q81" s="4" t="s">
+      <c r="Q81" t="s">
         <v>420</v>
       </c>
       <c r="R81" t="s">
@@ -8804,7 +8804,7 @@
       <c r="J82" t="s">
         <v>420</v>
       </c>
-      <c r="K82" s="4" t="s">
+      <c r="K82" t="s">
         <v>420</v>
       </c>
       <c r="L82" t="s">
@@ -8822,7 +8822,7 @@
       <c r="P82" t="s">
         <v>420</v>
       </c>
-      <c r="Q82" s="4" t="s">
+      <c r="Q82" t="s">
         <v>420</v>
       </c>
       <c r="R82" t="s">
@@ -8831,7 +8831,7 @@
       <c r="S82" t="s">
         <v>420</v>
       </c>
-      <c r="T82" s="4" t="s">
+      <c r="T82" t="s">
         <v>420</v>
       </c>
       <c r="U82" t="s">
@@ -8875,7 +8875,7 @@
       <c r="D83" t="s">
         <v>420</v>
       </c>
-      <c r="E83" s="4" t="s">
+      <c r="E83" t="s">
         <v>420</v>
       </c>
       <c r="F83" t="s">
@@ -8920,7 +8920,7 @@
       <c r="S83" t="s">
         <v>420</v>
       </c>
-      <c r="T83" s="4" t="s">
+      <c r="T83" t="s">
         <v>420</v>
       </c>
       <c r="U83" t="s">
@@ -9015,7 +9015,7 @@
       <c r="U84" t="s">
         <v>420</v>
       </c>
-      <c r="V84" s="4" t="s">
+      <c r="V84" t="s">
         <v>420</v>
       </c>
       <c r="W84" t="s">
@@ -9092,13 +9092,13 @@
       <c r="Q85" t="s">
         <v>420</v>
       </c>
-      <c r="R85" s="4" t="s">
+      <c r="R85" t="s">
         <v>420</v>
       </c>
       <c r="S85" t="s">
         <v>420</v>
       </c>
-      <c r="T85" s="4" t="s">
+      <c r="T85" t="s">
         <v>420</v>
       </c>
       <c r="U85" t="s">
@@ -9151,7 +9151,7 @@
       <c r="G86" t="s">
         <v>420</v>
       </c>
-      <c r="H86" s="4" t="s">
+      <c r="H86" t="s">
         <v>420</v>
       </c>
       <c r="I86" t="s">
@@ -9163,7 +9163,7 @@
       <c r="K86" t="s">
         <v>420</v>
       </c>
-      <c r="L86" s="4" t="s">
+      <c r="L86" t="s">
         <v>420</v>
       </c>
       <c r="M86" t="s">
@@ -9288,7 +9288,7 @@
       <c r="W87" t="s">
         <v>420</v>
       </c>
-      <c r="X87" s="4" t="s">
+      <c r="X87" t="s">
         <v>420</v>
       </c>
       <c r="Y87" t="s">
@@ -9297,7 +9297,7 @@
       <c r="Z87" t="s">
         <v>420</v>
       </c>
-      <c r="AA87" s="4" t="s">
+      <c r="AA87" t="s">
         <v>420</v>
       </c>
       <c r="AB87" t="s">
@@ -9335,7 +9335,7 @@
       <c r="I88" t="s">
         <v>420</v>
       </c>
-      <c r="J88" s="4" t="s">
+      <c r="J88" t="s">
         <v>420</v>
       </c>
       <c r="K88" t="s">
@@ -9403,7 +9403,7 @@
       <c r="B89" t="s">
         <v>420</v>
       </c>
-      <c r="C89" s="4" t="s">
+      <c r="C89" t="s">
         <v>420</v>
       </c>
       <c r="D89" t="s">
@@ -9439,7 +9439,7 @@
       <c r="N89" t="s">
         <v>420</v>
       </c>
-      <c r="O89" s="4" t="s">
+      <c r="O89" t="s">
         <v>420</v>
       </c>
       <c r="P89" t="s">
@@ -9463,7 +9463,7 @@
       <c r="V89" t="s">
         <v>420</v>
       </c>
-      <c r="W89" s="4" t="s">
+      <c r="W89" t="s">
         <v>420</v>
       </c>
       <c r="X89" t="s">
@@ -9478,7 +9478,7 @@
       <c r="AA89" t="s">
         <v>420</v>
       </c>
-      <c r="AB89" s="4" t="s">
+      <c r="AB89" t="s">
         <v>420</v>
       </c>
       <c r="AC89" t="s">
@@ -9489,10 +9489,10 @@
       <c r="A90" t="s">
         <v>88</v>
       </c>
-      <c r="B90" s="4" t="s">
-        <v>420</v>
-      </c>
-      <c r="C90" s="4" t="s">
+      <c r="B90" t="s">
+        <v>420</v>
+      </c>
+      <c r="C90" t="s">
         <v>420</v>
       </c>
       <c r="D90" t="s">
@@ -9513,7 +9513,7 @@
       <c r="I90" t="s">
         <v>420</v>
       </c>
-      <c r="J90" s="4" t="s">
+      <c r="J90" t="s">
         <v>420</v>
       </c>
       <c r="K90" t="s">
@@ -9546,7 +9546,7 @@
       <c r="T90" t="s">
         <v>420</v>
       </c>
-      <c r="U90" s="4" t="s">
+      <c r="U90" t="s">
         <v>420</v>
       </c>
       <c r="V90" t="s">
@@ -9570,7 +9570,7 @@
       <c r="AB90" t="s">
         <v>420</v>
       </c>
-      <c r="AC90" s="4" t="s">
+      <c r="AC90" t="s">
         <v>420</v>
       </c>
     </row>
@@ -9608,7 +9608,7 @@
       <c r="K91" t="s">
         <v>420</v>
       </c>
-      <c r="L91" s="4" t="s">
+      <c r="L91" t="s">
         <v>420</v>
       </c>
       <c r="M91" t="s">
@@ -9638,7 +9638,7 @@
       <c r="U91" t="s">
         <v>420</v>
       </c>
-      <c r="V91" s="4" t="s">
+      <c r="V91" t="s">
         <v>420</v>
       </c>
       <c r="W91" t="s">
@@ -9679,7 +9679,7 @@
       <c r="E92" t="s">
         <v>420</v>
       </c>
-      <c r="F92" s="4" t="s">
+      <c r="F92" t="s">
         <v>420</v>
       </c>
       <c r="G92" t="s">
@@ -9727,7 +9727,7 @@
       <c r="U92" t="s">
         <v>420</v>
       </c>
-      <c r="V92" s="4" t="s">
+      <c r="V92" t="s">
         <v>420</v>
       </c>
       <c r="W92" t="s">
@@ -9748,7 +9748,7 @@
       <c r="AB92" t="s">
         <v>420</v>
       </c>
-      <c r="AC92" s="4" t="s">
+      <c r="AC92" t="s">
         <v>420</v>
       </c>
     </row>
@@ -9771,7 +9771,7 @@
       <c r="F93" t="s">
         <v>420</v>
       </c>
-      <c r="G93" s="4" t="s">
+      <c r="G93" t="s">
         <v>420</v>
       </c>
       <c r="H93" t="s">
@@ -9783,7 +9783,7 @@
       <c r="J93" t="s">
         <v>420</v>
       </c>
-      <c r="K93" s="4" t="s">
+      <c r="K93" t="s">
         <v>420</v>
       </c>
       <c r="L93" t="s">
@@ -9845,7 +9845,7 @@
       <c r="A94" t="s">
         <v>92</v>
       </c>
-      <c r="B94" s="4" t="s">
+      <c r="B94" t="s">
         <v>420</v>
       </c>
       <c r="C94" t="s">
@@ -9866,7 +9866,7 @@
       <c r="H94" t="s">
         <v>420</v>
       </c>
-      <c r="I94" s="4" t="s">
+      <c r="I94" t="s">
         <v>420</v>
       </c>
       <c r="J94" t="s">
@@ -9875,19 +9875,19 @@
       <c r="K94" t="s">
         <v>420</v>
       </c>
-      <c r="L94" s="4" t="s">
+      <c r="L94" t="s">
         <v>420</v>
       </c>
       <c r="M94" t="s">
         <v>420</v>
       </c>
-      <c r="N94" s="4" t="s">
+      <c r="N94" t="s">
         <v>420</v>
       </c>
       <c r="O94" t="s">
         <v>420</v>
       </c>
-      <c r="P94" s="4" t="s">
+      <c r="P94" t="s">
         <v>420</v>
       </c>
       <c r="Q94" t="s">
@@ -9994,7 +9994,7 @@
       <c r="U95" t="s">
         <v>420</v>
       </c>
-      <c r="V95" s="4" t="s">
+      <c r="V95" t="s">
         <v>420</v>
       </c>
       <c r="W95" t="s">
@@ -10026,10 +10026,10 @@
       <c r="B96" t="s">
         <v>420</v>
       </c>
-      <c r="C96" s="4" t="s">
-        <v>420</v>
-      </c>
-      <c r="D96" s="4" t="s">
+      <c r="C96" t="s">
+        <v>420</v>
+      </c>
+      <c r="D96" t="s">
         <v>420</v>
       </c>
       <c r="E96" t="s">
@@ -10112,7 +10112,7 @@
       <c r="A97" t="s">
         <v>95</v>
       </c>
-      <c r="B97" s="4" t="s">
+      <c r="B97" t="s">
         <v>420</v>
       </c>
       <c r="C97" t="s">
@@ -10124,7 +10124,7 @@
       <c r="E97" t="s">
         <v>420</v>
       </c>
-      <c r="F97" s="4" t="s">
+      <c r="F97" t="s">
         <v>420</v>
       </c>
       <c r="G97" t="s">
@@ -10193,7 +10193,7 @@
       <c r="AB97" t="s">
         <v>420</v>
       </c>
-      <c r="AC97" s="4" t="s">
+      <c r="AC97" t="s">
         <v>420</v>
       </c>
     </row>
@@ -10261,7 +10261,7 @@
       <c r="U98" t="s">
         <v>420</v>
       </c>
-      <c r="V98" s="4" t="s">
+      <c r="V98" t="s">
         <v>420</v>
       </c>
       <c r="W98" t="s">
@@ -10305,7 +10305,7 @@
       <c r="F99" t="s">
         <v>420</v>
       </c>
-      <c r="G99" s="4" t="s">
+      <c r="G99" t="s">
         <v>420</v>
       </c>
       <c r="H99" t="s">
@@ -10317,13 +10317,13 @@
       <c r="J99" t="s">
         <v>420</v>
       </c>
-      <c r="K99" s="4" t="s">
-        <v>420</v>
-      </c>
-      <c r="L99" s="4" t="s">
-        <v>420</v>
-      </c>
-      <c r="M99" s="4" t="s">
+      <c r="K99" t="s">
+        <v>420</v>
+      </c>
+      <c r="L99" t="s">
+        <v>420</v>
+      </c>
+      <c r="M99" t="s">
         <v>420</v>
       </c>
       <c r="N99" t="s">
@@ -10341,7 +10341,7 @@
       <c r="R99" t="s">
         <v>420</v>
       </c>
-      <c r="S99" s="4" t="s">
+      <c r="S99" t="s">
         <v>420</v>
       </c>
       <c r="T99" t="s">
@@ -10397,7 +10397,7 @@
       <c r="G100" t="s">
         <v>420</v>
       </c>
-      <c r="H100" s="4" t="s">
+      <c r="H100" t="s">
         <v>420</v>
       </c>
       <c r="I100" t="s">
@@ -10406,7 +10406,7 @@
       <c r="J100" t="s">
         <v>420</v>
       </c>
-      <c r="K100" s="4" t="s">
+      <c r="K100" t="s">
         <v>420</v>
       </c>
       <c r="L100" t="s">
@@ -10427,7 +10427,7 @@
       <c r="Q100" t="s">
         <v>420</v>
       </c>
-      <c r="R100" s="4" t="s">
+      <c r="R100" t="s">
         <v>420</v>
       </c>
       <c r="S100" t="s">
@@ -10442,7 +10442,7 @@
       <c r="V100" t="s">
         <v>420</v>
       </c>
-      <c r="W100" s="4" t="s">
+      <c r="W100" t="s">
         <v>420</v>
       </c>
       <c r="X100" t="s">
@@ -10507,7 +10507,7 @@
       <c r="N101" t="s">
         <v>420</v>
       </c>
-      <c r="O101" s="4" t="s">
+      <c r="O101" t="s">
         <v>420</v>
       </c>
       <c r="P101" t="s">
@@ -10525,7 +10525,7 @@
       <c r="T101" t="s">
         <v>420</v>
       </c>
-      <c r="U101" s="4" t="s">
+      <c r="U101" t="s">
         <v>420</v>
       </c>
       <c r="V101" t="s">
@@ -10575,7 +10575,7 @@
       <c r="G102" t="s">
         <v>420</v>
       </c>
-      <c r="H102" s="4" t="s">
+      <c r="H102" t="s">
         <v>420</v>
       </c>
       <c r="I102" t="s">
@@ -10602,7 +10602,7 @@
       <c r="P102" t="s">
         <v>420</v>
       </c>
-      <c r="Q102" s="4" t="s">
+      <c r="Q102" t="s">
         <v>420</v>
       </c>
       <c r="R102" t="s">
@@ -10614,7 +10614,7 @@
       <c r="T102" t="s">
         <v>420</v>
       </c>
-      <c r="U102" s="4" t="s">
+      <c r="U102" t="s">
         <v>420</v>
       </c>
       <c r="V102" t="s">
@@ -10655,7 +10655,7 @@
       <c r="D103" t="s">
         <v>420</v>
       </c>
-      <c r="E103" s="4" t="s">
+      <c r="E103" t="s">
         <v>420</v>
       </c>
       <c r="F103" t="s">
@@ -10667,7 +10667,7 @@
       <c r="H103" t="s">
         <v>420</v>
       </c>
-      <c r="I103" s="4" t="s">
+      <c r="I103" t="s">
         <v>420</v>
       </c>
       <c r="J103" t="s">
@@ -10697,7 +10697,7 @@
       <c r="R103" t="s">
         <v>420</v>
       </c>
-      <c r="S103" s="4" t="s">
+      <c r="S103" t="s">
         <v>420</v>
       </c>
       <c r="T103" t="s">
@@ -10756,7 +10756,7 @@
       <c r="H104" t="s">
         <v>420</v>
       </c>
-      <c r="I104" s="4" t="s">
+      <c r="I104" t="s">
         <v>420</v>
       </c>
       <c r="J104" t="s">
@@ -10771,7 +10771,7 @@
       <c r="M104" t="s">
         <v>420</v>
       </c>
-      <c r="N104" s="4" t="s">
+      <c r="N104" t="s">
         <v>420</v>
       </c>
       <c r="O104" t="s">
@@ -10780,7 +10780,7 @@
       <c r="P104" t="s">
         <v>420</v>
       </c>
-      <c r="Q104" s="4" t="s">
+      <c r="Q104" t="s">
         <v>420</v>
       </c>
       <c r="R104" t="s">
@@ -10795,7 +10795,7 @@
       <c r="U104" t="s">
         <v>420</v>
       </c>
-      <c r="V104" s="4" t="s">
+      <c r="V104" t="s">
         <v>420</v>
       </c>
       <c r="W104" t="s">
@@ -10813,7 +10813,7 @@
       <c r="AA104" t="s">
         <v>420</v>
       </c>
-      <c r="AB104" s="4" t="s">
+      <c r="AB104" t="s">
         <v>420</v>
       </c>
       <c r="AC104" t="s">
@@ -10833,7 +10833,7 @@
       <c r="D105" t="s">
         <v>420</v>
       </c>
-      <c r="E105" s="4" t="s">
+      <c r="E105" t="s">
         <v>420</v>
       </c>
       <c r="F105" t="s">
@@ -10943,10 +10943,10 @@
       <c r="K106" t="s">
         <v>420</v>
       </c>
-      <c r="L106" s="4" t="s">
-        <v>420</v>
-      </c>
-      <c r="M106" s="4" t="s">
+      <c r="L106" t="s">
+        <v>420</v>
+      </c>
+      <c r="M106" t="s">
         <v>420</v>
       </c>
       <c r="N106" t="s">
@@ -10958,19 +10958,19 @@
       <c r="P106" t="s">
         <v>420</v>
       </c>
-      <c r="Q106" s="4" t="s">
+      <c r="Q106" t="s">
         <v>420</v>
       </c>
       <c r="R106" t="s">
         <v>420</v>
       </c>
-      <c r="S106" s="4" t="s">
+      <c r="S106" t="s">
         <v>420</v>
       </c>
       <c r="T106" t="s">
         <v>420</v>
       </c>
-      <c r="U106" s="4" t="s">
+      <c r="U106" t="s">
         <v>420</v>
       </c>
       <c r="V106" t="s">
@@ -11017,10 +11017,10 @@
       <c r="F107" t="s">
         <v>420</v>
       </c>
-      <c r="G107" s="4" t="s">
-        <v>420</v>
-      </c>
-      <c r="H107" s="4" t="s">
+      <c r="G107" t="s">
+        <v>420</v>
+      </c>
+      <c r="H107" t="s">
         <v>420</v>
       </c>
       <c r="I107" t="s">
@@ -11041,7 +11041,7 @@
       <c r="N107" t="s">
         <v>420</v>
       </c>
-      <c r="O107" s="4" t="s">
+      <c r="O107" t="s">
         <v>420</v>
       </c>
       <c r="P107" t="s">
@@ -11056,7 +11056,7 @@
       <c r="S107" t="s">
         <v>420</v>
       </c>
-      <c r="T107" s="4" t="s">
+      <c r="T107" t="s">
         <v>420</v>
       </c>
       <c r="U107" t="s">
@@ -11074,7 +11074,7 @@
       <c r="Y107" t="s">
         <v>420</v>
       </c>
-      <c r="Z107" s="4" t="s">
+      <c r="Z107" t="s">
         <v>420</v>
       </c>
       <c r="AA107" t="s">
@@ -11115,7 +11115,7 @@
       <c r="I108" t="s">
         <v>420</v>
       </c>
-      <c r="J108" s="4" t="s">
+      <c r="J108" t="s">
         <v>420</v>
       </c>
       <c r="K108" t="s">
@@ -11148,10 +11148,10 @@
       <c r="T108" t="s">
         <v>420</v>
       </c>
-      <c r="U108" s="4" t="s">
-        <v>420</v>
-      </c>
-      <c r="V108" s="4" t="s">
+      <c r="U108" t="s">
+        <v>420</v>
+      </c>
+      <c r="V108" t="s">
         <v>420</v>
       </c>
       <c r="W108" t="s">
@@ -11189,7 +11189,7 @@
       <c r="D109" t="s">
         <v>420</v>
       </c>
-      <c r="E109" s="4" t="s">
+      <c r="E109" t="s">
         <v>420</v>
       </c>
       <c r="F109" t="s">
@@ -11210,7 +11210,7 @@
       <c r="K109" t="s">
         <v>420</v>
       </c>
-      <c r="L109" s="4" t="s">
+      <c r="L109" t="s">
         <v>420</v>
       </c>
       <c r="M109" t="s">
@@ -11240,7 +11240,7 @@
       <c r="U109" t="s">
         <v>420</v>
       </c>
-      <c r="V109" s="4" t="s">
+      <c r="V109" t="s">
         <v>420</v>
       </c>
       <c r="W109" t="s">
@@ -11261,7 +11261,7 @@
       <c r="AB109" t="s">
         <v>420</v>
       </c>
-      <c r="AC109" s="4" t="s">
+      <c r="AC109" t="s">
         <v>420</v>
       </c>
     </row>
@@ -11281,13 +11281,13 @@
       <c r="E110" t="s">
         <v>420</v>
       </c>
-      <c r="F110" s="4" t="s">
+      <c r="F110" t="s">
         <v>420</v>
       </c>
       <c r="G110" t="s">
         <v>420</v>
       </c>
-      <c r="H110" s="4" t="s">
+      <c r="H110" t="s">
         <v>420</v>
       </c>
       <c r="I110" t="s">
@@ -11350,7 +11350,7 @@
       <c r="AB110" t="s">
         <v>420</v>
       </c>
-      <c r="AC110" s="4" t="s">
+      <c r="AC110" t="s">
         <v>420</v>
       </c>
     </row>
@@ -11379,7 +11379,7 @@
       <c r="H111" t="s">
         <v>420</v>
       </c>
-      <c r="I111" s="4" t="s">
+      <c r="I111" t="s">
         <v>420</v>
       </c>
       <c r="J111" t="s">
@@ -11427,7 +11427,7 @@
       <c r="X111" t="s">
         <v>420</v>
       </c>
-      <c r="Y111" s="4" t="s">
+      <c r="Y111" t="s">
         <v>420</v>
       </c>
       <c r="Z111" t="s">
@@ -11459,7 +11459,7 @@
       <c r="E112" t="s">
         <v>420</v>
       </c>
-      <c r="F112" s="4" t="s">
+      <c r="F112" t="s">
         <v>420</v>
       </c>
       <c r="G112" t="s">
@@ -11501,7 +11501,7 @@
       <c r="S112" t="s">
         <v>420</v>
       </c>
-      <c r="T112" s="4" t="s">
+      <c r="T112" t="s">
         <v>420</v>
       </c>
       <c r="U112" t="s">
@@ -11557,7 +11557,7 @@
       <c r="H113" t="s">
         <v>420</v>
       </c>
-      <c r="I113" s="4" t="s">
+      <c r="I113" t="s">
         <v>420</v>
       </c>
       <c r="J113" t="s">
@@ -11602,7 +11602,7 @@
       <c r="W113" t="s">
         <v>420</v>
       </c>
-      <c r="X113" s="4" t="s">
+      <c r="X113" t="s">
         <v>420</v>
       </c>
       <c r="Y113" t="s">
@@ -11676,7 +11676,7 @@
       <c r="R114" t="s">
         <v>420</v>
       </c>
-      <c r="S114" s="4" t="s">
+      <c r="S114" t="s">
         <v>420</v>
       </c>
       <c r="T114" t="s">
@@ -11697,7 +11697,7 @@
       <c r="Y114" t="s">
         <v>420</v>
       </c>
-      <c r="Z114" s="4" t="s">
+      <c r="Z114" t="s">
         <v>420</v>
       </c>
       <c r="AA114" t="s">
@@ -11706,7 +11706,7 @@
       <c r="AB114" t="s">
         <v>420</v>
       </c>
-      <c r="AC114" s="4" t="s">
+      <c r="AC114" t="s">
         <v>420</v>
       </c>
     </row>
@@ -11726,7 +11726,7 @@
       <c r="E115" t="s">
         <v>420</v>
       </c>
-      <c r="F115" s="4" t="s">
+      <c r="F115" t="s">
         <v>420</v>
       </c>
       <c r="G115" t="s">
@@ -11762,7 +11762,7 @@
       <c r="Q115" t="s">
         <v>420</v>
       </c>
-      <c r="R115" s="4" t="s">
+      <c r="R115" t="s">
         <v>420</v>
       </c>
       <c r="S115" t="s">
@@ -11860,7 +11860,7 @@
       <c r="T116" t="s">
         <v>420</v>
       </c>
-      <c r="U116" s="4" t="s">
+      <c r="U116" t="s">
         <v>420</v>
       </c>
       <c r="V116" t="s">
@@ -11881,7 +11881,7 @@
       <c r="AA116" t="s">
         <v>420</v>
       </c>
-      <c r="AB116" s="4" t="s">
+      <c r="AB116" t="s">
         <v>420</v>
       </c>
       <c r="AC116" t="s">
@@ -11946,7 +11946,7 @@
       <c r="S117" t="s">
         <v>420</v>
       </c>
-      <c r="T117" s="4" t="s">
+      <c r="T117" t="s">
         <v>420</v>
       </c>
       <c r="U117" t="s">
@@ -11987,7 +11987,7 @@
       <c r="C118" t="s">
         <v>420</v>
       </c>
-      <c r="D118" s="4" t="s">
+      <c r="D118" t="s">
         <v>420</v>
       </c>
       <c r="E118" t="s">
@@ -12005,7 +12005,7 @@
       <c r="I118" t="s">
         <v>420</v>
       </c>
-      <c r="J118" s="4" t="s">
+      <c r="J118" t="s">
         <v>420</v>
       </c>
       <c r="K118" t="s">
@@ -12056,10 +12056,10 @@
       <c r="Z118" t="s">
         <v>420</v>
       </c>
-      <c r="AA118" s="4" t="s">
-        <v>420</v>
-      </c>
-      <c r="AB118" s="4" t="s">
+      <c r="AA118" t="s">
+        <v>420</v>
+      </c>
+      <c r="AB118" t="s">
         <v>420</v>
       </c>
       <c r="AC118" t="s">
@@ -12139,7 +12139,7 @@
       <c r="X119" t="s">
         <v>420</v>
       </c>
-      <c r="Y119" s="4" t="s">
+      <c r="Y119" t="s">
         <v>420</v>
       </c>
       <c r="Z119" t="s">
@@ -12162,10 +12162,10 @@
       <c r="B120" t="s">
         <v>420</v>
       </c>
-      <c r="C120" s="4" t="s">
-        <v>420</v>
-      </c>
-      <c r="D120" s="4" t="s">
+      <c r="C120" t="s">
+        <v>420</v>
+      </c>
+      <c r="D120" t="s">
         <v>420</v>
       </c>
       <c r="E120" t="s">
@@ -12186,7 +12186,7 @@
       <c r="J120" t="s">
         <v>420</v>
       </c>
-      <c r="K120" s="4" t="s">
+      <c r="K120" t="s">
         <v>420</v>
       </c>
       <c r="L120" t="s">
@@ -12207,10 +12207,10 @@
       <c r="Q120" t="s">
         <v>420</v>
       </c>
-      <c r="R120" s="4" t="s">
-        <v>420</v>
-      </c>
-      <c r="S120" s="4" t="s">
+      <c r="R120" t="s">
+        <v>420</v>
+      </c>
+      <c r="S120" t="s">
         <v>420</v>
       </c>
       <c r="T120" t="s">
@@ -12272,19 +12272,19 @@
       <c r="I121" t="s">
         <v>420</v>
       </c>
-      <c r="J121" s="4" t="s">
+      <c r="J121" t="s">
         <v>420</v>
       </c>
       <c r="K121" t="s">
         <v>420</v>
       </c>
-      <c r="L121" s="4" t="s">
+      <c r="L121" t="s">
         <v>420</v>
       </c>
       <c r="M121" t="s">
         <v>420</v>
       </c>
-      <c r="N121" s="4" t="s">
+      <c r="N121" t="s">
         <v>420</v>
       </c>
       <c r="O121" t="s">
@@ -12302,7 +12302,7 @@
       <c r="S121" t="s">
         <v>420</v>
       </c>
-      <c r="T121" s="4" t="s">
+      <c r="T121" t="s">
         <v>420</v>
       </c>
       <c r="U121" t="s">
@@ -12358,7 +12358,7 @@
       <c r="H122" t="s">
         <v>420</v>
       </c>
-      <c r="I122" s="4" t="s">
+      <c r="I122" t="s">
         <v>420</v>
       </c>
       <c r="J122" t="s">
@@ -12382,7 +12382,7 @@
       <c r="P122" t="s">
         <v>420</v>
       </c>
-      <c r="Q122" s="4" t="s">
+      <c r="Q122" t="s">
         <v>420</v>
       </c>
       <c r="R122" t="s">
@@ -12397,10 +12397,10 @@
       <c r="U122" t="s">
         <v>420</v>
       </c>
-      <c r="V122" s="4" t="s">
-        <v>420</v>
-      </c>
-      <c r="W122" s="4" t="s">
+      <c r="V122" t="s">
+        <v>420</v>
+      </c>
+      <c r="W122" t="s">
         <v>420</v>
       </c>
       <c r="X122" t="s">
@@ -12412,7 +12412,7 @@
       <c r="Z122" t="s">
         <v>420</v>
       </c>
-      <c r="AA122" s="4" t="s">
+      <c r="AA122" t="s">
         <v>420</v>
       </c>
       <c r="AB122" t="s">
@@ -12435,7 +12435,7 @@
       <c r="D123" t="s">
         <v>420</v>
       </c>
-      <c r="E123" s="4" t="s">
+      <c r="E123" t="s">
         <v>420</v>
       </c>
       <c r="F123" t="s">
@@ -12474,19 +12474,19 @@
       <c r="Q123" t="s">
         <v>420</v>
       </c>
-      <c r="R123" s="4" t="s">
+      <c r="R123" t="s">
         <v>420</v>
       </c>
       <c r="S123" t="s">
         <v>420</v>
       </c>
-      <c r="T123" s="4" t="s">
+      <c r="T123" t="s">
         <v>420</v>
       </c>
       <c r="U123" t="s">
         <v>420</v>
       </c>
-      <c r="V123" s="4" t="s">
+      <c r="V123" t="s">
         <v>420</v>
       </c>
       <c r="W123" t="s">
@@ -12527,7 +12527,7 @@
       <c r="E124" t="s">
         <v>420</v>
       </c>
-      <c r="F124" s="4" t="s">
+      <c r="F124" t="s">
         <v>420</v>
       </c>
       <c r="G124" t="s">
@@ -12548,10 +12548,10 @@
       <c r="L124" t="s">
         <v>420</v>
       </c>
-      <c r="M124" s="4" t="s">
-        <v>420</v>
-      </c>
-      <c r="N124" s="4" t="s">
+      <c r="M124" t="s">
+        <v>420</v>
+      </c>
+      <c r="N124" t="s">
         <v>420</v>
       </c>
       <c r="O124" t="s">
@@ -12584,7 +12584,7 @@
       <c r="X124" t="s">
         <v>420</v>
       </c>
-      <c r="Y124" s="4" t="s">
+      <c r="Y124" t="s">
         <v>420</v>
       </c>
       <c r="Z124" t="s">
@@ -12604,13 +12604,13 @@
       <c r="A125" t="s">
         <v>123</v>
       </c>
-      <c r="B125" s="4" t="s">
+      <c r="B125" t="s">
         <v>420</v>
       </c>
       <c r="C125" t="s">
         <v>420</v>
       </c>
-      <c r="D125" s="4" t="s">
+      <c r="D125" t="s">
         <v>420</v>
       </c>
       <c r="E125" t="s">
@@ -12670,7 +12670,7 @@
       <c r="W125" t="s">
         <v>420</v>
       </c>
-      <c r="X125" s="4" t="s">
+      <c r="X125" t="s">
         <v>420</v>
       </c>
       <c r="Y125" t="s">
@@ -12679,10 +12679,10 @@
       <c r="Z125" t="s">
         <v>420</v>
       </c>
-      <c r="AA125" s="4" t="s">
-        <v>420</v>
-      </c>
-      <c r="AB125" s="4" t="s">
+      <c r="AA125" t="s">
+        <v>420</v>
+      </c>
+      <c r="AB125" t="s">
         <v>420</v>
       </c>
       <c r="AC125" t="s">
@@ -12696,7 +12696,7 @@
       <c r="B126" t="s">
         <v>420</v>
       </c>
-      <c r="C126" s="4" t="s">
+      <c r="C126" t="s">
         <v>420</v>
       </c>
       <c r="D126" t="s">
@@ -12705,7 +12705,7 @@
       <c r="E126" t="s">
         <v>420</v>
       </c>
-      <c r="F126" s="4" t="s">
+      <c r="F126" t="s">
         <v>420</v>
       </c>
       <c r="G126" t="s">
@@ -12720,10 +12720,10 @@
       <c r="J126" t="s">
         <v>420</v>
       </c>
-      <c r="K126" s="4" t="s">
-        <v>420</v>
-      </c>
-      <c r="L126" s="4" t="s">
+      <c r="K126" t="s">
+        <v>420</v>
+      </c>
+      <c r="L126" t="s">
         <v>420</v>
       </c>
       <c r="M126" t="s">
@@ -12759,7 +12759,7 @@
       <c r="W126" t="s">
         <v>420</v>
       </c>
-      <c r="X126" s="4" t="s">
+      <c r="X126" t="s">
         <v>420</v>
       </c>
       <c r="Y126" t="s">
@@ -12791,7 +12791,7 @@
       <c r="D127" t="s">
         <v>420</v>
       </c>
-      <c r="E127" s="4" t="s">
+      <c r="E127" t="s">
         <v>420</v>
       </c>
       <c r="F127" t="s">
@@ -12809,7 +12809,7 @@
       <c r="J127" t="s">
         <v>420</v>
       </c>
-      <c r="K127" s="4" t="s">
+      <c r="K127" t="s">
         <v>420</v>
       </c>
       <c r="L127" t="s">
@@ -12839,10 +12839,10 @@
       <c r="T127" t="s">
         <v>420</v>
       </c>
-      <c r="U127" s="4" t="s">
-        <v>420</v>
-      </c>
-      <c r="V127" s="4" t="s">
+      <c r="U127" t="s">
+        <v>420</v>
+      </c>
+      <c r="V127" t="s">
         <v>420</v>
       </c>
       <c r="W127" t="s">
@@ -12851,7 +12851,7 @@
       <c r="X127" t="s">
         <v>420</v>
       </c>
-      <c r="Y127" s="4" t="s">
+      <c r="Y127" t="s">
         <v>420</v>
       </c>
       <c r="Z127" t="s">
@@ -12874,7 +12874,7 @@
       <c r="B128" t="s">
         <v>420</v>
       </c>
-      <c r="C128" s="4" t="s">
+      <c r="C128" t="s">
         <v>420</v>
       </c>
       <c r="D128" t="s">
@@ -12919,7 +12919,7 @@
       <c r="Q128" t="s">
         <v>420</v>
       </c>
-      <c r="R128" s="4" t="s">
+      <c r="R128" t="s">
         <v>420</v>
       </c>
       <c r="S128" t="s">
@@ -12934,10 +12934,10 @@
       <c r="V128" t="s">
         <v>420</v>
       </c>
-      <c r="W128" s="4" t="s">
-        <v>420</v>
-      </c>
-      <c r="X128" s="4" t="s">
+      <c r="W128" t="s">
+        <v>420</v>
+      </c>
+      <c r="X128" t="s">
         <v>420</v>
       </c>
       <c r="Y128" t="s">
@@ -12978,7 +12978,7 @@
       <c r="G129" t="s">
         <v>420</v>
       </c>
-      <c r="H129" s="4" t="s">
+      <c r="H129" t="s">
         <v>420</v>
       </c>
       <c r="I129" t="s">
@@ -13014,7 +13014,7 @@
       <c r="S129" t="s">
         <v>420</v>
       </c>
-      <c r="T129" s="4" t="s">
+      <c r="T129" t="s">
         <v>420</v>
       </c>
       <c r="U129" t="s">
@@ -13032,7 +13032,7 @@
       <c r="Y129" t="s">
         <v>420</v>
       </c>
-      <c r="Z129" s="4" t="s">
+      <c r="Z129" t="s">
         <v>420</v>
       </c>
       <c r="AA129" t="s">
@@ -13058,13 +13058,13 @@
       <c r="D130" t="s">
         <v>420</v>
       </c>
-      <c r="E130" s="4" t="s">
+      <c r="E130" t="s">
         <v>420</v>
       </c>
       <c r="F130" t="s">
         <v>420</v>
       </c>
-      <c r="G130" s="4" t="s">
+      <c r="G130" t="s">
         <v>420</v>
       </c>
       <c r="H130" t="s">
@@ -13085,7 +13085,7 @@
       <c r="M130" t="s">
         <v>420</v>
       </c>
-      <c r="N130" s="4" t="s">
+      <c r="N130" t="s">
         <v>420</v>
       </c>
       <c r="O130" t="s">
@@ -13109,7 +13109,7 @@
       <c r="U130" t="s">
         <v>420</v>
       </c>
-      <c r="V130" s="4" t="s">
+      <c r="V130" t="s">
         <v>420</v>
       </c>
       <c r="W130" t="s">
@@ -13138,7 +13138,7 @@
       <c r="A131" t="s">
         <v>129</v>
       </c>
-      <c r="B131" s="4" t="s">
+      <c r="B131" t="s">
         <v>420</v>
       </c>
       <c r="C131" t="s">
@@ -13150,7 +13150,7 @@
       <c r="E131" t="s">
         <v>420</v>
       </c>
-      <c r="F131" s="4" t="s">
+      <c r="F131" t="s">
         <v>420</v>
       </c>
       <c r="G131" t="s">
@@ -13174,13 +13174,13 @@
       <c r="M131" t="s">
         <v>420</v>
       </c>
-      <c r="N131" s="4" t="s">
-        <v>420</v>
-      </c>
-      <c r="O131" s="4" t="s">
-        <v>420</v>
-      </c>
-      <c r="P131" s="4" t="s">
+      <c r="N131" t="s">
+        <v>420</v>
+      </c>
+      <c r="O131" t="s">
+        <v>420</v>
+      </c>
+      <c r="P131" t="s">
         <v>420</v>
       </c>
       <c r="Q131" t="s">
@@ -13254,7 +13254,7 @@
       <c r="J132" t="s">
         <v>420</v>
       </c>
-      <c r="K132" s="4" t="s">
+      <c r="K132" t="s">
         <v>420</v>
       </c>
       <c r="L132" t="s">
@@ -13281,7 +13281,7 @@
       <c r="S132" t="s">
         <v>420</v>
       </c>
-      <c r="T132" s="4" t="s">
+      <c r="T132" t="s">
         <v>420</v>
       </c>
       <c r="U132" t="s">
@@ -13293,7 +13293,7 @@
       <c r="W132" t="s">
         <v>420</v>
       </c>
-      <c r="X132" s="4" t="s">
+      <c r="X132" t="s">
         <v>420</v>
       </c>
       <c r="Y132" t="s">
@@ -13328,7 +13328,7 @@
       <c r="E133" t="s">
         <v>420</v>
       </c>
-      <c r="F133" s="4" t="s">
+      <c r="F133" t="s">
         <v>420</v>
       </c>
       <c r="G133" t="s">
@@ -13349,7 +13349,7 @@
       <c r="L133" t="s">
         <v>420</v>
       </c>
-      <c r="M133" s="4" t="s">
+      <c r="M133" t="s">
         <v>420</v>
       </c>
       <c r="N133" t="s">
@@ -13358,7 +13358,7 @@
       <c r="O133" t="s">
         <v>420</v>
       </c>
-      <c r="P133" s="4" t="s">
+      <c r="P133" t="s">
         <v>420</v>
       </c>
       <c r="Q133" t="s">
@@ -13423,7 +13423,7 @@
       <c r="G134" t="s">
         <v>420</v>
       </c>
-      <c r="H134" s="4" t="s">
+      <c r="H134" t="s">
         <v>420</v>
       </c>
       <c r="I134" t="s">
@@ -13506,7 +13506,7 @@
       <c r="E135" t="s">
         <v>420</v>
       </c>
-      <c r="F135" s="4" t="s">
+      <c r="F135" t="s">
         <v>420</v>
       </c>
       <c r="G135" t="s">
@@ -13545,10 +13545,10 @@
       <c r="R135" t="s">
         <v>420</v>
       </c>
-      <c r="S135" s="4" t="s">
-        <v>420</v>
-      </c>
-      <c r="T135" s="4" t="s">
+      <c r="S135" t="s">
+        <v>420</v>
+      </c>
+      <c r="T135" t="s">
         <v>420</v>
       </c>
       <c r="U135" t="s">
@@ -13583,7 +13583,7 @@
       <c r="A136" t="s">
         <v>134</v>
       </c>
-      <c r="B136" s="4" t="s">
+      <c r="B136" t="s">
         <v>420</v>
       </c>
       <c r="C136" t="s">
@@ -13616,10 +13616,10 @@
       <c r="L136" t="s">
         <v>420</v>
       </c>
-      <c r="M136" s="4" t="s">
-        <v>420</v>
-      </c>
-      <c r="N136" s="4" t="s">
+      <c r="M136" t="s">
+        <v>420</v>
+      </c>
+      <c r="N136" t="s">
         <v>420</v>
       </c>
       <c r="O136" t="s">
@@ -13628,7 +13628,7 @@
       <c r="P136" t="s">
         <v>420</v>
       </c>
-      <c r="Q136" s="4" t="s">
+      <c r="Q136" t="s">
         <v>420</v>
       </c>
       <c r="R136" t="s">
@@ -13637,7 +13637,7 @@
       <c r="S136" t="s">
         <v>420</v>
       </c>
-      <c r="T136" s="4" t="s">
+      <c r="T136" t="s">
         <v>420</v>
       </c>
       <c r="U136" t="s">
@@ -13675,7 +13675,7 @@
       <c r="B137" t="s">
         <v>420</v>
       </c>
-      <c r="C137" s="4" t="s">
+      <c r="C137" t="s">
         <v>420</v>
       </c>
       <c r="D137" t="s">
@@ -13690,13 +13690,13 @@
       <c r="G137" t="s">
         <v>420</v>
       </c>
-      <c r="H137" s="4" t="s">
-        <v>420</v>
-      </c>
-      <c r="I137" s="4" t="s">
-        <v>420</v>
-      </c>
-      <c r="J137" s="4" t="s">
+      <c r="H137" t="s">
+        <v>420</v>
+      </c>
+      <c r="I137" t="s">
+        <v>420</v>
+      </c>
+      <c r="J137" t="s">
         <v>420</v>
       </c>
       <c r="K137" t="s">
@@ -13750,7 +13750,7 @@
       <c r="AA137" t="s">
         <v>420</v>
       </c>
-      <c r="AB137" s="4" t="s">
+      <c r="AB137" t="s">
         <v>420</v>
       </c>
       <c r="AC137" t="s">
@@ -13767,7 +13767,7 @@
       <c r="C138" t="s">
         <v>420</v>
       </c>
-      <c r="D138" s="4" t="s">
+      <c r="D138" t="s">
         <v>420</v>
       </c>
       <c r="E138" t="s">
@@ -13785,7 +13785,7 @@
       <c r="I138" t="s">
         <v>420</v>
       </c>
-      <c r="J138" s="4" t="s">
+      <c r="J138" t="s">
         <v>420</v>
       </c>
       <c r="K138" t="s">
@@ -13821,7 +13821,7 @@
       <c r="U138" t="s">
         <v>420</v>
       </c>
-      <c r="V138" s="4" t="s">
+      <c r="V138" t="s">
         <v>420</v>
       </c>
       <c r="W138" t="s">
@@ -13839,7 +13839,7 @@
       <c r="AA138" t="s">
         <v>420</v>
       </c>
-      <c r="AB138" s="4" t="s">
+      <c r="AB138" t="s">
         <v>420</v>
       </c>
       <c r="AC138" t="s">
@@ -41282,7 +41282,7 @@
         <v>0</v>
       </c>
       <c r="D4" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
     </row>
     <row r="5">
@@ -41290,7 +41290,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>459</v>
+        <v>461</v>
       </c>
       <c r="C5" t="b">
         <v>0</v>
@@ -41304,13 +41304,13 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>459</v>
+        <v>461</v>
       </c>
       <c r="C6" t="b">
         <v>0</v>
       </c>
       <c r="D6" t="s">
-        <v>460</v>
+        <v>462</v>
       </c>
     </row>
     <row r="7">
@@ -41318,13 +41318,13 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>459</v>
+        <v>461</v>
       </c>
       <c r="C7" t="b">
         <v>0</v>
       </c>
       <c r="D7" t="s">
-        <v>460</v>
+        <v>462</v>
       </c>
     </row>
     <row r="8">
@@ -41332,13 +41332,13 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>459</v>
+        <v>461</v>
       </c>
       <c r="C8" t="b">
         <v>0</v>
       </c>
       <c r="D8" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
     </row>
     <row r="9">
@@ -41346,7 +41346,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>459</v>
+        <v>461</v>
       </c>
       <c r="C9" t="b">
         <v>0</v>
@@ -41360,13 +41360,13 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>459</v>
+        <v>461</v>
       </c>
       <c r="C10" t="b">
         <v>0</v>
       </c>
       <c r="D10" t="s">
-        <v>460</v>
+        <v>462</v>
       </c>
     </row>
     <row r="11">
@@ -41374,13 +41374,13 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>459</v>
+        <v>461</v>
       </c>
       <c r="C11" t="b">
         <v>0</v>
       </c>
       <c r="D11" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
     </row>
     <row r="12">
@@ -41388,7 +41388,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>462</v>
+        <v>459</v>
       </c>
       <c r="C12" t="b">
         <v>0</v>
@@ -41402,13 +41402,13 @@
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>459</v>
+        <v>461</v>
       </c>
       <c r="C13" t="b">
         <v>0</v>
       </c>
       <c r="D13" t="s">
-        <v>460</v>
+        <v>462</v>
       </c>
     </row>
     <row r="14">
@@ -41416,13 +41416,13 @@
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>459</v>
+        <v>461</v>
       </c>
       <c r="C14" t="b">
         <v>0</v>
       </c>
       <c r="D14" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
     </row>
     <row r="15">
@@ -41430,13 +41430,13 @@
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="C15" t="b">
         <v>0</v>
       </c>
       <c r="D15" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
     </row>
     <row r="16">
@@ -41444,7 +41444,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>459</v>
+        <v>461</v>
       </c>
       <c r="C16" t="b">
         <v>0</v>
@@ -41458,7 +41458,7 @@
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="C17" t="b">
         <v>0</v>
@@ -41472,13 +41472,13 @@
         <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>459</v>
+        <v>461</v>
       </c>
       <c r="C18" t="b">
         <v>0</v>
       </c>
       <c r="D18" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
     </row>
     <row r="19">
@@ -41486,13 +41486,13 @@
         <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>459</v>
+        <v>461</v>
       </c>
       <c r="C19" t="b">
         <v>0</v>
       </c>
       <c r="D19" t="s">
-        <v>460</v>
+        <v>462</v>
       </c>
     </row>
     <row r="20">
@@ -41500,13 +41500,13 @@
         <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>459</v>
+        <v>461</v>
       </c>
       <c r="C20" t="b">
         <v>0</v>
       </c>
       <c r="D20" t="s">
-        <v>460</v>
+        <v>462</v>
       </c>
     </row>
     <row r="21">
@@ -41520,7 +41520,7 @@
         <v>0</v>
       </c>
       <c r="D21" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
     </row>
     <row r="22">
@@ -41528,13 +41528,13 @@
         <v>20</v>
       </c>
       <c r="B22" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="C22" t="b">
         <v>0</v>
       </c>
       <c r="D22" t="s">
-        <v>460</v>
+        <v>462</v>
       </c>
     </row>
     <row r="23">
@@ -41548,7 +41548,7 @@
         <v>0</v>
       </c>
       <c r="D23" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
     </row>
     <row r="24">
@@ -41562,7 +41562,7 @@
         <v>0</v>
       </c>
       <c r="D24" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
     </row>
     <row r="25">
@@ -41570,7 +41570,7 @@
         <v>23</v>
       </c>
       <c r="B25" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="C25" t="b">
         <v>0</v>
@@ -41590,7 +41590,7 @@
         <v>0</v>
       </c>
       <c r="D26" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
     </row>
     <row r="27">
@@ -41598,13 +41598,13 @@
         <v>25</v>
       </c>
       <c r="B27" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="C27" t="b">
         <v>0</v>
       </c>
       <c r="D27" t="s">
-        <v>460</v>
+        <v>462</v>
       </c>
     </row>
     <row r="28">
@@ -41612,13 +41612,13 @@
         <v>26</v>
       </c>
       <c r="B28" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="C28" t="b">
         <v>0</v>
       </c>
       <c r="D28" t="s">
-        <v>460</v>
+        <v>462</v>
       </c>
     </row>
     <row r="29">
@@ -41632,7 +41632,7 @@
         <v>0</v>
       </c>
       <c r="D29" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
     </row>
     <row r="30">
@@ -41640,13 +41640,13 @@
         <v>28</v>
       </c>
       <c r="B30" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="C30" t="b">
         <v>0</v>
       </c>
       <c r="D30" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
     </row>
     <row r="31">
@@ -41660,7 +41660,7 @@
         <v>0</v>
       </c>
       <c r="D31" t="s">
-        <v>460</v>
+        <v>462</v>
       </c>
     </row>
     <row r="32">
@@ -41668,13 +41668,13 @@
         <v>30</v>
       </c>
       <c r="B32" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="C32" t="b">
         <v>0</v>
       </c>
       <c r="D32" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
     </row>
     <row r="33">
@@ -41696,13 +41696,13 @@
         <v>32</v>
       </c>
       <c r="B34" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="C34" t="b">
         <v>0</v>
       </c>
       <c r="D34" t="s">
-        <v>460</v>
+        <v>462</v>
       </c>
     </row>
     <row r="35">
@@ -41716,7 +41716,7 @@
         <v>0</v>
       </c>
       <c r="D35" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
     </row>
     <row r="36">
@@ -41730,7 +41730,7 @@
         <v>0</v>
       </c>
       <c r="D36" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
     </row>
     <row r="37">
@@ -41738,13 +41738,13 @@
         <v>35</v>
       </c>
       <c r="B37" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="C37" t="b">
         <v>0</v>
       </c>
       <c r="D37" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
     </row>
     <row r="38">
@@ -41752,13 +41752,13 @@
         <v>36</v>
       </c>
       <c r="B38" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="C38" t="b">
         <v>0</v>
       </c>
       <c r="D38" t="s">
-        <v>460</v>
+        <v>462</v>
       </c>
     </row>
     <row r="39">
@@ -41766,13 +41766,13 @@
         <v>37</v>
       </c>
       <c r="B39" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="C39" t="b">
         <v>0</v>
       </c>
       <c r="D39" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
     </row>
     <row r="40">
@@ -41780,13 +41780,13 @@
         <v>38</v>
       </c>
       <c r="B40" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="C40" t="b">
         <v>0</v>
       </c>
       <c r="D40" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
     </row>
     <row r="41">
@@ -41794,13 +41794,13 @@
         <v>39</v>
       </c>
       <c r="B41" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="C41" t="b">
         <v>0</v>
       </c>
       <c r="D41" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
     </row>
     <row r="42">
@@ -41808,13 +41808,13 @@
         <v>40</v>
       </c>
       <c r="B42" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="C42" t="b">
         <v>0</v>
       </c>
       <c r="D42" t="s">
-        <v>460</v>
+        <v>462</v>
       </c>
     </row>
     <row r="43">
@@ -41822,13 +41822,13 @@
         <v>41</v>
       </c>
       <c r="B43" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="C43" t="b">
         <v>0</v>
       </c>
       <c r="D43" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
     </row>
     <row r="44">
@@ -41856,7 +41856,7 @@
         <v>0</v>
       </c>
       <c r="D45" t="s">
-        <v>460</v>
+        <v>462</v>
       </c>
     </row>
     <row r="46">
@@ -41870,7 +41870,7 @@
         <v>0</v>
       </c>
       <c r="D46" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
     </row>
     <row r="47">
@@ -41878,13 +41878,13 @@
         <v>45</v>
       </c>
       <c r="B47" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="C47" t="b">
         <v>0</v>
       </c>
       <c r="D47" t="s">
-        <v>460</v>
+        <v>462</v>
       </c>
     </row>
     <row r="48">
@@ -41898,7 +41898,7 @@
         <v>0</v>
       </c>
       <c r="D48" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
     </row>
     <row r="49">
@@ -41912,7 +41912,7 @@
         <v>0</v>
       </c>
       <c r="D49" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
     </row>
     <row r="50">
@@ -41920,13 +41920,13 @@
         <v>48</v>
       </c>
       <c r="B50" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="C50" t="b">
         <v>0</v>
       </c>
       <c r="D50" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
     </row>
     <row r="51">
@@ -41940,7 +41940,7 @@
         <v>0</v>
       </c>
       <c r="D51" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
     </row>
     <row r="52">
@@ -41948,13 +41948,13 @@
         <v>50</v>
       </c>
       <c r="B52" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="C52" t="b">
         <v>0</v>
       </c>
       <c r="D52" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
     </row>
     <row r="53">
@@ -41968,7 +41968,7 @@
         <v>0</v>
       </c>
       <c r="D53" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
     </row>
     <row r="54">
@@ -41976,13 +41976,13 @@
         <v>52</v>
       </c>
       <c r="B54" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="C54" t="b">
         <v>0</v>
       </c>
       <c r="D54" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
     </row>
     <row r="55">
@@ -42004,13 +42004,13 @@
         <v>54</v>
       </c>
       <c r="B56" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="C56" t="b">
         <v>0</v>
       </c>
       <c r="D56" t="s">
-        <v>460</v>
+        <v>462</v>
       </c>
     </row>
     <row r="57">
@@ -42018,7 +42018,7 @@
         <v>55</v>
       </c>
       <c r="B57" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="C57" t="b">
         <v>0</v>
@@ -42032,13 +42032,13 @@
         <v>56</v>
       </c>
       <c r="B58" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="C58" t="b">
         <v>0</v>
       </c>
       <c r="D58" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
     </row>
     <row r="59">
@@ -42046,13 +42046,13 @@
         <v>57</v>
       </c>
       <c r="B59" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="C59" t="b">
         <v>0</v>
       </c>
       <c r="D59" t="s">
-        <v>460</v>
+        <v>462</v>
       </c>
     </row>
     <row r="60">
@@ -42074,13 +42074,13 @@
         <v>59</v>
       </c>
       <c r="B61" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="C61" t="b">
         <v>0</v>
       </c>
       <c r="D61" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
     </row>
     <row r="62">
@@ -42088,13 +42088,13 @@
         <v>60</v>
       </c>
       <c r="B62" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="C62" t="b">
         <v>0</v>
       </c>
       <c r="D62" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
     </row>
     <row r="63">
@@ -42102,13 +42102,13 @@
         <v>61</v>
       </c>
       <c r="B63" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="C63" t="b">
         <v>0</v>
       </c>
       <c r="D63" t="s">
-        <v>460</v>
+        <v>462</v>
       </c>
     </row>
     <row r="64">
@@ -42130,13 +42130,13 @@
         <v>63</v>
       </c>
       <c r="B65" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="C65" t="b">
         <v>0</v>
       </c>
       <c r="D65" t="s">
-        <v>460</v>
+        <v>462</v>
       </c>
     </row>
     <row r="66">
@@ -42150,7 +42150,7 @@
         <v>0</v>
       </c>
       <c r="D66" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
     </row>
     <row r="67">
@@ -42158,7 +42158,7 @@
         <v>65</v>
       </c>
       <c r="B67" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="C67" t="b">
         <v>0</v>
@@ -42172,13 +42172,13 @@
         <v>66</v>
       </c>
       <c r="B68" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="C68" t="b">
         <v>0</v>
       </c>
       <c r="D68" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
     </row>
     <row r="69">
@@ -42186,13 +42186,13 @@
         <v>67</v>
       </c>
       <c r="B69" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="C69" t="b">
         <v>0</v>
       </c>
       <c r="D69" t="s">
-        <v>460</v>
+        <v>462</v>
       </c>
     </row>
     <row r="70">
@@ -42206,7 +42206,7 @@
         <v>0</v>
       </c>
       <c r="D70" t="s">
-        <v>460</v>
+        <v>462</v>
       </c>
     </row>
     <row r="71">
@@ -42220,7 +42220,7 @@
         <v>0</v>
       </c>
       <c r="D71" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
     </row>
     <row r="72">
@@ -42228,7 +42228,7 @@
         <v>70</v>
       </c>
       <c r="B72" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="C72" t="b">
         <v>0</v>
@@ -42248,7 +42248,7 @@
         <v>0</v>
       </c>
       <c r="D73" t="s">
-        <v>460</v>
+        <v>462</v>
       </c>
     </row>
     <row r="74">
@@ -42256,13 +42256,13 @@
         <v>72</v>
       </c>
       <c r="B74" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="C74" t="b">
         <v>0</v>
       </c>
       <c r="D74" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
     </row>
     <row r="75">
@@ -42270,7 +42270,7 @@
         <v>73</v>
       </c>
       <c r="B75" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="C75" t="b">
         <v>0</v>
@@ -42290,7 +42290,7 @@
         <v>0</v>
       </c>
       <c r="D76" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
     </row>
     <row r="77">
@@ -42318,7 +42318,7 @@
         <v>0</v>
       </c>
       <c r="D78" t="s">
-        <v>460</v>
+        <v>462</v>
       </c>
     </row>
     <row r="79">
@@ -42326,13 +42326,13 @@
         <v>77</v>
       </c>
       <c r="B79" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="C79" t="b">
         <v>0</v>
       </c>
       <c r="D79" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
     </row>
     <row r="80">
@@ -42340,7 +42340,7 @@
         <v>78</v>
       </c>
       <c r="B80" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="C80" t="b">
         <v>0</v>
@@ -42360,7 +42360,7 @@
         <v>0</v>
       </c>
       <c r="D81" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
     </row>
     <row r="82">
@@ -42374,7 +42374,7 @@
         <v>0</v>
       </c>
       <c r="D82" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
     </row>
     <row r="83">
@@ -42388,7 +42388,7 @@
         <v>0</v>
       </c>
       <c r="D83" t="s">
-        <v>460</v>
+        <v>462</v>
       </c>
     </row>
     <row r="84">
@@ -42396,13 +42396,13 @@
         <v>82</v>
       </c>
       <c r="B84" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="C84" t="b">
         <v>0</v>
       </c>
       <c r="D84" t="s">
-        <v>460</v>
+        <v>462</v>
       </c>
     </row>
     <row r="85">
@@ -42410,7 +42410,7 @@
         <v>83</v>
       </c>
       <c r="B85" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="C85" t="b">
         <v>0</v>
@@ -42444,7 +42444,7 @@
         <v>0</v>
       </c>
       <c r="D87" t="s">
-        <v>460</v>
+        <v>462</v>
       </c>
     </row>
     <row r="88">
@@ -42458,7 +42458,7 @@
         <v>0</v>
       </c>
       <c r="D88" t="s">
-        <v>460</v>
+        <v>462</v>
       </c>
     </row>
     <row r="89">
@@ -42480,7 +42480,7 @@
         <v>88</v>
       </c>
       <c r="B90" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="C90" t="b">
         <v>0</v>
@@ -42494,13 +42494,13 @@
         <v>89</v>
       </c>
       <c r="B91" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="C91" t="b">
         <v>0</v>
       </c>
       <c r="D91" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
     </row>
     <row r="92">
@@ -42514,7 +42514,7 @@
         <v>0</v>
       </c>
       <c r="D92" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
     </row>
     <row r="93">
@@ -42522,7 +42522,7 @@
         <v>91</v>
       </c>
       <c r="B93" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="C93" t="b">
         <v>0</v>
@@ -42536,13 +42536,13 @@
         <v>92</v>
       </c>
       <c r="B94" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="C94" t="b">
         <v>0</v>
       </c>
       <c r="D94" t="s">
-        <v>460</v>
+        <v>462</v>
       </c>
     </row>
     <row r="95">
@@ -42550,7 +42550,7 @@
         <v>93</v>
       </c>
       <c r="B95" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="C95" t="b">
         <v>0</v>
@@ -42570,7 +42570,7 @@
         <v>0</v>
       </c>
       <c r="D96" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
     </row>
     <row r="97">
@@ -42592,13 +42592,13 @@
         <v>96</v>
       </c>
       <c r="B98" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="C98" t="b">
         <v>0</v>
       </c>
       <c r="D98" t="s">
-        <v>460</v>
+        <v>462</v>
       </c>
     </row>
     <row r="99">
@@ -42606,13 +42606,13 @@
         <v>97</v>
       </c>
       <c r="B99" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="C99" t="b">
         <v>0</v>
       </c>
       <c r="D99" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
     </row>
     <row r="100">
@@ -42620,7 +42620,7 @@
         <v>98</v>
       </c>
       <c r="B100" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="C100" t="b">
         <v>0</v>
@@ -42634,13 +42634,13 @@
         <v>99</v>
       </c>
       <c r="B101" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="C101" t="b">
         <v>0</v>
       </c>
       <c r="D101" t="s">
-        <v>460</v>
+        <v>462</v>
       </c>
     </row>
     <row r="102">
@@ -42654,7 +42654,7 @@
         <v>0</v>
       </c>
       <c r="D102" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
     </row>
     <row r="103">
@@ -42668,7 +42668,7 @@
         <v>0</v>
       </c>
       <c r="D103" t="s">
-        <v>460</v>
+        <v>462</v>
       </c>
     </row>
     <row r="104">
@@ -42676,13 +42676,13 @@
         <v>102</v>
       </c>
       <c r="B104" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="C104" t="b">
         <v>0</v>
       </c>
       <c r="D104" t="s">
-        <v>460</v>
+        <v>462</v>
       </c>
     </row>
     <row r="105">
@@ -42690,13 +42690,13 @@
         <v>103</v>
       </c>
       <c r="B105" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="C105" t="b">
         <v>0</v>
       </c>
       <c r="D105" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
     </row>
     <row r="106">
@@ -42704,7 +42704,7 @@
         <v>104</v>
       </c>
       <c r="B106" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="C106" t="b">
         <v>0</v>
@@ -42718,13 +42718,13 @@
         <v>105</v>
       </c>
       <c r="B107" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="C107" t="b">
         <v>0</v>
       </c>
       <c r="D107" t="s">
-        <v>460</v>
+        <v>462</v>
       </c>
     </row>
     <row r="108">
@@ -42732,13 +42732,13 @@
         <v>106</v>
       </c>
       <c r="B108" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="C108" t="b">
         <v>0</v>
       </c>
       <c r="D108" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
     </row>
     <row r="109">
@@ -42752,7 +42752,7 @@
         <v>0</v>
       </c>
       <c r="D109" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
     </row>
     <row r="110">
@@ -42766,7 +42766,7 @@
         <v>0</v>
       </c>
       <c r="D110" t="s">
-        <v>460</v>
+        <v>462</v>
       </c>
     </row>
     <row r="111">
@@ -42780,7 +42780,7 @@
         <v>0</v>
       </c>
       <c r="D111" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
     </row>
     <row r="112">
@@ -42788,7 +42788,7 @@
         <v>110</v>
       </c>
       <c r="B112" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="C112" t="b">
         <v>0</v>
@@ -42802,13 +42802,13 @@
         <v>111</v>
       </c>
       <c r="B113" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="C113" t="b">
         <v>0</v>
       </c>
       <c r="D113" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
     </row>
     <row r="114">
@@ -42816,13 +42816,13 @@
         <v>112</v>
       </c>
       <c r="B114" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="C114" t="b">
         <v>0</v>
       </c>
       <c r="D114" t="s">
-        <v>460</v>
+        <v>462</v>
       </c>
     </row>
     <row r="115">
@@ -42830,13 +42830,13 @@
         <v>113</v>
       </c>
       <c r="B115" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="C115" t="b">
         <v>0</v>
       </c>
       <c r="D115" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
     </row>
     <row r="116">
@@ -42850,7 +42850,7 @@
         <v>0</v>
       </c>
       <c r="D116" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
     </row>
     <row r="117">
@@ -42864,7 +42864,7 @@
         <v>0</v>
       </c>
       <c r="D117" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
     </row>
     <row r="118">
@@ -42878,7 +42878,7 @@
         <v>0</v>
       </c>
       <c r="D118" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
     </row>
     <row r="119">
@@ -42886,13 +42886,13 @@
         <v>117</v>
       </c>
       <c r="B119" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="C119" t="b">
         <v>0</v>
       </c>
       <c r="D119" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
     </row>
     <row r="120">
@@ -42900,7 +42900,7 @@
         <v>118</v>
       </c>
       <c r="B120" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="C120" t="b">
         <v>0</v>
@@ -42914,13 +42914,13 @@
         <v>119</v>
       </c>
       <c r="B121" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="C121" t="b">
         <v>0</v>
       </c>
       <c r="D121" t="s">
-        <v>460</v>
+        <v>462</v>
       </c>
     </row>
     <row r="122">
@@ -42928,13 +42928,13 @@
         <v>120</v>
       </c>
       <c r="B122" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="C122" t="b">
         <v>0</v>
       </c>
       <c r="D122" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
     </row>
     <row r="123">
@@ -42948,7 +42948,7 @@
         <v>0</v>
       </c>
       <c r="D123" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
     </row>
     <row r="124">
@@ -42956,13 +42956,13 @@
         <v>122</v>
       </c>
       <c r="B124" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="C124" t="b">
         <v>0</v>
       </c>
       <c r="D124" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
     </row>
     <row r="125">
@@ -42976,7 +42976,7 @@
         <v>0</v>
       </c>
       <c r="D125" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
     </row>
     <row r="126">
@@ -42984,13 +42984,13 @@
         <v>124</v>
       </c>
       <c r="B126" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="C126" t="b">
         <v>0</v>
       </c>
       <c r="D126" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
     </row>
     <row r="127">
@@ -42998,13 +42998,13 @@
         <v>125</v>
       </c>
       <c r="B127" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="C127" t="b">
         <v>0</v>
       </c>
       <c r="D127" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
     </row>
     <row r="128">
@@ -43012,13 +43012,13 @@
         <v>126</v>
       </c>
       <c r="B128" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="C128" t="b">
         <v>0</v>
       </c>
       <c r="D128" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
     </row>
     <row r="129">
@@ -43040,7 +43040,7 @@
         <v>128</v>
       </c>
       <c r="B130" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="C130" t="b">
         <v>0</v>
@@ -43054,13 +43054,13 @@
         <v>129</v>
       </c>
       <c r="B131" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="C131" t="b">
         <v>0</v>
       </c>
       <c r="D131" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
     </row>
     <row r="132">
@@ -43074,7 +43074,7 @@
         <v>0</v>
       </c>
       <c r="D132" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
     </row>
     <row r="133">
@@ -43082,13 +43082,13 @@
         <v>131</v>
       </c>
       <c r="B133" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="C133" t="b">
         <v>0</v>
       </c>
       <c r="D133" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
     </row>
     <row r="134">
@@ -43096,7 +43096,7 @@
         <v>132</v>
       </c>
       <c r="B134" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="C134" t="b">
         <v>0</v>
@@ -43110,7 +43110,7 @@
         <v>133</v>
       </c>
       <c r="B135" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="C135" t="b">
         <v>0</v>
@@ -43124,13 +43124,13 @@
         <v>134</v>
       </c>
       <c r="B136" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="C136" t="b">
         <v>0</v>
       </c>
       <c r="D136" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
     </row>
     <row r="137">
@@ -43138,13 +43138,13 @@
         <v>135</v>
       </c>
       <c r="B137" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="C137" t="b">
         <v>0</v>
       </c>
       <c r="D137" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
     </row>
     <row r="138">
@@ -43158,7 +43158,7 @@
         <v>0</v>
       </c>
       <c r="D138" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
     </row>
     <row r="139">
@@ -43166,7 +43166,7 @@
         <v>137</v>
       </c>
       <c r="B139" t="s">
-        <v>462</v>
+        <v>459</v>
       </c>
       <c r="C139" t="b">
         <v>1</v>
@@ -43194,13 +43194,13 @@
         <v>139</v>
       </c>
       <c r="B141" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="C141" t="b">
         <v>1</v>
       </c>
       <c r="D141" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
     </row>
     <row r="142">
@@ -43208,13 +43208,13 @@
         <v>140</v>
       </c>
       <c r="B142" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="C142" t="b">
         <v>1</v>
       </c>
       <c r="D142" t="s">
-        <v>460</v>
+        <v>462</v>
       </c>
     </row>
     <row r="143">
@@ -43222,13 +43222,13 @@
         <v>141</v>
       </c>
       <c r="B143" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="C143" t="b">
         <v>1</v>
       </c>
       <c r="D143" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
     </row>
     <row r="144">
@@ -43236,13 +43236,13 @@
         <v>142</v>
       </c>
       <c r="B144" t="s">
-        <v>459</v>
+        <v>461</v>
       </c>
       <c r="C144" t="b">
         <v>1</v>
       </c>
       <c r="D144" t="s">
-        <v>460</v>
+        <v>462</v>
       </c>
     </row>
     <row r="145">
@@ -43250,13 +43250,13 @@
         <v>143</v>
       </c>
       <c r="B145" t="s">
-        <v>459</v>
+        <v>461</v>
       </c>
       <c r="C145" t="b">
         <v>1</v>
       </c>
       <c r="D145" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
     </row>
     <row r="146">
@@ -43264,13 +43264,13 @@
         <v>144</v>
       </c>
       <c r="B146" t="s">
-        <v>459</v>
+        <v>461</v>
       </c>
       <c r="C146" t="b">
         <v>1</v>
       </c>
       <c r="D146" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
     </row>
     <row r="147">
@@ -43278,13 +43278,13 @@
         <v>145</v>
       </c>
       <c r="B147" t="s">
-        <v>459</v>
+        <v>461</v>
       </c>
       <c r="C147" t="b">
         <v>1</v>
       </c>
       <c r="D147" t="s">
-        <v>460</v>
+        <v>462</v>
       </c>
     </row>
     <row r="148">
@@ -43292,13 +43292,13 @@
         <v>146</v>
       </c>
       <c r="B148" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="C148" t="b">
         <v>1</v>
       </c>
       <c r="D148" t="s">
-        <v>460</v>
+        <v>462</v>
       </c>
     </row>
     <row r="149">
@@ -43306,7 +43306,7 @@
         <v>147</v>
       </c>
       <c r="B149" t="s">
-        <v>459</v>
+        <v>461</v>
       </c>
       <c r="C149" t="b">
         <v>1</v>
@@ -43320,13 +43320,13 @@
         <v>148</v>
       </c>
       <c r="B150" t="s">
-        <v>459</v>
+        <v>461</v>
       </c>
       <c r="C150" t="b">
         <v>1</v>
       </c>
       <c r="D150" t="s">
-        <v>460</v>
+        <v>462</v>
       </c>
     </row>
     <row r="151">
@@ -43340,7 +43340,7 @@
         <v>1</v>
       </c>
       <c r="D151" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
     </row>
     <row r="152">
@@ -43348,13 +43348,13 @@
         <v>150</v>
       </c>
       <c r="B152" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="C152" t="b">
         <v>1</v>
       </c>
       <c r="D152" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
     </row>
     <row r="153">
@@ -43362,13 +43362,13 @@
         <v>151</v>
       </c>
       <c r="B153" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="C153" t="b">
         <v>1</v>
       </c>
       <c r="D153" t="s">
-        <v>460</v>
+        <v>462</v>
       </c>
     </row>
     <row r="154">
@@ -43376,13 +43376,13 @@
         <v>152</v>
       </c>
       <c r="B154" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="C154" t="b">
         <v>1</v>
       </c>
       <c r="D154" t="s">
-        <v>460</v>
+        <v>462</v>
       </c>
     </row>
     <row r="155">
@@ -43390,13 +43390,13 @@
         <v>153</v>
       </c>
       <c r="B155" t="s">
-        <v>462</v>
+        <v>459</v>
       </c>
       <c r="C155" t="b">
         <v>1</v>
       </c>
       <c r="D155" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
     </row>
     <row r="156">
@@ -43404,7 +43404,7 @@
         <v>154</v>
       </c>
       <c r="B156" t="s">
-        <v>462</v>
+        <v>459</v>
       </c>
       <c r="C156" t="b">
         <v>1</v>
@@ -43418,13 +43418,13 @@
         <v>155</v>
       </c>
       <c r="B157" t="s">
-        <v>459</v>
+        <v>461</v>
       </c>
       <c r="C157" t="b">
         <v>1</v>
       </c>
       <c r="D157" t="s">
-        <v>460</v>
+        <v>462</v>
       </c>
     </row>
     <row r="158">
@@ -43432,13 +43432,13 @@
         <v>156</v>
       </c>
       <c r="B158" t="s">
-        <v>462</v>
+        <v>459</v>
       </c>
       <c r="C158" t="b">
         <v>1</v>
       </c>
       <c r="D158" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
     </row>
     <row r="159">
@@ -43446,7 +43446,7 @@
         <v>157</v>
       </c>
       <c r="B159" t="s">
-        <v>459</v>
+        <v>461</v>
       </c>
       <c r="C159" t="b">
         <v>1</v>
@@ -43460,13 +43460,13 @@
         <v>158</v>
       </c>
       <c r="B160" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="C160" t="b">
         <v>1</v>
       </c>
       <c r="D160" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
     </row>
     <row r="161">
@@ -43488,13 +43488,13 @@
         <v>160</v>
       </c>
       <c r="B162" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="C162" t="b">
         <v>1</v>
       </c>
       <c r="D162" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
     </row>
     <row r="163">
@@ -43502,13 +43502,13 @@
         <v>161</v>
       </c>
       <c r="B163" t="s">
-        <v>459</v>
+        <v>461</v>
       </c>
       <c r="C163" t="b">
         <v>1</v>
       </c>
       <c r="D163" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
     </row>
     <row r="164">
@@ -43516,13 +43516,13 @@
         <v>162</v>
       </c>
       <c r="B164" t="s">
-        <v>459</v>
+        <v>461</v>
       </c>
       <c r="C164" t="b">
         <v>1</v>
       </c>
       <c r="D164" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
     </row>
     <row r="165">
@@ -43530,13 +43530,13 @@
         <v>163</v>
       </c>
       <c r="B165" t="s">
-        <v>459</v>
+        <v>461</v>
       </c>
       <c r="C165" t="b">
         <v>1</v>
       </c>
       <c r="D165" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
     </row>
     <row r="166">
@@ -43558,13 +43558,13 @@
         <v>165</v>
       </c>
       <c r="B167" t="s">
-        <v>459</v>
+        <v>461</v>
       </c>
       <c r="C167" t="b">
         <v>1</v>
       </c>
       <c r="D167" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
     </row>
     <row r="168">
@@ -43578,7 +43578,7 @@
         <v>1</v>
       </c>
       <c r="D168" t="s">
-        <v>460</v>
+        <v>462</v>
       </c>
     </row>
     <row r="169">
@@ -43586,13 +43586,13 @@
         <v>167</v>
       </c>
       <c r="B169" t="s">
-        <v>459</v>
+        <v>461</v>
       </c>
       <c r="C169" t="b">
         <v>1</v>
       </c>
       <c r="D169" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
     </row>
     <row r="170">
@@ -43600,7 +43600,7 @@
         <v>168</v>
       </c>
       <c r="B170" t="s">
-        <v>462</v>
+        <v>459</v>
       </c>
       <c r="C170" t="b">
         <v>1</v>
@@ -43614,13 +43614,13 @@
         <v>169</v>
       </c>
       <c r="B171" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="C171" t="b">
         <v>1</v>
       </c>
       <c r="D171" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
     </row>
     <row r="172">
@@ -43634,7 +43634,7 @@
         <v>1</v>
       </c>
       <c r="D172" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
     </row>
     <row r="173">
@@ -43648,7 +43648,7 @@
         <v>1</v>
       </c>
       <c r="D173" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
     </row>
     <row r="174">
@@ -43656,7 +43656,7 @@
         <v>172</v>
       </c>
       <c r="B174" t="s">
-        <v>459</v>
+        <v>461</v>
       </c>
       <c r="C174" t="b">
         <v>1</v>
@@ -43676,7 +43676,7 @@
         <v>1</v>
       </c>
       <c r="D175" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
     </row>
     <row r="176">
@@ -43690,7 +43690,7 @@
         <v>1</v>
       </c>
       <c r="D176" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
     </row>
     <row r="177">
@@ -43698,13 +43698,13 @@
         <v>175</v>
       </c>
       <c r="B177" t="s">
-        <v>462</v>
+        <v>459</v>
       </c>
       <c r="C177" t="b">
         <v>1</v>
       </c>
       <c r="D177" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
     </row>
     <row r="178">
@@ -43712,13 +43712,13 @@
         <v>176</v>
       </c>
       <c r="B178" t="s">
-        <v>459</v>
+        <v>461</v>
       </c>
       <c r="C178" t="b">
         <v>1</v>
       </c>
       <c r="D178" t="s">
-        <v>460</v>
+        <v>462</v>
       </c>
     </row>
     <row r="179">
@@ -43726,13 +43726,13 @@
         <v>177</v>
       </c>
       <c r="B179" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="C179" t="b">
         <v>1</v>
       </c>
       <c r="D179" t="s">
-        <v>460</v>
+        <v>462</v>
       </c>
     </row>
     <row r="180">
@@ -43746,7 +43746,7 @@
         <v>1</v>
       </c>
       <c r="D180" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
     </row>
     <row r="181">
@@ -43754,13 +43754,13 @@
         <v>179</v>
       </c>
       <c r="B181" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="C181" t="b">
         <v>1</v>
       </c>
       <c r="D181" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
     </row>
     <row r="182">
@@ -43774,7 +43774,7 @@
         <v>1</v>
       </c>
       <c r="D182" t="s">
-        <v>460</v>
+        <v>462</v>
       </c>
     </row>
     <row r="183">
@@ -43782,13 +43782,13 @@
         <v>181</v>
       </c>
       <c r="B183" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="C183" t="b">
         <v>1</v>
       </c>
       <c r="D183" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
     </row>
     <row r="184">
@@ -43810,13 +43810,13 @@
         <v>183</v>
       </c>
       <c r="B185" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="C185" t="b">
         <v>1</v>
       </c>
       <c r="D185" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
     </row>
     <row r="186">
@@ -43824,13 +43824,13 @@
         <v>184</v>
       </c>
       <c r="B186" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="C186" t="b">
         <v>1</v>
       </c>
       <c r="D186" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
     </row>
     <row r="187">
@@ -43838,7 +43838,7 @@
         <v>185</v>
       </c>
       <c r="B187" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="C187" t="b">
         <v>1</v>
@@ -43852,7 +43852,7 @@
         <v>186</v>
       </c>
       <c r="B188" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="C188" t="b">
         <v>1</v>
@@ -43866,7 +43866,7 @@
         <v>187</v>
       </c>
       <c r="B189" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="C189" t="b">
         <v>1</v>
@@ -43880,13 +43880,13 @@
         <v>188</v>
       </c>
       <c r="B190" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="C190" t="b">
         <v>1</v>
       </c>
       <c r="D190" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
     </row>
     <row r="191">
@@ -43894,13 +43894,13 @@
         <v>189</v>
       </c>
       <c r="B191" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="C191" t="b">
         <v>1</v>
       </c>
       <c r="D191" t="s">
-        <v>460</v>
+        <v>462</v>
       </c>
     </row>
     <row r="192">
@@ -43908,13 +43908,13 @@
         <v>190</v>
       </c>
       <c r="B192" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="C192" t="b">
         <v>1</v>
       </c>
       <c r="D192" t="s">
-        <v>460</v>
+        <v>462</v>
       </c>
     </row>
     <row r="193">
@@ -43922,13 +43922,13 @@
         <v>191</v>
       </c>
       <c r="B193" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="C193" t="b">
         <v>1</v>
       </c>
       <c r="D193" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
     </row>
     <row r="194">
@@ -43936,7 +43936,7 @@
         <v>192</v>
       </c>
       <c r="B194" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="C194" t="b">
         <v>1</v>
@@ -43964,7 +43964,7 @@
         <v>194</v>
       </c>
       <c r="B196" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="C196" t="b">
         <v>1</v>
@@ -43984,7 +43984,7 @@
         <v>1</v>
       </c>
       <c r="D197" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
     </row>
     <row r="198">
@@ -43998,7 +43998,7 @@
         <v>1</v>
       </c>
       <c r="D198" t="s">
-        <v>460</v>
+        <v>462</v>
       </c>
     </row>
     <row r="199">
@@ -44012,7 +44012,7 @@
         <v>1</v>
       </c>
       <c r="D199" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
     </row>
     <row r="200">
@@ -44020,13 +44020,13 @@
         <v>198</v>
       </c>
       <c r="B200" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="C200" t="b">
         <v>1</v>
       </c>
       <c r="D200" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
     </row>
     <row r="201">
@@ -44040,7 +44040,7 @@
         <v>1</v>
       </c>
       <c r="D201" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
     </row>
     <row r="202">
@@ -44054,7 +44054,7 @@
         <v>1</v>
       </c>
       <c r="D202" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
     </row>
     <row r="203">
@@ -44062,13 +44062,13 @@
         <v>201</v>
       </c>
       <c r="B203" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="C203" t="b">
         <v>1</v>
       </c>
       <c r="D203" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
     </row>
     <row r="204">
@@ -44082,7 +44082,7 @@
         <v>1</v>
       </c>
       <c r="D204" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
     </row>
     <row r="205">
@@ -44096,7 +44096,7 @@
         <v>1</v>
       </c>
       <c r="D205" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
     </row>
     <row r="206">
@@ -44110,7 +44110,7 @@
         <v>1</v>
       </c>
       <c r="D206" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
     </row>
     <row r="207">
@@ -44118,13 +44118,13 @@
         <v>205</v>
       </c>
       <c r="B207" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="C207" t="b">
         <v>1</v>
       </c>
       <c r="D207" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
     </row>
     <row r="208">
@@ -44132,7 +44132,7 @@
         <v>206</v>
       </c>
       <c r="B208" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="C208" t="b">
         <v>1</v>
@@ -44146,13 +44146,13 @@
         <v>207</v>
       </c>
       <c r="B209" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="C209" t="b">
         <v>1</v>
       </c>
       <c r="D209" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
     </row>
     <row r="210">
@@ -44160,13 +44160,13 @@
         <v>208</v>
       </c>
       <c r="B210" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="C210" t="b">
         <v>1</v>
       </c>
       <c r="D210" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
     </row>
     <row r="211">
@@ -44180,7 +44180,7 @@
         <v>1</v>
       </c>
       <c r="D211" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
     </row>
     <row r="212">
@@ -44188,7 +44188,7 @@
         <v>210</v>
       </c>
       <c r="B212" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="C212" t="b">
         <v>1</v>
@@ -44202,13 +44202,13 @@
         <v>211</v>
       </c>
       <c r="B213" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="C213" t="b">
         <v>1</v>
       </c>
       <c r="D213" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
     </row>
     <row r="214">
@@ -44216,13 +44216,13 @@
         <v>212</v>
       </c>
       <c r="B214" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="C214" t="b">
         <v>1</v>
       </c>
       <c r="D214" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
     </row>
     <row r="215">
@@ -44230,7 +44230,7 @@
         <v>213</v>
       </c>
       <c r="B215" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="C215" t="b">
         <v>1</v>
@@ -44250,7 +44250,7 @@
         <v>1</v>
       </c>
       <c r="D216" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
     </row>
     <row r="217">
@@ -44264,7 +44264,7 @@
         <v>1</v>
       </c>
       <c r="D217" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
     </row>
     <row r="218">
@@ -44278,7 +44278,7 @@
         <v>1</v>
       </c>
       <c r="D218" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
     </row>
     <row r="219">
@@ -44300,13 +44300,13 @@
         <v>218</v>
       </c>
       <c r="B220" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="C220" t="b">
         <v>1</v>
       </c>
       <c r="D220" t="s">
-        <v>460</v>
+        <v>462</v>
       </c>
     </row>
     <row r="221">
@@ -44314,13 +44314,13 @@
         <v>219</v>
       </c>
       <c r="B221" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="C221" t="b">
         <v>1</v>
       </c>
       <c r="D221" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
     </row>
     <row r="222">
@@ -44328,7 +44328,7 @@
         <v>220</v>
       </c>
       <c r="B222" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="C222" t="b">
         <v>1</v>
@@ -44342,13 +44342,13 @@
         <v>221</v>
       </c>
       <c r="B223" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="C223" t="b">
         <v>1</v>
       </c>
       <c r="D223" t="s">
-        <v>460</v>
+        <v>462</v>
       </c>
     </row>
     <row r="224">
@@ -44370,13 +44370,13 @@
         <v>223</v>
       </c>
       <c r="B225" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="C225" t="b">
         <v>1</v>
       </c>
       <c r="D225" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
     </row>
     <row r="226">
@@ -44384,13 +44384,13 @@
         <v>224</v>
       </c>
       <c r="B226" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="C226" t="b">
         <v>1</v>
       </c>
       <c r="D226" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
     </row>
     <row r="227">
@@ -44404,7 +44404,7 @@
         <v>1</v>
       </c>
       <c r="D227" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
     </row>
     <row r="228">
@@ -44426,13 +44426,13 @@
         <v>227</v>
       </c>
       <c r="B229" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="C229" t="b">
         <v>1</v>
       </c>
       <c r="D229" t="s">
-        <v>460</v>
+        <v>462</v>
       </c>
     </row>
     <row r="230">
@@ -44440,13 +44440,13 @@
         <v>228</v>
       </c>
       <c r="B230" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="C230" t="b">
         <v>1</v>
       </c>
       <c r="D230" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
     </row>
     <row r="231">
@@ -44454,7 +44454,7 @@
         <v>229</v>
       </c>
       <c r="B231" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="C231" t="b">
         <v>1</v>
@@ -44468,13 +44468,13 @@
         <v>230</v>
       </c>
       <c r="B232" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="C232" t="b">
         <v>1</v>
       </c>
       <c r="D232" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
     </row>
     <row r="233">
@@ -44488,7 +44488,7 @@
         <v>1</v>
       </c>
       <c r="D233" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
     </row>
     <row r="234">
@@ -44510,7 +44510,7 @@
         <v>233</v>
       </c>
       <c r="B235" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="C235" t="b">
         <v>1</v>
@@ -44530,7 +44530,7 @@
         <v>1</v>
       </c>
       <c r="D236" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
     </row>
     <row r="237">
@@ -44544,7 +44544,7 @@
         <v>1</v>
       </c>
       <c r="D237" t="s">
-        <v>460</v>
+        <v>462</v>
       </c>
     </row>
     <row r="238">
@@ -44566,7 +44566,7 @@
         <v>237</v>
       </c>
       <c r="B239" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="C239" t="b">
         <v>1</v>
@@ -44580,13 +44580,13 @@
         <v>238</v>
       </c>
       <c r="B240" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="C240" t="b">
         <v>1</v>
       </c>
       <c r="D240" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
     </row>
     <row r="241">
@@ -44600,7 +44600,7 @@
         <v>1</v>
       </c>
       <c r="D241" t="s">
-        <v>460</v>
+        <v>462</v>
       </c>
     </row>
     <row r="242">
@@ -44608,13 +44608,13 @@
         <v>240</v>
       </c>
       <c r="B242" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="C242" t="b">
         <v>1</v>
       </c>
       <c r="D242" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
     </row>
     <row r="243">
@@ -44636,13 +44636,13 @@
         <v>242</v>
       </c>
       <c r="B244" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="C244" t="b">
         <v>1</v>
       </c>
       <c r="D244" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
     </row>
     <row r="245">
@@ -44656,7 +44656,7 @@
         <v>1</v>
       </c>
       <c r="D245" t="s">
-        <v>460</v>
+        <v>462</v>
       </c>
     </row>
     <row r="246">
@@ -44670,7 +44670,7 @@
         <v>1</v>
       </c>
       <c r="D246" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
     </row>
     <row r="247">
@@ -44678,13 +44678,13 @@
         <v>245</v>
       </c>
       <c r="B247" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="C247" t="b">
         <v>1</v>
       </c>
       <c r="D247" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
     </row>
     <row r="248">
@@ -44692,13 +44692,13 @@
         <v>246</v>
       </c>
       <c r="B248" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="C248" t="b">
         <v>1</v>
       </c>
       <c r="D248" t="s">
-        <v>460</v>
+        <v>462</v>
       </c>
     </row>
     <row r="249">
@@ -44720,13 +44720,13 @@
         <v>248</v>
       </c>
       <c r="B250" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="C250" t="b">
         <v>1</v>
       </c>
       <c r="D250" t="s">
-        <v>460</v>
+        <v>462</v>
       </c>
     </row>
     <row r="251">
@@ -44748,7 +44748,7 @@
         <v>250</v>
       </c>
       <c r="B252" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="C252" t="b">
         <v>1</v>
@@ -44762,13 +44762,13 @@
         <v>251</v>
       </c>
       <c r="B253" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="C253" t="b">
         <v>1</v>
       </c>
       <c r="D253" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
     </row>
     <row r="254">
@@ -44776,7 +44776,7 @@
         <v>252</v>
       </c>
       <c r="B254" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="C254" t="b">
         <v>1</v>
@@ -44796,7 +44796,7 @@
         <v>1</v>
       </c>
       <c r="D255" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
     </row>
     <row r="256">
@@ -44810,7 +44810,7 @@
         <v>1</v>
       </c>
       <c r="D256" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
     </row>
     <row r="257">
@@ -44824,7 +44824,7 @@
         <v>1</v>
       </c>
       <c r="D257" t="s">
-        <v>460</v>
+        <v>462</v>
       </c>
     </row>
     <row r="258">
@@ -44832,13 +44832,13 @@
         <v>256</v>
       </c>
       <c r="B258" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="C258" t="b">
         <v>1</v>
       </c>
       <c r="D258" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
     </row>
     <row r="259">
@@ -44860,7 +44860,7 @@
         <v>258</v>
       </c>
       <c r="B260" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="C260" t="b">
         <v>1</v>
@@ -44874,13 +44874,13 @@
         <v>259</v>
       </c>
       <c r="B261" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="C261" t="b">
         <v>1</v>
       </c>
       <c r="D261" t="s">
-        <v>460</v>
+        <v>462</v>
       </c>
     </row>
     <row r="262">
@@ -44894,7 +44894,7 @@
         <v>1</v>
       </c>
       <c r="D262" t="s">
-        <v>460</v>
+        <v>462</v>
       </c>
     </row>
     <row r="263">
@@ -44902,7 +44902,7 @@
         <v>261</v>
       </c>
       <c r="B263" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="C263" t="b">
         <v>1</v>
@@ -44922,7 +44922,7 @@
         <v>1</v>
       </c>
       <c r="D264" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
     </row>
     <row r="265">
@@ -44930,7 +44930,7 @@
         <v>263</v>
       </c>
       <c r="B265" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="C265" t="b">
         <v>1</v>
@@ -44950,7 +44950,7 @@
         <v>1</v>
       </c>
       <c r="D266" t="s">
-        <v>460</v>
+        <v>462</v>
       </c>
     </row>
     <row r="267">
@@ -44964,7 +44964,7 @@
         <v>1</v>
       </c>
       <c r="D267" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
     </row>
     <row r="268">
@@ -44972,13 +44972,13 @@
         <v>266</v>
       </c>
       <c r="B268" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="C268" t="b">
         <v>1</v>
       </c>
       <c r="D268" t="s">
-        <v>460</v>
+        <v>462</v>
       </c>
     </row>
     <row r="269">
@@ -44992,7 +44992,7 @@
         <v>1</v>
       </c>
       <c r="D269" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
     </row>
     <row r="270">
@@ -45048,7 +45048,7 @@
         <v>1</v>
       </c>
       <c r="D273" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
     </row>
     <row r="274">
@@ -45090,7 +45090,7 @@
         <v>1</v>
       </c>
       <c r="D276" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
     </row>
     <row r="277">
@@ -45098,13 +45098,13 @@
         <v>275</v>
       </c>
       <c r="B277" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="C277" t="b">
         <v>1</v>
       </c>
       <c r="D277" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
     </row>
     <row r="278">
@@ -45140,7 +45140,7 @@
         <v>278</v>
       </c>
       <c r="B280" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="C280" t="b">
         <v>1</v>
@@ -45160,7 +45160,7 @@
         <v>1</v>
       </c>
       <c r="D281" t="s">
-        <v>460</v>
+        <v>462</v>
       </c>
     </row>
     <row r="282">
@@ -45168,13 +45168,13 @@
         <v>280</v>
       </c>
       <c r="B282" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="C282" t="b">
         <v>1</v>
       </c>
       <c r="D282" t="s">
-        <v>460</v>
+        <v>462</v>
       </c>
     </row>
     <row r="283">
@@ -45182,13 +45182,13 @@
         <v>281</v>
       </c>
       <c r="B283" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="C283" t="b">
         <v>1</v>
       </c>
       <c r="D283" t="s">
-        <v>460</v>
+        <v>462</v>
       </c>
     </row>
     <row r="284">
@@ -45196,13 +45196,13 @@
         <v>282</v>
       </c>
       <c r="B284" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="C284" t="b">
         <v>1</v>
       </c>
       <c r="D284" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
     </row>
     <row r="285">
@@ -45210,13 +45210,13 @@
         <v>283</v>
       </c>
       <c r="B285" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="C285" t="b">
         <v>1</v>
       </c>
       <c r="D285" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
     </row>
     <row r="286">
@@ -45224,13 +45224,13 @@
         <v>284</v>
       </c>
       <c r="B286" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="C286" t="b">
         <v>1</v>
       </c>
       <c r="D286" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
     </row>
     <row r="287">
@@ -45244,7 +45244,7 @@
         <v>1</v>
       </c>
       <c r="D287" t="s">
-        <v>460</v>
+        <v>462</v>
       </c>
     </row>
     <row r="288">
@@ -45258,7 +45258,7 @@
         <v>1</v>
       </c>
       <c r="D288" t="s">
-        <v>460</v>
+        <v>462</v>
       </c>
     </row>
     <row r="289">
@@ -45266,7 +45266,7 @@
         <v>287</v>
       </c>
       <c r="B289" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="C289" t="b">
         <v>1</v>
@@ -45280,13 +45280,13 @@
         <v>288</v>
       </c>
       <c r="B290" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="C290" t="b">
         <v>1</v>
       </c>
       <c r="D290" t="s">
-        <v>460</v>
+        <v>462</v>
       </c>
     </row>
     <row r="291">
@@ -45294,13 +45294,13 @@
         <v>289</v>
       </c>
       <c r="B291" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="C291" t="b">
         <v>1</v>
       </c>
       <c r="D291" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
     </row>
     <row r="292">
@@ -45308,13 +45308,13 @@
         <v>290</v>
       </c>
       <c r="B292" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="C292" t="b">
         <v>1</v>
       </c>
       <c r="D292" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
     </row>
     <row r="293">
@@ -45322,13 +45322,13 @@
         <v>291</v>
       </c>
       <c r="B293" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="C293" t="b">
         <v>1</v>
       </c>
       <c r="D293" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
     </row>
     <row r="294">
@@ -45356,7 +45356,7 @@
         <v>1</v>
       </c>
       <c r="D295" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
     </row>
     <row r="296">
@@ -45364,13 +45364,13 @@
         <v>294</v>
       </c>
       <c r="B296" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="C296" t="b">
         <v>1</v>
       </c>
       <c r="D296" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
     </row>
     <row r="297">
@@ -45378,13 +45378,13 @@
         <v>295</v>
       </c>
       <c r="B297" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="C297" t="b">
         <v>1</v>
       </c>
       <c r="D297" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
     </row>
     <row r="298">
@@ -45398,7 +45398,7 @@
         <v>1</v>
       </c>
       <c r="D298" t="s">
-        <v>460</v>
+        <v>462</v>
       </c>
     </row>
     <row r="299">
@@ -45420,7 +45420,7 @@
         <v>298</v>
       </c>
       <c r="B300" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="C300" t="b">
         <v>1</v>
@@ -45434,7 +45434,7 @@
         <v>299</v>
       </c>
       <c r="B301" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="C301" t="b">
         <v>1</v>
@@ -45448,13 +45448,13 @@
         <v>300</v>
       </c>
       <c r="B302" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="C302" t="b">
         <v>1</v>
       </c>
       <c r="D302" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
     </row>
     <row r="303">
@@ -45462,13 +45462,13 @@
         <v>301</v>
       </c>
       <c r="B303" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="C303" t="b">
         <v>1</v>
       </c>
       <c r="D303" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
     </row>
     <row r="304">
@@ -45476,7 +45476,7 @@
         <v>302</v>
       </c>
       <c r="B304" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="C304" t="b">
         <v>1</v>
@@ -45496,7 +45496,7 @@
         <v>1</v>
       </c>
       <c r="D305" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
     </row>
     <row r="306">
@@ -45510,7 +45510,7 @@
         <v>1</v>
       </c>
       <c r="D306" t="s">
-        <v>460</v>
+        <v>462</v>
       </c>
     </row>
     <row r="307">
@@ -45524,7 +45524,7 @@
         <v>1</v>
       </c>
       <c r="D307" t="s">
-        <v>460</v>
+        <v>462</v>
       </c>
     </row>
     <row r="308">
@@ -45538,7 +45538,7 @@
         <v>1</v>
       </c>
       <c r="D308" t="s">
-        <v>460</v>
+        <v>462</v>
       </c>
     </row>
     <row r="309">
@@ -45546,13 +45546,13 @@
         <v>307</v>
       </c>
       <c r="B309" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="C309" t="b">
         <v>1</v>
       </c>
       <c r="D309" t="s">
-        <v>460</v>
+        <v>462</v>
       </c>
     </row>
     <row r="310">
@@ -45560,7 +45560,7 @@
         <v>308</v>
       </c>
       <c r="B310" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="C310" t="b">
         <v>1</v>
@@ -45594,7 +45594,7 @@
         <v>1</v>
       </c>
       <c r="D312" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
     </row>
     <row r="313">
@@ -45608,7 +45608,7 @@
         <v>1</v>
       </c>
       <c r="D313" t="s">
-        <v>460</v>
+        <v>462</v>
       </c>
     </row>
     <row r="314">
@@ -45616,13 +45616,13 @@
         <v>312</v>
       </c>
       <c r="B314" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="C314" t="b">
         <v>1</v>
       </c>
       <c r="D314" t="s">
-        <v>460</v>
+        <v>462</v>
       </c>
     </row>
     <row r="315">
@@ -45630,13 +45630,13 @@
         <v>313</v>
       </c>
       <c r="B315" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="C315" t="b">
         <v>1</v>
       </c>
       <c r="D315" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
     </row>
     <row r="316">
@@ -45644,13 +45644,13 @@
         <v>314</v>
       </c>
       <c r="B316" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="C316" t="b">
         <v>1</v>
       </c>
       <c r="D316" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
     </row>
     <row r="317">
@@ -45658,13 +45658,13 @@
         <v>315</v>
       </c>
       <c r="B317" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="C317" t="b">
         <v>1</v>
       </c>
       <c r="D317" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
     </row>
     <row r="318">
@@ -45672,13 +45672,13 @@
         <v>316</v>
       </c>
       <c r="B318" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="C318" t="b">
         <v>1</v>
       </c>
       <c r="D318" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
     </row>
     <row r="319">
@@ -45686,13 +45686,13 @@
         <v>317</v>
       </c>
       <c r="B319" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="C319" t="b">
         <v>1</v>
       </c>
       <c r="D319" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
     </row>
     <row r="320">
@@ -45700,7 +45700,7 @@
         <v>318</v>
       </c>
       <c r="B320" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="C320" t="b">
         <v>1</v>
@@ -45714,13 +45714,13 @@
         <v>319</v>
       </c>
       <c r="B321" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="C321" t="b">
         <v>1</v>
       </c>
       <c r="D321" t="s">
-        <v>460</v>
+        <v>462</v>
       </c>
     </row>
     <row r="322">
@@ -45728,13 +45728,13 @@
         <v>320</v>
       </c>
       <c r="B322" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="C322" t="b">
         <v>1</v>
       </c>
       <c r="D322" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
     </row>
     <row r="323">
@@ -45748,7 +45748,7 @@
         <v>1</v>
       </c>
       <c r="D323" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
     </row>
     <row r="324">
@@ -45756,7 +45756,7 @@
         <v>322</v>
       </c>
       <c r="B324" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="C324" t="b">
         <v>1</v>
@@ -45770,13 +45770,13 @@
         <v>323</v>
       </c>
       <c r="B325" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="C325" t="b">
         <v>1</v>
       </c>
       <c r="D325" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
     </row>
     <row r="326">
@@ -45784,7 +45784,7 @@
         <v>324</v>
       </c>
       <c r="B326" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="C326" t="b">
         <v>1</v>
@@ -45804,7 +45804,7 @@
         <v>1</v>
       </c>
       <c r="D327" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
     </row>
     <row r="328">
@@ -45812,13 +45812,13 @@
         <v>326</v>
       </c>
       <c r="B328" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="C328" t="b">
         <v>1</v>
       </c>
       <c r="D328" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
     </row>
     <row r="329">
@@ -45826,13 +45826,13 @@
         <v>327</v>
       </c>
       <c r="B329" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="C329" t="b">
         <v>1</v>
       </c>
       <c r="D329" t="s">
-        <v>460</v>
+        <v>462</v>
       </c>
     </row>
     <row r="330">
@@ -45840,13 +45840,13 @@
         <v>328</v>
       </c>
       <c r="B330" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="C330" t="b">
         <v>1</v>
       </c>
       <c r="D330" t="s">
-        <v>460</v>
+        <v>462</v>
       </c>
     </row>
     <row r="331">
@@ -45854,7 +45854,7 @@
         <v>329</v>
       </c>
       <c r="B331" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="C331" t="b">
         <v>1</v>
@@ -45868,13 +45868,13 @@
         <v>330</v>
       </c>
       <c r="B332" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="C332" t="b">
         <v>1</v>
       </c>
       <c r="D332" t="s">
-        <v>460</v>
+        <v>462</v>
       </c>
     </row>
     <row r="333">
@@ -45882,7 +45882,7 @@
         <v>331</v>
       </c>
       <c r="B333" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="C333" t="b">
         <v>1</v>
@@ -45896,7 +45896,7 @@
         <v>332</v>
       </c>
       <c r="B334" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="C334" t="b">
         <v>1</v>
@@ -45910,13 +45910,13 @@
         <v>333</v>
       </c>
       <c r="B335" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="C335" t="b">
         <v>1</v>
       </c>
       <c r="D335" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
     </row>
     <row r="336">
@@ -45924,13 +45924,13 @@
         <v>334</v>
       </c>
       <c r="B336" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="C336" t="b">
         <v>1</v>
       </c>
       <c r="D336" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
     </row>
     <row r="337">
@@ -45938,7 +45938,7 @@
         <v>335</v>
       </c>
       <c r="B337" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="C337" t="b">
         <v>1</v>
@@ -45958,7 +45958,7 @@
         <v>1</v>
       </c>
       <c r="D338" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
     </row>
     <row r="339">
@@ -45966,7 +45966,7 @@
         <v>337</v>
       </c>
       <c r="B339" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="C339" t="b">
         <v>1</v>
@@ -45994,13 +45994,13 @@
         <v>339</v>
       </c>
       <c r="B341" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="C341" t="b">
         <v>1</v>
       </c>
       <c r="D341" t="s">
-        <v>460</v>
+        <v>462</v>
       </c>
     </row>
     <row r="342">
@@ -46008,13 +46008,13 @@
         <v>340</v>
       </c>
       <c r="B342" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="C342" t="b">
         <v>1</v>
       </c>
       <c r="D342" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
     </row>
     <row r="343">
@@ -46028,7 +46028,7 @@
         <v>1</v>
       </c>
       <c r="D343" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
     </row>
     <row r="344">
@@ -46036,13 +46036,13 @@
         <v>342</v>
       </c>
       <c r="B344" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="C344" t="b">
         <v>1</v>
       </c>
       <c r="D344" t="s">
-        <v>460</v>
+        <v>462</v>
       </c>
     </row>
     <row r="345">
@@ -46056,7 +46056,7 @@
         <v>1</v>
       </c>
       <c r="D345" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
     </row>
     <row r="346">
@@ -46070,7 +46070,7 @@
         <v>1</v>
       </c>
       <c r="D346" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
     </row>
     <row r="347">
@@ -46078,7 +46078,7 @@
         <v>345</v>
       </c>
       <c r="B347" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="C347" t="b">
         <v>1</v>
@@ -46092,13 +46092,13 @@
         <v>346</v>
       </c>
       <c r="B348" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="C348" t="b">
         <v>1</v>
       </c>
       <c r="D348" t="s">
-        <v>460</v>
+        <v>462</v>
       </c>
     </row>
     <row r="349">
@@ -46106,13 +46106,13 @@
         <v>347</v>
       </c>
       <c r="B349" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="C349" t="b">
         <v>1</v>
       </c>
       <c r="D349" t="s">
-        <v>460</v>
+        <v>462</v>
       </c>
     </row>
     <row r="350">
@@ -46126,7 +46126,7 @@
         <v>1</v>
       </c>
       <c r="D350" t="s">
-        <v>460</v>
+        <v>462</v>
       </c>
     </row>
     <row r="351">
@@ -46140,7 +46140,7 @@
         <v>1</v>
       </c>
       <c r="D351" t="s">
-        <v>460</v>
+        <v>462</v>
       </c>
     </row>
     <row r="352">
@@ -46148,13 +46148,13 @@
         <v>350</v>
       </c>
       <c r="B352" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="C352" t="b">
         <v>1</v>
       </c>
       <c r="D352" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
     </row>
     <row r="353">
@@ -46162,13 +46162,13 @@
         <v>351</v>
       </c>
       <c r="B353" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="C353" t="b">
         <v>1</v>
       </c>
       <c r="D353" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
     </row>
     <row r="354">
@@ -46182,7 +46182,7 @@
         <v>1</v>
       </c>
       <c r="D354" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
     </row>
     <row r="355">
@@ -46204,13 +46204,13 @@
         <v>354</v>
       </c>
       <c r="B356" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="C356" t="b">
         <v>1</v>
       </c>
       <c r="D356" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
     </row>
     <row r="357">
@@ -46218,13 +46218,13 @@
         <v>355</v>
       </c>
       <c r="B357" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="C357" t="b">
         <v>1</v>
       </c>
       <c r="D357" t="s">
-        <v>460</v>
+        <v>462</v>
       </c>
     </row>
     <row r="358">
@@ -46238,7 +46238,7 @@
         <v>1</v>
       </c>
       <c r="D358" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
     </row>
     <row r="359">
@@ -46266,7 +46266,7 @@
         <v>1</v>
       </c>
       <c r="D360" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
     </row>
     <row r="361">
@@ -46274,13 +46274,13 @@
         <v>359</v>
       </c>
       <c r="B361" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="C361" t="b">
         <v>1</v>
       </c>
       <c r="D361" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
     </row>
     <row r="362">
@@ -46288,13 +46288,13 @@
         <v>360</v>
       </c>
       <c r="B362" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="C362" t="b">
         <v>1</v>
       </c>
       <c r="D362" t="s">
-        <v>460</v>
+        <v>462</v>
       </c>
     </row>
     <row r="363">
@@ -46302,13 +46302,13 @@
         <v>361</v>
       </c>
       <c r="B363" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="C363" t="b">
         <v>1</v>
       </c>
       <c r="D363" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
     </row>
     <row r="364">
@@ -46316,13 +46316,13 @@
         <v>362</v>
       </c>
       <c r="B364" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="C364" t="b">
         <v>1</v>
       </c>
       <c r="D364" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
     </row>
     <row r="365">
@@ -46330,13 +46330,13 @@
         <v>363</v>
       </c>
       <c r="B365" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="C365" t="b">
         <v>1</v>
       </c>
       <c r="D365" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
     </row>
     <row r="366">
@@ -46350,7 +46350,7 @@
         <v>1</v>
       </c>
       <c r="D366" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
     </row>
     <row r="367">
@@ -46358,13 +46358,13 @@
         <v>365</v>
       </c>
       <c r="B367" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="C367" t="b">
         <v>1</v>
       </c>
       <c r="D367" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
     </row>
     <row r="368">
@@ -46372,7 +46372,7 @@
         <v>366</v>
       </c>
       <c r="B368" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="C368" t="b">
         <v>1</v>
@@ -46386,13 +46386,13 @@
         <v>367</v>
       </c>
       <c r="B369" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="C369" t="b">
         <v>1</v>
       </c>
       <c r="D369" t="s">
-        <v>460</v>
+        <v>462</v>
       </c>
     </row>
     <row r="370">
@@ -46400,7 +46400,7 @@
         <v>368</v>
       </c>
       <c r="B370" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="C370" t="b">
         <v>1</v>
@@ -46414,13 +46414,13 @@
         <v>369</v>
       </c>
       <c r="B371" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="C371" t="b">
         <v>1</v>
       </c>
       <c r="D371" t="s">
-        <v>460</v>
+        <v>462</v>
       </c>
     </row>
     <row r="372">
@@ -46434,7 +46434,7 @@
         <v>1</v>
       </c>
       <c r="D372" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
     </row>
     <row r="373">
@@ -46448,7 +46448,7 @@
         <v>1</v>
       </c>
       <c r="D373" t="s">
-        <v>460</v>
+        <v>462</v>
       </c>
     </row>
     <row r="374">
@@ -46462,7 +46462,7 @@
         <v>1</v>
       </c>
       <c r="D374" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
     </row>
     <row r="375">
@@ -46476,7 +46476,7 @@
         <v>1</v>
       </c>
       <c r="D375" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
     </row>
     <row r="376">
@@ -46484,7 +46484,7 @@
         <v>374</v>
       </c>
       <c r="B376" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="C376" t="b">
         <v>1</v>
@@ -46504,7 +46504,7 @@
         <v>1</v>
       </c>
       <c r="D377" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
     </row>
     <row r="378">
@@ -46512,13 +46512,13 @@
         <v>376</v>
       </c>
       <c r="B378" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="C378" t="b">
         <v>1</v>
       </c>
       <c r="D378" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
     </row>
     <row r="379">
@@ -46526,7 +46526,7 @@
         <v>377</v>
       </c>
       <c r="B379" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="C379" t="b">
         <v>1</v>
@@ -46540,13 +46540,13 @@
         <v>378</v>
       </c>
       <c r="B380" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="C380" t="b">
         <v>1</v>
       </c>
       <c r="D380" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
     </row>
     <row r="381">
@@ -46560,7 +46560,7 @@
         <v>1</v>
       </c>
       <c r="D381" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
     </row>
     <row r="382">
@@ -46574,7 +46574,7 @@
         <v>1</v>
       </c>
       <c r="D382" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
     </row>
     <row r="383">
@@ -46582,13 +46582,13 @@
         <v>381</v>
       </c>
       <c r="B383" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="C383" t="b">
         <v>1</v>
       </c>
       <c r="D383" t="s">
-        <v>460</v>
+        <v>462</v>
       </c>
     </row>
     <row r="384">
@@ -46596,13 +46596,13 @@
         <v>382</v>
       </c>
       <c r="B384" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="C384" t="b">
         <v>1</v>
       </c>
       <c r="D384" t="s">
-        <v>460</v>
+        <v>462</v>
       </c>
     </row>
     <row r="385">
@@ -46610,13 +46610,13 @@
         <v>383</v>
       </c>
       <c r="B385" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="C385" t="b">
         <v>1</v>
       </c>
       <c r="D385" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
     </row>
     <row r="386">
@@ -46624,7 +46624,7 @@
         <v>384</v>
       </c>
       <c r="B386" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="C386" t="b">
         <v>1</v>
@@ -46638,13 +46638,13 @@
         <v>385</v>
       </c>
       <c r="B387" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="C387" t="b">
         <v>1</v>
       </c>
       <c r="D387" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
     </row>
     <row r="388">
@@ -46652,13 +46652,13 @@
         <v>386</v>
       </c>
       <c r="B388" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="C388" t="b">
         <v>1</v>
       </c>
       <c r="D388" t="s">
-        <v>460</v>
+        <v>462</v>
       </c>
     </row>
     <row r="389">
@@ -46666,13 +46666,13 @@
         <v>387</v>
       </c>
       <c r="B389" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="C389" t="b">
         <v>1</v>
       </c>
       <c r="D389" t="s">
-        <v>460</v>
+        <v>462</v>
       </c>
     </row>
     <row r="390">
@@ -46680,13 +46680,13 @@
         <v>388</v>
       </c>
       <c r="B390" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="C390" t="b">
         <v>1</v>
       </c>
       <c r="D390" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
     </row>
     <row r="391">
@@ -46694,13 +46694,13 @@
         <v>389</v>
       </c>
       <c r="B391" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="C391" t="b">
         <v>1</v>
       </c>
       <c r="D391" t="s">
-        <v>460</v>
+        <v>462</v>
       </c>
     </row>
     <row r="392">
@@ -46708,13 +46708,13 @@
         <v>390</v>
       </c>
       <c r="B392" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="C392" t="b">
         <v>1</v>
       </c>
       <c r="D392" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
     </row>
     <row r="393">
@@ -46728,7 +46728,7 @@
         <v>1</v>
       </c>
       <c r="D393" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
     </row>
     <row r="394">
@@ -46742,7 +46742,7 @@
         <v>1</v>
       </c>
       <c r="D394" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
     </row>
     <row r="395">
@@ -46750,13 +46750,13 @@
         <v>393</v>
       </c>
       <c r="B395" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="C395" t="b">
         <v>1</v>
       </c>
       <c r="D395" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
     </row>
     <row r="396">
@@ -46770,7 +46770,7 @@
         <v>1</v>
       </c>
       <c r="D396" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
     </row>
     <row r="397">
@@ -46778,13 +46778,13 @@
         <v>395</v>
       </c>
       <c r="B397" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="C397" t="b">
         <v>1</v>
       </c>
       <c r="D397" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
     </row>
     <row r="398">
@@ -46792,7 +46792,7 @@
         <v>396</v>
       </c>
       <c r="B398" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="C398" t="b">
         <v>1</v>
@@ -46806,7 +46806,7 @@
         <v>397</v>
       </c>
       <c r="B399" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="C399" t="b">
         <v>1</v>
@@ -46820,13 +46820,13 @@
         <v>398</v>
       </c>
       <c r="B400" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="C400" t="b">
         <v>1</v>
       </c>
       <c r="D400" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
     </row>
     <row r="401">
@@ -46834,13 +46834,13 @@
         <v>399</v>
       </c>
       <c r="B401" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="C401" t="b">
         <v>1</v>
       </c>
       <c r="D401" t="s">
-        <v>460</v>
+        <v>462</v>
       </c>
     </row>
     <row r="402">
@@ -46848,13 +46848,13 @@
         <v>400</v>
       </c>
       <c r="B402" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="C402" t="b">
         <v>1</v>
       </c>
       <c r="D402" t="s">
-        <v>460</v>
+        <v>462</v>
       </c>
     </row>
     <row r="403">
@@ -46862,13 +46862,13 @@
         <v>401</v>
       </c>
       <c r="B403" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="C403" t="b">
         <v>1</v>
       </c>
       <c r="D403" t="s">
-        <v>460</v>
+        <v>462</v>
       </c>
     </row>
     <row r="404">
@@ -46882,7 +46882,7 @@
         <v>1</v>
       </c>
       <c r="D404" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
     </row>
     <row r="405">
@@ -46890,13 +46890,13 @@
         <v>403</v>
       </c>
       <c r="B405" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="C405" t="b">
         <v>1</v>
       </c>
       <c r="D405" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
     </row>
     <row r="406">
@@ -46904,13 +46904,13 @@
         <v>404</v>
       </c>
       <c r="B406" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="C406" t="b">
         <v>1</v>
       </c>
       <c r="D406" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
     </row>
     <row r="407">
@@ -46918,13 +46918,13 @@
         <v>405</v>
       </c>
       <c r="B407" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="C407" t="b">
         <v>1</v>
       </c>
       <c r="D407" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
     </row>
     <row r="408">
@@ -46932,13 +46932,13 @@
         <v>406</v>
       </c>
       <c r="B408" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="C408" t="b">
         <v>1</v>
       </c>
       <c r="D408" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
     </row>
     <row r="409">
@@ -46946,13 +46946,13 @@
         <v>407</v>
       </c>
       <c r="B409" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="C409" t="b">
         <v>1</v>
       </c>
       <c r="D409" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
     </row>
     <row r="410">
@@ -46960,13 +46960,13 @@
         <v>408</v>
       </c>
       <c r="B410" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="C410" t="b">
         <v>1</v>
       </c>
       <c r="D410" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
     </row>
   </sheetData>

--- a/optaplanner-training-lab902-solution/data/workerrostering/import/roster-34spots-14days.xlsx
+++ b/optaplanner-training-lab902-solution/data/workerrostering/import/roster-34spots-14days.xlsx
@@ -1396,28 +1396,28 @@
     <t>shiftType</t>
   </si>
   <si>
+    <t>Malay,mSearch</t>
+  </si>
+  <si>
+    <t>Morning</t>
+  </si>
+  <si>
     <t>Malay,fSearch</t>
   </si>
   <si>
-    <t>Morning</t>
-  </si>
-  <si>
-    <t>Malay,mSearch</t>
-  </si>
-  <si>
     <t>Night</t>
   </si>
   <si>
+    <t>Tamil,fSearch</t>
+  </si>
+  <si>
     <t>Tamil,mSearch</t>
   </si>
   <si>
-    <t>Tamil,fSearch</t>
+    <t>Mandarin,mSearch</t>
   </si>
   <si>
     <t>Mandarin,fSearch</t>
-  </si>
-  <si>
-    <t>Mandarin,mSearch</t>
   </si>
   <si>
     <t>Start</t>
@@ -4639,7 +4639,7 @@
       <c r="P35" t="s">
         <v>420</v>
       </c>
-      <c r="Q35" t="s">
+      <c r="Q35" s="4" t="s">
         <v>420</v>
       </c>
       <c r="R35" t="s">
@@ -4689,7 +4689,7 @@
       <c r="C36" t="s">
         <v>420</v>
       </c>
-      <c r="D36" t="s">
+      <c r="D36" s="4" t="s">
         <v>420</v>
       </c>
       <c r="E36" t="s">
@@ -4698,7 +4698,7 @@
       <c r="F36" t="s">
         <v>420</v>
       </c>
-      <c r="G36" t="s">
+      <c r="G36" s="4" t="s">
         <v>420</v>
       </c>
       <c r="H36" t="s">
@@ -4710,7 +4710,7 @@
       <c r="J36" t="s">
         <v>420</v>
       </c>
-      <c r="K36" t="s">
+      <c r="K36" s="4" t="s">
         <v>420</v>
       </c>
       <c r="L36" t="s">
@@ -4737,7 +4737,7 @@
       <c r="S36" t="s">
         <v>420</v>
       </c>
-      <c r="T36" t="s">
+      <c r="T36" s="4" t="s">
         <v>420</v>
       </c>
       <c r="U36" t="s">
@@ -4778,7 +4778,7 @@
       <c r="C37" t="s">
         <v>420</v>
       </c>
-      <c r="D37" t="s">
+      <c r="D37" s="4" t="s">
         <v>420</v>
       </c>
       <c r="E37" t="s">
@@ -4799,7 +4799,7 @@
       <c r="J37" t="s">
         <v>420</v>
       </c>
-      <c r="K37" t="s">
+      <c r="K37" s="4" t="s">
         <v>420</v>
       </c>
       <c r="L37" t="s">
@@ -4817,7 +4817,7 @@
       <c r="P37" t="s">
         <v>420</v>
       </c>
-      <c r="Q37" t="s">
+      <c r="Q37" s="4" t="s">
         <v>420</v>
       </c>
       <c r="R37" t="s">
@@ -4829,7 +4829,7 @@
       <c r="T37" t="s">
         <v>420</v>
       </c>
-      <c r="U37" t="s">
+      <c r="U37" s="4" t="s">
         <v>420</v>
       </c>
       <c r="V37" t="s">
@@ -4870,10 +4870,10 @@
       <c r="D38" t="s">
         <v>420</v>
       </c>
-      <c r="E38" t="s">
-        <v>420</v>
-      </c>
-      <c r="F38" t="s">
+      <c r="E38" s="4" t="s">
+        <v>420</v>
+      </c>
+      <c r="F38" s="4" t="s">
         <v>420</v>
       </c>
       <c r="G38" t="s">
@@ -4921,7 +4921,7 @@
       <c r="U38" t="s">
         <v>420</v>
       </c>
-      <c r="V38" t="s">
+      <c r="V38" s="4" t="s">
         <v>420</v>
       </c>
       <c r="W38" t="s">
@@ -4980,7 +4980,7 @@
       <c r="K39" t="s">
         <v>420</v>
       </c>
-      <c r="L39" t="s">
+      <c r="L39" s="4" t="s">
         <v>420</v>
       </c>
       <c r="M39" t="s">
@@ -4992,7 +4992,7 @@
       <c r="O39" t="s">
         <v>420</v>
       </c>
-      <c r="P39" t="s">
+      <c r="P39" s="4" t="s">
         <v>420</v>
       </c>
       <c r="Q39" t="s">
@@ -5060,7 +5060,7 @@
       <c r="H40" t="s">
         <v>420</v>
       </c>
-      <c r="I40" t="s">
+      <c r="I40" s="4" t="s">
         <v>420</v>
       </c>
       <c r="J40" t="s">
@@ -5069,7 +5069,7 @@
       <c r="K40" t="s">
         <v>420</v>
       </c>
-      <c r="L40" t="s">
+      <c r="L40" s="4" t="s">
         <v>420</v>
       </c>
       <c r="M40" t="s">
@@ -5081,7 +5081,7 @@
       <c r="O40" t="s">
         <v>420</v>
       </c>
-      <c r="P40" t="s">
+      <c r="P40" s="4" t="s">
         <v>420</v>
       </c>
       <c r="Q40" t="s">
@@ -5102,7 +5102,7 @@
       <c r="V40" t="s">
         <v>420</v>
       </c>
-      <c r="W40" t="s">
+      <c r="W40" s="4" t="s">
         <v>420</v>
       </c>
       <c r="X40" t="s">
@@ -5134,7 +5134,7 @@
       <c r="C41" t="s">
         <v>420</v>
       </c>
-      <c r="D41" t="s">
+      <c r="D41" s="4" t="s">
         <v>420</v>
       </c>
       <c r="E41" t="s">
@@ -5170,13 +5170,13 @@
       <c r="O41" t="s">
         <v>420</v>
       </c>
-      <c r="P41" t="s">
+      <c r="P41" s="4" t="s">
         <v>420</v>
       </c>
       <c r="Q41" t="s">
         <v>420</v>
       </c>
-      <c r="R41" t="s">
+      <c r="R41" s="4" t="s">
         <v>420</v>
       </c>
       <c r="S41" t="s">
@@ -5229,7 +5229,7 @@
       <c r="E42" t="s">
         <v>420</v>
       </c>
-      <c r="F42" t="s">
+      <c r="F42" s="4" t="s">
         <v>420</v>
       </c>
       <c r="G42" t="s">
@@ -5265,7 +5265,7 @@
       <c r="Q42" t="s">
         <v>420</v>
       </c>
-      <c r="R42" t="s">
+      <c r="R42" s="4" t="s">
         <v>420</v>
       </c>
       <c r="S42" t="s">
@@ -5339,16 +5339,16 @@
       <c r="L43" t="s">
         <v>420</v>
       </c>
-      <c r="M43" t="s">
+      <c r="M43" s="4" t="s">
         <v>420</v>
       </c>
       <c r="N43" t="s">
         <v>420</v>
       </c>
-      <c r="O43" t="s">
-        <v>420</v>
-      </c>
-      <c r="P43" t="s">
+      <c r="O43" s="4" t="s">
+        <v>420</v>
+      </c>
+      <c r="P43" s="4" t="s">
         <v>420</v>
       </c>
       <c r="Q43" t="s">
@@ -5410,7 +5410,7 @@
       <c r="F44" t="s">
         <v>420</v>
       </c>
-      <c r="G44" t="s">
+      <c r="G44" s="4" t="s">
         <v>420</v>
       </c>
       <c r="H44" t="s">
@@ -5443,7 +5443,7 @@
       <c r="Q44" t="s">
         <v>420</v>
       </c>
-      <c r="R44" t="s">
+      <c r="R44" s="4" t="s">
         <v>420</v>
       </c>
       <c r="S44" t="s">
@@ -5461,7 +5461,7 @@
       <c r="W44" t="s">
         <v>420</v>
       </c>
-      <c r="X44" t="s">
+      <c r="X44" s="4" t="s">
         <v>420</v>
       </c>
       <c r="Y44" t="s">
@@ -5505,7 +5505,7 @@
       <c r="H45" t="s">
         <v>420</v>
       </c>
-      <c r="I45" t="s">
+      <c r="I45" s="4" t="s">
         <v>420</v>
       </c>
       <c r="J45" t="s">
@@ -5517,7 +5517,7 @@
       <c r="L45" t="s">
         <v>420</v>
       </c>
-      <c r="M45" t="s">
+      <c r="M45" s="4" t="s">
         <v>420</v>
       </c>
       <c r="N45" t="s">
@@ -5588,13 +5588,13 @@
       <c r="F46" t="s">
         <v>420</v>
       </c>
-      <c r="G46" t="s">
+      <c r="G46" s="4" t="s">
         <v>420</v>
       </c>
       <c r="H46" t="s">
         <v>420</v>
       </c>
-      <c r="I46" t="s">
+      <c r="I46" s="4" t="s">
         <v>420</v>
       </c>
       <c r="J46" t="s">
@@ -5630,7 +5630,7 @@
       <c r="T46" t="s">
         <v>420</v>
       </c>
-      <c r="U46" t="s">
+      <c r="U46" s="4" t="s">
         <v>420</v>
       </c>
       <c r="V46" t="s">
@@ -5642,7 +5642,7 @@
       <c r="X46" t="s">
         <v>420</v>
       </c>
-      <c r="Y46" t="s">
+      <c r="Y46" s="4" t="s">
         <v>420</v>
       </c>
       <c r="Z46" t="s">
@@ -5654,7 +5654,7 @@
       <c r="AB46" t="s">
         <v>420</v>
       </c>
-      <c r="AC46" t="s">
+      <c r="AC46" s="4" t="s">
         <v>420</v>
       </c>
     </row>
@@ -5674,7 +5674,7 @@
       <c r="E47" t="s">
         <v>420</v>
       </c>
-      <c r="F47" t="s">
+      <c r="F47" s="4" t="s">
         <v>420</v>
       </c>
       <c r="G47" t="s">
@@ -5704,10 +5704,10 @@
       <c r="O47" t="s">
         <v>420</v>
       </c>
-      <c r="P47" t="s">
-        <v>420</v>
-      </c>
-      <c r="Q47" t="s">
+      <c r="P47" s="4" t="s">
+        <v>420</v>
+      </c>
+      <c r="Q47" s="4" t="s">
         <v>420</v>
       </c>
       <c r="R47" t="s">
@@ -5740,7 +5740,7 @@
       <c r="AA47" t="s">
         <v>420</v>
       </c>
-      <c r="AB47" t="s">
+      <c r="AB47" s="4" t="s">
         <v>420</v>
       </c>
       <c r="AC47" t="s">
@@ -5754,7 +5754,7 @@
       <c r="B48" t="s">
         <v>420</v>
       </c>
-      <c r="C48" t="s">
+      <c r="C48" s="4" t="s">
         <v>420</v>
       </c>
       <c r="D48" t="s">
@@ -5852,16 +5852,16 @@
       <c r="E49" t="s">
         <v>420</v>
       </c>
-      <c r="F49" t="s">
-        <v>420</v>
-      </c>
-      <c r="G49" t="s">
+      <c r="F49" s="4" t="s">
+        <v>420</v>
+      </c>
+      <c r="G49" s="4" t="s">
         <v>420</v>
       </c>
       <c r="H49" t="s">
         <v>420</v>
       </c>
-      <c r="I49" t="s">
+      <c r="I49" s="4" t="s">
         <v>420</v>
       </c>
       <c r="J49" t="s">
@@ -5873,7 +5873,7 @@
       <c r="L49" t="s">
         <v>420</v>
       </c>
-      <c r="M49" t="s">
+      <c r="M49" s="4" t="s">
         <v>420</v>
       </c>
       <c r="N49" t="s">
@@ -5950,7 +5950,7 @@
       <c r="H50" t="s">
         <v>420</v>
       </c>
-      <c r="I50" t="s">
+      <c r="I50" s="4" t="s">
         <v>420</v>
       </c>
       <c r="J50" t="s">
@@ -6007,7 +6007,7 @@
       <c r="AA50" t="s">
         <v>420</v>
       </c>
-      <c r="AB50" t="s">
+      <c r="AB50" s="4" t="s">
         <v>420</v>
       </c>
       <c r="AC50" t="s">
@@ -6036,7 +6036,7 @@
       <c r="G51" t="s">
         <v>420</v>
       </c>
-      <c r="H51" t="s">
+      <c r="H51" s="4" t="s">
         <v>420</v>
       </c>
       <c r="I51" t="s">
@@ -6063,22 +6063,22 @@
       <c r="P51" t="s">
         <v>420</v>
       </c>
-      <c r="Q51" t="s">
+      <c r="Q51" s="4" t="s">
         <v>420</v>
       </c>
       <c r="R51" t="s">
         <v>420</v>
       </c>
-      <c r="S51" t="s">
+      <c r="S51" s="4" t="s">
         <v>420</v>
       </c>
       <c r="T51" t="s">
         <v>420</v>
       </c>
-      <c r="U51" t="s">
-        <v>420</v>
-      </c>
-      <c r="V51" t="s">
+      <c r="U51" s="4" t="s">
+        <v>420</v>
+      </c>
+      <c r="V51" s="4" t="s">
         <v>420</v>
       </c>
       <c r="W51" t="s">
@@ -6110,7 +6110,7 @@
       <c r="B52" t="s">
         <v>420</v>
       </c>
-      <c r="C52" t="s">
+      <c r="C52" s="4" t="s">
         <v>420</v>
       </c>
       <c r="D52" t="s">
@@ -6164,7 +6164,7 @@
       <c r="T52" t="s">
         <v>420</v>
       </c>
-      <c r="U52" t="s">
+      <c r="U52" s="4" t="s">
         <v>420</v>
       </c>
       <c r="V52" t="s">
@@ -6179,7 +6179,7 @@
       <c r="Y52" t="s">
         <v>420</v>
       </c>
-      <c r="Z52" t="s">
+      <c r="Z52" s="4" t="s">
         <v>420</v>
       </c>
       <c r="AA52" t="s">
@@ -6214,7 +6214,7 @@
       <c r="G53" t="s">
         <v>420</v>
       </c>
-      <c r="H53" t="s">
+      <c r="H53" s="4" t="s">
         <v>420</v>
       </c>
       <c r="I53" t="s">
@@ -6288,13 +6288,13 @@
       <c r="B54" t="s">
         <v>420</v>
       </c>
-      <c r="C54" t="s">
+      <c r="C54" s="4" t="s">
         <v>420</v>
       </c>
       <c r="D54" t="s">
         <v>420</v>
       </c>
-      <c r="E54" t="s">
+      <c r="E54" s="4" t="s">
         <v>420</v>
       </c>
       <c r="F54" t="s">
@@ -6303,7 +6303,7 @@
       <c r="G54" t="s">
         <v>420</v>
       </c>
-      <c r="H54" t="s">
+      <c r="H54" s="4" t="s">
         <v>420</v>
       </c>
       <c r="I54" t="s">
@@ -6351,7 +6351,7 @@
       <c r="W54" t="s">
         <v>420</v>
       </c>
-      <c r="X54" t="s">
+      <c r="X54" s="4" t="s">
         <v>420</v>
       </c>
       <c r="Y54" t="s">
@@ -6419,7 +6419,7 @@
       <c r="P55" t="s">
         <v>420</v>
       </c>
-      <c r="Q55" t="s">
+      <c r="Q55" s="4" t="s">
         <v>420</v>
       </c>
       <c r="R55" t="s">
@@ -6466,7 +6466,7 @@
       <c r="B56" t="s">
         <v>420</v>
       </c>
-      <c r="C56" t="s">
+      <c r="C56" s="4" t="s">
         <v>420</v>
       </c>
       <c r="D56" t="s">
@@ -6499,7 +6499,7 @@
       <c r="M56" t="s">
         <v>420</v>
       </c>
-      <c r="N56" t="s">
+      <c r="N56" s="4" t="s">
         <v>420</v>
       </c>
       <c r="O56" t="s">
@@ -6532,13 +6532,13 @@
       <c r="X56" t="s">
         <v>420</v>
       </c>
-      <c r="Y56" t="s">
+      <c r="Y56" s="4" t="s">
         <v>420</v>
       </c>
       <c r="Z56" t="s">
         <v>420</v>
       </c>
-      <c r="AA56" t="s">
+      <c r="AA56" s="4" t="s">
         <v>420</v>
       </c>
       <c r="AB56" t="s">
@@ -6561,10 +6561,10 @@
       <c r="D57" t="s">
         <v>420</v>
       </c>
-      <c r="E57" t="s">
-        <v>420</v>
-      </c>
-      <c r="F57" t="s">
+      <c r="E57" s="4" t="s">
+        <v>420</v>
+      </c>
+      <c r="F57" s="4" t="s">
         <v>420</v>
       </c>
       <c r="G57" t="s">
@@ -6606,7 +6606,7 @@
       <c r="S57" t="s">
         <v>420</v>
       </c>
-      <c r="T57" t="s">
+      <c r="T57" s="4" t="s">
         <v>420</v>
       </c>
       <c r="U57" t="s">
@@ -6633,7 +6633,7 @@
       <c r="AB57" t="s">
         <v>420</v>
       </c>
-      <c r="AC57" t="s">
+      <c r="AC57" s="4" t="s">
         <v>420</v>
       </c>
     </row>
@@ -6656,7 +6656,7 @@
       <c r="F58" t="s">
         <v>420</v>
       </c>
-      <c r="G58" t="s">
+      <c r="G58" s="4" t="s">
         <v>420</v>
       </c>
       <c r="H58" t="s">
@@ -6784,7 +6784,7 @@
       <c r="S59" t="s">
         <v>420</v>
       </c>
-      <c r="T59" t="s">
+      <c r="T59" s="4" t="s">
         <v>420</v>
       </c>
       <c r="U59" t="s">
@@ -6793,7 +6793,7 @@
       <c r="V59" t="s">
         <v>420</v>
       </c>
-      <c r="W59" t="s">
+      <c r="W59" s="4" t="s">
         <v>420</v>
       </c>
       <c r="X59" t="s">
@@ -6805,7 +6805,7 @@
       <c r="Z59" t="s">
         <v>420</v>
       </c>
-      <c r="AA59" t="s">
+      <c r="AA59" s="4" t="s">
         <v>420</v>
       </c>
       <c r="AB59" t="s">
@@ -6828,7 +6828,7 @@
       <c r="D60" t="s">
         <v>420</v>
       </c>
-      <c r="E60" t="s">
+      <c r="E60" s="4" t="s">
         <v>420</v>
       </c>
       <c r="F60" t="s">
@@ -6843,7 +6843,7 @@
       <c r="I60" t="s">
         <v>420</v>
       </c>
-      <c r="J60" t="s">
+      <c r="J60" s="4" t="s">
         <v>420</v>
       </c>
       <c r="K60" t="s">
@@ -6864,7 +6864,7 @@
       <c r="P60" t="s">
         <v>420</v>
       </c>
-      <c r="Q60" t="s">
+      <c r="Q60" s="4" t="s">
         <v>420</v>
       </c>
       <c r="R60" t="s">
@@ -6873,7 +6873,7 @@
       <c r="S60" t="s">
         <v>420</v>
       </c>
-      <c r="T60" t="s">
+      <c r="T60" s="4" t="s">
         <v>420</v>
       </c>
       <c r="U60" t="s">
@@ -6891,7 +6891,7 @@
       <c r="Y60" t="s">
         <v>420</v>
       </c>
-      <c r="Z60" t="s">
+      <c r="Z60" s="4" t="s">
         <v>420</v>
       </c>
       <c r="AA60" t="s">
@@ -6908,10 +6908,10 @@
       <c r="A61" t="s">
         <v>59</v>
       </c>
-      <c r="B61" t="s">
-        <v>420</v>
-      </c>
-      <c r="C61" t="s">
+      <c r="B61" s="4" t="s">
+        <v>420</v>
+      </c>
+      <c r="C61" s="4" t="s">
         <v>420</v>
       </c>
       <c r="D61" t="s">
@@ -6929,7 +6929,7 @@
       <c r="H61" t="s">
         <v>420</v>
       </c>
-      <c r="I61" t="s">
+      <c r="I61" s="4" t="s">
         <v>420</v>
       </c>
       <c r="J61" t="s">
@@ -7030,7 +7030,7 @@
       <c r="L62" t="s">
         <v>420</v>
       </c>
-      <c r="M62" t="s">
+      <c r="M62" s="4" t="s">
         <v>420</v>
       </c>
       <c r="N62" t="s">
@@ -7057,7 +7057,7 @@
       <c r="U62" t="s">
         <v>420</v>
       </c>
-      <c r="V62" t="s">
+      <c r="V62" s="4" t="s">
         <v>420</v>
       </c>
       <c r="W62" t="s">
@@ -7066,13 +7066,13 @@
       <c r="X62" t="s">
         <v>420</v>
       </c>
-      <c r="Y62" t="s">
+      <c r="Y62" s="4" t="s">
         <v>420</v>
       </c>
       <c r="Z62" t="s">
         <v>420</v>
       </c>
-      <c r="AA62" t="s">
+      <c r="AA62" s="4" t="s">
         <v>420</v>
       </c>
       <c r="AB62" t="s">
@@ -7089,7 +7089,7 @@
       <c r="B63" t="s">
         <v>420</v>
       </c>
-      <c r="C63" t="s">
+      <c r="C63" s="4" t="s">
         <v>420</v>
       </c>
       <c r="D63" t="s">
@@ -7110,10 +7110,10 @@
       <c r="I63" t="s">
         <v>420</v>
       </c>
-      <c r="J63" t="s">
-        <v>420</v>
-      </c>
-      <c r="K63" t="s">
+      <c r="J63" s="4" t="s">
+        <v>420</v>
+      </c>
+      <c r="K63" s="4" t="s">
         <v>420</v>
       </c>
       <c r="L63" t="s">
@@ -7146,7 +7146,7 @@
       <c r="U63" t="s">
         <v>420</v>
       </c>
-      <c r="V63" t="s">
+      <c r="V63" s="4" t="s">
         <v>420</v>
       </c>
       <c r="W63" t="s">
@@ -7155,7 +7155,7 @@
       <c r="X63" t="s">
         <v>420</v>
       </c>
-      <c r="Y63" t="s">
+      <c r="Y63" s="4" t="s">
         <v>420</v>
       </c>
       <c r="Z63" t="s">
@@ -7175,7 +7175,7 @@
       <c r="A64" t="s">
         <v>62</v>
       </c>
-      <c r="B64" t="s">
+      <c r="B64" s="4" t="s">
         <v>420</v>
       </c>
       <c r="C64" t="s">
@@ -7187,22 +7187,22 @@
       <c r="E64" t="s">
         <v>420</v>
       </c>
-      <c r="F64" t="s">
+      <c r="F64" s="4" t="s">
         <v>420</v>
       </c>
       <c r="G64" t="s">
         <v>420</v>
       </c>
-      <c r="H64" t="s">
-        <v>420</v>
-      </c>
-      <c r="I64" t="s">
+      <c r="H64" s="4" t="s">
+        <v>420</v>
+      </c>
+      <c r="I64" s="4" t="s">
         <v>420</v>
       </c>
       <c r="J64" t="s">
         <v>420</v>
       </c>
-      <c r="K64" t="s">
+      <c r="K64" s="4" t="s">
         <v>420</v>
       </c>
       <c r="L64" t="s">
@@ -7306,10 +7306,10 @@
       <c r="O65" t="s">
         <v>420</v>
       </c>
-      <c r="P65" t="s">
-        <v>420</v>
-      </c>
-      <c r="Q65" t="s">
+      <c r="P65" s="4" t="s">
+        <v>420</v>
+      </c>
+      <c r="Q65" s="4" t="s">
         <v>420</v>
       </c>
       <c r="R65" t="s">
@@ -7321,7 +7321,7 @@
       <c r="T65" t="s">
         <v>420</v>
       </c>
-      <c r="U65" t="s">
+      <c r="U65" s="4" t="s">
         <v>420</v>
       </c>
       <c r="V65" t="s">
@@ -7330,7 +7330,7 @@
       <c r="W65" t="s">
         <v>420</v>
       </c>
-      <c r="X65" t="s">
+      <c r="X65" s="4" t="s">
         <v>420</v>
       </c>
       <c r="Y65" t="s">
@@ -7345,7 +7345,7 @@
       <c r="AB65" t="s">
         <v>420</v>
       </c>
-      <c r="AC65" t="s">
+      <c r="AC65" s="4" t="s">
         <v>420</v>
       </c>
     </row>
@@ -7404,7 +7404,7 @@
       <c r="R66" t="s">
         <v>420</v>
       </c>
-      <c r="S66" t="s">
+      <c r="S66" s="4" t="s">
         <v>420</v>
       </c>
       <c r="T66" t="s">
@@ -7416,7 +7416,7 @@
       <c r="V66" t="s">
         <v>420</v>
       </c>
-      <c r="W66" t="s">
+      <c r="W66" s="4" t="s">
         <v>420</v>
       </c>
       <c r="X66" t="s">
@@ -7442,10 +7442,10 @@
       <c r="A67" t="s">
         <v>65</v>
       </c>
-      <c r="B67" t="s">
-        <v>420</v>
-      </c>
-      <c r="C67" t="s">
+      <c r="B67" s="4" t="s">
+        <v>420</v>
+      </c>
+      <c r="C67" s="4" t="s">
         <v>420</v>
       </c>
       <c r="D67" t="s">
@@ -7472,7 +7472,7 @@
       <c r="K67" t="s">
         <v>420</v>
       </c>
-      <c r="L67" t="s">
+      <c r="L67" s="4" t="s">
         <v>420</v>
       </c>
       <c r="M67" t="s">
@@ -7493,7 +7493,7 @@
       <c r="R67" t="s">
         <v>420</v>
       </c>
-      <c r="S67" t="s">
+      <c r="S67" s="4" t="s">
         <v>420</v>
       </c>
       <c r="T67" t="s">
@@ -7517,7 +7517,7 @@
       <c r="Z67" t="s">
         <v>420</v>
       </c>
-      <c r="AA67" t="s">
+      <c r="AA67" s="4" t="s">
         <v>420</v>
       </c>
       <c r="AB67" t="s">
@@ -7537,7 +7537,7 @@
       <c r="C68" t="s">
         <v>420</v>
       </c>
-      <c r="D68" t="s">
+      <c r="D68" s="4" t="s">
         <v>420</v>
       </c>
       <c r="E68" t="s">
@@ -7555,7 +7555,7 @@
       <c r="I68" t="s">
         <v>420</v>
       </c>
-      <c r="J68" t="s">
+      <c r="J68" s="4" t="s">
         <v>420</v>
       </c>
       <c r="K68" t="s">
@@ -7564,7 +7564,7 @@
       <c r="L68" t="s">
         <v>420</v>
       </c>
-      <c r="M68" t="s">
+      <c r="M68" s="4" t="s">
         <v>420</v>
       </c>
       <c r="N68" t="s">
@@ -7576,7 +7576,7 @@
       <c r="P68" t="s">
         <v>420</v>
       </c>
-      <c r="Q68" t="s">
+      <c r="Q68" s="4" t="s">
         <v>420</v>
       </c>
       <c r="R68" t="s">
@@ -7585,7 +7585,7 @@
       <c r="S68" t="s">
         <v>420</v>
       </c>
-      <c r="T68" t="s">
+      <c r="T68" s="4" t="s">
         <v>420</v>
       </c>
       <c r="U68" t="s">
@@ -7638,7 +7638,7 @@
       <c r="G69" t="s">
         <v>420</v>
       </c>
-      <c r="H69" t="s">
+      <c r="H69" s="4" t="s">
         <v>420</v>
       </c>
       <c r="I69" t="s">
@@ -7650,7 +7650,7 @@
       <c r="K69" t="s">
         <v>420</v>
       </c>
-      <c r="L69" t="s">
+      <c r="L69" s="4" t="s">
         <v>420</v>
       </c>
       <c r="M69" t="s">
@@ -7659,7 +7659,7 @@
       <c r="N69" t="s">
         <v>420</v>
       </c>
-      <c r="O69" t="s">
+      <c r="O69" s="4" t="s">
         <v>420</v>
       </c>
       <c r="P69" t="s">
@@ -7677,7 +7677,7 @@
       <c r="T69" t="s">
         <v>420</v>
       </c>
-      <c r="U69" t="s">
+      <c r="U69" s="4" t="s">
         <v>420</v>
       </c>
       <c r="V69" t="s">
@@ -7709,19 +7709,19 @@
       <c r="A70" t="s">
         <v>68</v>
       </c>
-      <c r="B70" t="s">
+      <c r="B70" s="4" t="s">
         <v>420</v>
       </c>
       <c r="C70" t="s">
         <v>420</v>
       </c>
-      <c r="D70" t="s">
+      <c r="D70" s="4" t="s">
         <v>420</v>
       </c>
       <c r="E70" t="s">
         <v>420</v>
       </c>
-      <c r="F70" t="s">
+      <c r="F70" s="4" t="s">
         <v>420</v>
       </c>
       <c r="G70" t="s">
@@ -7745,7 +7745,7 @@
       <c r="M70" t="s">
         <v>420</v>
       </c>
-      <c r="N70" t="s">
+      <c r="N70" s="4" t="s">
         <v>420</v>
       </c>
       <c r="O70" t="s">
@@ -7790,7 +7790,7 @@
       <c r="AB70" t="s">
         <v>420</v>
       </c>
-      <c r="AC70" t="s">
+      <c r="AC70" s="4" t="s">
         <v>420</v>
       </c>
     </row>
@@ -7801,7 +7801,7 @@
       <c r="B71" t="s">
         <v>420</v>
       </c>
-      <c r="C71" t="s">
+      <c r="C71" s="4" t="s">
         <v>420</v>
       </c>
       <c r="D71" t="s">
@@ -7834,7 +7834,7 @@
       <c r="M71" t="s">
         <v>420</v>
       </c>
-      <c r="N71" t="s">
+      <c r="N71" s="4" t="s">
         <v>420</v>
       </c>
       <c r="O71" t="s">
@@ -7849,7 +7849,7 @@
       <c r="R71" t="s">
         <v>420</v>
       </c>
-      <c r="S71" t="s">
+      <c r="S71" s="4" t="s">
         <v>420</v>
       </c>
       <c r="T71" t="s">
@@ -7887,13 +7887,13 @@
       <c r="A72" t="s">
         <v>70</v>
       </c>
-      <c r="B72" t="s">
+      <c r="B72" s="4" t="s">
         <v>420</v>
       </c>
       <c r="C72" t="s">
         <v>420</v>
       </c>
-      <c r="D72" t="s">
+      <c r="D72" s="4" t="s">
         <v>420</v>
       </c>
       <c r="E72" t="s">
@@ -7935,7 +7935,7 @@
       <c r="Q72" t="s">
         <v>420</v>
       </c>
-      <c r="R72" t="s">
+      <c r="R72" s="4" t="s">
         <v>420</v>
       </c>
       <c r="S72" t="s">
@@ -7953,7 +7953,7 @@
       <c r="W72" t="s">
         <v>420</v>
       </c>
-      <c r="X72" t="s">
+      <c r="X72" s="4" t="s">
         <v>420</v>
       </c>
       <c r="Y72" t="s">
@@ -7997,10 +7997,10 @@
       <c r="H73" t="s">
         <v>420</v>
       </c>
-      <c r="I73" t="s">
-        <v>420</v>
-      </c>
-      <c r="J73" t="s">
+      <c r="I73" s="4" t="s">
+        <v>420</v>
+      </c>
+      <c r="J73" s="4" t="s">
         <v>420</v>
       </c>
       <c r="K73" t="s">
@@ -8009,7 +8009,7 @@
       <c r="L73" t="s">
         <v>420</v>
       </c>
-      <c r="M73" t="s">
+      <c r="M73" s="4" t="s">
         <v>420</v>
       </c>
       <c r="N73" t="s">
@@ -8057,7 +8057,7 @@
       <c r="AB73" t="s">
         <v>420</v>
       </c>
-      <c r="AC73" t="s">
+      <c r="AC73" s="4" t="s">
         <v>420</v>
       </c>
     </row>
@@ -8143,10 +8143,10 @@
       <c r="AA74" t="s">
         <v>420</v>
       </c>
-      <c r="AB74" t="s">
-        <v>420</v>
-      </c>
-      <c r="AC74" t="s">
+      <c r="AB74" s="4" t="s">
+        <v>420</v>
+      </c>
+      <c r="AC74" s="4" t="s">
         <v>420</v>
       </c>
     </row>
@@ -8205,16 +8205,16 @@
       <c r="R75" t="s">
         <v>420</v>
       </c>
-      <c r="S75" t="s">
+      <c r="S75" s="4" t="s">
         <v>420</v>
       </c>
       <c r="T75" t="s">
         <v>420</v>
       </c>
-      <c r="U75" t="s">
-        <v>420</v>
-      </c>
-      <c r="V75" t="s">
+      <c r="U75" s="4" t="s">
+        <v>420</v>
+      </c>
+      <c r="V75" s="4" t="s">
         <v>420</v>
       </c>
       <c r="W75" t="s">
@@ -8226,7 +8226,7 @@
       <c r="Y75" t="s">
         <v>420</v>
       </c>
-      <c r="Z75" t="s">
+      <c r="Z75" s="4" t="s">
         <v>420</v>
       </c>
       <c r="AA75" t="s">
@@ -8243,7 +8243,7 @@
       <c r="A76" t="s">
         <v>74</v>
       </c>
-      <c r="B76" t="s">
+      <c r="B76" s="4" t="s">
         <v>420</v>
       </c>
       <c r="C76" t="s">
@@ -8252,13 +8252,13 @@
       <c r="D76" t="s">
         <v>420</v>
       </c>
-      <c r="E76" t="s">
+      <c r="E76" s="4" t="s">
         <v>420</v>
       </c>
       <c r="F76" t="s">
         <v>420</v>
       </c>
-      <c r="G76" t="s">
+      <c r="G76" s="4" t="s">
         <v>420</v>
       </c>
       <c r="H76" t="s">
@@ -8288,7 +8288,7 @@
       <c r="P76" t="s">
         <v>420</v>
       </c>
-      <c r="Q76" t="s">
+      <c r="Q76" s="4" t="s">
         <v>420</v>
       </c>
       <c r="R76" t="s">
@@ -8356,13 +8356,13 @@
       <c r="I77" t="s">
         <v>420</v>
       </c>
-      <c r="J77" t="s">
+      <c r="J77" s="4" t="s">
         <v>420</v>
       </c>
       <c r="K77" t="s">
         <v>420</v>
       </c>
-      <c r="L77" t="s">
+      <c r="L77" s="4" t="s">
         <v>420</v>
       </c>
       <c r="M77" t="s">
@@ -8389,7 +8389,7 @@
       <c r="T77" t="s">
         <v>420</v>
       </c>
-      <c r="U77" t="s">
+      <c r="U77" s="4" t="s">
         <v>420</v>
       </c>
       <c r="V77" t="s">
@@ -8427,7 +8427,7 @@
       <c r="C78" t="s">
         <v>420</v>
       </c>
-      <c r="D78" t="s">
+      <c r="D78" s="4" t="s">
         <v>420</v>
       </c>
       <c r="E78" t="s">
@@ -8469,7 +8469,7 @@
       <c r="Q78" t="s">
         <v>420</v>
       </c>
-      <c r="R78" t="s">
+      <c r="R78" s="4" t="s">
         <v>420</v>
       </c>
       <c r="S78" t="s">
@@ -8490,7 +8490,7 @@
       <c r="X78" t="s">
         <v>420</v>
       </c>
-      <c r="Y78" t="s">
+      <c r="Y78" s="4" t="s">
         <v>420</v>
       </c>
       <c r="Z78" t="s">
@@ -8519,7 +8519,7 @@
       <c r="D79" t="s">
         <v>420</v>
       </c>
-      <c r="E79" t="s">
+      <c r="E79" s="4" t="s">
         <v>420</v>
       </c>
       <c r="F79" t="s">
@@ -8588,7 +8588,7 @@
       <c r="AA79" t="s">
         <v>420</v>
       </c>
-      <c r="AB79" t="s">
+      <c r="AB79" s="4" t="s">
         <v>420</v>
       </c>
       <c r="AC79" t="s">
@@ -8611,7 +8611,7 @@
       <c r="E80" t="s">
         <v>420</v>
       </c>
-      <c r="F80" t="s">
+      <c r="F80" s="4" t="s">
         <v>420</v>
       </c>
       <c r="G80" t="s">
@@ -8727,13 +8727,13 @@
       <c r="N81" t="s">
         <v>420</v>
       </c>
-      <c r="O81" t="s">
+      <c r="O81" s="4" t="s">
         <v>420</v>
       </c>
       <c r="P81" t="s">
         <v>420</v>
       </c>
-      <c r="Q81" t="s">
+      <c r="Q81" s="4" t="s">
         <v>420</v>
       </c>
       <c r="R81" t="s">
@@ -8804,7 +8804,7 @@
       <c r="J82" t="s">
         <v>420</v>
       </c>
-      <c r="K82" t="s">
+      <c r="K82" s="4" t="s">
         <v>420</v>
       </c>
       <c r="L82" t="s">
@@ -8822,7 +8822,7 @@
       <c r="P82" t="s">
         <v>420</v>
       </c>
-      <c r="Q82" t="s">
+      <c r="Q82" s="4" t="s">
         <v>420</v>
       </c>
       <c r="R82" t="s">
@@ -8831,7 +8831,7 @@
       <c r="S82" t="s">
         <v>420</v>
       </c>
-      <c r="T82" t="s">
+      <c r="T82" s="4" t="s">
         <v>420</v>
       </c>
       <c r="U82" t="s">
@@ -8875,7 +8875,7 @@
       <c r="D83" t="s">
         <v>420</v>
       </c>
-      <c r="E83" t="s">
+      <c r="E83" s="4" t="s">
         <v>420</v>
       </c>
       <c r="F83" t="s">
@@ -8920,7 +8920,7 @@
       <c r="S83" t="s">
         <v>420</v>
       </c>
-      <c r="T83" t="s">
+      <c r="T83" s="4" t="s">
         <v>420</v>
       </c>
       <c r="U83" t="s">
@@ -9015,7 +9015,7 @@
       <c r="U84" t="s">
         <v>420</v>
       </c>
-      <c r="V84" t="s">
+      <c r="V84" s="4" t="s">
         <v>420</v>
       </c>
       <c r="W84" t="s">
@@ -9092,13 +9092,13 @@
       <c r="Q85" t="s">
         <v>420</v>
       </c>
-      <c r="R85" t="s">
+      <c r="R85" s="4" t="s">
         <v>420</v>
       </c>
       <c r="S85" t="s">
         <v>420</v>
       </c>
-      <c r="T85" t="s">
+      <c r="T85" s="4" t="s">
         <v>420</v>
       </c>
       <c r="U85" t="s">
@@ -9151,7 +9151,7 @@
       <c r="G86" t="s">
         <v>420</v>
       </c>
-      <c r="H86" t="s">
+      <c r="H86" s="4" t="s">
         <v>420</v>
       </c>
       <c r="I86" t="s">
@@ -9163,7 +9163,7 @@
       <c r="K86" t="s">
         <v>420</v>
       </c>
-      <c r="L86" t="s">
+      <c r="L86" s="4" t="s">
         <v>420</v>
       </c>
       <c r="M86" t="s">
@@ -9288,7 +9288,7 @@
       <c r="W87" t="s">
         <v>420</v>
       </c>
-      <c r="X87" t="s">
+      <c r="X87" s="4" t="s">
         <v>420</v>
       </c>
       <c r="Y87" t="s">
@@ -9297,7 +9297,7 @@
       <c r="Z87" t="s">
         <v>420</v>
       </c>
-      <c r="AA87" t="s">
+      <c r="AA87" s="4" t="s">
         <v>420</v>
       </c>
       <c r="AB87" t="s">
@@ -9335,7 +9335,7 @@
       <c r="I88" t="s">
         <v>420</v>
       </c>
-      <c r="J88" t="s">
+      <c r="J88" s="4" t="s">
         <v>420</v>
       </c>
       <c r="K88" t="s">
@@ -9403,7 +9403,7 @@
       <c r="B89" t="s">
         <v>420</v>
       </c>
-      <c r="C89" t="s">
+      <c r="C89" s="4" t="s">
         <v>420</v>
       </c>
       <c r="D89" t="s">
@@ -9439,7 +9439,7 @@
       <c r="N89" t="s">
         <v>420</v>
       </c>
-      <c r="O89" t="s">
+      <c r="O89" s="4" t="s">
         <v>420</v>
       </c>
       <c r="P89" t="s">
@@ -9463,7 +9463,7 @@
       <c r="V89" t="s">
         <v>420</v>
       </c>
-      <c r="W89" t="s">
+      <c r="W89" s="4" t="s">
         <v>420</v>
       </c>
       <c r="X89" t="s">
@@ -9478,7 +9478,7 @@
       <c r="AA89" t="s">
         <v>420</v>
       </c>
-      <c r="AB89" t="s">
+      <c r="AB89" s="4" t="s">
         <v>420</v>
       </c>
       <c r="AC89" t="s">
@@ -9489,10 +9489,10 @@
       <c r="A90" t="s">
         <v>88</v>
       </c>
-      <c r="B90" t="s">
-        <v>420</v>
-      </c>
-      <c r="C90" t="s">
+      <c r="B90" s="4" t="s">
+        <v>420</v>
+      </c>
+      <c r="C90" s="4" t="s">
         <v>420</v>
       </c>
       <c r="D90" t="s">
@@ -9513,7 +9513,7 @@
       <c r="I90" t="s">
         <v>420</v>
       </c>
-      <c r="J90" t="s">
+      <c r="J90" s="4" t="s">
         <v>420</v>
       </c>
       <c r="K90" t="s">
@@ -9546,7 +9546,7 @@
       <c r="T90" t="s">
         <v>420</v>
       </c>
-      <c r="U90" t="s">
+      <c r="U90" s="4" t="s">
         <v>420</v>
       </c>
       <c r="V90" t="s">
@@ -9570,7 +9570,7 @@
       <c r="AB90" t="s">
         <v>420</v>
       </c>
-      <c r="AC90" t="s">
+      <c r="AC90" s="4" t="s">
         <v>420</v>
       </c>
     </row>
@@ -9608,7 +9608,7 @@
       <c r="K91" t="s">
         <v>420</v>
       </c>
-      <c r="L91" t="s">
+      <c r="L91" s="4" t="s">
         <v>420</v>
       </c>
       <c r="M91" t="s">
@@ -9638,7 +9638,7 @@
       <c r="U91" t="s">
         <v>420</v>
       </c>
-      <c r="V91" t="s">
+      <c r="V91" s="4" t="s">
         <v>420</v>
       </c>
       <c r="W91" t="s">
@@ -9679,7 +9679,7 @@
       <c r="E92" t="s">
         <v>420</v>
       </c>
-      <c r="F92" t="s">
+      <c r="F92" s="4" t="s">
         <v>420</v>
       </c>
       <c r="G92" t="s">
@@ -9727,7 +9727,7 @@
       <c r="U92" t="s">
         <v>420</v>
       </c>
-      <c r="V92" t="s">
+      <c r="V92" s="4" t="s">
         <v>420</v>
       </c>
       <c r="W92" t="s">
@@ -9748,7 +9748,7 @@
       <c r="AB92" t="s">
         <v>420</v>
       </c>
-      <c r="AC92" t="s">
+      <c r="AC92" s="4" t="s">
         <v>420</v>
       </c>
     </row>
@@ -9771,7 +9771,7 @@
       <c r="F93" t="s">
         <v>420</v>
       </c>
-      <c r="G93" t="s">
+      <c r="G93" s="4" t="s">
         <v>420</v>
       </c>
       <c r="H93" t="s">
@@ -9783,7 +9783,7 @@
       <c r="J93" t="s">
         <v>420</v>
       </c>
-      <c r="K93" t="s">
+      <c r="K93" s="4" t="s">
         <v>420</v>
       </c>
       <c r="L93" t="s">
@@ -9845,7 +9845,7 @@
       <c r="A94" t="s">
         <v>92</v>
       </c>
-      <c r="B94" t="s">
+      <c r="B94" s="4" t="s">
         <v>420</v>
       </c>
       <c r="C94" t="s">
@@ -9866,7 +9866,7 @@
       <c r="H94" t="s">
         <v>420</v>
       </c>
-      <c r="I94" t="s">
+      <c r="I94" s="4" t="s">
         <v>420</v>
       </c>
       <c r="J94" t="s">
@@ -9875,19 +9875,19 @@
       <c r="K94" t="s">
         <v>420</v>
       </c>
-      <c r="L94" t="s">
+      <c r="L94" s="4" t="s">
         <v>420</v>
       </c>
       <c r="M94" t="s">
         <v>420</v>
       </c>
-      <c r="N94" t="s">
+      <c r="N94" s="4" t="s">
         <v>420</v>
       </c>
       <c r="O94" t="s">
         <v>420</v>
       </c>
-      <c r="P94" t="s">
+      <c r="P94" s="4" t="s">
         <v>420</v>
       </c>
       <c r="Q94" t="s">
@@ -9994,7 +9994,7 @@
       <c r="U95" t="s">
         <v>420</v>
       </c>
-      <c r="V95" t="s">
+      <c r="V95" s="4" t="s">
         <v>420</v>
       </c>
       <c r="W95" t="s">
@@ -10026,10 +10026,10 @@
       <c r="B96" t="s">
         <v>420</v>
       </c>
-      <c r="C96" t="s">
-        <v>420</v>
-      </c>
-      <c r="D96" t="s">
+      <c r="C96" s="4" t="s">
+        <v>420</v>
+      </c>
+      <c r="D96" s="4" t="s">
         <v>420</v>
       </c>
       <c r="E96" t="s">
@@ -10112,7 +10112,7 @@
       <c r="A97" t="s">
         <v>95</v>
       </c>
-      <c r="B97" t="s">
+      <c r="B97" s="4" t="s">
         <v>420</v>
       </c>
       <c r="C97" t="s">
@@ -10124,7 +10124,7 @@
       <c r="E97" t="s">
         <v>420</v>
       </c>
-      <c r="F97" t="s">
+      <c r="F97" s="4" t="s">
         <v>420</v>
       </c>
       <c r="G97" t="s">
@@ -10193,7 +10193,7 @@
       <c r="AB97" t="s">
         <v>420</v>
       </c>
-      <c r="AC97" t="s">
+      <c r="AC97" s="4" t="s">
         <v>420</v>
       </c>
     </row>
@@ -10261,7 +10261,7 @@
       <c r="U98" t="s">
         <v>420</v>
       </c>
-      <c r="V98" t="s">
+      <c r="V98" s="4" t="s">
         <v>420</v>
       </c>
       <c r="W98" t="s">
@@ -10305,7 +10305,7 @@
       <c r="F99" t="s">
         <v>420</v>
       </c>
-      <c r="G99" t="s">
+      <c r="G99" s="4" t="s">
         <v>420</v>
       </c>
       <c r="H99" t="s">
@@ -10317,13 +10317,13 @@
       <c r="J99" t="s">
         <v>420</v>
       </c>
-      <c r="K99" t="s">
-        <v>420</v>
-      </c>
-      <c r="L99" t="s">
-        <v>420</v>
-      </c>
-      <c r="M99" t="s">
+      <c r="K99" s="4" t="s">
+        <v>420</v>
+      </c>
+      <c r="L99" s="4" t="s">
+        <v>420</v>
+      </c>
+      <c r="M99" s="4" t="s">
         <v>420</v>
       </c>
       <c r="N99" t="s">
@@ -10341,7 +10341,7 @@
       <c r="R99" t="s">
         <v>420</v>
       </c>
-      <c r="S99" t="s">
+      <c r="S99" s="4" t="s">
         <v>420</v>
       </c>
       <c r="T99" t="s">
@@ -10397,7 +10397,7 @@
       <c r="G100" t="s">
         <v>420</v>
       </c>
-      <c r="H100" t="s">
+      <c r="H100" s="4" t="s">
         <v>420</v>
       </c>
       <c r="I100" t="s">
@@ -10406,7 +10406,7 @@
       <c r="J100" t="s">
         <v>420</v>
       </c>
-      <c r="K100" t="s">
+      <c r="K100" s="4" t="s">
         <v>420</v>
       </c>
       <c r="L100" t="s">
@@ -10427,7 +10427,7 @@
       <c r="Q100" t="s">
         <v>420</v>
       </c>
-      <c r="R100" t="s">
+      <c r="R100" s="4" t="s">
         <v>420</v>
       </c>
       <c r="S100" t="s">
@@ -10442,7 +10442,7 @@
       <c r="V100" t="s">
         <v>420</v>
       </c>
-      <c r="W100" t="s">
+      <c r="W100" s="4" t="s">
         <v>420</v>
       </c>
       <c r="X100" t="s">
@@ -10507,7 +10507,7 @@
       <c r="N101" t="s">
         <v>420</v>
       </c>
-      <c r="O101" t="s">
+      <c r="O101" s="4" t="s">
         <v>420</v>
       </c>
       <c r="P101" t="s">
@@ -10525,7 +10525,7 @@
       <c r="T101" t="s">
         <v>420</v>
       </c>
-      <c r="U101" t="s">
+      <c r="U101" s="4" t="s">
         <v>420</v>
       </c>
       <c r="V101" t="s">
@@ -10575,7 +10575,7 @@
       <c r="G102" t="s">
         <v>420</v>
       </c>
-      <c r="H102" t="s">
+      <c r="H102" s="4" t="s">
         <v>420</v>
       </c>
       <c r="I102" t="s">
@@ -10602,7 +10602,7 @@
       <c r="P102" t="s">
         <v>420</v>
       </c>
-      <c r="Q102" t="s">
+      <c r="Q102" s="4" t="s">
         <v>420</v>
       </c>
       <c r="R102" t="s">
@@ -10614,7 +10614,7 @@
       <c r="T102" t="s">
         <v>420</v>
       </c>
-      <c r="U102" t="s">
+      <c r="U102" s="4" t="s">
         <v>420</v>
       </c>
       <c r="V102" t="s">
@@ -10655,7 +10655,7 @@
       <c r="D103" t="s">
         <v>420</v>
       </c>
-      <c r="E103" t="s">
+      <c r="E103" s="4" t="s">
         <v>420</v>
       </c>
       <c r="F103" t="s">
@@ -10667,7 +10667,7 @@
       <c r="H103" t="s">
         <v>420</v>
       </c>
-      <c r="I103" t="s">
+      <c r="I103" s="4" t="s">
         <v>420</v>
       </c>
       <c r="J103" t="s">
@@ -10697,7 +10697,7 @@
       <c r="R103" t="s">
         <v>420</v>
       </c>
-      <c r="S103" t="s">
+      <c r="S103" s="4" t="s">
         <v>420</v>
       </c>
       <c r="T103" t="s">
@@ -10756,7 +10756,7 @@
       <c r="H104" t="s">
         <v>420</v>
       </c>
-      <c r="I104" t="s">
+      <c r="I104" s="4" t="s">
         <v>420</v>
       </c>
       <c r="J104" t="s">
@@ -10771,7 +10771,7 @@
       <c r="M104" t="s">
         <v>420</v>
       </c>
-      <c r="N104" t="s">
+      <c r="N104" s="4" t="s">
         <v>420</v>
       </c>
       <c r="O104" t="s">
@@ -10780,7 +10780,7 @@
       <c r="P104" t="s">
         <v>420</v>
       </c>
-      <c r="Q104" t="s">
+      <c r="Q104" s="4" t="s">
         <v>420</v>
       </c>
       <c r="R104" t="s">
@@ -10795,7 +10795,7 @@
       <c r="U104" t="s">
         <v>420</v>
       </c>
-      <c r="V104" t="s">
+      <c r="V104" s="4" t="s">
         <v>420</v>
       </c>
       <c r="W104" t="s">
@@ -10813,7 +10813,7 @@
       <c r="AA104" t="s">
         <v>420</v>
       </c>
-      <c r="AB104" t="s">
+      <c r="AB104" s="4" t="s">
         <v>420</v>
       </c>
       <c r="AC104" t="s">
@@ -10833,7 +10833,7 @@
       <c r="D105" t="s">
         <v>420</v>
       </c>
-      <c r="E105" t="s">
+      <c r="E105" s="4" t="s">
         <v>420</v>
       </c>
       <c r="F105" t="s">
@@ -10943,10 +10943,10 @@
       <c r="K106" t="s">
         <v>420</v>
       </c>
-      <c r="L106" t="s">
-        <v>420</v>
-      </c>
-      <c r="M106" t="s">
+      <c r="L106" s="4" t="s">
+        <v>420</v>
+      </c>
+      <c r="M106" s="4" t="s">
         <v>420</v>
       </c>
       <c r="N106" t="s">
@@ -10958,19 +10958,19 @@
       <c r="P106" t="s">
         <v>420</v>
       </c>
-      <c r="Q106" t="s">
+      <c r="Q106" s="4" t="s">
         <v>420</v>
       </c>
       <c r="R106" t="s">
         <v>420</v>
       </c>
-      <c r="S106" t="s">
+      <c r="S106" s="4" t="s">
         <v>420</v>
       </c>
       <c r="T106" t="s">
         <v>420</v>
       </c>
-      <c r="U106" t="s">
+      <c r="U106" s="4" t="s">
         <v>420</v>
       </c>
       <c r="V106" t="s">
@@ -11017,10 +11017,10 @@
       <c r="F107" t="s">
         <v>420</v>
       </c>
-      <c r="G107" t="s">
-        <v>420</v>
-      </c>
-      <c r="H107" t="s">
+      <c r="G107" s="4" t="s">
+        <v>420</v>
+      </c>
+      <c r="H107" s="4" t="s">
         <v>420</v>
       </c>
       <c r="I107" t="s">
@@ -11041,7 +11041,7 @@
       <c r="N107" t="s">
         <v>420</v>
       </c>
-      <c r="O107" t="s">
+      <c r="O107" s="4" t="s">
         <v>420</v>
       </c>
       <c r="P107" t="s">
@@ -11056,7 +11056,7 @@
       <c r="S107" t="s">
         <v>420</v>
       </c>
-      <c r="T107" t="s">
+      <c r="T107" s="4" t="s">
         <v>420</v>
       </c>
       <c r="U107" t="s">
@@ -11074,7 +11074,7 @@
       <c r="Y107" t="s">
         <v>420</v>
       </c>
-      <c r="Z107" t="s">
+      <c r="Z107" s="4" t="s">
         <v>420</v>
       </c>
       <c r="AA107" t="s">
@@ -11115,7 +11115,7 @@
       <c r="I108" t="s">
         <v>420</v>
       </c>
-      <c r="J108" t="s">
+      <c r="J108" s="4" t="s">
         <v>420</v>
       </c>
       <c r="K108" t="s">
@@ -11148,10 +11148,10 @@
       <c r="T108" t="s">
         <v>420</v>
       </c>
-      <c r="U108" t="s">
-        <v>420</v>
-      </c>
-      <c r="V108" t="s">
+      <c r="U108" s="4" t="s">
+        <v>420</v>
+      </c>
+      <c r="V108" s="4" t="s">
         <v>420</v>
       </c>
       <c r="W108" t="s">
@@ -11189,7 +11189,7 @@
       <c r="D109" t="s">
         <v>420</v>
       </c>
-      <c r="E109" t="s">
+      <c r="E109" s="4" t="s">
         <v>420</v>
       </c>
       <c r="F109" t="s">
@@ -11210,7 +11210,7 @@
       <c r="K109" t="s">
         <v>420</v>
       </c>
-      <c r="L109" t="s">
+      <c r="L109" s="4" t="s">
         <v>420</v>
       </c>
       <c r="M109" t="s">
@@ -11240,7 +11240,7 @@
       <c r="U109" t="s">
         <v>420</v>
       </c>
-      <c r="V109" t="s">
+      <c r="V109" s="4" t="s">
         <v>420</v>
       </c>
       <c r="W109" t="s">
@@ -11261,7 +11261,7 @@
       <c r="AB109" t="s">
         <v>420</v>
       </c>
-      <c r="AC109" t="s">
+      <c r="AC109" s="4" t="s">
         <v>420</v>
       </c>
     </row>
@@ -11281,13 +11281,13 @@
       <c r="E110" t="s">
         <v>420</v>
       </c>
-      <c r="F110" t="s">
+      <c r="F110" s="4" t="s">
         <v>420</v>
       </c>
       <c r="G110" t="s">
         <v>420</v>
       </c>
-      <c r="H110" t="s">
+      <c r="H110" s="4" t="s">
         <v>420</v>
       </c>
       <c r="I110" t="s">
@@ -11350,7 +11350,7 @@
       <c r="AB110" t="s">
         <v>420</v>
       </c>
-      <c r="AC110" t="s">
+      <c r="AC110" s="4" t="s">
         <v>420</v>
       </c>
     </row>
@@ -11379,7 +11379,7 @@
       <c r="H111" t="s">
         <v>420</v>
       </c>
-      <c r="I111" t="s">
+      <c r="I111" s="4" t="s">
         <v>420</v>
       </c>
       <c r="J111" t="s">
@@ -11427,7 +11427,7 @@
       <c r="X111" t="s">
         <v>420</v>
       </c>
-      <c r="Y111" t="s">
+      <c r="Y111" s="4" t="s">
         <v>420</v>
       </c>
       <c r="Z111" t="s">
@@ -11459,7 +11459,7 @@
       <c r="E112" t="s">
         <v>420</v>
       </c>
-      <c r="F112" t="s">
+      <c r="F112" s="4" t="s">
         <v>420</v>
       </c>
       <c r="G112" t="s">
@@ -11501,7 +11501,7 @@
       <c r="S112" t="s">
         <v>420</v>
       </c>
-      <c r="T112" t="s">
+      <c r="T112" s="4" t="s">
         <v>420</v>
       </c>
       <c r="U112" t="s">
@@ -11557,7 +11557,7 @@
       <c r="H113" t="s">
         <v>420</v>
       </c>
-      <c r="I113" t="s">
+      <c r="I113" s="4" t="s">
         <v>420</v>
       </c>
       <c r="J113" t="s">
@@ -11602,7 +11602,7 @@
       <c r="W113" t="s">
         <v>420</v>
       </c>
-      <c r="X113" t="s">
+      <c r="X113" s="4" t="s">
         <v>420</v>
       </c>
       <c r="Y113" t="s">
@@ -11676,7 +11676,7 @@
       <c r="R114" t="s">
         <v>420</v>
       </c>
-      <c r="S114" t="s">
+      <c r="S114" s="4" t="s">
         <v>420</v>
       </c>
       <c r="T114" t="s">
@@ -11697,7 +11697,7 @@
       <c r="Y114" t="s">
         <v>420</v>
       </c>
-      <c r="Z114" t="s">
+      <c r="Z114" s="4" t="s">
         <v>420</v>
       </c>
       <c r="AA114" t="s">
@@ -11706,7 +11706,7 @@
       <c r="AB114" t="s">
         <v>420</v>
       </c>
-      <c r="AC114" t="s">
+      <c r="AC114" s="4" t="s">
         <v>420</v>
       </c>
     </row>
@@ -11726,7 +11726,7 @@
       <c r="E115" t="s">
         <v>420</v>
       </c>
-      <c r="F115" t="s">
+      <c r="F115" s="4" t="s">
         <v>420</v>
       </c>
       <c r="G115" t="s">
@@ -11762,7 +11762,7 @@
       <c r="Q115" t="s">
         <v>420</v>
       </c>
-      <c r="R115" t="s">
+      <c r="R115" s="4" t="s">
         <v>420</v>
       </c>
       <c r="S115" t="s">
@@ -11860,7 +11860,7 @@
       <c r="T116" t="s">
         <v>420</v>
       </c>
-      <c r="U116" t="s">
+      <c r="U116" s="4" t="s">
         <v>420</v>
       </c>
       <c r="V116" t="s">
@@ -11881,7 +11881,7 @@
       <c r="AA116" t="s">
         <v>420</v>
       </c>
-      <c r="AB116" t="s">
+      <c r="AB116" s="4" t="s">
         <v>420</v>
       </c>
       <c r="AC116" t="s">
@@ -11946,7 +11946,7 @@
       <c r="S117" t="s">
         <v>420</v>
       </c>
-      <c r="T117" t="s">
+      <c r="T117" s="4" t="s">
         <v>420</v>
       </c>
       <c r="U117" t="s">
@@ -11987,7 +11987,7 @@
       <c r="C118" t="s">
         <v>420</v>
       </c>
-      <c r="D118" t="s">
+      <c r="D118" s="4" t="s">
         <v>420</v>
       </c>
       <c r="E118" t="s">
@@ -12005,7 +12005,7 @@
       <c r="I118" t="s">
         <v>420</v>
       </c>
-      <c r="J118" t="s">
+      <c r="J118" s="4" t="s">
         <v>420</v>
       </c>
       <c r="K118" t="s">
@@ -12056,10 +12056,10 @@
       <c r="Z118" t="s">
         <v>420</v>
       </c>
-      <c r="AA118" t="s">
-        <v>420</v>
-      </c>
-      <c r="AB118" t="s">
+      <c r="AA118" s="4" t="s">
+        <v>420</v>
+      </c>
+      <c r="AB118" s="4" t="s">
         <v>420</v>
       </c>
       <c r="AC118" t="s">
@@ -12139,7 +12139,7 @@
       <c r="X119" t="s">
         <v>420</v>
       </c>
-      <c r="Y119" t="s">
+      <c r="Y119" s="4" t="s">
         <v>420</v>
       </c>
       <c r="Z119" t="s">
@@ -12162,10 +12162,10 @@
       <c r="B120" t="s">
         <v>420</v>
       </c>
-      <c r="C120" t="s">
-        <v>420</v>
-      </c>
-      <c r="D120" t="s">
+      <c r="C120" s="4" t="s">
+        <v>420</v>
+      </c>
+      <c r="D120" s="4" t="s">
         <v>420</v>
       </c>
       <c r="E120" t="s">
@@ -12186,7 +12186,7 @@
       <c r="J120" t="s">
         <v>420</v>
       </c>
-      <c r="K120" t="s">
+      <c r="K120" s="4" t="s">
         <v>420</v>
       </c>
       <c r="L120" t="s">
@@ -12207,10 +12207,10 @@
       <c r="Q120" t="s">
         <v>420</v>
       </c>
-      <c r="R120" t="s">
-        <v>420</v>
-      </c>
-      <c r="S120" t="s">
+      <c r="R120" s="4" t="s">
+        <v>420</v>
+      </c>
+      <c r="S120" s="4" t="s">
         <v>420</v>
       </c>
       <c r="T120" t="s">
@@ -12272,19 +12272,19 @@
       <c r="I121" t="s">
         <v>420</v>
       </c>
-      <c r="J121" t="s">
+      <c r="J121" s="4" t="s">
         <v>420</v>
       </c>
       <c r="K121" t="s">
         <v>420</v>
       </c>
-      <c r="L121" t="s">
+      <c r="L121" s="4" t="s">
         <v>420</v>
       </c>
       <c r="M121" t="s">
         <v>420</v>
       </c>
-      <c r="N121" t="s">
+      <c r="N121" s="4" t="s">
         <v>420</v>
       </c>
       <c r="O121" t="s">
@@ -12302,7 +12302,7 @@
       <c r="S121" t="s">
         <v>420</v>
       </c>
-      <c r="T121" t="s">
+      <c r="T121" s="4" t="s">
         <v>420</v>
       </c>
       <c r="U121" t="s">
@@ -12358,7 +12358,7 @@
       <c r="H122" t="s">
         <v>420</v>
       </c>
-      <c r="I122" t="s">
+      <c r="I122" s="4" t="s">
         <v>420</v>
       </c>
       <c r="J122" t="s">
@@ -12382,7 +12382,7 @@
       <c r="P122" t="s">
         <v>420</v>
       </c>
-      <c r="Q122" t="s">
+      <c r="Q122" s="4" t="s">
         <v>420</v>
       </c>
       <c r="R122" t="s">
@@ -12397,10 +12397,10 @@
       <c r="U122" t="s">
         <v>420</v>
       </c>
-      <c r="V122" t="s">
-        <v>420</v>
-      </c>
-      <c r="W122" t="s">
+      <c r="V122" s="4" t="s">
+        <v>420</v>
+      </c>
+      <c r="W122" s="4" t="s">
         <v>420</v>
       </c>
       <c r="X122" t="s">
@@ -12412,7 +12412,7 @@
       <c r="Z122" t="s">
         <v>420</v>
       </c>
-      <c r="AA122" t="s">
+      <c r="AA122" s="4" t="s">
         <v>420</v>
       </c>
       <c r="AB122" t="s">
@@ -12435,7 +12435,7 @@
       <c r="D123" t="s">
         <v>420</v>
       </c>
-      <c r="E123" t="s">
+      <c r="E123" s="4" t="s">
         <v>420</v>
       </c>
       <c r="F123" t="s">
@@ -12474,19 +12474,19 @@
       <c r="Q123" t="s">
         <v>420</v>
       </c>
-      <c r="R123" t="s">
+      <c r="R123" s="4" t="s">
         <v>420</v>
       </c>
       <c r="S123" t="s">
         <v>420</v>
       </c>
-      <c r="T123" t="s">
+      <c r="T123" s="4" t="s">
         <v>420</v>
       </c>
       <c r="U123" t="s">
         <v>420</v>
       </c>
-      <c r="V123" t="s">
+      <c r="V123" s="4" t="s">
         <v>420</v>
       </c>
       <c r="W123" t="s">
@@ -12527,7 +12527,7 @@
       <c r="E124" t="s">
         <v>420</v>
       </c>
-      <c r="F124" t="s">
+      <c r="F124" s="4" t="s">
         <v>420</v>
       </c>
       <c r="G124" t="s">
@@ -12548,10 +12548,10 @@
       <c r="L124" t="s">
         <v>420</v>
       </c>
-      <c r="M124" t="s">
-        <v>420</v>
-      </c>
-      <c r="N124" t="s">
+      <c r="M124" s="4" t="s">
+        <v>420</v>
+      </c>
+      <c r="N124" s="4" t="s">
         <v>420</v>
       </c>
       <c r="O124" t="s">
@@ -12584,7 +12584,7 @@
       <c r="X124" t="s">
         <v>420</v>
       </c>
-      <c r="Y124" t="s">
+      <c r="Y124" s="4" t="s">
         <v>420</v>
       </c>
       <c r="Z124" t="s">
@@ -12604,13 +12604,13 @@
       <c r="A125" t="s">
         <v>123</v>
       </c>
-      <c r="B125" t="s">
+      <c r="B125" s="4" t="s">
         <v>420</v>
       </c>
       <c r="C125" t="s">
         <v>420</v>
       </c>
-      <c r="D125" t="s">
+      <c r="D125" s="4" t="s">
         <v>420</v>
       </c>
       <c r="E125" t="s">
@@ -12670,7 +12670,7 @@
       <c r="W125" t="s">
         <v>420</v>
       </c>
-      <c r="X125" t="s">
+      <c r="X125" s="4" t="s">
         <v>420</v>
       </c>
       <c r="Y125" t="s">
@@ -12679,10 +12679,10 @@
       <c r="Z125" t="s">
         <v>420</v>
       </c>
-      <c r="AA125" t="s">
-        <v>420</v>
-      </c>
-      <c r="AB125" t="s">
+      <c r="AA125" s="4" t="s">
+        <v>420</v>
+      </c>
+      <c r="AB125" s="4" t="s">
         <v>420</v>
       </c>
       <c r="AC125" t="s">
@@ -12696,7 +12696,7 @@
       <c r="B126" t="s">
         <v>420</v>
       </c>
-      <c r="C126" t="s">
+      <c r="C126" s="4" t="s">
         <v>420</v>
       </c>
       <c r="D126" t="s">
@@ -12705,7 +12705,7 @@
       <c r="E126" t="s">
         <v>420</v>
       </c>
-      <c r="F126" t="s">
+      <c r="F126" s="4" t="s">
         <v>420</v>
       </c>
       <c r="G126" t="s">
@@ -12720,10 +12720,10 @@
       <c r="J126" t="s">
         <v>420</v>
       </c>
-      <c r="K126" t="s">
-        <v>420</v>
-      </c>
-      <c r="L126" t="s">
+      <c r="K126" s="4" t="s">
+        <v>420</v>
+      </c>
+      <c r="L126" s="4" t="s">
         <v>420</v>
       </c>
       <c r="M126" t="s">
@@ -12759,7 +12759,7 @@
       <c r="W126" t="s">
         <v>420</v>
       </c>
-      <c r="X126" t="s">
+      <c r="X126" s="4" t="s">
         <v>420</v>
       </c>
       <c r="Y126" t="s">
@@ -12791,7 +12791,7 @@
       <c r="D127" t="s">
         <v>420</v>
       </c>
-      <c r="E127" t="s">
+      <c r="E127" s="4" t="s">
         <v>420</v>
       </c>
       <c r="F127" t="s">
@@ -12809,7 +12809,7 @@
       <c r="J127" t="s">
         <v>420</v>
       </c>
-      <c r="K127" t="s">
+      <c r="K127" s="4" t="s">
         <v>420</v>
       </c>
       <c r="L127" t="s">
@@ -12839,10 +12839,10 @@
       <c r="T127" t="s">
         <v>420</v>
       </c>
-      <c r="U127" t="s">
-        <v>420</v>
-      </c>
-      <c r="V127" t="s">
+      <c r="U127" s="4" t="s">
+        <v>420</v>
+      </c>
+      <c r="V127" s="4" t="s">
         <v>420</v>
       </c>
       <c r="W127" t="s">
@@ -12851,7 +12851,7 @@
       <c r="X127" t="s">
         <v>420</v>
       </c>
-      <c r="Y127" t="s">
+      <c r="Y127" s="4" t="s">
         <v>420</v>
       </c>
       <c r="Z127" t="s">
@@ -12874,7 +12874,7 @@
       <c r="B128" t="s">
         <v>420</v>
       </c>
-      <c r="C128" t="s">
+      <c r="C128" s="4" t="s">
         <v>420</v>
       </c>
       <c r="D128" t="s">
@@ -12919,7 +12919,7 @@
       <c r="Q128" t="s">
         <v>420</v>
       </c>
-      <c r="R128" t="s">
+      <c r="R128" s="4" t="s">
         <v>420</v>
       </c>
       <c r="S128" t="s">
@@ -12934,10 +12934,10 @@
       <c r="V128" t="s">
         <v>420</v>
       </c>
-      <c r="W128" t="s">
-        <v>420</v>
-      </c>
-      <c r="X128" t="s">
+      <c r="W128" s="4" t="s">
+        <v>420</v>
+      </c>
+      <c r="X128" s="4" t="s">
         <v>420</v>
       </c>
       <c r="Y128" t="s">
@@ -12978,7 +12978,7 @@
       <c r="G129" t="s">
         <v>420</v>
       </c>
-      <c r="H129" t="s">
+      <c r="H129" s="4" t="s">
         <v>420</v>
       </c>
       <c r="I129" t="s">
@@ -13014,7 +13014,7 @@
       <c r="S129" t="s">
         <v>420</v>
       </c>
-      <c r="T129" t="s">
+      <c r="T129" s="4" t="s">
         <v>420</v>
       </c>
       <c r="U129" t="s">
@@ -13032,7 +13032,7 @@
       <c r="Y129" t="s">
         <v>420</v>
       </c>
-      <c r="Z129" t="s">
+      <c r="Z129" s="4" t="s">
         <v>420</v>
       </c>
       <c r="AA129" t="s">
@@ -13058,13 +13058,13 @@
       <c r="D130" t="s">
         <v>420</v>
       </c>
-      <c r="E130" t="s">
+      <c r="E130" s="4" t="s">
         <v>420</v>
       </c>
       <c r="F130" t="s">
         <v>420</v>
       </c>
-      <c r="G130" t="s">
+      <c r="G130" s="4" t="s">
         <v>420</v>
       </c>
       <c r="H130" t="s">
@@ -13085,7 +13085,7 @@
       <c r="M130" t="s">
         <v>420</v>
       </c>
-      <c r="N130" t="s">
+      <c r="N130" s="4" t="s">
         <v>420</v>
       </c>
       <c r="O130" t="s">
@@ -13109,7 +13109,7 @@
       <c r="U130" t="s">
         <v>420</v>
       </c>
-      <c r="V130" t="s">
+      <c r="V130" s="4" t="s">
         <v>420</v>
       </c>
       <c r="W130" t="s">
@@ -13138,7 +13138,7 @@
       <c r="A131" t="s">
         <v>129</v>
       </c>
-      <c r="B131" t="s">
+      <c r="B131" s="4" t="s">
         <v>420</v>
       </c>
       <c r="C131" t="s">
@@ -13150,7 +13150,7 @@
       <c r="E131" t="s">
         <v>420</v>
       </c>
-      <c r="F131" t="s">
+      <c r="F131" s="4" t="s">
         <v>420</v>
       </c>
       <c r="G131" t="s">
@@ -13174,13 +13174,13 @@
       <c r="M131" t="s">
         <v>420</v>
       </c>
-      <c r="N131" t="s">
-        <v>420</v>
-      </c>
-      <c r="O131" t="s">
-        <v>420</v>
-      </c>
-      <c r="P131" t="s">
+      <c r="N131" s="4" t="s">
+        <v>420</v>
+      </c>
+      <c r="O131" s="4" t="s">
+        <v>420</v>
+      </c>
+      <c r="P131" s="4" t="s">
         <v>420</v>
       </c>
       <c r="Q131" t="s">
@@ -13254,7 +13254,7 @@
       <c r="J132" t="s">
         <v>420</v>
       </c>
-      <c r="K132" t="s">
+      <c r="K132" s="4" t="s">
         <v>420</v>
       </c>
       <c r="L132" t="s">
@@ -13281,7 +13281,7 @@
       <c r="S132" t="s">
         <v>420</v>
       </c>
-      <c r="T132" t="s">
+      <c r="T132" s="4" t="s">
         <v>420</v>
       </c>
       <c r="U132" t="s">
@@ -13293,7 +13293,7 @@
       <c r="W132" t="s">
         <v>420</v>
       </c>
-      <c r="X132" t="s">
+      <c r="X132" s="4" t="s">
         <v>420</v>
       </c>
       <c r="Y132" t="s">
@@ -13328,7 +13328,7 @@
       <c r="E133" t="s">
         <v>420</v>
       </c>
-      <c r="F133" t="s">
+      <c r="F133" s="4" t="s">
         <v>420</v>
       </c>
       <c r="G133" t="s">
@@ -13349,7 +13349,7 @@
       <c r="L133" t="s">
         <v>420</v>
       </c>
-      <c r="M133" t="s">
+      <c r="M133" s="4" t="s">
         <v>420</v>
       </c>
       <c r="N133" t="s">
@@ -13358,7 +13358,7 @@
       <c r="O133" t="s">
         <v>420</v>
       </c>
-      <c r="P133" t="s">
+      <c r="P133" s="4" t="s">
         <v>420</v>
       </c>
       <c r="Q133" t="s">
@@ -13423,7 +13423,7 @@
       <c r="G134" t="s">
         <v>420</v>
       </c>
-      <c r="H134" t="s">
+      <c r="H134" s="4" t="s">
         <v>420</v>
       </c>
       <c r="I134" t="s">
@@ -13506,7 +13506,7 @@
       <c r="E135" t="s">
         <v>420</v>
       </c>
-      <c r="F135" t="s">
+      <c r="F135" s="4" t="s">
         <v>420</v>
       </c>
       <c r="G135" t="s">
@@ -13545,10 +13545,10 @@
       <c r="R135" t="s">
         <v>420</v>
       </c>
-      <c r="S135" t="s">
-        <v>420</v>
-      </c>
-      <c r="T135" t="s">
+      <c r="S135" s="4" t="s">
+        <v>420</v>
+      </c>
+      <c r="T135" s="4" t="s">
         <v>420</v>
       </c>
       <c r="U135" t="s">
@@ -13583,7 +13583,7 @@
       <c r="A136" t="s">
         <v>134</v>
       </c>
-      <c r="B136" t="s">
+      <c r="B136" s="4" t="s">
         <v>420</v>
       </c>
       <c r="C136" t="s">
@@ -13616,10 +13616,10 @@
       <c r="L136" t="s">
         <v>420</v>
       </c>
-      <c r="M136" t="s">
-        <v>420</v>
-      </c>
-      <c r="N136" t="s">
+      <c r="M136" s="4" t="s">
+        <v>420</v>
+      </c>
+      <c r="N136" s="4" t="s">
         <v>420</v>
       </c>
       <c r="O136" t="s">
@@ -13628,7 +13628,7 @@
       <c r="P136" t="s">
         <v>420</v>
       </c>
-      <c r="Q136" t="s">
+      <c r="Q136" s="4" t="s">
         <v>420</v>
       </c>
       <c r="R136" t="s">
@@ -13637,7 +13637,7 @@
       <c r="S136" t="s">
         <v>420</v>
       </c>
-      <c r="T136" t="s">
+      <c r="T136" s="4" t="s">
         <v>420</v>
       </c>
       <c r="U136" t="s">
@@ -13675,7 +13675,7 @@
       <c r="B137" t="s">
         <v>420</v>
       </c>
-      <c r="C137" t="s">
+      <c r="C137" s="4" t="s">
         <v>420</v>
       </c>
       <c r="D137" t="s">
@@ -13690,13 +13690,13 @@
       <c r="G137" t="s">
         <v>420</v>
       </c>
-      <c r="H137" t="s">
-        <v>420</v>
-      </c>
-      <c r="I137" t="s">
-        <v>420</v>
-      </c>
-      <c r="J137" t="s">
+      <c r="H137" s="4" t="s">
+        <v>420</v>
+      </c>
+      <c r="I137" s="4" t="s">
+        <v>420</v>
+      </c>
+      <c r="J137" s="4" t="s">
         <v>420</v>
       </c>
       <c r="K137" t="s">
@@ -13750,7 +13750,7 @@
       <c r="AA137" t="s">
         <v>420</v>
       </c>
-      <c r="AB137" t="s">
+      <c r="AB137" s="4" t="s">
         <v>420</v>
       </c>
       <c r="AC137" t="s">
@@ -13767,7 +13767,7 @@
       <c r="C138" t="s">
         <v>420</v>
       </c>
-      <c r="D138" t="s">
+      <c r="D138" s="4" t="s">
         <v>420</v>
       </c>
       <c r="E138" t="s">
@@ -13785,7 +13785,7 @@
       <c r="I138" t="s">
         <v>420</v>
       </c>
-      <c r="J138" t="s">
+      <c r="J138" s="4" t="s">
         <v>420</v>
       </c>
       <c r="K138" t="s">
@@ -13821,7 +13821,7 @@
       <c r="U138" t="s">
         <v>420</v>
       </c>
-      <c r="V138" t="s">
+      <c r="V138" s="4" t="s">
         <v>420</v>
       </c>
       <c r="W138" t="s">
@@ -13839,7 +13839,7 @@
       <c r="AA138" t="s">
         <v>420</v>
       </c>
-      <c r="AB138" t="s">
+      <c r="AB138" s="4" t="s">
         <v>420</v>
       </c>
       <c r="AC138" t="s">
@@ -41296,7 +41296,7 @@
         <v>0</v>
       </c>
       <c r="D5" t="s">
-        <v>460</v>
+        <v>462</v>
       </c>
     </row>
     <row r="6">
@@ -41304,7 +41304,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
       <c r="C6" t="b">
         <v>0</v>
@@ -41318,13 +41318,13 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
       <c r="C7" t="b">
         <v>0</v>
       </c>
       <c r="D7" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
     </row>
     <row r="8">
@@ -41332,13 +41332,13 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
       <c r="C8" t="b">
         <v>0</v>
       </c>
       <c r="D8" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
     </row>
     <row r="9">
@@ -41374,13 +41374,13 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
       <c r="C11" t="b">
         <v>0</v>
       </c>
       <c r="D11" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
     </row>
     <row r="12">
@@ -41388,7 +41388,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>459</v>
+        <v>461</v>
       </c>
       <c r="C12" t="b">
         <v>0</v>
@@ -41402,13 +41402,13 @@
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
       <c r="C13" t="b">
         <v>0</v>
       </c>
       <c r="D13" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
     </row>
     <row r="14">
@@ -41416,13 +41416,13 @@
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
       <c r="C14" t="b">
         <v>0</v>
       </c>
       <c r="D14" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
     </row>
     <row r="15">
@@ -41430,13 +41430,13 @@
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
       <c r="C15" t="b">
         <v>0</v>
       </c>
       <c r="D15" t="s">
-        <v>460</v>
+        <v>462</v>
       </c>
     </row>
     <row r="16">
@@ -41444,7 +41444,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
       <c r="C16" t="b">
         <v>0</v>
@@ -41458,13 +41458,13 @@
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
       <c r="C17" t="b">
         <v>0</v>
       </c>
       <c r="D17" t="s">
-        <v>460</v>
+        <v>462</v>
       </c>
     </row>
     <row r="18">
@@ -41472,13 +41472,13 @@
         <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
       <c r="C18" t="b">
         <v>0</v>
       </c>
       <c r="D18" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
     </row>
     <row r="19">
@@ -41492,7 +41492,7 @@
         <v>0</v>
       </c>
       <c r="D19" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
     </row>
     <row r="20">
@@ -41500,13 +41500,13 @@
         <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
       <c r="C20" t="b">
         <v>0</v>
       </c>
       <c r="D20" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
     </row>
     <row r="21">
@@ -41528,13 +41528,13 @@
         <v>20</v>
       </c>
       <c r="B22" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
       <c r="C22" t="b">
         <v>0</v>
       </c>
       <c r="D22" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
     </row>
     <row r="23">
@@ -41548,7 +41548,7 @@
         <v>0</v>
       </c>
       <c r="D23" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
     </row>
     <row r="24">
@@ -41556,13 +41556,13 @@
         <v>22</v>
       </c>
       <c r="B24" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="C24" t="b">
         <v>0</v>
       </c>
       <c r="D24" t="s">
-        <v>460</v>
+        <v>462</v>
       </c>
     </row>
     <row r="25">
@@ -41576,7 +41576,7 @@
         <v>0</v>
       </c>
       <c r="D25" t="s">
-        <v>460</v>
+        <v>462</v>
       </c>
     </row>
     <row r="26">
@@ -41604,7 +41604,7 @@
         <v>0</v>
       </c>
       <c r="D27" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
     </row>
     <row r="28">
@@ -41612,7 +41612,7 @@
         <v>26</v>
       </c>
       <c r="B28" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="C28" t="b">
         <v>0</v>
@@ -41632,7 +41632,7 @@
         <v>0</v>
       </c>
       <c r="D29" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
     </row>
     <row r="30">
@@ -41646,7 +41646,7 @@
         <v>0</v>
       </c>
       <c r="D30" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
     </row>
     <row r="31">
@@ -41654,7 +41654,7 @@
         <v>29</v>
       </c>
       <c r="B31" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="C31" t="b">
         <v>0</v>
@@ -41668,7 +41668,7 @@
         <v>30</v>
       </c>
       <c r="B32" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="C32" t="b">
         <v>0</v>
@@ -41682,13 +41682,13 @@
         <v>31</v>
       </c>
       <c r="B33" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="C33" t="b">
         <v>0</v>
       </c>
       <c r="D33" t="s">
-        <v>460</v>
+        <v>462</v>
       </c>
     </row>
     <row r="34">
@@ -41702,7 +41702,7 @@
         <v>0</v>
       </c>
       <c r="D34" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
     </row>
     <row r="35">
@@ -41716,7 +41716,7 @@
         <v>0</v>
       </c>
       <c r="D35" t="s">
-        <v>460</v>
+        <v>462</v>
       </c>
     </row>
     <row r="36">
@@ -41724,13 +41724,13 @@
         <v>34</v>
       </c>
       <c r="B36" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="C36" t="b">
         <v>0</v>
       </c>
       <c r="D36" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
     </row>
     <row r="37">
@@ -41738,13 +41738,13 @@
         <v>35</v>
       </c>
       <c r="B37" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="C37" t="b">
         <v>0</v>
       </c>
       <c r="D37" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
     </row>
     <row r="38">
@@ -41772,7 +41772,7 @@
         <v>0</v>
       </c>
       <c r="D39" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
     </row>
     <row r="40">
@@ -41794,13 +41794,13 @@
         <v>39</v>
       </c>
       <c r="B41" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="C41" t="b">
         <v>0</v>
       </c>
       <c r="D41" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
     </row>
     <row r="42">
@@ -41808,7 +41808,7 @@
         <v>40</v>
       </c>
       <c r="B42" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="C42" t="b">
         <v>0</v>
@@ -41822,13 +41822,13 @@
         <v>41</v>
       </c>
       <c r="B43" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="C43" t="b">
         <v>0</v>
       </c>
       <c r="D43" t="s">
-        <v>460</v>
+        <v>462</v>
       </c>
     </row>
     <row r="44">
@@ -41836,7 +41836,7 @@
         <v>42</v>
       </c>
       <c r="B44" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="C44" t="b">
         <v>0</v>
@@ -41850,13 +41850,13 @@
         <v>43</v>
       </c>
       <c r="B45" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="C45" t="b">
         <v>0</v>
       </c>
       <c r="D45" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
     </row>
     <row r="46">
@@ -41870,7 +41870,7 @@
         <v>0</v>
       </c>
       <c r="D46" t="s">
-        <v>460</v>
+        <v>462</v>
       </c>
     </row>
     <row r="47">
@@ -41884,7 +41884,7 @@
         <v>0</v>
       </c>
       <c r="D47" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
     </row>
     <row r="48">
@@ -41906,13 +41906,13 @@
         <v>47</v>
       </c>
       <c r="B49" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="C49" t="b">
         <v>0</v>
       </c>
       <c r="D49" t="s">
-        <v>460</v>
+        <v>462</v>
       </c>
     </row>
     <row r="50">
@@ -41920,7 +41920,7 @@
         <v>48</v>
       </c>
       <c r="B50" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="C50" t="b">
         <v>0</v>
@@ -41954,7 +41954,7 @@
         <v>0</v>
       </c>
       <c r="D52" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
     </row>
     <row r="53">
@@ -41982,7 +41982,7 @@
         <v>0</v>
       </c>
       <c r="D54" t="s">
-        <v>460</v>
+        <v>462</v>
       </c>
     </row>
     <row r="55">
@@ -41990,7 +41990,7 @@
         <v>53</v>
       </c>
       <c r="B55" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="C55" t="b">
         <v>0</v>
@@ -42004,13 +42004,13 @@
         <v>54</v>
       </c>
       <c r="B56" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="C56" t="b">
         <v>0</v>
       </c>
       <c r="D56" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
     </row>
     <row r="57">
@@ -42018,7 +42018,7 @@
         <v>55</v>
       </c>
       <c r="B57" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="C57" t="b">
         <v>0</v>
@@ -42038,7 +42038,7 @@
         <v>0</v>
       </c>
       <c r="D58" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
     </row>
     <row r="59">
@@ -42052,7 +42052,7 @@
         <v>0</v>
       </c>
       <c r="D59" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
     </row>
     <row r="60">
@@ -42060,7 +42060,7 @@
         <v>58</v>
       </c>
       <c r="B60" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="C60" t="b">
         <v>0</v>
@@ -42080,7 +42080,7 @@
         <v>0</v>
       </c>
       <c r="D61" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
     </row>
     <row r="62">
@@ -42088,13 +42088,13 @@
         <v>60</v>
       </c>
       <c r="B62" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="C62" t="b">
         <v>0</v>
       </c>
       <c r="D62" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
     </row>
     <row r="63">
@@ -42102,13 +42102,13 @@
         <v>61</v>
       </c>
       <c r="B63" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="C63" t="b">
         <v>0</v>
       </c>
       <c r="D63" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
     </row>
     <row r="64">
@@ -42116,7 +42116,7 @@
         <v>62</v>
       </c>
       <c r="B64" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="C64" t="b">
         <v>0</v>
@@ -42130,7 +42130,7 @@
         <v>63</v>
       </c>
       <c r="B65" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="C65" t="b">
         <v>0</v>
@@ -42158,7 +42158,7 @@
         <v>65</v>
       </c>
       <c r="B67" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="C67" t="b">
         <v>0</v>
@@ -42172,7 +42172,7 @@
         <v>66</v>
       </c>
       <c r="B68" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="C68" t="b">
         <v>0</v>
@@ -42186,7 +42186,7 @@
         <v>67</v>
       </c>
       <c r="B69" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="C69" t="b">
         <v>0</v>
@@ -42200,7 +42200,7 @@
         <v>68</v>
       </c>
       <c r="B70" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="C70" t="b">
         <v>0</v>
@@ -42220,7 +42220,7 @@
         <v>0</v>
       </c>
       <c r="D71" t="s">
-        <v>460</v>
+        <v>462</v>
       </c>
     </row>
     <row r="72">
@@ -42228,7 +42228,7 @@
         <v>70</v>
       </c>
       <c r="B72" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="C72" t="b">
         <v>0</v>
@@ -42242,7 +42242,7 @@
         <v>71</v>
       </c>
       <c r="B73" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="C73" t="b">
         <v>0</v>
@@ -42284,7 +42284,7 @@
         <v>74</v>
       </c>
       <c r="B76" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="C76" t="b">
         <v>0</v>
@@ -42298,7 +42298,7 @@
         <v>75</v>
       </c>
       <c r="B77" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="C77" t="b">
         <v>0</v>
@@ -42312,13 +42312,13 @@
         <v>76</v>
       </c>
       <c r="B78" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="C78" t="b">
         <v>0</v>
       </c>
       <c r="D78" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
     </row>
     <row r="79">
@@ -42326,7 +42326,7 @@
         <v>77</v>
       </c>
       <c r="B79" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="C79" t="b">
         <v>0</v>
@@ -42340,7 +42340,7 @@
         <v>78</v>
       </c>
       <c r="B80" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="C80" t="b">
         <v>0</v>
@@ -42354,7 +42354,7 @@
         <v>79</v>
       </c>
       <c r="B81" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="C81" t="b">
         <v>0</v>
@@ -42374,7 +42374,7 @@
         <v>0</v>
       </c>
       <c r="D82" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
     </row>
     <row r="83">
@@ -42396,13 +42396,13 @@
         <v>82</v>
       </c>
       <c r="B84" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="C84" t="b">
         <v>0</v>
       </c>
       <c r="D84" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
     </row>
     <row r="85">
@@ -42410,13 +42410,13 @@
         <v>83</v>
       </c>
       <c r="B85" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="C85" t="b">
         <v>0</v>
       </c>
       <c r="D85" t="s">
-        <v>460</v>
+        <v>462</v>
       </c>
     </row>
     <row r="86">
@@ -42424,7 +42424,7 @@
         <v>84</v>
       </c>
       <c r="B86" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="C86" t="b">
         <v>0</v>
@@ -42438,13 +42438,13 @@
         <v>85</v>
       </c>
       <c r="B87" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="C87" t="b">
         <v>0</v>
       </c>
       <c r="D87" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
     </row>
     <row r="88">
@@ -42466,7 +42466,7 @@
         <v>87</v>
       </c>
       <c r="B89" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="C89" t="b">
         <v>0</v>
@@ -42480,7 +42480,7 @@
         <v>88</v>
       </c>
       <c r="B90" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="C90" t="b">
         <v>0</v>
@@ -42494,7 +42494,7 @@
         <v>89</v>
       </c>
       <c r="B91" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="C91" t="b">
         <v>0</v>
@@ -42514,7 +42514,7 @@
         <v>0</v>
       </c>
       <c r="D92" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
     </row>
     <row r="93">
@@ -42522,7 +42522,7 @@
         <v>91</v>
       </c>
       <c r="B93" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="C93" t="b">
         <v>0</v>
@@ -42542,7 +42542,7 @@
         <v>0</v>
       </c>
       <c r="D94" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
     </row>
     <row r="95">
@@ -42564,13 +42564,13 @@
         <v>94</v>
       </c>
       <c r="B96" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="C96" t="b">
         <v>0</v>
       </c>
       <c r="D96" t="s">
-        <v>460</v>
+        <v>462</v>
       </c>
     </row>
     <row r="97">
@@ -42578,13 +42578,13 @@
         <v>95</v>
       </c>
       <c r="B97" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="C97" t="b">
         <v>0</v>
       </c>
       <c r="D97" t="s">
-        <v>460</v>
+        <v>462</v>
       </c>
     </row>
     <row r="98">
@@ -42592,7 +42592,7 @@
         <v>96</v>
       </c>
       <c r="B98" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="C98" t="b">
         <v>0</v>
@@ -42606,13 +42606,13 @@
         <v>97</v>
       </c>
       <c r="B99" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="C99" t="b">
         <v>0</v>
       </c>
       <c r="D99" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
     </row>
     <row r="100">
@@ -42620,7 +42620,7 @@
         <v>98</v>
       </c>
       <c r="B100" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="C100" t="b">
         <v>0</v>
@@ -42640,7 +42640,7 @@
         <v>0</v>
       </c>
       <c r="D101" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
     </row>
     <row r="102">
@@ -42662,7 +42662,7 @@
         <v>101</v>
       </c>
       <c r="B103" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="C103" t="b">
         <v>0</v>
@@ -42676,13 +42676,13 @@
         <v>102</v>
       </c>
       <c r="B104" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="C104" t="b">
         <v>0</v>
       </c>
       <c r="D104" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
     </row>
     <row r="105">
@@ -42724,7 +42724,7 @@
         <v>0</v>
       </c>
       <c r="D107" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
     </row>
     <row r="108">
@@ -42732,13 +42732,13 @@
         <v>106</v>
       </c>
       <c r="B108" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="C108" t="b">
         <v>0</v>
       </c>
       <c r="D108" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
     </row>
     <row r="109">
@@ -42746,13 +42746,13 @@
         <v>107</v>
       </c>
       <c r="B109" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="C109" t="b">
         <v>0</v>
       </c>
       <c r="D109" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
     </row>
     <row r="110">
@@ -42760,13 +42760,13 @@
         <v>108</v>
       </c>
       <c r="B110" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="C110" t="b">
         <v>0</v>
       </c>
       <c r="D110" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
     </row>
     <row r="111">
@@ -42780,7 +42780,7 @@
         <v>0</v>
       </c>
       <c r="D111" t="s">
-        <v>460</v>
+        <v>462</v>
       </c>
     </row>
     <row r="112">
@@ -42788,13 +42788,13 @@
         <v>110</v>
       </c>
       <c r="B112" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="C112" t="b">
         <v>0</v>
       </c>
       <c r="D112" t="s">
-        <v>460</v>
+        <v>462</v>
       </c>
     </row>
     <row r="113">
@@ -42822,7 +42822,7 @@
         <v>0</v>
       </c>
       <c r="D114" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
     </row>
     <row r="115">
@@ -42830,13 +42830,13 @@
         <v>113</v>
       </c>
       <c r="B115" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="C115" t="b">
         <v>0</v>
       </c>
       <c r="D115" t="s">
-        <v>460</v>
+        <v>462</v>
       </c>
     </row>
     <row r="116">
@@ -42858,13 +42858,13 @@
         <v>115</v>
       </c>
       <c r="B117" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="C117" t="b">
         <v>0</v>
       </c>
       <c r="D117" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
     </row>
     <row r="118">
@@ -42872,7 +42872,7 @@
         <v>116</v>
       </c>
       <c r="B118" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="C118" t="b">
         <v>0</v>
@@ -42900,13 +42900,13 @@
         <v>118</v>
       </c>
       <c r="B120" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="C120" t="b">
         <v>0</v>
       </c>
       <c r="D120" t="s">
-        <v>460</v>
+        <v>462</v>
       </c>
     </row>
     <row r="121">
@@ -42928,13 +42928,13 @@
         <v>120</v>
       </c>
       <c r="B122" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="C122" t="b">
         <v>0</v>
       </c>
       <c r="D122" t="s">
-        <v>460</v>
+        <v>462</v>
       </c>
     </row>
     <row r="123">
@@ -42942,7 +42942,7 @@
         <v>121</v>
       </c>
       <c r="B123" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="C123" t="b">
         <v>0</v>
@@ -42962,7 +42962,7 @@
         <v>0</v>
       </c>
       <c r="D124" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
     </row>
     <row r="125">
@@ -42976,7 +42976,7 @@
         <v>0</v>
       </c>
       <c r="D125" t="s">
-        <v>460</v>
+        <v>462</v>
       </c>
     </row>
     <row r="126">
@@ -42984,13 +42984,13 @@
         <v>124</v>
       </c>
       <c r="B126" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="C126" t="b">
         <v>0</v>
       </c>
       <c r="D126" t="s">
-        <v>460</v>
+        <v>462</v>
       </c>
     </row>
     <row r="127">
@@ -42998,13 +42998,13 @@
         <v>125</v>
       </c>
       <c r="B127" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="C127" t="b">
         <v>0</v>
       </c>
       <c r="D127" t="s">
-        <v>460</v>
+        <v>462</v>
       </c>
     </row>
     <row r="128">
@@ -43046,7 +43046,7 @@
         <v>0</v>
       </c>
       <c r="D130" t="s">
-        <v>460</v>
+        <v>462</v>
       </c>
     </row>
     <row r="131">
@@ -43068,13 +43068,13 @@
         <v>130</v>
       </c>
       <c r="B132" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="C132" t="b">
         <v>0</v>
       </c>
       <c r="D132" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
     </row>
     <row r="133">
@@ -43082,13 +43082,13 @@
         <v>131</v>
       </c>
       <c r="B133" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="C133" t="b">
         <v>0</v>
       </c>
       <c r="D133" t="s">
-        <v>460</v>
+        <v>462</v>
       </c>
     </row>
     <row r="134">
@@ -43116,7 +43116,7 @@
         <v>0</v>
       </c>
       <c r="D135" t="s">
-        <v>460</v>
+        <v>462</v>
       </c>
     </row>
     <row r="136">
@@ -43124,7 +43124,7 @@
         <v>134</v>
       </c>
       <c r="B136" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="C136" t="b">
         <v>0</v>
@@ -43138,13 +43138,13 @@
         <v>135</v>
       </c>
       <c r="B137" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="C137" t="b">
         <v>0</v>
       </c>
       <c r="D137" t="s">
-        <v>460</v>
+        <v>462</v>
       </c>
     </row>
     <row r="138">
@@ -43158,7 +43158,7 @@
         <v>0</v>
       </c>
       <c r="D138" t="s">
-        <v>460</v>
+        <v>462</v>
       </c>
     </row>
     <row r="139">
@@ -43172,7 +43172,7 @@
         <v>1</v>
       </c>
       <c r="D139" t="s">
-        <v>460</v>
+        <v>462</v>
       </c>
     </row>
     <row r="140">
@@ -43186,7 +43186,7 @@
         <v>1</v>
       </c>
       <c r="D140" t="s">
-        <v>460</v>
+        <v>462</v>
       </c>
     </row>
     <row r="141">
@@ -43194,7 +43194,7 @@
         <v>139</v>
       </c>
       <c r="B141" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
       <c r="C141" t="b">
         <v>1</v>
@@ -43208,13 +43208,13 @@
         <v>140</v>
       </c>
       <c r="B142" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
       <c r="C142" t="b">
         <v>1</v>
       </c>
       <c r="D142" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
     </row>
     <row r="143">
@@ -43222,13 +43222,13 @@
         <v>141</v>
       </c>
       <c r="B143" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
       <c r="C143" t="b">
         <v>1</v>
       </c>
       <c r="D143" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
     </row>
     <row r="144">
@@ -43242,7 +43242,7 @@
         <v>1</v>
       </c>
       <c r="D144" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
     </row>
     <row r="145">
@@ -43250,7 +43250,7 @@
         <v>143</v>
       </c>
       <c r="B145" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
       <c r="C145" t="b">
         <v>1</v>
@@ -43264,13 +43264,13 @@
         <v>144</v>
       </c>
       <c r="B146" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
       <c r="C146" t="b">
         <v>1</v>
       </c>
       <c r="D146" t="s">
-        <v>460</v>
+        <v>462</v>
       </c>
     </row>
     <row r="147">
@@ -43278,7 +43278,7 @@
         <v>145</v>
       </c>
       <c r="B147" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
       <c r="C147" t="b">
         <v>1</v>
@@ -43292,13 +43292,13 @@
         <v>146</v>
       </c>
       <c r="B148" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
       <c r="C148" t="b">
         <v>1</v>
       </c>
       <c r="D148" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
     </row>
     <row r="149">
@@ -43306,13 +43306,13 @@
         <v>147</v>
       </c>
       <c r="B149" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
       <c r="C149" t="b">
         <v>1</v>
       </c>
       <c r="D149" t="s">
-        <v>460</v>
+        <v>462</v>
       </c>
     </row>
     <row r="150">
@@ -43320,7 +43320,7 @@
         <v>148</v>
       </c>
       <c r="B150" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
       <c r="C150" t="b">
         <v>1</v>
@@ -43334,13 +43334,13 @@
         <v>149</v>
       </c>
       <c r="B151" t="s">
-        <v>459</v>
+        <v>461</v>
       </c>
       <c r="C151" t="b">
         <v>1</v>
       </c>
       <c r="D151" t="s">
-        <v>460</v>
+        <v>462</v>
       </c>
     </row>
     <row r="152">
@@ -43354,7 +43354,7 @@
         <v>1</v>
       </c>
       <c r="D152" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
     </row>
     <row r="153">
@@ -43362,13 +43362,13 @@
         <v>151</v>
       </c>
       <c r="B153" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
       <c r="C153" t="b">
         <v>1</v>
       </c>
       <c r="D153" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
     </row>
     <row r="154">
@@ -43376,7 +43376,7 @@
         <v>152</v>
       </c>
       <c r="B154" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
       <c r="C154" t="b">
         <v>1</v>
@@ -43390,13 +43390,13 @@
         <v>153</v>
       </c>
       <c r="B155" t="s">
-        <v>459</v>
+        <v>461</v>
       </c>
       <c r="C155" t="b">
         <v>1</v>
       </c>
       <c r="D155" t="s">
-        <v>460</v>
+        <v>462</v>
       </c>
     </row>
     <row r="156">
@@ -43438,7 +43438,7 @@
         <v>1</v>
       </c>
       <c r="D158" t="s">
-        <v>460</v>
+        <v>462</v>
       </c>
     </row>
     <row r="159">
@@ -43446,13 +43446,13 @@
         <v>157</v>
       </c>
       <c r="B159" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
       <c r="C159" t="b">
         <v>1</v>
       </c>
       <c r="D159" t="s">
-        <v>460</v>
+        <v>462</v>
       </c>
     </row>
     <row r="160">
@@ -43460,13 +43460,13 @@
         <v>158</v>
       </c>
       <c r="B160" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
       <c r="C160" t="b">
         <v>1</v>
       </c>
       <c r="D160" t="s">
-        <v>460</v>
+        <v>462</v>
       </c>
     </row>
     <row r="161">
@@ -43488,13 +43488,13 @@
         <v>160</v>
       </c>
       <c r="B162" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
       <c r="C162" t="b">
         <v>1</v>
       </c>
       <c r="D162" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
     </row>
     <row r="163">
@@ -43502,13 +43502,13 @@
         <v>161</v>
       </c>
       <c r="B163" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
       <c r="C163" t="b">
         <v>1</v>
       </c>
       <c r="D163" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
     </row>
     <row r="164">
@@ -43550,7 +43550,7 @@
         <v>1</v>
       </c>
       <c r="D166" t="s">
-        <v>460</v>
+        <v>462</v>
       </c>
     </row>
     <row r="167">
@@ -43558,13 +43558,13 @@
         <v>165</v>
       </c>
       <c r="B167" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
       <c r="C167" t="b">
         <v>1</v>
       </c>
       <c r="D167" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
     </row>
     <row r="168">
@@ -43578,7 +43578,7 @@
         <v>1</v>
       </c>
       <c r="D168" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
     </row>
     <row r="169">
@@ -43586,13 +43586,13 @@
         <v>167</v>
       </c>
       <c r="B169" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
       <c r="C169" t="b">
         <v>1</v>
       </c>
       <c r="D169" t="s">
-        <v>460</v>
+        <v>462</v>
       </c>
     </row>
     <row r="170">
@@ -43606,7 +43606,7 @@
         <v>1</v>
       </c>
       <c r="D170" t="s">
-        <v>460</v>
+        <v>462</v>
       </c>
     </row>
     <row r="171">
@@ -43614,7 +43614,7 @@
         <v>169</v>
       </c>
       <c r="B171" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
       <c r="C171" t="b">
         <v>1</v>
@@ -43656,13 +43656,13 @@
         <v>172</v>
       </c>
       <c r="B174" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
       <c r="C174" t="b">
         <v>1</v>
       </c>
       <c r="D174" t="s">
-        <v>460</v>
+        <v>462</v>
       </c>
     </row>
     <row r="175">
@@ -43712,7 +43712,7 @@
         <v>176</v>
       </c>
       <c r="B178" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
       <c r="C178" t="b">
         <v>1</v>
@@ -43726,7 +43726,7 @@
         <v>177</v>
       </c>
       <c r="B179" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="C179" t="b">
         <v>1</v>
@@ -43746,7 +43746,7 @@
         <v>1</v>
       </c>
       <c r="D180" t="s">
-        <v>460</v>
+        <v>462</v>
       </c>
     </row>
     <row r="181">
@@ -43754,7 +43754,7 @@
         <v>179</v>
       </c>
       <c r="B181" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="C181" t="b">
         <v>1</v>
@@ -43768,7 +43768,7 @@
         <v>180</v>
       </c>
       <c r="B182" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="C182" t="b">
         <v>1</v>
@@ -43782,13 +43782,13 @@
         <v>181</v>
       </c>
       <c r="B183" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="C183" t="b">
         <v>1</v>
       </c>
       <c r="D183" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
     </row>
     <row r="184">
@@ -43796,7 +43796,7 @@
         <v>182</v>
       </c>
       <c r="B184" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="C184" t="b">
         <v>1</v>
@@ -43816,7 +43816,7 @@
         <v>1</v>
       </c>
       <c r="D185" t="s">
-        <v>460</v>
+        <v>462</v>
       </c>
     </row>
     <row r="186">
@@ -43824,13 +43824,13 @@
         <v>184</v>
       </c>
       <c r="B186" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="C186" t="b">
         <v>1</v>
       </c>
       <c r="D186" t="s">
-        <v>460</v>
+        <v>462</v>
       </c>
     </row>
     <row r="187">
@@ -43838,7 +43838,7 @@
         <v>185</v>
       </c>
       <c r="B187" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="C187" t="b">
         <v>1</v>
@@ -43894,13 +43894,13 @@
         <v>189</v>
       </c>
       <c r="B191" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="C191" t="b">
         <v>1</v>
       </c>
       <c r="D191" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
     </row>
     <row r="192">
@@ -43908,7 +43908,7 @@
         <v>190</v>
       </c>
       <c r="B192" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="C192" t="b">
         <v>1</v>
@@ -43928,7 +43928,7 @@
         <v>1</v>
       </c>
       <c r="D193" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
     </row>
     <row r="194">
@@ -43936,7 +43936,7 @@
         <v>192</v>
       </c>
       <c r="B194" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="C194" t="b">
         <v>1</v>
@@ -43950,13 +43950,13 @@
         <v>193</v>
       </c>
       <c r="B195" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="C195" t="b">
         <v>1</v>
       </c>
       <c r="D195" t="s">
-        <v>460</v>
+        <v>462</v>
       </c>
     </row>
     <row r="196">
@@ -43992,7 +43992,7 @@
         <v>196</v>
       </c>
       <c r="B198" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="C198" t="b">
         <v>1</v>
@@ -44020,13 +44020,13 @@
         <v>198</v>
       </c>
       <c r="B200" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="C200" t="b">
         <v>1</v>
       </c>
       <c r="D200" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
     </row>
     <row r="201">
@@ -44040,7 +44040,7 @@
         <v>1</v>
       </c>
       <c r="D201" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
     </row>
     <row r="202">
@@ -44048,13 +44048,13 @@
         <v>200</v>
       </c>
       <c r="B202" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="C202" t="b">
         <v>1</v>
       </c>
       <c r="D202" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
     </row>
     <row r="203">
@@ -44062,7 +44062,7 @@
         <v>201</v>
       </c>
       <c r="B203" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="C203" t="b">
         <v>1</v>
@@ -44076,7 +44076,7 @@
         <v>202</v>
       </c>
       <c r="B204" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="C204" t="b">
         <v>1</v>
@@ -44090,13 +44090,13 @@
         <v>203</v>
       </c>
       <c r="B205" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="C205" t="b">
         <v>1</v>
       </c>
       <c r="D205" t="s">
-        <v>460</v>
+        <v>462</v>
       </c>
     </row>
     <row r="206">
@@ -44104,13 +44104,13 @@
         <v>204</v>
       </c>
       <c r="B206" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="C206" t="b">
         <v>1</v>
       </c>
       <c r="D206" t="s">
-        <v>460</v>
+        <v>462</v>
       </c>
     </row>
     <row r="207">
@@ -44118,13 +44118,13 @@
         <v>205</v>
       </c>
       <c r="B207" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="C207" t="b">
         <v>1</v>
       </c>
       <c r="D207" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
     </row>
     <row r="208">
@@ -44132,13 +44132,13 @@
         <v>206</v>
       </c>
       <c r="B208" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="C208" t="b">
         <v>1</v>
       </c>
       <c r="D208" t="s">
-        <v>460</v>
+        <v>462</v>
       </c>
     </row>
     <row r="209">
@@ -44146,13 +44146,13 @@
         <v>207</v>
       </c>
       <c r="B209" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="C209" t="b">
         <v>1</v>
       </c>
       <c r="D209" t="s">
-        <v>460</v>
+        <v>462</v>
       </c>
     </row>
     <row r="210">
@@ -44160,13 +44160,13 @@
         <v>208</v>
       </c>
       <c r="B210" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="C210" t="b">
         <v>1</v>
       </c>
       <c r="D210" t="s">
-        <v>460</v>
+        <v>462</v>
       </c>
     </row>
     <row r="211">
@@ -44174,7 +44174,7 @@
         <v>209</v>
       </c>
       <c r="B211" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="C211" t="b">
         <v>1</v>
@@ -44188,13 +44188,13 @@
         <v>210</v>
       </c>
       <c r="B212" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="C212" t="b">
         <v>1</v>
       </c>
       <c r="D212" t="s">
-        <v>460</v>
+        <v>462</v>
       </c>
     </row>
     <row r="213">
@@ -44216,13 +44216,13 @@
         <v>212</v>
       </c>
       <c r="B214" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="C214" t="b">
         <v>1</v>
       </c>
       <c r="D214" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
     </row>
     <row r="215">
@@ -44230,13 +44230,13 @@
         <v>213</v>
       </c>
       <c r="B215" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="C215" t="b">
         <v>1</v>
       </c>
       <c r="D215" t="s">
-        <v>460</v>
+        <v>462</v>
       </c>
     </row>
     <row r="216">
@@ -44258,13 +44258,13 @@
         <v>215</v>
       </c>
       <c r="B217" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="C217" t="b">
         <v>1</v>
       </c>
       <c r="D217" t="s">
-        <v>460</v>
+        <v>462</v>
       </c>
     </row>
     <row r="218">
@@ -44272,7 +44272,7 @@
         <v>216</v>
       </c>
       <c r="B218" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="C218" t="b">
         <v>1</v>
@@ -44286,7 +44286,7 @@
         <v>217</v>
       </c>
       <c r="B219" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="C219" t="b">
         <v>1</v>
@@ -44300,13 +44300,13 @@
         <v>218</v>
       </c>
       <c r="B220" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="C220" t="b">
         <v>1</v>
       </c>
       <c r="D220" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
     </row>
     <row r="221">
@@ -44320,7 +44320,7 @@
         <v>1</v>
       </c>
       <c r="D221" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
     </row>
     <row r="222">
@@ -44328,7 +44328,7 @@
         <v>220</v>
       </c>
       <c r="B222" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="C222" t="b">
         <v>1</v>
@@ -44342,7 +44342,7 @@
         <v>221</v>
       </c>
       <c r="B223" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="C223" t="b">
         <v>1</v>
@@ -44356,13 +44356,13 @@
         <v>222</v>
       </c>
       <c r="B224" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="C224" t="b">
         <v>1</v>
       </c>
       <c r="D224" t="s">
-        <v>460</v>
+        <v>462</v>
       </c>
     </row>
     <row r="225">
@@ -44376,7 +44376,7 @@
         <v>1</v>
       </c>
       <c r="D225" t="s">
-        <v>460</v>
+        <v>462</v>
       </c>
     </row>
     <row r="226">
@@ -44384,13 +44384,13 @@
         <v>224</v>
       </c>
       <c r="B226" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="C226" t="b">
         <v>1</v>
       </c>
       <c r="D226" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
     </row>
     <row r="227">
@@ -44404,7 +44404,7 @@
         <v>1</v>
       </c>
       <c r="D227" t="s">
-        <v>460</v>
+        <v>462</v>
       </c>
     </row>
     <row r="228">
@@ -44412,13 +44412,13 @@
         <v>226</v>
       </c>
       <c r="B228" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="C228" t="b">
         <v>1</v>
       </c>
       <c r="D228" t="s">
-        <v>460</v>
+        <v>462</v>
       </c>
     </row>
     <row r="229">
@@ -44426,13 +44426,13 @@
         <v>227</v>
       </c>
       <c r="B229" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="C229" t="b">
         <v>1</v>
       </c>
       <c r="D229" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
     </row>
     <row r="230">
@@ -44440,13 +44440,13 @@
         <v>228</v>
       </c>
       <c r="B230" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="C230" t="b">
         <v>1</v>
       </c>
       <c r="D230" t="s">
-        <v>460</v>
+        <v>462</v>
       </c>
     </row>
     <row r="231">
@@ -44460,7 +44460,7 @@
         <v>1</v>
       </c>
       <c r="D231" t="s">
-        <v>460</v>
+        <v>462</v>
       </c>
     </row>
     <row r="232">
@@ -44474,7 +44474,7 @@
         <v>1</v>
       </c>
       <c r="D232" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
     </row>
     <row r="233">
@@ -44510,13 +44510,13 @@
         <v>233</v>
       </c>
       <c r="B235" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="C235" t="b">
         <v>1</v>
       </c>
       <c r="D235" t="s">
-        <v>460</v>
+        <v>462</v>
       </c>
     </row>
     <row r="236">
@@ -44524,13 +44524,13 @@
         <v>234</v>
       </c>
       <c r="B236" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="C236" t="b">
         <v>1</v>
       </c>
       <c r="D236" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
     </row>
     <row r="237">
@@ -44544,7 +44544,7 @@
         <v>1</v>
       </c>
       <c r="D237" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
     </row>
     <row r="238">
@@ -44566,7 +44566,7 @@
         <v>237</v>
       </c>
       <c r="B239" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="C239" t="b">
         <v>1</v>
@@ -44580,7 +44580,7 @@
         <v>238</v>
       </c>
       <c r="B240" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="C240" t="b">
         <v>1</v>
@@ -44594,13 +44594,13 @@
         <v>239</v>
       </c>
       <c r="B241" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="C241" t="b">
         <v>1</v>
       </c>
       <c r="D241" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
     </row>
     <row r="242">
@@ -44628,7 +44628,7 @@
         <v>1</v>
       </c>
       <c r="D243" t="s">
-        <v>460</v>
+        <v>462</v>
       </c>
     </row>
     <row r="244">
@@ -44642,7 +44642,7 @@
         <v>1</v>
       </c>
       <c r="D244" t="s">
-        <v>460</v>
+        <v>462</v>
       </c>
     </row>
     <row r="245">
@@ -44656,7 +44656,7 @@
         <v>1</v>
       </c>
       <c r="D245" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
     </row>
     <row r="246">
@@ -44670,7 +44670,7 @@
         <v>1</v>
       </c>
       <c r="D246" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
     </row>
     <row r="247">
@@ -44698,7 +44698,7 @@
         <v>1</v>
       </c>
       <c r="D248" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
     </row>
     <row r="249">
@@ -44706,13 +44706,13 @@
         <v>247</v>
       </c>
       <c r="B249" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="C249" t="b">
         <v>1</v>
       </c>
       <c r="D249" t="s">
-        <v>460</v>
+        <v>462</v>
       </c>
     </row>
     <row r="250">
@@ -44720,13 +44720,13 @@
         <v>248</v>
       </c>
       <c r="B250" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="C250" t="b">
         <v>1</v>
       </c>
       <c r="D250" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
     </row>
     <row r="251">
@@ -44734,13 +44734,13 @@
         <v>249</v>
       </c>
       <c r="B251" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="C251" t="b">
         <v>1</v>
       </c>
       <c r="D251" t="s">
-        <v>460</v>
+        <v>462</v>
       </c>
     </row>
     <row r="252">
@@ -44748,7 +44748,7 @@
         <v>250</v>
       </c>
       <c r="B252" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="C252" t="b">
         <v>1</v>
@@ -44762,13 +44762,13 @@
         <v>251</v>
       </c>
       <c r="B253" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="C253" t="b">
         <v>1</v>
       </c>
       <c r="D253" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
     </row>
     <row r="254">
@@ -44776,7 +44776,7 @@
         <v>252</v>
       </c>
       <c r="B254" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="C254" t="b">
         <v>1</v>
@@ -44790,13 +44790,13 @@
         <v>253</v>
       </c>
       <c r="B255" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="C255" t="b">
         <v>1</v>
       </c>
       <c r="D255" t="s">
-        <v>460</v>
+        <v>462</v>
       </c>
     </row>
     <row r="256">
@@ -44804,13 +44804,13 @@
         <v>254</v>
       </c>
       <c r="B256" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="C256" t="b">
         <v>1</v>
       </c>
       <c r="D256" t="s">
-        <v>460</v>
+        <v>462</v>
       </c>
     </row>
     <row r="257">
@@ -44818,7 +44818,7 @@
         <v>255</v>
       </c>
       <c r="B257" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="C257" t="b">
         <v>1</v>
@@ -44846,13 +44846,13 @@
         <v>257</v>
       </c>
       <c r="B259" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="C259" t="b">
         <v>1</v>
       </c>
       <c r="D259" t="s">
-        <v>460</v>
+        <v>462</v>
       </c>
     </row>
     <row r="260">
@@ -44880,7 +44880,7 @@
         <v>1</v>
       </c>
       <c r="D261" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
     </row>
     <row r="262">
@@ -44916,7 +44916,7 @@
         <v>262</v>
       </c>
       <c r="B264" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="C264" t="b">
         <v>1</v>
@@ -44930,7 +44930,7 @@
         <v>263</v>
       </c>
       <c r="B265" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="C265" t="b">
         <v>1</v>
@@ -44958,13 +44958,13 @@
         <v>265</v>
       </c>
       <c r="B267" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="C267" t="b">
         <v>1</v>
       </c>
       <c r="D267" t="s">
-        <v>460</v>
+        <v>462</v>
       </c>
     </row>
     <row r="268">
@@ -44972,7 +44972,7 @@
         <v>266</v>
       </c>
       <c r="B268" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="C268" t="b">
         <v>1</v>
@@ -44986,7 +44986,7 @@
         <v>267</v>
       </c>
       <c r="B269" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="C269" t="b">
         <v>1</v>
@@ -45000,7 +45000,7 @@
         <v>268</v>
       </c>
       <c r="B270" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="C270" t="b">
         <v>1</v>
@@ -45014,13 +45014,13 @@
         <v>269</v>
       </c>
       <c r="B271" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="C271" t="b">
         <v>1</v>
       </c>
       <c r="D271" t="s">
-        <v>460</v>
+        <v>462</v>
       </c>
     </row>
     <row r="272">
@@ -45028,7 +45028,7 @@
         <v>270</v>
       </c>
       <c r="B272" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="C272" t="b">
         <v>1</v>
@@ -45042,7 +45042,7 @@
         <v>271</v>
       </c>
       <c r="B273" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="C273" t="b">
         <v>1</v>
@@ -45062,7 +45062,7 @@
         <v>1</v>
       </c>
       <c r="D274" t="s">
-        <v>460</v>
+        <v>462</v>
       </c>
     </row>
     <row r="275">
@@ -45070,7 +45070,7 @@
         <v>273</v>
       </c>
       <c r="B275" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="C275" t="b">
         <v>1</v>
@@ -45084,7 +45084,7 @@
         <v>274</v>
       </c>
       <c r="B276" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="C276" t="b">
         <v>1</v>
@@ -45098,13 +45098,13 @@
         <v>275</v>
       </c>
       <c r="B277" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="C277" t="b">
         <v>1</v>
       </c>
       <c r="D277" t="s">
-        <v>460</v>
+        <v>462</v>
       </c>
     </row>
     <row r="278">
@@ -45112,7 +45112,7 @@
         <v>276</v>
       </c>
       <c r="B278" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="C278" t="b">
         <v>1</v>
@@ -45126,13 +45126,13 @@
         <v>277</v>
       </c>
       <c r="B279" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="C279" t="b">
         <v>1</v>
       </c>
       <c r="D279" t="s">
-        <v>460</v>
+        <v>462</v>
       </c>
     </row>
     <row r="280">
@@ -45140,13 +45140,13 @@
         <v>278</v>
       </c>
       <c r="B280" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="C280" t="b">
         <v>1</v>
       </c>
       <c r="D280" t="s">
-        <v>460</v>
+        <v>462</v>
       </c>
     </row>
     <row r="281">
@@ -45160,7 +45160,7 @@
         <v>1</v>
       </c>
       <c r="D281" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
     </row>
     <row r="282">
@@ -45188,7 +45188,7 @@
         <v>1</v>
       </c>
       <c r="D283" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
     </row>
     <row r="284">
@@ -45196,13 +45196,13 @@
         <v>282</v>
       </c>
       <c r="B284" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="C284" t="b">
         <v>1</v>
       </c>
       <c r="D284" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
     </row>
     <row r="285">
@@ -45216,7 +45216,7 @@
         <v>1</v>
       </c>
       <c r="D285" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
     </row>
     <row r="286">
@@ -45244,7 +45244,7 @@
         <v>1</v>
       </c>
       <c r="D287" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
     </row>
     <row r="288">
@@ -45252,13 +45252,13 @@
         <v>286</v>
       </c>
       <c r="B288" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="C288" t="b">
         <v>1</v>
       </c>
       <c r="D288" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
     </row>
     <row r="289">
@@ -45266,7 +45266,7 @@
         <v>287</v>
       </c>
       <c r="B289" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="C289" t="b">
         <v>1</v>
@@ -45286,7 +45286,7 @@
         <v>1</v>
       </c>
       <c r="D290" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
     </row>
     <row r="291">
@@ -45294,7 +45294,7 @@
         <v>289</v>
       </c>
       <c r="B291" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="C291" t="b">
         <v>1</v>
@@ -45314,7 +45314,7 @@
         <v>1</v>
       </c>
       <c r="D292" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
     </row>
     <row r="293">
@@ -45322,13 +45322,13 @@
         <v>291</v>
       </c>
       <c r="B293" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="C293" t="b">
         <v>1</v>
       </c>
       <c r="D293" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
     </row>
     <row r="294">
@@ -45336,13 +45336,13 @@
         <v>292</v>
       </c>
       <c r="B294" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="C294" t="b">
         <v>1</v>
       </c>
       <c r="D294" t="s">
-        <v>460</v>
+        <v>462</v>
       </c>
     </row>
     <row r="295">
@@ -45364,7 +45364,7 @@
         <v>294</v>
       </c>
       <c r="B296" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="C296" t="b">
         <v>1</v>
@@ -45378,13 +45378,13 @@
         <v>295</v>
       </c>
       <c r="B297" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="C297" t="b">
         <v>1</v>
       </c>
       <c r="D297" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
     </row>
     <row r="298">
@@ -45392,7 +45392,7 @@
         <v>296</v>
       </c>
       <c r="B298" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="C298" t="b">
         <v>1</v>
@@ -45434,7 +45434,7 @@
         <v>299</v>
       </c>
       <c r="B301" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="C301" t="b">
         <v>1</v>
@@ -45448,13 +45448,13 @@
         <v>300</v>
       </c>
       <c r="B302" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="C302" t="b">
         <v>1</v>
       </c>
       <c r="D302" t="s">
-        <v>460</v>
+        <v>462</v>
       </c>
     </row>
     <row r="303">
@@ -45462,7 +45462,7 @@
         <v>301</v>
       </c>
       <c r="B303" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="C303" t="b">
         <v>1</v>
@@ -45476,7 +45476,7 @@
         <v>302</v>
       </c>
       <c r="B304" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="C304" t="b">
         <v>1</v>
@@ -45510,7 +45510,7 @@
         <v>1</v>
       </c>
       <c r="D306" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
     </row>
     <row r="307">
@@ -45518,13 +45518,13 @@
         <v>305</v>
       </c>
       <c r="B307" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="C307" t="b">
         <v>1</v>
       </c>
       <c r="D307" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
     </row>
     <row r="308">
@@ -45532,7 +45532,7 @@
         <v>306</v>
       </c>
       <c r="B308" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="C308" t="b">
         <v>1</v>
@@ -45546,13 +45546,13 @@
         <v>307</v>
       </c>
       <c r="B309" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="C309" t="b">
         <v>1</v>
       </c>
       <c r="D309" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
     </row>
     <row r="310">
@@ -45560,7 +45560,7 @@
         <v>308</v>
       </c>
       <c r="B310" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="C310" t="b">
         <v>1</v>
@@ -45574,13 +45574,13 @@
         <v>309</v>
       </c>
       <c r="B311" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="C311" t="b">
         <v>1</v>
       </c>
       <c r="D311" t="s">
-        <v>460</v>
+        <v>462</v>
       </c>
     </row>
     <row r="312">
@@ -45594,7 +45594,7 @@
         <v>1</v>
       </c>
       <c r="D312" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
     </row>
     <row r="313">
@@ -45602,13 +45602,13 @@
         <v>311</v>
       </c>
       <c r="B313" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="C313" t="b">
         <v>1</v>
       </c>
       <c r="D313" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
     </row>
     <row r="314">
@@ -45622,7 +45622,7 @@
         <v>1</v>
       </c>
       <c r="D314" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
     </row>
     <row r="315">
@@ -45644,13 +45644,13 @@
         <v>314</v>
       </c>
       <c r="B316" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="C316" t="b">
         <v>1</v>
       </c>
       <c r="D316" t="s">
-        <v>460</v>
+        <v>462</v>
       </c>
     </row>
     <row r="317">
@@ -45664,7 +45664,7 @@
         <v>1</v>
       </c>
       <c r="D317" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
     </row>
     <row r="318">
@@ -45672,13 +45672,13 @@
         <v>316</v>
       </c>
       <c r="B318" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="C318" t="b">
         <v>1</v>
       </c>
       <c r="D318" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
     </row>
     <row r="319">
@@ -45686,13 +45686,13 @@
         <v>317</v>
       </c>
       <c r="B319" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="C319" t="b">
         <v>1</v>
       </c>
       <c r="D319" t="s">
-        <v>460</v>
+        <v>462</v>
       </c>
     </row>
     <row r="320">
@@ -45700,13 +45700,13 @@
         <v>318</v>
       </c>
       <c r="B320" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="C320" t="b">
         <v>1</v>
       </c>
       <c r="D320" t="s">
-        <v>460</v>
+        <v>462</v>
       </c>
     </row>
     <row r="321">
@@ -45714,13 +45714,13 @@
         <v>319</v>
       </c>
       <c r="B321" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="C321" t="b">
         <v>1</v>
       </c>
       <c r="D321" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
     </row>
     <row r="322">
@@ -45734,7 +45734,7 @@
         <v>1</v>
       </c>
       <c r="D322" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
     </row>
     <row r="323">
@@ -45748,7 +45748,7 @@
         <v>1</v>
       </c>
       <c r="D323" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
     </row>
     <row r="324">
@@ -45756,7 +45756,7 @@
         <v>322</v>
       </c>
       <c r="B324" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="C324" t="b">
         <v>1</v>
@@ -45770,13 +45770,13 @@
         <v>323</v>
       </c>
       <c r="B325" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="C325" t="b">
         <v>1</v>
       </c>
       <c r="D325" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
     </row>
     <row r="326">
@@ -45790,7 +45790,7 @@
         <v>1</v>
       </c>
       <c r="D326" t="s">
-        <v>460</v>
+        <v>462</v>
       </c>
     </row>
     <row r="327">
@@ -45812,7 +45812,7 @@
         <v>326</v>
       </c>
       <c r="B328" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="C328" t="b">
         <v>1</v>
@@ -45826,13 +45826,13 @@
         <v>327</v>
       </c>
       <c r="B329" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="C329" t="b">
         <v>1</v>
       </c>
       <c r="D329" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
     </row>
     <row r="330">
@@ -45840,13 +45840,13 @@
         <v>328</v>
       </c>
       <c r="B330" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="C330" t="b">
         <v>1</v>
       </c>
       <c r="D330" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
     </row>
     <row r="331">
@@ -45854,13 +45854,13 @@
         <v>329</v>
       </c>
       <c r="B331" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="C331" t="b">
         <v>1</v>
       </c>
       <c r="D331" t="s">
-        <v>460</v>
+        <v>462</v>
       </c>
     </row>
     <row r="332">
@@ -45868,7 +45868,7 @@
         <v>330</v>
       </c>
       <c r="B332" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="C332" t="b">
         <v>1</v>
@@ -45882,13 +45882,13 @@
         <v>331</v>
       </c>
       <c r="B333" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="C333" t="b">
         <v>1</v>
       </c>
       <c r="D333" t="s">
-        <v>460</v>
+        <v>462</v>
       </c>
     </row>
     <row r="334">
@@ -45896,13 +45896,13 @@
         <v>332</v>
       </c>
       <c r="B334" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="C334" t="b">
         <v>1</v>
       </c>
       <c r="D334" t="s">
-        <v>460</v>
+        <v>462</v>
       </c>
     </row>
     <row r="335">
@@ -45910,13 +45910,13 @@
         <v>333</v>
       </c>
       <c r="B335" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="C335" t="b">
         <v>1</v>
       </c>
       <c r="D335" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
     </row>
     <row r="336">
@@ -45924,7 +45924,7 @@
         <v>334</v>
       </c>
       <c r="B336" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="C336" t="b">
         <v>1</v>
@@ -45938,7 +45938,7 @@
         <v>335</v>
       </c>
       <c r="B337" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="C337" t="b">
         <v>1</v>
@@ -45952,13 +45952,13 @@
         <v>336</v>
       </c>
       <c r="B338" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="C338" t="b">
         <v>1</v>
       </c>
       <c r="D338" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
     </row>
     <row r="339">
@@ -45980,7 +45980,7 @@
         <v>338</v>
       </c>
       <c r="B340" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="C340" t="b">
         <v>1</v>
@@ -46000,7 +46000,7 @@
         <v>1</v>
       </c>
       <c r="D341" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
     </row>
     <row r="342">
@@ -46008,13 +46008,13 @@
         <v>340</v>
       </c>
       <c r="B342" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="C342" t="b">
         <v>1</v>
       </c>
       <c r="D342" t="s">
-        <v>460</v>
+        <v>462</v>
       </c>
     </row>
     <row r="343">
@@ -46036,7 +46036,7 @@
         <v>342</v>
       </c>
       <c r="B344" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="C344" t="b">
         <v>1</v>
@@ -46064,13 +46064,13 @@
         <v>344</v>
       </c>
       <c r="B346" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="C346" t="b">
         <v>1</v>
       </c>
       <c r="D346" t="s">
-        <v>460</v>
+        <v>462</v>
       </c>
     </row>
     <row r="347">
@@ -46078,13 +46078,13 @@
         <v>345</v>
       </c>
       <c r="B347" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="C347" t="b">
         <v>1</v>
       </c>
       <c r="D347" t="s">
-        <v>460</v>
+        <v>462</v>
       </c>
     </row>
     <row r="348">
@@ -46092,13 +46092,13 @@
         <v>346</v>
       </c>
       <c r="B348" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="C348" t="b">
         <v>1</v>
       </c>
       <c r="D348" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
     </row>
     <row r="349">
@@ -46168,7 +46168,7 @@
         <v>1</v>
       </c>
       <c r="D353" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
     </row>
     <row r="354">
@@ -46176,13 +46176,13 @@
         <v>352</v>
       </c>
       <c r="B354" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="C354" t="b">
         <v>1</v>
       </c>
       <c r="D354" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
     </row>
     <row r="355">
@@ -46210,7 +46210,7 @@
         <v>1</v>
       </c>
       <c r="D356" t="s">
-        <v>460</v>
+        <v>462</v>
       </c>
     </row>
     <row r="357">
@@ -46218,13 +46218,13 @@
         <v>355</v>
       </c>
       <c r="B357" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="C357" t="b">
         <v>1</v>
       </c>
       <c r="D357" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
     </row>
     <row r="358">
@@ -46232,7 +46232,7 @@
         <v>356</v>
       </c>
       <c r="B358" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="C358" t="b">
         <v>1</v>
@@ -46260,7 +46260,7 @@
         <v>358</v>
       </c>
       <c r="B360" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="C360" t="b">
         <v>1</v>
@@ -46280,7 +46280,7 @@
         <v>1</v>
       </c>
       <c r="D361" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
     </row>
     <row r="362">
@@ -46288,7 +46288,7 @@
         <v>360</v>
       </c>
       <c r="B362" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="C362" t="b">
         <v>1</v>
@@ -46316,7 +46316,7 @@
         <v>362</v>
       </c>
       <c r="B364" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="C364" t="b">
         <v>1</v>
@@ -46330,13 +46330,13 @@
         <v>363</v>
       </c>
       <c r="B365" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="C365" t="b">
         <v>1</v>
       </c>
       <c r="D365" t="s">
-        <v>460</v>
+        <v>462</v>
       </c>
     </row>
     <row r="366">
@@ -46358,7 +46358,7 @@
         <v>365</v>
       </c>
       <c r="B367" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="C367" t="b">
         <v>1</v>
@@ -46372,13 +46372,13 @@
         <v>366</v>
       </c>
       <c r="B368" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="C368" t="b">
         <v>1</v>
       </c>
       <c r="D368" t="s">
-        <v>460</v>
+        <v>462</v>
       </c>
     </row>
     <row r="369">
@@ -46386,13 +46386,13 @@
         <v>367</v>
       </c>
       <c r="B369" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="C369" t="b">
         <v>1</v>
       </c>
       <c r="D369" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
     </row>
     <row r="370">
@@ -46400,13 +46400,13 @@
         <v>368</v>
       </c>
       <c r="B370" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="C370" t="b">
         <v>1</v>
       </c>
       <c r="D370" t="s">
-        <v>460</v>
+        <v>462</v>
       </c>
     </row>
     <row r="371">
@@ -46414,13 +46414,13 @@
         <v>369</v>
       </c>
       <c r="B371" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="C371" t="b">
         <v>1</v>
       </c>
       <c r="D371" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
     </row>
     <row r="372">
@@ -46434,7 +46434,7 @@
         <v>1</v>
       </c>
       <c r="D372" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
     </row>
     <row r="373">
@@ -46448,7 +46448,7 @@
         <v>1</v>
       </c>
       <c r="D373" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
     </row>
     <row r="374">
@@ -46470,7 +46470,7 @@
         <v>373</v>
       </c>
       <c r="B375" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="C375" t="b">
         <v>1</v>
@@ -46484,7 +46484,7 @@
         <v>374</v>
       </c>
       <c r="B376" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="C376" t="b">
         <v>1</v>
@@ -46512,7 +46512,7 @@
         <v>376</v>
       </c>
       <c r="B378" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="C378" t="b">
         <v>1</v>
@@ -46540,7 +46540,7 @@
         <v>378</v>
       </c>
       <c r="B380" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="C380" t="b">
         <v>1</v>
@@ -46554,13 +46554,13 @@
         <v>379</v>
       </c>
       <c r="B381" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="C381" t="b">
         <v>1</v>
       </c>
       <c r="D381" t="s">
-        <v>460</v>
+        <v>462</v>
       </c>
     </row>
     <row r="382">
@@ -46582,13 +46582,13 @@
         <v>381</v>
       </c>
       <c r="B383" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="C383" t="b">
         <v>1</v>
       </c>
       <c r="D383" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
     </row>
     <row r="384">
@@ -46602,7 +46602,7 @@
         <v>1</v>
       </c>
       <c r="D384" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
     </row>
     <row r="385">
@@ -46610,13 +46610,13 @@
         <v>383</v>
       </c>
       <c r="B385" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="C385" t="b">
         <v>1</v>
       </c>
       <c r="D385" t="s">
-        <v>460</v>
+        <v>462</v>
       </c>
     </row>
     <row r="386">
@@ -46624,7 +46624,7 @@
         <v>384</v>
       </c>
       <c r="B386" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="C386" t="b">
         <v>1</v>
@@ -46638,13 +46638,13 @@
         <v>385</v>
       </c>
       <c r="B387" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="C387" t="b">
         <v>1</v>
       </c>
       <c r="D387" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
     </row>
     <row r="388">
@@ -46652,7 +46652,7 @@
         <v>386</v>
       </c>
       <c r="B388" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="C388" t="b">
         <v>1</v>
@@ -46666,7 +46666,7 @@
         <v>387</v>
       </c>
       <c r="B389" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="C389" t="b">
         <v>1</v>
@@ -46686,7 +46686,7 @@
         <v>1</v>
       </c>
       <c r="D390" t="s">
-        <v>460</v>
+        <v>462</v>
       </c>
     </row>
     <row r="391">
@@ -46700,7 +46700,7 @@
         <v>1</v>
       </c>
       <c r="D391" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
     </row>
     <row r="392">
@@ -46708,13 +46708,13 @@
         <v>390</v>
       </c>
       <c r="B392" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="C392" t="b">
         <v>1</v>
       </c>
       <c r="D392" t="s">
-        <v>460</v>
+        <v>462</v>
       </c>
     </row>
     <row r="393">
@@ -46722,7 +46722,7 @@
         <v>391</v>
       </c>
       <c r="B393" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="C393" t="b">
         <v>1</v>
@@ -46736,7 +46736,7 @@
         <v>392</v>
       </c>
       <c r="B394" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="C394" t="b">
         <v>1</v>
@@ -46778,7 +46778,7 @@
         <v>395</v>
       </c>
       <c r="B397" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="C397" t="b">
         <v>1</v>
@@ -46792,7 +46792,7 @@
         <v>396</v>
       </c>
       <c r="B398" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="C398" t="b">
         <v>1</v>
@@ -46820,13 +46820,13 @@
         <v>398</v>
       </c>
       <c r="B400" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="C400" t="b">
         <v>1</v>
       </c>
       <c r="D400" t="s">
-        <v>460</v>
+        <v>462</v>
       </c>
     </row>
     <row r="401">
@@ -46840,7 +46840,7 @@
         <v>1</v>
       </c>
       <c r="D401" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
     </row>
     <row r="402">
@@ -46848,13 +46848,13 @@
         <v>400</v>
       </c>
       <c r="B402" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="C402" t="b">
         <v>1</v>
       </c>
       <c r="D402" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
     </row>
     <row r="403">
@@ -46862,13 +46862,13 @@
         <v>401</v>
       </c>
       <c r="B403" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="C403" t="b">
         <v>1</v>
       </c>
       <c r="D403" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
     </row>
     <row r="404">
@@ -46876,13 +46876,13 @@
         <v>402</v>
       </c>
       <c r="B404" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="C404" t="b">
         <v>1</v>
       </c>
       <c r="D404" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
     </row>
     <row r="405">
@@ -46896,7 +46896,7 @@
         <v>1</v>
       </c>
       <c r="D405" t="s">
-        <v>460</v>
+        <v>462</v>
       </c>
     </row>
     <row r="406">
@@ -46904,13 +46904,13 @@
         <v>404</v>
       </c>
       <c r="B406" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="C406" t="b">
         <v>1</v>
       </c>
       <c r="D406" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
     </row>
     <row r="407">
@@ -46924,7 +46924,7 @@
         <v>1</v>
       </c>
       <c r="D407" t="s">
-        <v>460</v>
+        <v>462</v>
       </c>
     </row>
     <row r="408">
@@ -46938,7 +46938,7 @@
         <v>1</v>
       </c>
       <c r="D408" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
     </row>
     <row r="409">
@@ -46952,7 +46952,7 @@
         <v>1</v>
       </c>
       <c r="D409" t="s">
-        <v>460</v>
+        <v>462</v>
       </c>
     </row>
     <row r="410">
@@ -46960,7 +46960,7 @@
         <v>408</v>
       </c>
       <c r="B410" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="C410" t="b">
         <v>1</v>
